--- a/定投.xlsx
+++ b/定投.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\LP\tongji\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="236">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -442,17 +442,6 @@
     <t>李化松,黄维</t>
   </si>
   <si>
-    <t>004263</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆秋渊,盛骅</t>
-  </si>
-  <si>
-    <t>华安沪港深机会灵活配置混合</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>南方天元(LOF)</t>
   </si>
   <si>
@@ -858,25 +847,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>易方达g国防军工混合</t>
-    <rPh sb="0" eb="1">
-      <t>yi'fang'da</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yi'fang'da</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guo'fang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jun'gong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hun'he</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>何崇恺</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -958,6 +928,25 @@
   </si>
   <si>
     <t>李博</t>
+  </si>
+  <si>
+    <t>易方达国防军工混合</t>
+    <rPh sb="0" eb="1">
+      <t>yi'fang'da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'fang'da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo'fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jun'gong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hun'he</t>
+    </rPh>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1421,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1444,24 +1433,24 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1487,13 +1476,13 @@
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" s="7">
         <v>420</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>5</v>
@@ -1507,16 +1496,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C4" s="7">
         <v>420</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -1530,16 +1519,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C5" s="7">
         <v>420</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
@@ -1550,16 +1539,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C6" s="7">
         <v>420</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>8</v>
@@ -1570,16 +1559,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C7" s="7">
         <v>420</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>125</v>
@@ -1590,16 +1579,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C8" s="7">
         <v>420</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>5</v>
@@ -1610,16 +1599,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C9" s="7">
         <v>420</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>5</v>
@@ -1630,16 +1619,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" s="7">
         <v>420</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>8</v>
@@ -1830,16 +1819,16 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C21" s="13">
         <v>420</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>126</v>
@@ -2154,16 +2143,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C39" s="13">
         <v>420</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>8</v>
@@ -2202,22 +2191,22 @@
         <v>120</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C42" s="13">
         <v>420</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>125</v>
@@ -2245,16 +2234,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C44" s="13">
         <v>420</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>126</v>
@@ -2264,16 +2253,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="13">
         <v>420</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>126</v>
@@ -2282,16 +2271,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C46" s="13">
         <v>420</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>126</v>
@@ -2300,16 +2289,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C47" s="13">
         <v>420</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>126</v>
@@ -2317,33 +2306,33 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C48" s="13">
         <v>420</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C49" s="13">
         <v>420</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>126</v>
@@ -2351,16 +2340,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C50" s="13">
         <v>420</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>125</v>
@@ -2368,16 +2357,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C51" s="13">
         <v>420</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>126</v>
@@ -2399,16 +2388,16 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C54" s="7">
         <v>200</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>8</v>
@@ -2417,24 +2406,24 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C55" s="7">
         <v>200</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>82</v>
@@ -2452,10 +2441,10 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C57" s="7">
         <v>200</v>
@@ -2470,10 +2459,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C58" s="7">
         <v>200</v>
@@ -2488,25 +2477,25 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C59" s="7">
         <v>200</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>102</v>
@@ -2524,16 +2513,16 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C61" s="7">
         <v>200</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>5</v>
@@ -2560,16 +2549,16 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C64" s="13">
         <v>200</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>8</v>
@@ -2578,16 +2567,16 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C65" s="13">
         <v>200</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>8</v>
@@ -2595,7 +2584,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>121</v>
@@ -2604,13 +2593,13 @@
         <v>200</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G66" s="5">
         <f>COUNT(C2:C12)+COUNT(C15:C51)</f>
@@ -2623,30 +2612,30 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C67" s="13">
         <v>200</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G67" s="5">
-        <f>COUNT(C54:C61)+COUNT(C64:C81)</f>
-        <v>26</v>
+        <f>COUNT(C54:C61)+COUNT(C64:C80)</f>
+        <v>25</v>
       </c>
       <c r="H67" s="5">
-        <f>SUM(C82+C62)</f>
-        <v>5200</v>
+        <f>SUM(C81+C62)</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2688,13 +2677,13 @@
         <v>91</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C70" s="15">
         <v>200</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>8</v>
@@ -2838,16 +2827,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C79" s="13">
         <v>200</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>8</v>
@@ -2855,10 +2844,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="C80" s="13">
         <v>200</v>
@@ -2867,35 +2856,18 @@
         <v>140</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="13">
-        <v>200</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="17">
-        <f>SUM(C64:C81)</f>
-        <v>3600</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="20"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="17">
+        <f>SUM(C64:C80)</f>
+        <v>3400</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="242">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -68,9 +69,6 @@
     <t>汇添富中证主要消费ETF联接</t>
   </si>
   <si>
-    <t>过蓓蓓,吴振翔</t>
-  </si>
-  <si>
     <t>002560</t>
   </si>
   <si>
@@ -122,9 +120,6 @@
     <t>华宝宝康消费品混合</t>
   </si>
   <si>
-    <t>胡戈游</t>
-  </si>
-  <si>
     <t>007300</t>
   </si>
   <si>
@@ -386,9 +381,6 @@
   <si>
     <t>005001</t>
     <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>何帅</t>
   </si>
   <si>
     <t>景顺长城绩优成长混合</t>
@@ -445,9 +437,6 @@
     <t>南方天元(LOF)</t>
   </si>
   <si>
-    <t>蒋秋洁</t>
-  </si>
-  <si>
     <t>160133</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -517,9 +506,6 @@
     <t>南方教育股票</t>
   </si>
   <si>
-    <t>萧嘉倩</t>
-  </si>
-  <si>
     <t>006265</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -569,9 +555,6 @@
   <si>
     <t>景顺长城创业板综指增强</t>
     <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>黎海威</t>
   </si>
   <si>
     <t>004616</t>
@@ -658,9 +641,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>张仲维</t>
-  </si>
-  <si>
     <t>工银医药健康股票A</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -710,10 +690,6 @@
   </si>
   <si>
     <t>上投摩根中国生物医药混合(QDII)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>方钰涵</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -792,33 +768,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>001410</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>信达澳银新能源产业股票</t>
-    <rPh sb="0" eb="1">
-      <t>xin'da'ao'y</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xin'neng'yuan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chan'ye</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gu'p</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯明远</t>
-    <rPh sb="0" eb="1">
-      <t>feng'ming'y</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>008271</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -840,14 +789,6 @@
     <rPh sb="0" eb="1">
       <t>liu'xu</t>
     </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>001475</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>何崇恺</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -930,22 +871,80 @@
     <t>李博</t>
   </si>
   <si>
-    <t>易方达国防军工混合</t>
-    <rPh sb="0" eb="1">
-      <t>yi'fang'da</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yi'fang'da</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guo'fang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jun'gong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hun'he</t>
-    </rPh>
+    <t>中信建投轮换混合A</t>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>009162</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>003822</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>何帅</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎海威</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋秋洁</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>张仲维</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧嘉倩</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>栾江伟</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>002168</t>
+  </si>
+  <si>
+    <t>嘉实智能汽车股票</t>
+  </si>
+  <si>
+    <t>002621</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000248</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>002168</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>方钰涵</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>过蓓蓓,吴振翔</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚志鹏</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡戈游</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1134,7 +1133,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,7 +1411,7 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1433,24 +1431,24 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1476,13 +1474,13 @@
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C3" s="7">
         <v>420</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>5</v>
@@ -1496,16 +1494,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C4" s="7">
         <v>420</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -1519,16 +1517,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C5" s="7">
         <v>420</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
@@ -1539,16 +1537,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C6" s="7">
         <v>420</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>8</v>
@@ -1559,19 +1557,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C7" s="7">
         <v>420</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
@@ -1579,16 +1577,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C8" s="7">
         <v>420</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>5</v>
@@ -1599,16 +1597,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C9" s="7">
         <v>420</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>5</v>
@@ -1619,16 +1617,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C10" s="7">
         <v>420</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>8</v>
@@ -1639,7 +1637,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -1648,7 +1646,7 @@
         <v>420</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>2</v>
@@ -1659,33 +1657,40 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="C12" s="7">
         <v>420</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10">
-        <f>SUM(C2:C12)</f>
-        <v>4620</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7">
+        <v>420</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1698,10 @@
     <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="10">
+        <f>SUM(C2:C13)</f>
+        <v>5040</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="20"/>
       <c r="G14" s="5" t="s">
@@ -1701,40 +1709,30 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="13">
-        <v>420</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="20"/>
       <c r="G15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="13">
         <v>420</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>9</v>
@@ -1742,19 +1740,19 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="13">
         <v>420</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>11</v>
@@ -1762,16 +1760,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="15">
+        <v>20</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="13">
         <v>420</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>8</v>
@@ -1782,16 +1780,16 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="13">
+        <v>23</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15">
         <v>420</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>8</v>
@@ -1802,67 +1800,67 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13">
         <v>420</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="12" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="C21" s="13">
         <v>420</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="C22" s="13">
         <v>420</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" s="13">
         <v>420</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>8</v>
@@ -1870,16 +1868,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="13">
         <v>420</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>8</v>
@@ -1887,16 +1885,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13">
         <v>420</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>8</v>
@@ -1904,19 +1902,19 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
       <c r="A26" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C26" s="13">
         <v>420</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2"/>
@@ -1925,20 +1923,20 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="12">
-        <v>100020</v>
+      <c r="A27" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C27" s="13">
         <v>420</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="1"/>
@@ -1946,69 +1944,69 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="12">
+        <v>100020</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13">
+        <v>420</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="13">
+        <v>420</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="13">
-        <v>420</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="12">
-        <v>160222</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="13">
-        <v>420</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="12" t="s">
-        <v>57</v>
+      <c r="A30" s="12">
+        <v>160222</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="13">
         <v>420</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C31" s="13">
         <v>420</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>8</v>
@@ -2017,16 +2015,16 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C32" s="13">
         <v>420</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>8</v>
@@ -2035,16 +2033,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C33" s="13">
         <v>420</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>8</v>
@@ -2052,17 +2050,17 @@
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="12">
-        <v>110011</v>
+      <c r="A34" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="13">
         <v>420</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>8</v>
@@ -2071,88 +2069,88 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="12">
+        <v>110011</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="13">
+        <v>420</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="12">
         <v>110003</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="13">
-        <v>420</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="14" t="s">
+      <c r="B36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="13">
+        <v>420</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>2</v>
-      </c>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="13">
-        <v>420</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C37" s="13">
         <v>420</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C38" s="13">
         <v>420</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="12" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C39" s="13">
         <v>420</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>8</v>
@@ -2161,512 +2159,510 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="12" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C40" s="13">
         <v>420</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C41" s="13">
         <v>420</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="12" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="C42" s="13">
         <v>420</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1">
       <c r="A43" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="13">
+        <v>420</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="13">
-        <v>420</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="12" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="C44" s="13">
         <v>420</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="13">
         <v>420</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C46" s="13">
         <v>420</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="3"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C47" s="13">
         <v>420</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C48" s="13">
         <v>420</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="12" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C49" s="13">
         <v>420</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C50" s="13">
         <v>420</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="13">
-        <v>420</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17">
+        <f>SUM(C16:C50)</f>
+        <v>14700</v>
+      </c>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="17">
-        <f>SUM(C15:C51)</f>
-        <v>15540</v>
-      </c>
       <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="D53" s="18"/>
+      <c r="A53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="7">
+        <v>200</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C54" s="7">
         <v>200</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="24"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="6" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7">
         <v>200</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>170</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="C56" s="7">
         <v>200</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="6" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C57" s="7">
         <v>200</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="6" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C58" s="7">
         <v>200</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="6" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="C59" s="7">
         <v>200</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H59" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C60" s="7">
         <v>200</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E60" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="9"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="10">
+        <f>SUM(C53:C60)</f>
+        <v>1600</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="23"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="H62" s="3"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="13">
+        <v>200</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="7">
-        <v>200</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="9"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="10">
-        <f>SUM(C54:C61)</f>
-        <v>1600</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="23"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="20"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="H63" s="3"/>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="12" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="C64" s="13">
         <v>200</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="12" t="s">
-        <v>215</v>
+      <c r="A65" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C65" s="13">
         <v>200</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>8</v>
+        <v>153</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="5">
+        <f>COUNT(C2:C13)+COUNT(C16:C50)</f>
+        <v>47</v>
+      </c>
+      <c r="H65" s="5">
+        <f>SUM(C51+C14)</f>
+        <v>19740</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C66" s="13">
         <v>200</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G66" s="5">
-        <f>COUNT(C2:C12)+COUNT(C15:C51)</f>
-        <v>48</v>
+        <f>COUNT(C53:C60)+COUNT(C63:C80)</f>
+        <v>26</v>
       </c>
       <c r="H66" s="5">
-        <f>SUM(C52+C13)</f>
-        <v>20160</v>
+        <f>SUM(C81+C61)</f>
+        <v>5200</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>157</v>
+      <c r="A67" s="12">
+        <v>161128</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C67" s="13">
         <v>200</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G67" s="5">
-        <f>COUNT(C54:C61)+COUNT(C64:C80)</f>
-        <v>25</v>
-      </c>
-      <c r="H67" s="5">
-        <f>SUM(C81+C62)</f>
-        <v>5000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="12">
-        <v>161128</v>
-      </c>
-      <c r="B68" s="16" t="s">
+      <c r="A68" s="12" t="s">
         <v>86</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C68" s="13">
         <v>200</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="13">
+        <v>129</v>
+      </c>
+      <c r="C69" s="15">
         <v>200</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>8</v>
@@ -2674,67 +2670,67 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="C70" s="15">
         <v>200</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="15">
+        <v>95</v>
+      </c>
+      <c r="C71" s="13">
         <v>200</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="13">
         <v>200</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C73" s="13">
         <v>200</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>5</v>
@@ -2742,33 +2738,33 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" s="13">
         <v>200</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C75" s="13">
         <v>200</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>8</v>
@@ -2776,33 +2772,33 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="12" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="C76" s="13">
         <v>200</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C77" s="13">
         <v>200</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>8</v>
@@ -2810,16 +2806,16 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C78" s="13">
         <v>200</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>5</v>
@@ -2827,16 +2823,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C79" s="13">
         <v>200</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>8</v>
@@ -2844,27 +2840,27 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C80" s="13">
         <v>200</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
       <c r="C81" s="17">
-        <f>SUM(C64:C80)</f>
-        <v>3400</v>
+        <f>SUM(C63:C80)</f>
+        <v>3600</v>
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="20"/>
@@ -2875,9 +2871,677 @@
   </sortState>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" location="manager"/>
+    <hyperlink ref="D40" r:id="rId1" location="manager"/>
+    <hyperlink ref="D76" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="6">
+        <v>399011</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25">
+      <c r="A13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25">
+      <c r="A15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25">
+      <c r="A16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25">
+      <c r="A17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25">
+      <c r="A18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25">
+      <c r="A19" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25">
+      <c r="A20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25">
+      <c r="A21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25">
+      <c r="A23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25">
+      <c r="A25" s="12">
+        <v>100020</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25">
+      <c r="A26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25">
+      <c r="A27" s="12">
+        <v>160222</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25">
+      <c r="A28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25">
+      <c r="A29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25">
+      <c r="A30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25">
+      <c r="A31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25">
+      <c r="A32" s="12">
+        <v>110011</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25">
+      <c r="A33" s="12">
+        <v>110003</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25">
+      <c r="A34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25">
+      <c r="A35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25">
+      <c r="A36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25">
+      <c r="A37" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25">
+      <c r="A38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25">
+      <c r="A39" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25">
+      <c r="A40" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25">
+      <c r="A41" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25">
+      <c r="A42" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25">
+      <c r="A43" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25">
+      <c r="A44" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25">
+      <c r="A46" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25">
+      <c r="A47" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18">
+      <c r="A48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18">
+      <c r="A50" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18">
+      <c r="A51" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18">
+      <c r="A52" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18">
+      <c r="A53" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18">
+      <c r="A54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18">
+      <c r="A55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25">
+      <c r="A56" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.25">
+      <c r="A57" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.25">
+      <c r="A58" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.25">
+      <c r="A59" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25">
+      <c r="A60" s="12">
+        <v>161128</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.25">
+      <c r="A61" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.25">
+      <c r="A62" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.25">
+      <c r="A63" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.25">
+      <c r="A64" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17.25">
+      <c r="A65" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.25">
+      <c r="A66" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17.25">
+      <c r="A67" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.25">
+      <c r="A68" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.25">
+      <c r="A69" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17.25">
+      <c r="A70" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17.25">
+      <c r="A71" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17.25">
+      <c r="A72" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17.25">
+      <c r="A73" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17.25">
+      <c r="A74" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="1:2" ht="17.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="1:2" ht="17.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="1:2" ht="17.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="1:2" ht="17.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="1:2" ht="17.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="1:2" ht="17.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="1:2" ht="17.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="1:2" ht="17.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="1:2" ht="17.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="1:2" ht="17.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="1:2" ht="17.25">
+      <c r="A86" s="12"/>
+    </row>
+    <row r="87" spans="1:2" ht="17.25">
+      <c r="A87" s="12"/>
+    </row>
+    <row r="88" spans="1:2" ht="17.25">
+      <c r="A88" s="12"/>
+    </row>
+    <row r="89" spans="1:2" ht="17.25">
+      <c r="A89" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/定投.xlsx
+++ b/定投.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\LP\tongji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lipeng/Desktop/demos/jijinfenxi/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20780" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="243">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -816,27 +816,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>003634</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实农产业股票</t>
-    <rPh sb="0" eb="1">
-      <t>jia'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nong'chan'y</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gu'p</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚爽</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>161725</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -945,14 +924,28 @@
   </si>
   <si>
     <t>胡戈游</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>090018</t>
+  </si>
+  <si>
+    <t>大成新锐产业混合</t>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="10"/>
@@ -1408,47 +1401,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="47" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="3"/>
+    <col min="3" max="3" width="9.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="3"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.625" style="3"/>
+    <col min="10" max="10" width="19.59765625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1469,7 +1462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>399011</v>
       </c>
@@ -1492,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>182</v>
       </c>
@@ -1515,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -1535,7 +1528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>187</v>
       </c>
@@ -1546,7 +1539,7 @@
         <v>420</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>8</v>
@@ -1555,7 +1548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>189</v>
       </c>
@@ -1574,8 +1567,11 @@
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>192</v>
       </c>
@@ -1595,9 +1591,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>196</v>
@@ -1615,7 +1611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>198</v>
       </c>
@@ -1635,9 +1631,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -1646,7 +1642,7 @@
         <v>420</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>2</v>
@@ -1655,18 +1651,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="7">
+        <v>420</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="7">
-        <v>420</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>5</v>
@@ -1675,7 +1671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1686,7 +1682,7 @@
         <v>420</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>8</v>
@@ -1695,7 +1691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="10">
@@ -1708,7 +1704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1718,7 +1714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
@@ -1778,7 +1774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -1798,7 +1794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>31</v>
       </c>
@@ -1832,24 +1828,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C22" s="13">
         <v>420</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -1866,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
@@ -1883,7 +1879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>43</v>
       </c>
@@ -1922,7 +1918,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
@@ -1943,7 +1939,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>100020</v>
       </c>
@@ -1960,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
@@ -1977,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>160222</v>
       </c>
@@ -1995,7 +1991,7 @@
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
@@ -2013,7 +2009,7 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>58</v>
       </c>
@@ -2031,7 +2027,7 @@
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
@@ -2049,7 +2045,7 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>64</v>
       </c>
@@ -2067,7 +2063,7 @@
       </c>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>110011</v>
       </c>
@@ -2085,7 +2081,7 @@
       </c>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>110003</v>
       </c>
@@ -2103,7 +2099,7 @@
       </c>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>71</v>
       </c>
@@ -2121,7 +2117,7 @@
       </c>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>74</v>
       </c>
@@ -2139,7 +2135,7 @@
       </c>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>77</v>
       </c>
@@ -2157,7 +2153,7 @@
       </c>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>148</v>
       </c>
@@ -2175,7 +2171,7 @@
       </c>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>116</v>
       </c>
@@ -2193,7 +2189,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>117</v>
       </c>
@@ -2204,14 +2200,14 @@
         <v>420</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>173</v>
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1">
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>156</v>
       </c>
@@ -2222,7 +2218,7 @@
         <v>420</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>122</v>
@@ -2230,7 +2226,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="26"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>119</v>
       </c>
@@ -2248,7 +2244,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>128</v>
       </c>
@@ -2259,14 +2255,14 @@
         <v>420</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>123</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>175</v>
       </c>
@@ -2277,13 +2273,13 @@
         <v>420</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>142</v>
       </c>
@@ -2294,13 +2290,13 @@
         <v>420</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>201</v>
       </c>
@@ -2317,553 +2313,536 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C49" s="13">
         <v>420</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="13">
-        <v>420</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17">
+        <f>SUM(C16:C49)</f>
+        <v>14280</v>
+      </c>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="17">
-        <f>SUM(C16:C50)</f>
-        <v>14700</v>
-      </c>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="D52" s="18"/>
-    </row>
-    <row r="53" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="7">
+        <v>200</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C53" s="7">
         <v>200</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="24"/>
-    </row>
-    <row r="54" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7">
         <v>200</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="C55" s="7">
         <v>200</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="24"/>
-    </row>
-    <row r="56" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C56" s="7">
         <v>200</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H56" s="25"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C57" s="7">
         <v>200</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="H57" s="25"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="C58" s="7">
         <v>200</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" s="25"/>
-    </row>
-    <row r="59" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C59" s="7">
         <v>200</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="10">
+        <f>SUM(C52:C59)</f>
+        <v>1600</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="23"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H61" s="3"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="13">
+        <v>200</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="7">
-        <v>200</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="9"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="10">
-        <f>SUM(C53:C60)</f>
-        <v>1600</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="23"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="20"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="H62" s="3"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C63" s="13">
         <v>200</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="12" t="s">
-        <v>204</v>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="C64" s="13">
         <v>200</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="5">
+        <f>COUNT(C2:C13)+COUNT(C16:C49)</f>
+        <v>46</v>
+      </c>
+      <c r="H64" s="5">
+        <f>SUM(C50+C14)</f>
+        <v>19320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C65" s="13">
         <v>200</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>153</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G65" s="5">
-        <f>COUNT(C2:C13)+COUNT(C16:C50)</f>
-        <v>47</v>
+        <f>COUNT(C52:C59)+COUNT(C62:C79)</f>
+        <v>26</v>
       </c>
       <c r="H65" s="5">
-        <f>SUM(C51+C14)</f>
-        <v>19740</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>152</v>
+        <f>SUM(C80+C60)</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
+        <v>161128</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C66" s="13">
         <v>200</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G66" s="5">
-        <f>COUNT(C53:C60)+COUNT(C63:C80)</f>
-        <v>26</v>
-      </c>
-      <c r="H66" s="5">
-        <f>SUM(C81+C61)</f>
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="12">
-        <v>161128</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>84</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C67" s="13">
         <v>200</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="13">
+        <v>129</v>
+      </c>
+      <c r="C68" s="15">
         <v>200</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C69" s="15">
         <v>200</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="E69" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="13">
+        <v>200</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="15">
-        <v>200</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C71" s="13">
         <v>200</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C72" s="13">
         <v>200</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C73" s="13">
         <v>200</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C74" s="13">
         <v>200</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="C75" s="13">
         <v>200</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="C76" s="13">
         <v>200</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C77" s="13">
         <v>200</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C78" s="13">
         <v>200</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C79" s="13">
         <v>200</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="13">
-        <v>200</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="17">
-        <f>SUM(C63:C80)</f>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="17">
+        <f>SUM(C62:C79)</f>
         <v>3600</v>
       </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="20"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2872,7 +2851,7 @@
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D40" r:id="rId1" location="manager"/>
-    <hyperlink ref="D76" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
+    <hyperlink ref="D75" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2881,34 +2860,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="63.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>399011</v>
       </c>
@@ -2916,7 +2896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>182</v>
       </c>
@@ -2924,7 +2904,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -2932,7 +2912,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>187</v>
       </c>
@@ -2940,7 +2920,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>189</v>
       </c>
@@ -2948,7 +2928,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>192</v>
       </c>
@@ -2956,7 +2936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>195</v>
       </c>
@@ -2964,7 +2944,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>198</v>
       </c>
@@ -2972,7 +2952,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -2980,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -2988,7 +2968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
@@ -2996,7 +2976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
@@ -3004,7 +2984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
@@ -3012,7 +2992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -3020,7 +3000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
@@ -3028,7 +3008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3036,15 +3016,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -3052,7 +3032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>37</v>
       </c>
@@ -3060,7 +3040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>40</v>
       </c>
@@ -3068,7 +3048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -3076,7 +3056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
@@ -3084,7 +3064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>100020</v>
       </c>
@@ -3092,7 +3072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>51</v>
       </c>
@@ -3100,7 +3080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>160222</v>
       </c>
@@ -3108,7 +3088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
@@ -3116,7 +3096,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>58</v>
       </c>
@@ -3124,7 +3104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25">
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -3132,7 +3112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25">
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>64</v>
       </c>
@@ -3140,7 +3120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25">
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
         <v>110011</v>
       </c>
@@ -3148,7 +3128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25">
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
         <v>110003</v>
       </c>
@@ -3156,7 +3136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.25">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>71</v>
       </c>
@@ -3164,7 +3144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>74</v>
       </c>
@@ -3172,7 +3152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25">
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>77</v>
       </c>
@@ -3180,7 +3160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.25">
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>148</v>
       </c>
@@ -3188,7 +3168,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.25">
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>116</v>
       </c>
@@ -3196,7 +3176,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25">
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
         <v>117</v>
       </c>
@@ -3204,7 +3184,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25">
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
         <v>156</v>
       </c>
@@ -3212,7 +3192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25">
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>119</v>
       </c>
@@ -3220,7 +3200,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.25">
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>128</v>
       </c>
@@ -3228,7 +3208,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.25">
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
         <v>175</v>
       </c>
@@ -3236,7 +3216,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.25">
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>142</v>
       </c>
@@ -3244,7 +3224,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25">
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>201</v>
       </c>
@@ -3252,293 +3232,237 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25">
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25">
-      <c r="A47" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18">
-      <c r="A55" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.25">
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17.25">
-      <c r="A57" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A57" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17.25">
-      <c r="A59" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A59" s="12">
+        <v>161128</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.25">
-      <c r="A60" s="12">
-        <v>161128</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A60" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A69" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A70" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A71" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A72" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17.25">
-      <c r="A69" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17.25">
-      <c r="A70" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17.25">
-      <c r="A71" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17.25">
-      <c r="A72" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="B72" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-    </row>
-    <row r="76" spans="1:2" ht="17.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-    </row>
-    <row r="77" spans="1:2" ht="17.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
-    </row>
-    <row r="78" spans="1:2" ht="17.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-    </row>
-    <row r="79" spans="1:2" ht="17.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
-    </row>
-    <row r="80" spans="1:2" ht="17.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
-    </row>
-    <row r="81" spans="1:2" ht="17.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
-    </row>
-    <row r="82" spans="1:2" ht="17.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" spans="1:2" ht="17.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="1:2" ht="17.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" spans="1:2" ht="17.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" spans="1:2" ht="17.25">
-      <c r="A86" s="12"/>
-    </row>
-    <row r="87" spans="1:2" ht="17.25">
-      <c r="A87" s="12"/>
-    </row>
-    <row r="88" spans="1:2" ht="17.25">
-      <c r="A88" s="12"/>
-    </row>
-    <row r="89" spans="1:2" ht="17.25">
-      <c r="A89" s="12"/>
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20780" windowHeight="16680"/>
+    <workbookView xWindow="2620" yWindow="460" windowWidth="20780" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="265">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -893,17 +893,115 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
+    <t>方钰涵</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>过蓓蓓,吴振翔</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚志鹏</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡戈游</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成新锐产业混合</t>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>167301</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险分级</t>
+  </si>
+  <si>
+    <t>南方益和混合</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>001552</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈瑶</t>
+  </si>
+  <si>
+    <t>嘉实新兴产业股票</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧消费主题股票A</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证证券保险A</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实智能汽车股票</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>001938</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>161726</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000751</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>002621</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000083</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000248</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>001552</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <t>002168</t>
-  </si>
-  <si>
-    <t>嘉实智能汽车股票</t>
-  </si>
-  <si>
-    <t>002621</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>000248</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴昊</t>
+  </si>
+  <si>
+    <t>006147</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>003822</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -911,33 +1009,23 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>方钰涵</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>过蓓蓓,吴振翔</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚志鹏</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡戈游</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>090018</t>
-  </si>
-  <si>
-    <t>大成新锐产业混合</t>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>002293</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>167301</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈融源可转债债券A</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证证券保险A</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1401,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C60" sqref="C53:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1575,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>183</v>
@@ -1510,7 +1598,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>185</v>
@@ -1539,7 +1627,7 @@
         <v>420</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>8</v>
@@ -1550,7 +1638,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>190</v>
@@ -1568,15 +1656,15 @@
         <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="C8" s="7">
         <v>420</v>
@@ -1593,10 +1681,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="C9" s="7">
         <v>420</v>
@@ -1613,7 +1701,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>199</v>
@@ -1633,16 +1721,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="C11" s="7">
         <v>420</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>2</v>
@@ -1653,16 +1741,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C12" s="7">
         <v>420</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>5</v>
@@ -1673,33 +1761,40 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="C13" s="7">
         <v>420</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10">
-        <f>SUM(C2:C13)</f>
-        <v>5040</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>420</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1707,7 +1802,10 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="10">
+        <f>SUM(C2:C14)</f>
+        <v>5460</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="20"/>
       <c r="G15" s="5" t="s">
@@ -1715,40 +1813,30 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13">
-        <v>420</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="20"/>
       <c r="G16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="13">
         <v>420</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>11</v>
@@ -1756,19 +1844,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="13">
         <v>420</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
@@ -1776,16 +1864,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="15">
+        <v>20</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="13">
         <v>420</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>8</v>
@@ -1796,16 +1884,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="13">
+        <v>23</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="15">
         <v>420</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>8</v>
@@ -1813,67 +1901,67 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13">
         <v>420</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="C22" s="13">
         <v>420</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="C23" s="13">
         <v>420</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24" s="13">
         <v>420</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>8</v>
@@ -1881,16 +1969,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="13">
         <v>420</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>8</v>
@@ -1898,16 +1986,16 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="13">
         <v>420</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>8</v>
@@ -1920,19 +2008,19 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="13">
         <v>420</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="1"/>
@@ -1940,45 +2028,45 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="13">
+        <v>420</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>100020</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="13">
-        <v>420</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="C29" s="13">
+        <v>420</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C29" s="13">
-        <v>420</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>160222</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="C30" s="13">
         <v>420</v>
@@ -1992,35 +2080,35 @@
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>55</v>
+      <c r="A31" s="12">
+        <v>160222</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="13">
         <v>420</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" s="13">
         <v>420</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>8</v>
@@ -2029,16 +2117,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="13">
         <v>420</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>8</v>
@@ -2047,16 +2135,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="13">
         <v>420</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>8</v>
@@ -2064,17 +2152,17 @@
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>110011</v>
+      <c r="A35" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="13">
         <v>420</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>8</v>
@@ -2083,88 +2171,88 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
+        <v>110011</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="13">
+        <v>420</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
         <v>110003</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="13">
-        <v>420</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="C37" s="13">
+        <v>420</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>2</v>
-      </c>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="13">
-        <v>420</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="13">
         <v>420</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39" s="13">
         <v>420</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C40" s="13">
         <v>420</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>8</v>
@@ -2173,71 +2261,71 @@
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C41" s="13">
         <v>420</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" s="13">
         <v>420</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C43" s="13">
         <v>420</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C44" s="13">
         <v>420</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>122</v>
@@ -2246,34 +2334,34 @@
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C45" s="13">
         <v>420</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="C46" s="13">
         <v>420</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>123</v>
@@ -2281,16 +2369,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C47" s="13">
         <v>420</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>123</v>
@@ -2298,288 +2386,288 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C48" s="13">
         <v>420</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="13">
+        <v>420</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="13">
-        <v>420</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="C50" s="13">
+        <v>420</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E50" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17">
-        <f>SUM(C16:C49)</f>
-        <v>14280</v>
-      </c>
-      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
+      <c r="C51" s="17">
+        <f>SUM(C17:C50)</f>
+        <v>14280</v>
+      </c>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="7">
-        <v>200</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="D52" s="18"/>
       <c r="H52" s="24"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C53" s="7">
         <v>200</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C54" s="7">
         <v>200</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7">
         <v>200</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" s="7">
         <v>200</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" s="7">
         <v>200</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="C58" s="7">
         <v>200</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C59" s="7">
         <v>200</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="7">
+        <v>200</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="10">
-        <f>SUM(C52:C59)</f>
-        <v>1600</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="23"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="19"/>
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="10">
+        <f>SUM(C53:C60)</f>
+        <v>1600</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="23"/>
       <c r="H61" s="3"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="13">
-        <v>200</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C63" s="13">
         <v>200</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>150</v>
+      <c r="A64" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C64" s="13">
         <v>200</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>166</v>
       </c>
       <c r="G64" s="5">
-        <f>COUNT(C2:C13)+COUNT(C16:C49)</f>
-        <v>46</v>
+        <f>COUNT(C2:C14)+COUNT(C17:C50)</f>
+        <v>47</v>
       </c>
       <c r="H64" s="5">
-        <f>SUM(C50+C14)</f>
-        <v>19320</v>
+        <f>SUM(C51+C15)</f>
+        <v>19740</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C65" s="13">
         <v>200</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>153</v>
@@ -2588,94 +2676,94 @@
         <v>167</v>
       </c>
       <c r="G65" s="5">
-        <f>COUNT(C52:C59)+COUNT(C62:C79)</f>
-        <v>26</v>
+        <f>COUNT(C53:C60)+COUNT(C63:C81)</f>
+        <v>27</v>
       </c>
       <c r="H65" s="5">
-        <f>SUM(C80+C60)</f>
-        <v>5200</v>
+        <f>SUM(C82+C61)</f>
+        <v>5400</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="12">
-        <v>161128</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>84</v>
+      <c r="A66" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="C66" s="13">
         <v>200</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="C67" s="13">
         <v>200</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="15">
+      <c r="A68" s="12">
+        <v>161128</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="13">
         <v>200</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="15">
+        <v>87</v>
+      </c>
+      <c r="C69" s="13">
         <v>200</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="13">
+        <v>129</v>
+      </c>
+      <c r="C70" s="15">
         <v>200</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>8</v>
@@ -2683,101 +2771,101 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="13">
+        <v>91</v>
+      </c>
+      <c r="C71" s="15">
         <v>200</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C72" s="13">
         <v>200</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C73" s="13">
         <v>200</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C74" s="13">
         <v>200</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="C75" s="13">
         <v>200</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C76" s="13">
         <v>200</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>8</v>
@@ -2785,33 +2873,33 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="C77" s="13">
         <v>200</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C78" s="13">
         <v>200</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>8</v>
@@ -2819,30 +2907,64 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C79" s="13">
         <v>200</v>
       </c>
       <c r="D79" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="13">
+        <v>200</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="13">
+        <v>200</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E81" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="17">
-        <f>SUM(C62:C79)</f>
-        <v>3600</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="20"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="17">
+        <f>SUM(C63:C81)</f>
+        <v>3800</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2850,8 +2972,8 @@
   </sortState>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D40" r:id="rId1" location="manager"/>
-    <hyperlink ref="D75" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
+    <hyperlink ref="D41" r:id="rId1" location="manager"/>
+    <hyperlink ref="D77" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2860,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3394,7 +3516,7 @@
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>106</v>
@@ -3434,15 +3556,15 @@
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>219</v>
@@ -3450,19 +3572,46 @@
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A75" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="13" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A76" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A77" s="12" t="s">
         <v>240</v>
       </c>
+      <c r="B77" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A78" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lipeng/Desktop/demos/jijinfenxi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\LP\jijinfenxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="460" windowWidth="20780" windowHeight="16680"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="235">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -106,12 +106,6 @@
   </si>
   <si>
     <t>段涛,李巍</t>
-  </si>
-  <si>
-    <t>240001</t>
-  </si>
-  <si>
-    <t>华宝宝康消费品混合</t>
   </si>
   <si>
     <t>007300</t>
@@ -588,18 +582,10 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>中海医疗保健</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>刘俊</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>广发优企精选混合</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>程琨,傅友兴</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -608,19 +594,11 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>周应波</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>归凯</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>郭睿</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富消费行业混合</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -757,169 +735,199 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
+    <t>姚志鹏</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>167301</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险分级</t>
+  </si>
+  <si>
+    <t>嘉实新兴产业股票</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧消费主题股票A</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证证券保险A</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实智能汽车股票</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000751</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>002621</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000083</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000248</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>001552</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>002168</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴昊</t>
+  </si>
+  <si>
+    <t>吴邦栋,张慧</t>
+  </si>
+  <si>
+    <t>005409</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006228</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>008526</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006002</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞新兴产业混合</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华可转债债券</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞行业精选A</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银医药健康股票A</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信建投轮换混合A</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富全球科技互联混合(QDII)人民币</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000297</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>003822</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞新兴产业混合</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰大农业股票</t>
+  </si>
+  <si>
+    <t>001579</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海医疗保健</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优企精选混合</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富消费行业混合</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>上投摩根中国生物医药混合(QDII)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝宝康消费品混合</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>001938</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>001984</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>240001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>周应波</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <t>过蓓蓓,吴振翔</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>姚志鹏</t>
+    <t>陈瑶</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>方钰涵</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>胡戈游</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>167301</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险分级</t>
-  </si>
-  <si>
-    <t>陈瑶</t>
-  </si>
-  <si>
-    <t>嘉实新兴产业股票</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧消费主题股票A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中证主要消费ETF联接</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘中证证券保险A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实智能汽车股票</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>002624</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>001938</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>000751</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>002621</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>000083</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>000248</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>001552</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>002168</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴昊</t>
-  </si>
-  <si>
-    <t>吴邦栋,张慧</t>
-  </si>
-  <si>
-    <t>005409</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>006228</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>008526</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>006002</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞新兴产业混合</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华可转债债券</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞行业精选A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银医药健康股票A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信建投轮换混合A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>国富全球科技互联混合(QDII)人民币</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>000297</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>003822</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'fu'b</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <rPh sb="0" eb="1">
-      <t>tong'hua's</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞新兴产业混合</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <b/>
       <sz val="10"/>
@@ -1072,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1088,7 +1096,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1104,9 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1382,49 +1386,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="47" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="3"/>
+    <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="3"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.59765625" style="3"/>
+    <col min="10" max="10" width="19.625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>180</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -1443,18 +1447,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="C3" s="7">
         <v>420</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>5</v>
@@ -1466,18 +1470,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="C4" s="7">
         <v>420</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -1489,18 +1493,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" s="7">
         <v>420</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
@@ -1509,18 +1513,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C6" s="7">
         <v>420</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>5</v>
@@ -1529,21 +1533,21 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C7" s="7">
         <v>420</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>5</v>
@@ -1552,21 +1556,21 @@
         <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="C8" s="7">
         <v>420</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>8</v>
@@ -1575,18 +1579,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C9" s="7">
         <v>420</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>2</v>
@@ -1595,18 +1599,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C10" s="7">
         <v>420</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>5</v>
@@ -1615,18 +1619,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C11" s="7">
         <v>420</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>5</v>
@@ -1635,18 +1639,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="C12" s="7">
         <v>420</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>8</v>
@@ -1655,81 +1659,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="9">
-        <f>SUM(C2:C12)</f>
-        <v>4620</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="19"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="7">
+        <v>420</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9">
+        <f>SUM(C2:C13)</f>
+        <v>5040</v>
+      </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="18"/>
       <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="7">
+        <f>COUNT(C2:C13)</f>
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12">
-        <v>420</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="18"/>
       <c r="G15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12">
-        <v>420</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>2</v>
-      </c>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="18"/>
       <c r="G16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C17" s="12">
         <v>420</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>8</v>
@@ -1738,38 +1735,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="14">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12">
         <v>420</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="12">
         <v>420</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>8</v>
@@ -1778,1035 +1775,1094 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="14">
+        <v>420</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="12">
+        <v>420</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="12">
+        <v>420</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="E22" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="12">
+        <v>420</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="12">
-        <v>420</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="12">
-        <v>420</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="C24" s="12">
+        <v>420</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="12">
-        <v>420</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="12">
-        <v>420</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="12">
-        <v>420</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C25" s="12">
         <v>420</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <v>100020</v>
+    <row r="26" spans="1:11">
+      <c r="A26" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C26" s="12">
         <v>420</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1">
       <c r="A27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12">
+        <v>420</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="11">
+        <v>100020</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="12">
+        <v>420</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="12">
+        <v>420</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="E29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="11">
+        <v>160222</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="12">
-        <v>420</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="C30" s="12">
+        <v>420</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>160222</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="12">
-        <v>420</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="C31" s="12">
+        <v>420</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="12">
-        <v>420</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="12">
-        <v>420</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="12">
-        <v>420</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C32" s="12">
         <v>420</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
-        <v>110011</v>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C33" s="12">
         <v>420</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
-        <v>110003</v>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C34" s="12">
         <v>420</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="11">
+        <v>110011</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C35" s="12">
         <v>420</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>69</v>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="11">
+        <v>110003</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C36" s="12">
         <v>420</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C37" s="12">
         <v>420</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="12">
+        <v>420</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="12">
+        <v>420</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="12">
+        <v>420</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="12">
-        <v>420</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="14" t="s">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="12">
+        <v>420</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="12">
-        <v>420</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="C42" s="12">
+        <v>420</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="12">
+        <v>420</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="12">
-        <v>420</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="B44" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="12">
+        <v>420</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="12">
-        <v>420</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="14" t="s">
+      <c r="B45" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="12">
+        <v>420</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="12">
+        <v>420</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="12">
+        <v>420</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="12">
+        <v>420</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="12">
+        <v>420</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="12">
-        <v>420</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="12">
-        <v>420</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="12">
-        <v>420</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="12">
-        <v>420</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="12">
-        <v>420</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="16">
-        <f>SUM(C15:C46)</f>
-        <v>13440</v>
-      </c>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="26">
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="15">
+        <f>SUM(C17:C49)</f>
+        <v>13860</v>
+      </c>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="3">
+        <f>COUNT(C17:C49)</f>
+        <v>33</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="D52" s="16"/>
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="25">
         <v>200</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="26">
+      <c r="D53" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="25">
         <v>200</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="26">
-        <v>200</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="26">
-        <v>200</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="23"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="26">
-        <v>200</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="24"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="26">
-        <v>200</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="24"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H54" s="22"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="6" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="26">
+        <v>210</v>
+      </c>
+      <c r="C55" s="25">
         <v>200</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="6" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="26">
+        <v>211</v>
+      </c>
+      <c r="C56" s="25">
         <v>200</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="6" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="26">
+        <v>212</v>
+      </c>
+      <c r="C57" s="25">
         <v>200</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="9">
-        <f>SUM(C49:C57)</f>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="25">
+        <v>200</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="25">
+        <v>200</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="25">
+        <v>200</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="25">
+        <v>200</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="6"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="9">
+        <f>SUM(C53:C61)</f>
         <v>1800</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="22"/>
-      <c r="H58" s="3"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="12">
-        <v>200</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="J60" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="12">
-        <v>200</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="5">
-        <f>COUNT(C2:C12)+COUNT(C15:C46)</f>
-        <v>43</v>
-      </c>
-      <c r="H61" s="5">
-        <f>SUM(C47+C13)</f>
-        <v>18060</v>
-      </c>
-      <c r="I61" s="29">
-        <v>32</v>
-      </c>
-      <c r="J61" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="12">
-        <v>200</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>141</v>
-      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G62" s="5">
-        <f>COUNT(C49:C57)+COUNT(C60:C77)</f>
+        <f>COUNT(C2:C13)+COUNT(C17:C49)</f>
+        <v>45</v>
+      </c>
+      <c r="H62" s="5">
+        <f>SUM(C50+C14)</f>
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="6"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="3">
+        <f>COUNT(C53:C61)</f>
+        <v>9</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="5">
+        <f>COUNT(C53:C61)+COUNT(C65:C82)</f>
         <v>27</v>
       </c>
-      <c r="H62" s="5">
-        <f>SUM(C78+C58)</f>
+      <c r="H63" s="5">
+        <f>SUM(C83+C62)</f>
         <v>5400</v>
       </c>
-      <c r="I62" s="29">
-        <v>18</v>
-      </c>
-      <c r="J62" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="12">
-        <v>200</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="12">
-        <v>200</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
-        <v>161128</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>78</v>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="19"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="C65" s="12">
         <v>200</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="11" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="C66" s="12">
         <v>200</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>83</v>
+    <row r="67" spans="1:5">
+      <c r="A67" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="14">
+        <v>109</v>
+      </c>
+      <c r="C67" s="12">
         <v>200</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>84</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="14">
+        <v>138</v>
+      </c>
+      <c r="C68" s="12">
         <v>200</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C69" s="12">
         <v>200</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>92</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="11">
+        <v>161128</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C70" s="12">
         <v>200</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C71" s="12">
         <v>200</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="11" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="12">
+        <v>118</v>
+      </c>
+      <c r="C72" s="14">
         <v>200</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="11" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="12">
+        <v>83</v>
+      </c>
+      <c r="C73" s="14">
         <v>200</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="11" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C74" s="12">
         <v>200</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="11" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C75" s="12">
         <v>200</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="11" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C76" s="12">
         <v>200</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="11" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C77" s="12">
         <v>200</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="16">
-        <f>SUM(C60:C77)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="12">
+        <v>200</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="12">
+        <v>200</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="12">
+        <v>200</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="12">
+        <v>200</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="12">
+        <v>200</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="15">
+        <f>SUM(C65:C82)</f>
         <v>3600</v>
       </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="19"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="C84" s="3">
+        <f>COUNT(C65:C82)</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2814,8 +2870,8 @@
   </sortState>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1" location="manager"/>
-    <hyperlink ref="D55" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
+    <hyperlink ref="D40" r:id="rId1" location="manager"/>
+    <hyperlink ref="D59" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2824,588 +2880,605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A56:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13" style="27" customWidth="1"/>
-    <col min="2" max="2" width="63.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13" style="26" customWidth="1"/>
+    <col min="2" max="2" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" s="6">
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25">
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25">
+      <c r="A17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25">
+      <c r="A19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25">
+      <c r="A20" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25">
+      <c r="A21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25">
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25">
+      <c r="A24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25">
+      <c r="A25" s="11">
+        <v>100020</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25">
+      <c r="A26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25">
+      <c r="A27" s="11">
+        <v>160222</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25">
+      <c r="A28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25">
+      <c r="A29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25">
+      <c r="A30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25">
+      <c r="A31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25">
+      <c r="A32" s="11">
+        <v>110011</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25">
+      <c r="A33" s="11">
+        <v>110003</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25">
+      <c r="A34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25">
+      <c r="A35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25">
+      <c r="A36" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25">
+      <c r="A37" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25">
+      <c r="A38" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25">
+      <c r="A39" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25">
+      <c r="A40" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25">
+      <c r="A41" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25">
+      <c r="A42" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25">
+      <c r="A43" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25">
+      <c r="A44" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25">
+      <c r="A46" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18">
+      <c r="A47" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B47" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18">
+      <c r="A48" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="B48" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18">
+      <c r="A50" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B50" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18">
+      <c r="A51" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B51" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18">
+      <c r="A52" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18">
+      <c r="A53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18">
+      <c r="A54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18">
+      <c r="A55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25">
+      <c r="A56" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.25">
+      <c r="A57" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
-        <v>100020</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A26" s="11">
-        <v>160222</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A31" s="11">
-        <v>110011</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A32" s="11">
-        <v>110003</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
+    <row r="58" spans="1:2" ht="17.25">
+      <c r="A58" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="B58" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A56" s="14" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="17.25">
+      <c r="A59" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A57" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A59" s="11">
+    </row>
+    <row r="60" spans="1:2" ht="17.25">
+      <c r="A60" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.25">
+      <c r="A61" s="11">
         <v>161128</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B61" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.25">
+      <c r="A62" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="12" t="s">
+      <c r="B62" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.25">
+      <c r="A63" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A61" s="11" t="s">
+      <c r="B63" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.25">
+      <c r="A64" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="12" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="17.25">
+      <c r="A65" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.25">
+      <c r="A66" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17.25">
+      <c r="A67" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.25">
+      <c r="A68" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.25">
+      <c r="A69" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17.25">
+      <c r="A70" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17.25">
+      <c r="A71" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17.25">
+      <c r="A72" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A62" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A63" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A65" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A69" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A70" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="12" t="s">
+      <c r="B72" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17.25">
+      <c r="A73" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/定投.xlsx
+++ b/定投.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="251">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -739,10 +739,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>2000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>167301</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -860,10 +856,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>国泰大农业股票</t>
   </si>
   <si>
@@ -921,6 +913,77 @@
   <si>
     <t>胡戈游</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>5770</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>007490</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>005809</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>009162</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006265</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>004616</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1146</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>164906</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银中证海外中国互联网指数(QDII-LOF)</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B82"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1452,7 +1515,7 @@
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="7">
         <v>420</v>
@@ -1472,10 +1535,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="7">
         <v>420</v>
@@ -1495,7 +1558,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>160</v>
@@ -1504,7 +1567,7 @@
         <v>420</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
@@ -1515,10 +1578,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="7">
         <v>420</v>
@@ -1533,15 +1596,15 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="7">
         <v>420</v>
@@ -1556,15 +1619,15 @@
         <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="7">
         <v>420</v>
@@ -1581,16 +1644,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="7">
         <v>420</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>2</v>
@@ -1601,16 +1664,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="7">
         <v>420</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>5</v>
@@ -1621,10 +1684,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="7">
         <v>420</v>
@@ -1641,16 +1704,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" s="7">
         <v>420</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>8</v>
@@ -1661,16 +1724,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="7">
         <v>420</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>8</v>
@@ -2240,10 +2303,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C46" s="12">
         <v>420</v>
@@ -2333,16 +2396,16 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" s="25">
         <v>200</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>153</v>
@@ -2350,7 +2413,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>152</v>
@@ -2368,10 +2431,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55" s="25">
         <v>200</v>
@@ -2386,10 +2449,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" s="25">
         <v>200</v>
@@ -2404,10 +2467,10 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C57" s="25">
         <v>200</v>
@@ -2422,7 +2485,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>157</v>
@@ -2440,10 +2503,10 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C59" s="25">
         <v>200</v>
@@ -2464,7 +2527,7 @@
         <v>127</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C60" s="25">
         <v>200</v>
@@ -2530,12 +2593,12 @@
         <v>151</v>
       </c>
       <c r="G63" s="5">
-        <f>COUNT(C53:C61)+COUNT(C65:C82)</f>
-        <v>27</v>
+        <f>COUNT(C53:C61)+COUNT(C65:C83)</f>
+        <v>28</v>
       </c>
       <c r="H63" s="5">
-        <f>SUM(C83+C62)</f>
-        <v>5400</v>
+        <f>SUM(C84+C62)</f>
+        <v>5600</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2612,16 +2675,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="C69" s="12">
         <v>200</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>2</v>
@@ -2833,35 +2896,52 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>123</v>
+        <v>249</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C82" s="12">
         <v>200</v>
       </c>
       <c r="D82" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="12">
+        <v>200</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E83" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="15">
-        <f>SUM(C65:C82)</f>
-        <v>3600</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
-    </row>
     <row r="84" spans="1:5">
-      <c r="C84" s="3">
-        <f>COUNT(C65:C82)</f>
-        <v>18</v>
+      <c r="A84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="15">
+        <f>SUM(C65:C83)</f>
+        <v>3800</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="18"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="C85" s="3">
+        <f>COUNT(C65:C83)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2880,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A56:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2913,20 +2993,20 @@
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18">
       <c r="A4" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
       <c r="A5" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>160</v>
@@ -2934,66 +3014,66 @@
     </row>
     <row r="6" spans="1:2" ht="18">
       <c r="A6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18">
       <c r="A7" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18">
       <c r="A8" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18">
       <c r="A9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18">
       <c r="A10" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18">
       <c r="A11" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18">
       <c r="A12" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18">
       <c r="A13" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
@@ -3230,10 +3310,10 @@
     </row>
     <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25">
@@ -3262,15 +3342,15 @@
     </row>
     <row r="47" spans="1:2" ht="18">
       <c r="A47" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18">
       <c r="A48" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>152</v>
@@ -3278,31 +3358,31 @@
     </row>
     <row r="49" spans="1:2" ht="18">
       <c r="A49" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
       <c r="A50" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
       <c r="A51" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18">
       <c r="A52" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>157</v>
@@ -3310,10 +3390,10 @@
     </row>
     <row r="53" spans="1:2" ht="18">
       <c r="A53" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18">
@@ -3321,160 +3401,183 @@
         <v>127</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18">
-      <c r="A55" s="6" t="s">
-        <v>130</v>
+      <c r="A55" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.25">
+    <row r="56" spans="1:2" ht="18">
       <c r="A56" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.25">
+    <row r="57" spans="1:2" ht="18">
       <c r="A57" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.25">
-      <c r="A58" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="14" t="s">
+    <row r="58" spans="1:2" ht="18">
+      <c r="A58" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.25">
-      <c r="A59" s="14" t="s">
+    <row r="59" spans="1:2" ht="18">
+      <c r="A59" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.25">
+    <row r="60" spans="1:2" ht="18">
       <c r="A60" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17.25">
+    </row>
+    <row r="61" spans="1:2" ht="18">
       <c r="A61" s="11">
         <v>161128</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.25">
+    <row r="62" spans="1:2" ht="18">
       <c r="A62" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17.25">
+    <row r="63" spans="1:2" ht="18">
       <c r="A63" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.25">
+    <row r="64" spans="1:2" ht="18">
       <c r="A64" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.25">
+    <row r="65" spans="1:2" ht="18">
       <c r="A65" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.25">
+    <row r="66" spans="1:2" ht="18">
       <c r="A66" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.25">
+    <row r="67" spans="1:2" ht="18">
       <c r="A67" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.25">
+    <row r="68" spans="1:2" ht="18">
       <c r="A68" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.25">
+    <row r="69" spans="1:2" ht="18">
       <c r="A69" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.25">
+    <row r="70" spans="1:2" ht="18">
       <c r="A70" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.25">
+    <row r="71" spans="1:2" ht="18">
       <c r="A71" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.25">
+    <row r="72" spans="1:2" ht="18">
       <c r="A72" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.25">
+    <row r="73" spans="1:2" ht="18">
       <c r="A73" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="6" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="74" spans="1:2" ht="18">
+      <c r="A74" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18">
+      <c r="A75" s="11"/>
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2" ht="18">
+      <c r="A76" s="11"/>
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:2" ht="18">
+      <c r="A77" s="11"/>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:2" ht="17.25">
+      <c r="A78" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="262">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -393,9 +393,6 @@
   <si>
     <t>006373</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方教育股票</t>
   </si>
   <si>
     <t>006265</t>
@@ -614,10 +611,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>萧嘉倩</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>栾江伟</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -626,26 +619,14 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中欧消费主题股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>汇添富中证主要消费ETF联接</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>嘉实智能汽车股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>002624</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>002621</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>000083</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -658,10 +639,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>002168</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>005409</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -763,20 +740,9 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>融通健康产业灵活配置混合A/B</t>
-  </si>
-  <si>
     <t>国泰价值精选灵活配置混合</t>
   </si>
   <si>
-    <t>万家新机遇龙头企业混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005821</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>国投瑞银新兴产业混合(LOF)</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -801,9 +767,6 @@
     <t>广发优势增长股票</t>
   </si>
   <si>
-    <t>国联安小盘精选混合</t>
-  </si>
-  <si>
     <t>006259</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -828,22 +791,10 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>003956</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>161121</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>257010</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000727</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>005726</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -864,10 +815,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>万民远</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>王阳,周伟锋</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -904,10 +851,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>姚志鹏</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>胡戈游</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -920,18 +863,10 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>华泰保兴策略精选A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>华泰保兴健康消费A</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>005169</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>006882</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -960,14 +895,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>尚烁徽</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>束金伟</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>吴邦栋,张慧</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -976,90 +903,113 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>吕慧建</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭冬寒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安裕隆混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富红利增长混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞新兴产业混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞研究精选</t>
+  </si>
+  <si>
+    <t>005962</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001579</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>161121</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张慧</t>
+  </si>
+  <si>
+    <t>009162</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006879</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>164906</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007455</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007750</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006147</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国投瑞银新兴产业混合(LOF)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧品质消费股票A</t>
+  </si>
+  <si>
+    <t>005620</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+  </si>
+  <si>
+    <t>006818</t>
+  </si>
+  <si>
+    <t>袁玮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>王石千</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>吕慧建</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭冬寒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安裕隆混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实智能汽车股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富红利增长混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>融通健康产业灵活配置混合A/B</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞新兴产业混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞研究精选</t>
-  </si>
-  <si>
-    <t>005962</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001579</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>161121</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张慧</t>
-  </si>
-  <si>
-    <t>009162</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006879</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>164906</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007455</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007750</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006147</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国投瑞银新兴产业混合(LOF)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <t>161219</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007300</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+  </si>
+  <si>
+    <t>006138</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1540,21 +1490,21 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>0</v>
@@ -1577,13 +1527,13 @@
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C3" s="7">
         <v>280</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
@@ -1594,16 +1544,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C4" s="7">
         <v>280</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -1614,16 +1564,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C5" s="7">
         <v>280</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>8</v>
@@ -1631,30 +1581,30 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7">
         <v>280</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C7" s="7">
         <v>280</v>
@@ -1666,21 +1616,21 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C8" s="7">
         <v>280</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>8</v>
@@ -1688,16 +1638,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="C9" s="7">
         <v>280</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>4</v>
@@ -1705,16 +1655,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C10" s="7">
         <v>280</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
@@ -1722,33 +1672,33 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C11" s="7">
         <v>280</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
-        <v>186</v>
+      <c r="A12" s="6">
+        <v>161219</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C12" s="7">
         <v>280</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>4</v>
@@ -1756,97 +1706,97 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C13" s="7">
         <v>280</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6">
-        <v>161219</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="7">
-        <v>280</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>236</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9">
+        <f>SUM(C2:C13)</f>
+        <v>3360</v>
+      </c>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="7">
-        <v>280</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>237</v>
-      </c>
+        <f>COUNT(C2:C13)</f>
+        <v>12</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9">
-        <f>SUM(C2:C15)</f>
-        <v>3920</v>
-      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="10"/>
       <c r="F16" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="6"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="7">
-        <f>COUNT(C2:C15)</f>
-        <v>14</v>
-      </c>
-      <c r="D17" s="10"/>
+      <c r="A17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>420</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="12">
+        <v>420</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" s="12">
         <v>420</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>4</v>
@@ -1854,16 +1804,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" s="12">
         <v>420</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>6</v>
@@ -1871,114 +1821,114 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" s="12">
         <v>420</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="14">
+        <v>22</v>
+      </c>
+      <c r="C22" s="12">
         <v>420</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23" s="12">
         <v>420</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="11" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="C24" s="12">
         <v>420</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="11" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C25" s="12">
         <v>420</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26" s="12">
         <v>420</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C27" s="12">
         <v>420</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1">
       <c r="A28" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" s="12">
         <v>420</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="2"/>
@@ -1987,40 +1937,40 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="11" t="s">
-        <v>36</v>
+      <c r="A29" s="11">
+        <v>100020</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" s="12">
         <v>420</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="11">
-        <v>100020</v>
+      <c r="A30" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" s="12">
         <v>420</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="11" t="s">
-        <v>41</v>
+      <c r="A31" s="11">
+        <v>160222</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="12">
         <v>420</v>
@@ -2031,904 +1981,853 @@
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="11">
-        <v>160222</v>
+      <c r="A32" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="12">
         <v>420</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C33" s="12">
         <v>420</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C34" s="12">
         <v>420</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C35" s="12">
         <v>420</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11" t="s">
-        <v>54</v>
+      <c r="A36" s="11">
+        <v>110011</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="12">
         <v>420</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="11">
-        <v>110011</v>
+        <v>110003</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C37" s="12">
         <v>420</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="11">
-        <v>110003</v>
+      <c r="A38" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C38" s="12">
         <v>420</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C39" s="12">
         <v>420</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="11" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C40" s="12">
         <v>420</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="11" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="C41" s="12">
         <v>420</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="11" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C42" s="12">
         <v>420</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="12">
         <v>420</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C44" s="12">
         <v>420</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="11" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C45" s="12">
         <v>420</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="11" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C46" s="12">
         <v>420</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="11" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C47" s="12">
         <v>420</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="11" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C48" s="12">
         <v>420</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="11" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C49" s="12">
         <v>420</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="11" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C50" s="12">
         <v>420</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="11" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="C51" s="12">
         <v>420</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="11" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C52" s="12">
         <v>420</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="11" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="C53" s="12">
         <v>420</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="12">
-        <v>420</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="15">
+        <f>SUM(C17:C53)</f>
+        <v>15540</v>
+      </c>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="3">
+        <f>COUNT(C17:C53)</f>
+        <v>37</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="D56" s="16"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="12">
-        <v>420</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="12">
-        <v>420</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="15">
-        <f>SUM(C19:C56)</f>
-        <v>15960</v>
-      </c>
-      <c r="D57" s="16"/>
+      <c r="B57" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="24">
+        <v>200</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="3">
-        <f>COUNT(C19:C56)</f>
-        <v>38</v>
-      </c>
-      <c r="D58" s="16"/>
+      <c r="A58" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="24">
+        <v>200</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="6" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G59" s="21"/>
+        <v>231</v>
+      </c>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="6" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G60" s="22"/>
+        <v>232</v>
+      </c>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="6" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="6" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G62" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="18"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="6" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="18"/>
+        <v>234</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="6" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G64" s="3"/>
+        <v>69</v>
+      </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:7">
       <c r="A65" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="5">
+        <f>COUNT(C2:C13)+COUNT(C17:C53)</f>
+        <v>49</v>
+      </c>
+      <c r="G65" s="5">
+        <f>SUM(C54+C14)</f>
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F66" s="5">
-        <f>COUNT(C2:C15)+COUNT(C19:C56)</f>
-        <v>52</v>
+        <f>COUNT(F59C59:C67)+COUNT(C71:C90)</f>
+        <v>20</v>
       </c>
       <c r="G66" s="5">
-        <f>SUM(C57+C16)</f>
-        <v>19880</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <f>SUM(C91+C68)</f>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="6" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67" s="5">
-        <f>COUNT(C59:C70)+COUNT(C74:C93)</f>
-        <v>32</v>
-      </c>
-      <c r="G67" s="5">
-        <f>SUM(C94+C71)</f>
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="24">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="6"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="9">
+        <f>SUM(C57:C67)</f>
+        <v>2200</v>
+      </c>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="6"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="3">
+        <f>COUNT(C57:C67)</f>
+        <v>11</v>
+      </c>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="19"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="12">
         <v>200</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C69" s="24">
+      <c r="D71" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="12">
         <v>200</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="24">
+      <c r="D72" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="12">
         <v>200</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="6"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="9">
-        <f>SUM(C59:C70)</f>
-        <v>2400</v>
-      </c>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="6"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="3">
-        <f>COUNT(C59:C70)</f>
-        <v>12</v>
-      </c>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="19"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="11" t="s">
-        <v>129</v>
+      <c r="D73" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C74" s="12">
         <v>200</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="11" t="s">
-        <v>145</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="11">
+        <v>161128</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="C75" s="12">
         <v>200</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="14" t="s">
-        <v>123</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C76" s="12">
         <v>200</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="14" t="s">
-        <v>124</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="12">
+        <v>107</v>
+      </c>
+      <c r="C77" s="14">
         <v>200</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="11">
-        <v>161128</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="12">
+        <v>77</v>
+      </c>
+      <c r="C78" s="14">
         <v>200</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C79" s="12">
         <v>200</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="14">
+        <v>83</v>
+      </c>
+      <c r="C80" s="12">
         <v>200</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="14">
+        <v>87</v>
+      </c>
+      <c r="C81" s="12">
         <v>200</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C82" s="12">
         <v>200</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C83" s="12">
         <v>200</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="11" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C84" s="12">
         <v>200</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C85" s="12">
         <v>200</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="11" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C86" s="12">
         <v>200</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="11" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="C87" s="12">
         <v>200</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="11" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="C88" s="12">
         <v>200</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="11" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="C89" s="12">
         <v>200</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="11" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="C90" s="12">
         <v>200</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="12">
-        <v>200</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>203</v>
-      </c>
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="15">
+        <f>SUM(C71:C90)</f>
+        <v>4000</v>
+      </c>
+      <c r="D91" s="17"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" s="12">
-        <v>200</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="12">
-        <v>200</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="15">
-        <f>SUM(C74:C93)</f>
-        <v>4000</v>
-      </c>
-      <c r="D94" s="17"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="C95" s="3">
-        <f>COUNT(C74:C93)</f>
+      <c r="C92" s="3">
+        <f>COUNT(C71:C90)</f>
         <v>20</v>
       </c>
     </row>
@@ -2938,8 +2837,8 @@
   </sortState>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D42" r:id="rId1" location="manager"/>
-    <hyperlink ref="D68" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
+    <hyperlink ref="D41" r:id="rId1" location="manager"/>
+    <hyperlink ref="D65" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2948,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2965,21 +2864,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>0</v>
@@ -2990,704 +2889,664 @@
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>162</v>
+        <v>253</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="6" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="6">
-        <v>161219</v>
+      <c r="A14" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>230</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25">
       <c r="A16" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25">
       <c r="A18" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="11" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25">
       <c r="A21" s="11" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="11" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25">
       <c r="A23" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25">
       <c r="A25" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
-      <c r="A26" s="11" t="s">
-        <v>36</v>
+      <c r="A26" s="11">
+        <v>100020</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25">
-      <c r="A27" s="11">
-        <v>100020</v>
+      <c r="A27" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
-      <c r="A28" s="11" t="s">
-        <v>41</v>
+      <c r="A28" s="11">
+        <v>160222</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25">
-      <c r="A29" s="11">
-        <v>160222</v>
+      <c r="A29" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25">
       <c r="A31" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25">
       <c r="A32" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25">
-      <c r="A33" s="11" t="s">
-        <v>54</v>
+      <c r="A33" s="11">
+        <v>110011</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="11">
-        <v>110011</v>
+        <v>110003</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25">
-      <c r="A35" s="11">
-        <v>110003</v>
+      <c r="A35" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25">
       <c r="A37" s="11" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="11" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>257</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="11" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25">
       <c r="A41" s="11" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="11" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="11" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25">
       <c r="A44" s="11" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25">
       <c r="A45" s="11" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="11" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.25">
       <c r="A49" s="11" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25">
-      <c r="A50" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25">
-      <c r="A51" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25">
-      <c r="A52" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18">
+      <c r="A50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18">
+      <c r="A51" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18">
+      <c r="A52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18">
       <c r="A53" s="6" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18">
       <c r="A54" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18">
       <c r="A55" s="6" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18">
       <c r="A56" s="6" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18">
       <c r="A57" s="6" t="s">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18">
-      <c r="A58" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18">
-      <c r="A59" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18">
-      <c r="A60" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18">
-      <c r="A61" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18">
-      <c r="A62" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17.25">
+    </row>
+    <row r="58" spans="1:3" ht="17.25">
+      <c r="A58" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17.25">
+      <c r="A59" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17.25">
+      <c r="A60" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17.25">
+      <c r="A61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18">
+      <c r="A62" s="11">
+        <v>161128</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3" ht="17.25">
       <c r="A63" s="11" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17.25">
       <c r="A64" s="11" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17.25">
-      <c r="A65" s="14" t="s">
-        <v>123</v>
+      <c r="A65" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18">
-      <c r="A66" s="14" t="s">
-        <v>124</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17.25">
+      <c r="A66" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="6"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="17.25">
-      <c r="A67" s="11">
-        <v>161128</v>
+      <c r="A67" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17.25">
       <c r="A68" s="11" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17.25">
       <c r="A69" s="11" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17.25">
       <c r="A70" s="11" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17.25">
       <c r="A71" s="11" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17.25">
-      <c r="A72" s="11" t="s">
-        <v>82</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18">
+      <c r="A72" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17.25">
-      <c r="A73" s="11" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18">
+      <c r="A73" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17.25">
-      <c r="A74" s="11" t="s">
-        <v>89</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18">
+      <c r="A74" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17.25">
-      <c r="A75" s="11" t="s">
-        <v>92</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="25" customFormat="1" ht="18">
+      <c r="A75" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17.25">
-      <c r="A76" s="11" t="s">
-        <v>105</v>
+        <v>196</v>
+      </c>
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:3" ht="18">
+      <c r="A76" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18">
       <c r="A77" s="6" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18">
       <c r="A78" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="25" customFormat="1" ht="18">
+        <v>166</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18">
       <c r="A79" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C79"/>
+        <v>165</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="18">
       <c r="A80" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>205</v>
+        <v>250</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18">
       <c r="A81" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18">
-      <c r="A82" s="6" t="s">
-        <v>271</v>
+        <v>255</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17.25">
+      <c r="A82" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>112</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18">
-      <c r="A83" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18">
-      <c r="A84" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18">
-      <c r="A85" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="1:2" ht="18">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="1:2" ht="18">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="1:2" ht="18">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="1:2" ht="18">
-      <c r="A90" s="11"/>
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="1:2" ht="17.25">
-      <c r="A91" s="11"/>
-    </row>
-    <row r="92" spans="1:2" ht="17.25">
-      <c r="A92" s="11"/>
-    </row>
-    <row r="93" spans="1:2" ht="17.25">
-      <c r="A93" s="11"/>
-    </row>
-    <row r="94" spans="1:2" ht="17.25">
-      <c r="A94" s="11"/>
-    </row>
-    <row r="95" spans="1:2" ht="17.25">
-      <c r="A95" s="11"/>
-    </row>
-    <row r="96" spans="1:2" ht="17.25">
-      <c r="A96" s="11"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:2" ht="17.25">
+      <c r="A84" s="11"/>
+    </row>
+    <row r="85" spans="1:2" ht="17.25">
+      <c r="A85" s="11"/>
+    </row>
+    <row r="86" spans="1:2" ht="17.25">
+      <c r="A86" s="11"/>
+    </row>
+    <row r="87" spans="1:2" ht="17.25">
+      <c r="A87" s="11"/>
+    </row>
+    <row r="88" spans="1:2" ht="17.25">
+      <c r="A88" s="11"/>
+    </row>
+    <row r="89" spans="1:2" ht="17.25">
+      <c r="A89" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="258">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -911,18 +911,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>长安裕隆混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富红利增长混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞新兴产业混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>华泰柏瑞研究精选</t>
   </si>
   <si>
@@ -945,14 +933,57 @@
     <t>张慧</t>
   </si>
   <si>
+    <t>中欧品质消费股票A</t>
+  </si>
+  <si>
+    <t>005620</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+  </si>
+  <si>
+    <t>006818</t>
+  </si>
+  <si>
+    <t>袁玮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王石千</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+  </si>
+  <si>
+    <t>006138</t>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>009162</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>006879</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>164906</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -963,60 +994,13 @@
   <si>
     <t>007750</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006147</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国投瑞银新兴产业混合(LOF)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧品质消费股票A</t>
-  </si>
-  <si>
-    <t>005620</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>安信盈利驱动股票A</t>
-  </si>
-  <si>
-    <t>006818</t>
-  </si>
-  <si>
-    <t>袁玮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>王石千</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>161219</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007300</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国联安价值优选股票</t>
-  </si>
-  <si>
-    <t>006138</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <b/>
       <sz val="10"/>
@@ -1142,6 +1126,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun-ExtB"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="DengXian Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="SimSun-ExtB"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1163,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1193,6 +1204,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1470,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1752,7 +1771,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -1769,11 +1788,11 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="11" t="s">
-        <v>253</v>
+      <c r="A18" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C18" s="12">
         <v>420</v>
@@ -1786,7 +1805,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -1803,7 +1822,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1820,7 +1839,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1834,7 +1853,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1848,7 +1867,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1862,7 +1881,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="27" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -1876,7 +1895,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1890,7 +1909,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -1904,7 +1923,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -1918,7 +1937,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -1937,7 +1956,7 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="11">
+      <c r="A29" s="27">
         <v>100020</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1951,7 +1970,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -1966,7 +1985,7 @@
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="11">
+      <c r="A31" s="27">
         <v>160222</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1981,7 +2000,7 @@
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -1996,7 +2015,7 @@
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -2011,7 +2030,7 @@
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -2026,7 +2045,7 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -2041,7 +2060,7 @@
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11">
+      <c r="A36" s="27">
         <v>110011</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -2056,7 +2075,7 @@
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="11">
+      <c r="A37" s="27">
         <v>110003</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -2071,7 +2090,7 @@
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -2086,7 +2105,7 @@
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -2101,7 +2120,7 @@
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="27" t="s">
         <v>199</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -2116,7 +2135,7 @@
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="27" t="s">
         <v>120</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -2131,7 +2150,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -2146,7 +2165,7 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -2161,7 +2180,7 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="27" t="s">
         <v>201</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -2177,7 +2196,7 @@
       <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="27" t="s">
         <v>202</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -2191,8 +2210,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="11" t="s">
-        <v>239</v>
+      <c r="A46" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>134</v>
@@ -2205,8 +2224,8 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="11" t="s">
-        <v>240</v>
+      <c r="A47" s="27" t="s">
+        <v>237</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>174</v>
@@ -2219,7 +2238,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="27" t="s">
         <v>141</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -2233,8 +2252,8 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="11" t="s">
-        <v>241</v>
+      <c r="A49" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>147</v>
@@ -2247,172 +2266,172 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="11" t="s">
-        <v>261</v>
+      <c r="A50" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C50" s="12">
         <v>420</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="11" t="s">
-        <v>242</v>
+      <c r="A51" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="C51" s="12">
         <v>420</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="11" t="s">
-        <v>206</v>
+      <c r="A52" s="27" t="s">
+        <v>190</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C52" s="12">
         <v>420</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="12">
-        <v>420</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>212</v>
-      </c>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="15">
+        <f>SUM(C17:C52)</f>
+        <v>15120</v>
+      </c>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="15">
-        <f>SUM(C17:C53)</f>
-        <v>15540</v>
+      <c r="C54" s="3">
+        <f>COUNT(C17:C52)</f>
+        <v>36</v>
       </c>
       <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="3">
-        <f>COUNT(C17:C53)</f>
-        <v>37</v>
-      </c>
       <c r="D55" s="16"/>
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="24">
+        <v>200</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="6" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C57" s="24">
         <v>200</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="6" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="6" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -2421,137 +2440,137 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="6" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="G63" s="3"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="6" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F65" s="5">
-        <f>COUNT(C2:C13)+COUNT(C17:C53)</f>
-        <v>49</v>
+        <f>COUNT(C2:C13)+COUNT(C17:C52)</f>
+        <v>48</v>
       </c>
       <c r="G65" s="5">
-        <f>SUM(C54+C14)</f>
-        <v>18900</v>
+        <f>SUM(C53+C14)</f>
+        <v>18480</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F66" s="5">
-        <f>COUNT(F59C59:C67)+COUNT(C71:C90)</f>
-        <v>20</v>
+        <f>COUNT(F59C59:C66)+COUNT(C70:C90)</f>
+        <v>21</v>
       </c>
       <c r="G66" s="5">
-        <f>SUM(C91+C68)</f>
-        <v>6200</v>
+        <f>SUM(C91+C67)</f>
+        <v>6400</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="24">
-        <v>200</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="A67" s="6"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="9">
+        <f>SUM(C56:C66)</f>
+        <v>2200</v>
+      </c>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="6"/>
       <c r="B68" s="26"/>
-      <c r="C68" s="9">
-        <f>SUM(C57:C67)</f>
-        <v>2200</v>
+      <c r="C68" s="3">
+        <f>COUNT(C56:C66)</f>
+        <v>11</v>
       </c>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="6"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="3">
-        <f>COUNT(C57:C67)</f>
-        <v>11</v>
-      </c>
-      <c r="D69" s="8"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="19"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="12">
+        <v>200</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="11" t="s">
-        <v>128</v>
+      <c r="A71" s="27" t="s">
+        <v>248</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="C71" s="12">
         <v>200</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="27" t="s">
         <v>144</v>
       </c>
       <c r="B72" s="14" t="s">
@@ -2565,7 +2584,7 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -2579,7 +2598,7 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="28" t="s">
         <v>123</v>
       </c>
       <c r="B74" s="14" t="s">
@@ -2593,7 +2612,7 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="11">
+      <c r="A75" s="27">
         <v>161128</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -2607,7 +2626,7 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="27" t="s">
         <v>72</v>
       </c>
       <c r="B76" s="14" t="s">
@@ -2621,7 +2640,7 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="14" t="s">
@@ -2635,7 +2654,7 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="14" t="s">
@@ -2649,7 +2668,7 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="14" t="s">
@@ -2663,7 +2682,7 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -2677,7 +2696,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="14" t="s">
@@ -2691,7 +2710,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -2705,7 +2724,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B83" s="14" t="s">
@@ -2719,7 +2738,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -2733,7 +2752,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -2747,7 +2766,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="27" t="s">
         <v>109</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -2761,7 +2780,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="27" t="s">
         <v>186</v>
       </c>
       <c r="B87" s="14" t="s">
@@ -2775,7 +2794,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="27" t="s">
         <v>195</v>
       </c>
       <c r="B88" s="14" t="s">
@@ -2789,7 +2808,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="27" t="s">
         <v>197</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -2803,7 +2822,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -2820,15 +2839,15 @@
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="15">
-        <f>SUM(C71:C90)</f>
-        <v>4000</v>
+        <f>SUM(C70:C90)</f>
+        <v>4200</v>
       </c>
       <c r="D91" s="17"/>
     </row>
     <row r="92" spans="1:4">
       <c r="C92" s="3">
-        <f>COUNT(C71:C90)</f>
-        <v>20</v>
+        <f>COUNT(C70:C90)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2838,7 +2857,7 @@
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D41" r:id="rId1" location="manager"/>
-    <hyperlink ref="D65" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
+    <hyperlink ref="D64" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -2847,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2863,10 +2882,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="30" t="s">
         <v>150</v>
       </c>
       <c r="D1" s="19" t="s">
@@ -2877,676 +2896,718 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="6">
+      <c r="A3" s="31">
         <v>399011</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="31" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="31" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="31">
+        <v>161219</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25">
+      <c r="A14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25">
+      <c r="A15" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25">
+      <c r="A16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25">
+      <c r="A17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25">
+      <c r="A18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25">
+      <c r="A19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25">
+      <c r="A20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25">
+      <c r="A21" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25">
+      <c r="A23" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25">
+      <c r="A24" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25">
+      <c r="A25" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25">
+      <c r="A26" s="33">
+        <v>100020</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25">
+      <c r="A27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25">
+      <c r="A28" s="33">
+        <v>160222</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25">
+      <c r="A29" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25">
+      <c r="A30" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25">
+      <c r="A31" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25">
+      <c r="A32" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25">
+      <c r="A33" s="33">
+        <v>110011</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25">
+      <c r="A34" s="33">
+        <v>110003</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25">
+      <c r="A35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25">
+      <c r="A36" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25">
+      <c r="A37" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25">
+      <c r="A38" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25">
+      <c r="A39" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25">
+      <c r="A40" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25">
+      <c r="A41" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25">
+      <c r="A42" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25">
+      <c r="A43" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25">
+      <c r="A44" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25">
+      <c r="A46" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25">
+      <c r="A47" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.25">
+      <c r="A48" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.25">
+      <c r="A49" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18">
+      <c r="A50" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18">
+      <c r="A51" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18">
+      <c r="A52" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18">
+      <c r="A53" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18">
+      <c r="A54" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18">
+      <c r="A55" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18">
+      <c r="A56" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" ht="18">
+      <c r="A57" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18">
+      <c r="A58" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18">
+      <c r="A59" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18">
+      <c r="A60" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17.25">
+      <c r="A61" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17.25">
+      <c r="A62" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17.25">
+      <c r="A63" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17.25">
+      <c r="A64" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17.25">
+      <c r="A65" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="25" customFormat="1" ht="17.25">
+      <c r="A66" s="33">
+        <v>161128</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:3" ht="17.25">
+      <c r="A67" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17.25">
+      <c r="A68" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17.25">
+      <c r="A69" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17.25">
+      <c r="A70" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17.25">
+      <c r="A71" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17.25">
+      <c r="A72" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.25">
+      <c r="A73" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17.25">
+      <c r="A74" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17.25">
+      <c r="A75" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25">
-      <c r="A17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25">
-      <c r="A18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25">
-      <c r="A19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25">
-      <c r="A20" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25">
-      <c r="A21" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25">
-      <c r="A23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25">
-      <c r="A24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25">
-      <c r="A25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25">
-      <c r="A26" s="11">
-        <v>100020</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25">
-      <c r="A27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25">
-      <c r="A28" s="11">
-        <v>160222</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25">
-      <c r="A29" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25">
-      <c r="A30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25">
-      <c r="A31" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25">
-      <c r="A32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25">
-      <c r="A33" s="11">
-        <v>110011</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25">
-      <c r="A34" s="11">
-        <v>110003</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25">
-      <c r="A35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.25">
-      <c r="A36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25">
-      <c r="A37" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25">
-      <c r="A38" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25">
-      <c r="A39" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25">
-      <c r="A40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25">
-      <c r="A41" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25">
-      <c r="A42" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.25">
-      <c r="A43" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25">
-      <c r="A44" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25">
-      <c r="A45" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.25">
-      <c r="A46" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25">
-      <c r="A47" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25">
-      <c r="A48" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17.25">
-      <c r="A49" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18">
-      <c r="A50" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18">
-      <c r="A51" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18">
-      <c r="A52" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18">
-      <c r="A53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18">
-      <c r="A54" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18">
-      <c r="A55" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18">
-      <c r="A56" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18">
-      <c r="A57" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17.25">
-      <c r="A58" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17.25">
-      <c r="A59" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17.25">
-      <c r="A60" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17.25">
-      <c r="A61" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18">
-      <c r="A62" s="11">
-        <v>161128</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:3" ht="17.25">
-      <c r="A63" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17.25">
-      <c r="A64" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17.25">
-      <c r="A65" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17.25">
-      <c r="A66" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17.25">
-      <c r="A67" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17.25">
-      <c r="A68" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17.25">
-      <c r="A69" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17.25">
-      <c r="A70" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17.25">
-      <c r="A71" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="14" t="s">
+      <c r="B75" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18">
-      <c r="A72" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B72" s="14" t="s">
+    <row r="76" spans="1:3" ht="17.25">
+      <c r="A76" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18">
-      <c r="A73" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B73" s="14" t="s">
+    <row r="77" spans="1:3" ht="17.25">
+      <c r="A77" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18">
-      <c r="A74" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B74" s="14" t="s">
+    <row r="78" spans="1:3" ht="17.25">
+      <c r="A78" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B78" s="34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="25" customFormat="1" ht="18">
-      <c r="A75" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B75" s="14" t="s">
+    <row r="79" spans="1:3" ht="17.25">
+      <c r="A79" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C75"/>
-    </row>
-    <row r="76" spans="1:3" ht="18">
-      <c r="A76" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B76" s="14" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="17.25">
+      <c r="A80" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B80" s="34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18">
-      <c r="A77" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B77" s="14" t="s">
+    <row r="81" spans="1:2" ht="17.25">
+      <c r="A81" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18">
-      <c r="A78" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18">
-      <c r="A79" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18">
-      <c r="A80" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="18">
-      <c r="A81" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="82" spans="1:2" ht="17.25">
-      <c r="A82" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18">
-      <c r="A83" s="11"/>
-      <c r="B83" s="6"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="34"/>
+    </row>
+    <row r="83" spans="1:2" ht="17.25">
+      <c r="A83" s="33"/>
+      <c r="B83" s="34"/>
     </row>
     <row r="84" spans="1:2" ht="17.25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="34"/>
     </row>
     <row r="85" spans="1:2" ht="17.25">
-      <c r="A85" s="11"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="34"/>
     </row>
     <row r="86" spans="1:2" ht="17.25">
-      <c r="A86" s="11"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="34"/>
     </row>
     <row r="87" spans="1:2" ht="17.25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="34"/>
     </row>
     <row r="88" spans="1:2" ht="17.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
     </row>
     <row r="89" spans="1:2" ht="17.25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
+    </row>
+    <row r="90" spans="1:2" ht="17.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
+    </row>
+    <row r="91" spans="1:2" ht="17.25">
+      <c r="A91" s="33"/>
+      <c r="B91" s="34"/>
+    </row>
+    <row r="92" spans="1:2" ht="17.25">
+      <c r="A92" s="33"/>
+      <c r="B92" s="34"/>
+    </row>
+    <row r="93" spans="1:2" ht="17.25">
+      <c r="A93" s="33"/>
+      <c r="B93" s="34"/>
+    </row>
+    <row r="94" spans="1:2" ht="17.25">
+      <c r="A94" s="33"/>
+    </row>
+    <row r="95" spans="1:2" ht="17.25">
+      <c r="A95" s="33"/>
+    </row>
+    <row r="96" spans="1:2" ht="17.25">
+      <c r="A96" s="33"/>
+    </row>
+    <row r="97" spans="1:1" ht="17.25">
+      <c r="A97" s="33"/>
+    </row>
+    <row r="98" spans="1:1" ht="17.25">
+      <c r="A98" s="33"/>
+    </row>
+    <row r="99" spans="1:1" ht="17.25">
+      <c r="A99" s="33"/>
+    </row>
+    <row r="100" spans="1:1" ht="17.25">
+      <c r="A100" s="33"/>
+    </row>
+    <row r="101" spans="1:1" ht="17.25">
+      <c r="A101" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -1626,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -283,9 +283,6 @@
     <t>许炎</t>
   </si>
   <si>
-    <t>001668</t>
-  </si>
-  <si>
     <t>汇添富全球互联混合(QDII)</t>
   </si>
   <si>
@@ -1097,12 +1094,16 @@
   <si>
     <t>萧嘉倩</t>
   </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <b/>
       <sz val="10"/>
@@ -1229,13 +1230,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="SimSun-ExtB"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="黑体"/>
@@ -1301,15 +1295,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1340,14 +1331,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1645,30 +1639,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>280</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1679,17 +1673,17 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36">
+      <c r="A3" s="35">
         <v>399011</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="38">
+      <c r="B3" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="37">
         <v>280</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>134</v>
+      <c r="D3" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
@@ -1699,17 +1693,17 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="38">
+      <c r="A4" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="37">
         <v>280</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>135</v>
+      <c r="D4" s="38" t="s">
+        <v>134</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -1719,159 +1713,159 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="38">
+      <c r="A5" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="37">
         <v>280</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>179</v>
+      <c r="D5" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="38">
+      <c r="A6" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="37">
         <v>280</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>136</v>
+      <c r="D6" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="38">
+      <c r="A7" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="37">
         <v>280</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>138</v>
+      <c r="D7" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="38">
+      <c r="A8" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="37">
         <v>280</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>216</v>
+      <c r="D8" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="38">
+      <c r="A9" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="37">
         <v>280</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>180</v>
+      <c r="D9" s="38" t="s">
+        <v>179</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="38">
+      <c r="A10" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="37">
         <v>280</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>181</v>
+      <c r="D10" s="38" t="s">
+        <v>180</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="38">
+      <c r="A11" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="37">
         <v>280</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>217</v>
+      <c r="D11" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>161219</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="38">
+      <c r="B12" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="37">
         <v>280</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>218</v>
+      <c r="D12" s="38" t="s">
+        <v>217</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="38">
+      <c r="A13" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="37">
         <v>280</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>219</v>
+      <c r="D13" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
@@ -1908,16 +1902,16 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>420</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1925,33 +1919,33 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="32">
+      <c r="B18" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="31">
         <v>420</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>137</v>
+      <c r="D18" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <v>420</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1959,16 +1953,16 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <v>420</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1976,114 +1970,114 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>420</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <v>420</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <v>420</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="31">
+        <v>420</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="32">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="31">
         <v>420</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="32">
+      <c r="D25" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="31">
         <v>420</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="32">
+      <c r="D26" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="31">
         <v>420</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="32">
+      <c r="D27" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1">
+      <c r="A28" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="31">
         <v>420</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1">
-      <c r="A28" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="32">
-        <v>420</v>
-      </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="5"/>
@@ -2093,383 +2087,383 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="30">
+      <c r="A29" s="41">
         <v>100020</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <v>420</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="31">
         <v>420</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="30">
+      <c r="A31" s="41">
         <v>160222</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="31">
         <v>420</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="31">
         <v>420</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="32" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="31">
         <v>420</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <v>420</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="32" t="s">
         <v>53</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="31">
         <v>420</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="30">
+      <c r="A36" s="41">
         <v>110011</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="31">
         <v>420</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="32" t="s">
         <v>58</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="30">
+      <c r="A37" s="41">
         <v>110003</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="31">
         <v>420</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="31">
         <v>420</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="31">
         <v>420</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="32" t="s">
         <v>66</v>
       </c>
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="31">
+        <v>420</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="31">
+        <v>420</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="32">
+      <c r="B42" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="31">
         <v>420</v>
       </c>
-      <c r="D40" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="32">
+      <c r="D42" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="31">
         <v>420</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="32">
+      <c r="D43" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1">
+      <c r="A44" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="31">
         <v>420</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="32">
-        <v>420</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1">
-      <c r="A44" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="32">
-        <v>420</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>283</v>
+      <c r="D44" s="32" t="s">
+        <v>282</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C45" s="32">
+      <c r="C45" s="31">
         <v>420</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>284</v>
+      <c r="D45" s="32" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="31">
+        <v>420</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="32">
+      <c r="B47" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="31">
         <v>420</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D47" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="31">
+        <v>420</v>
+      </c>
+      <c r="D48" s="32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="32">
+    <row r="49" spans="1:10">
+      <c r="A49" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="31">
         <v>420</v>
       </c>
-      <c r="D47" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="32">
+      <c r="D49" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="31">
         <v>420</v>
       </c>
-      <c r="D48" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="30" t="s">
+      <c r="D50" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="B51" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="31">
         <v>420</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D51" s="32" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="32">
+    <row r="52" spans="1:10">
+      <c r="A52" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="31">
         <v>420</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="32">
+      <c r="D52" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="31">
         <v>420</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C52" s="32">
+      <c r="D53" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="31">
         <v>420</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="32">
-        <v>420</v>
-      </c>
-      <c r="D53" s="33" t="s">
+      <c r="D54" s="32" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="32">
-        <v>420</v>
-      </c>
-      <c r="D54" s="33" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2499,76 +2493,76 @@
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="39">
+        <v>200</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C58" s="40">
+      <c r="B59" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="39">
         <v>200</v>
       </c>
-      <c r="D58" s="39" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="36" t="s">
+      <c r="D59" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="40">
+      <c r="B60" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="39">
         <v>200</v>
       </c>
-      <c r="D59" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="36" t="s">
+      <c r="D60" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="B60" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="40">
+      <c r="B61" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="39">
         <v>200</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D61" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="40">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="39">
         <v>200</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D62" s="38" t="s">
         <v>277</v>
-      </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="C62" s="40">
-        <v>200</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>278</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -2576,51 +2570,51 @@
       <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C63" s="40">
+      <c r="A63" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="39">
         <v>200</v>
       </c>
-      <c r="D63" s="39" t="s">
-        <v>227</v>
+      <c r="D63" s="38" t="s">
+        <v>226</v>
       </c>
       <c r="G63" s="3"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="39">
+        <v>200</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B65" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C65" s="39">
         <v>200</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D65" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="C65" s="40">
-        <v>200</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>280</v>
-      </c>
       <c r="E65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" s="5">
         <f>COUNT(C2:C13)+COUNT(C17:C54)</f>
@@ -2632,20 +2626,20 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="40">
+      <c r="A66" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66" s="39">
         <v>200</v>
       </c>
-      <c r="D66" s="39" t="s">
-        <v>205</v>
+      <c r="D66" s="38" t="s">
+        <v>204</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F66" s="5">
         <f>COUNT(F59C59:C69)+COUNT(C73:C93)</f>
@@ -2657,45 +2651,45 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="39">
+        <v>200</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B68" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C68" s="39">
         <v>200</v>
       </c>
-      <c r="D67" s="39" t="s">
+      <c r="D68" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="36" t="s">
+    <row r="69" spans="1:7">
+      <c r="A69" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B69" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C69" s="39">
         <v>200</v>
       </c>
-      <c r="D68" s="39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" s="40">
-        <v>200</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>116</v>
+      <c r="D69" s="38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2721,297 +2715,297 @@
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="C73" s="31">
+        <v>200</v>
+      </c>
+      <c r="D73" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="32">
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="31">
         <v>200</v>
       </c>
-      <c r="D73" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="C74" s="32">
+      <c r="D74" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="31">
         <v>200</v>
       </c>
-      <c r="D74" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="31" t="s">
+      <c r="D75" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="32">
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="31">
         <v>200</v>
       </c>
-      <c r="D75" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="42" t="s">
+      <c r="D76" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B76" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="32">
+      <c r="B77" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="31">
         <v>200</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D77" s="32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="32">
+    <row r="78" spans="1:7">
+      <c r="A78" s="42">
+        <v>161128</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="31">
         <v>200</v>
       </c>
-      <c r="D77" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="41">
-        <v>161128</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="32">
+      <c r="D78" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="31">
         <v>200</v>
       </c>
-      <c r="D78" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="32">
+      <c r="D79" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="40">
         <v>200</v>
       </c>
-      <c r="D79" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="31" t="s">
+      <c r="D80" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="43">
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="40">
         <v>200</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D81" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="31">
+        <v>200</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="31">
+        <v>200</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="31">
+        <v>200</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="31">
+        <v>200</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="31">
+        <v>200</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="31">
+        <v>200</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="31">
+        <v>200</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="42" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="43">
+      <c r="B89" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="31">
         <v>200</v>
       </c>
-      <c r="D81" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="32">
+      <c r="D89" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="31">
         <v>200</v>
       </c>
-      <c r="D82" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="32">
+      <c r="D90" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="31">
         <v>200</v>
       </c>
-      <c r="D83" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="32">
+      <c r="D91" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="31">
         <v>200</v>
       </c>
-      <c r="D84" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="32">
+      <c r="D92" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="31">
         <v>200</v>
       </c>
-      <c r="D85" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="32">
-        <v>200</v>
-      </c>
-      <c r="D86" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="32">
-        <v>200</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88" s="32">
-        <v>200</v>
-      </c>
-      <c r="D88" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="32">
-        <v>200</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="32">
-        <v>200</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" s="32">
-        <v>200</v>
-      </c>
-      <c r="D91" s="33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="32">
-        <v>200</v>
-      </c>
-      <c r="D92" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="41" t="s">
+      <c r="D93" s="32" t="s">
         <v>111</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" s="32">
-        <v>200</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3062,21 +3056,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>148</v>
-      </c>
       <c r="D1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="A2" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>0</v>
@@ -3087,71 +3081,71 @@
         <v>399011</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
@@ -3159,15 +3153,15 @@
         <v>161219</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25">
@@ -3180,10 +3174,10 @@
     </row>
     <row r="15" spans="1:5" ht="17.25">
       <c r="A15" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25">
@@ -3228,10 +3222,10 @@
     </row>
     <row r="21" spans="1:2" ht="17.25">
       <c r="A21" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
@@ -3356,7 +3350,7 @@
     </row>
     <row r="37" spans="1:2" ht="17.25">
       <c r="A37" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>67</v>
@@ -3364,227 +3358,227 @@
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25">
       <c r="A41" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25">
       <c r="A44" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25">
       <c r="A45" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17.25">
       <c r="A49" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18">
       <c r="A50" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18">
       <c r="A51" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
       <c r="A52" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18">
       <c r="A53" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18">
       <c r="A54" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18">
       <c r="A55" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18">
       <c r="A56" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3" ht="18">
       <c r="A57" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18">
       <c r="A58" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18">
       <c r="A59" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18">
       <c r="A60" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>114</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.25">
       <c r="A61" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.25">
       <c r="A62" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17.25">
       <c r="A63" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="29" t="s">
         <v>142</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17.25">
       <c r="A64" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17.25">
       <c r="A65" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="22" customFormat="1" ht="17.25">
@@ -3609,7 +3603,7 @@
         <v>74</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17.25">
@@ -3630,7 +3624,7 @@
     </row>
     <row r="71" spans="1:3" ht="17.25">
       <c r="A71" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>82</v>
@@ -3638,7 +3632,7 @@
     </row>
     <row r="72" spans="1:3" ht="17.25">
       <c r="A72" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>85</v>
@@ -3646,74 +3640,74 @@
     </row>
     <row r="73" spans="1:3" ht="17.25">
       <c r="A73" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17.25">
       <c r="A74" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17.25">
       <c r="A75" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17.25">
       <c r="A76" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17.25">
       <c r="A77" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17.25">
       <c r="A78" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17.25">
       <c r="A79" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17.25">
       <c r="A80" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.25">
       <c r="A81" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25">
@@ -3722,26 +3716,26 @@
     </row>
     <row r="83" spans="1:2" ht="17.25">
       <c r="A83" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25">
       <c r="A84" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="B84" s="29" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.25">
       <c r="A85" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>255</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>陈欣,戴杰</t>
-  </si>
-  <si>
-    <t>000294</t>
-  </si>
-  <si>
-    <t>华安生态优先混合</t>
   </si>
   <si>
     <t>陈媛</t>
@@ -754,6 +748,17 @@
   </si>
   <si>
     <t>冯明远</t>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1274,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1294,21 +1299,21 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="D1" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -1331,13 +1336,13 @@
         <v>399011</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="30">
         <v>420</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
@@ -1348,16 +1353,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="30">
         <v>420</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -1368,56 +1373,56 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="30">
         <v>420</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="30">
         <v>420</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="30">
         <v>420</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
@@ -1425,16 +1430,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="30">
         <v>420</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
@@ -1506,16 +1511,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="24">
         <v>420</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>4</v>
@@ -1523,16 +1528,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="24">
         <v>420</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>8</v>
@@ -1540,16 +1545,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="C16" s="24">
         <v>420</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>4</v>
@@ -1557,16 +1562,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="35" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="C17" s="24">
         <v>420</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>6</v>
@@ -1574,35 +1579,35 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="24">
         <v>420</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="24">
         <v>420</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="35" t="s">
-        <v>30</v>
+      <c r="A20" s="35">
+        <v>100020</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>31</v>
@@ -1615,22 +1620,22 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35">
-        <v>100020</v>
+      <c r="A21" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="24">
         <v>420</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="35" t="s">
-        <v>35</v>
+      <c r="A22" s="35">
+        <v>160222</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>36</v>
@@ -1639,12 +1644,12 @@
         <v>420</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="35" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="35">
-        <v>160222</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>38</v>
@@ -1653,21 +1658,21 @@
         <v>420</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="24">
         <v>420</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2"/>
@@ -1677,36 +1682,36 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="24">
         <v>420</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="35" t="s">
-        <v>48</v>
+      <c r="A27" s="35">
+        <v>110011</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>49</v>
@@ -1721,7 +1726,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="35">
-        <v>110011</v>
+        <v>110003</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>51</v>
@@ -1735,38 +1740,38 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="35">
-        <v>110003</v>
+      <c r="A29" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="35" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>59</v>
@@ -1781,22 +1786,22 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="35" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>85</v>
@@ -1805,360 +1810,360 @@
         <v>420</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="35" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="35" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="35" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="35" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="35" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="35" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="35" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="24">
-        <v>420</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>164</v>
-      </c>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="13">
+        <f>SUM(C12:C40)</f>
+        <v>12180</v>
+      </c>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="13">
-        <f>SUM(C12:C41)</f>
-        <v>12600</v>
+      <c r="C42" s="3">
+        <f>COUNT(C12:C40)</f>
+        <v>29</v>
       </c>
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="3">
-        <f>COUNT(C12:C41)</f>
-        <v>30</v>
-      </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="32">
+        <v>200</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="C45" s="32">
         <v>200</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="32">
         <v>200</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" s="32">
         <v>200</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="32">
         <v>200</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="32">
         <v>200</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="32">
-        <v>200</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>195</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="9">
+        <f>SUM(C44:C49)</f>
+        <v>1200</v>
+      </c>
+      <c r="D50" s="8"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="6"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="9">
-        <f>SUM(C45:C50)</f>
-        <v>1200</v>
+      <c r="C51" s="3">
+        <f>COUNT(C44:C49)</f>
+        <v>6</v>
       </c>
       <c r="D51" s="8"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="6"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="3">
-        <f>COUNT(C45:C50)</f>
-        <v>6</v>
-      </c>
-      <c r="D52" s="8"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="1"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="17"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="24">
+        <v>200</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" s="24">
         <v>200</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55" s="24">
         <v>200</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" s="5">
-        <f>COUNT(C2:C8)+COUNT(C12:C41)</f>
-        <v>37</v>
+        <f>COUNT(C2:C8)+COUNT(C12:C40)</f>
+        <v>36</v>
       </c>
       <c r="G55" s="5">
-        <f>SUM(C42+C9)</f>
-        <v>15540</v>
+        <f>SUM(C41+C9)</f>
+        <v>15120</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="24">
         <v>200</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F56" s="5">
-        <f>SUM(C52+C74)</f>
+        <f>SUM(C51+C74)</f>
         <v>25</v>
       </c>
       <c r="G56" s="5">
-        <f>SUM(C73+C51)</f>
+        <f>SUM(C73+C50)</f>
         <v>5000</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C57" s="24">
         <v>200</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2166,195 +2171,195 @@
         <v>161128</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="33">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" s="24">
         <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="24">
         <v>200</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2384,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2402,10 +2407,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -2413,7 +2418,7 @@
         <v>100020</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="1"/>
@@ -2423,7 +2428,7 @@
         <v>110003</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -2431,7 +2436,7 @@
         <v>110011</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -2439,7 +2444,7 @@
         <v>160222</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -2447,7 +2452,7 @@
         <v>161128</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -2455,493 +2460,485 @@
         <v>399011</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>16</v>
+      <c r="A10" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>131</v>
+      <c r="A11" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="40" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="40" t="s">
-        <v>159</v>
+      <c r="A13" s="38" t="s">
+        <v>176</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>178</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="A15" s="40" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18">
       <c r="A16" s="40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>25</v>
+      <c r="A17" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
       <c r="A18" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>165</v>
+        <v>104</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="38" t="s">
-        <v>106</v>
+      <c r="A19" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18">
       <c r="A20" s="40" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18">
       <c r="A21" s="40" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
       <c r="A22" s="40" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18">
-      <c r="A23" s="40" t="s">
-        <v>39</v>
+      <c r="A23" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18">
-      <c r="A24" s="38" t="s">
-        <v>68</v>
+      <c r="A24" s="40" t="s">
+        <v>25</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18">
       <c r="A25" s="40" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18">
       <c r="A26" s="40" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18">
-      <c r="A27" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>126</v>
+      <c r="A27" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18">
       <c r="A28" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>139</v>
+        <v>175</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18">
       <c r="A29" s="38" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18">
       <c r="A30" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18">
+      <c r="A31" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18">
+      <c r="A32" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18">
+      <c r="A33" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18">
+      <c r="A34" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18">
-      <c r="A31" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18">
-      <c r="A32" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18">
-      <c r="A33" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18">
-      <c r="A34" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>59</v>
+      <c r="B34" s="38" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
-      <c r="A35" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>140</v>
+      <c r="A35" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
-      <c r="A36" s="40" t="s">
-        <v>12</v>
+      <c r="A36" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>13</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="18">
-      <c r="A37" s="38" t="s">
-        <v>77</v>
+      <c r="A37" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="18">
-      <c r="A38" s="40" t="s">
-        <v>35</v>
+      <c r="A38" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
-      <c r="A39" s="38" t="s">
-        <v>93</v>
+      <c r="A39" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
       <c r="A40" s="40" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
-      <c r="A41" s="40" t="s">
-        <v>21</v>
+      <c r="A41" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18">
-      <c r="A42" s="39" t="s">
-        <v>100</v>
+      <c r="A42" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
-      <c r="A43" s="38" t="s">
-        <v>151</v>
+      <c r="A43" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18">
       <c r="A44" s="40" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
-      <c r="A45" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>85</v>
+      <c r="A45" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18">
       <c r="A46" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>189</v>
+        <v>151</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18">
       <c r="A47" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>154</v>
+        <v>168</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="39" t="s">
         <v>170</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18">
-      <c r="A49" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
       <c r="A50" s="40" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
-      <c r="A51" s="40" t="s">
-        <v>157</v>
+      <c r="A51" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18">
       <c r="A52" s="38" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18">
-      <c r="A53" s="38" t="s">
-        <v>118</v>
+      <c r="A53" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18">
-      <c r="A54" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>43</v>
+      <c r="A54" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18">
       <c r="A55" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>138</v>
+        <v>69</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18">
       <c r="A56" s="38" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18">
       <c r="A57" s="38" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18">
       <c r="A58" s="38" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18">
       <c r="A59" s="38" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18">
-      <c r="A60" s="38" t="s">
-        <v>121</v>
+      <c r="A60" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18">
-      <c r="A61" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>31</v>
+      <c r="A61" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18">
-      <c r="A62" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>144</v>
+      <c r="A62" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:2" ht="18">
+      <c r="A64" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="1:2" ht="18">
-      <c r="A65" s="6"/>
-      <c r="B65" s="22"/>
-    </row>
-    <row r="66" spans="1:2" ht="18">
-      <c r="A66" s="6"/>
-      <c r="B66" s="22"/>
+      <c r="B64" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2" ht="17.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
     </row>
     <row r="67" spans="1:2" ht="17.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="1:2" ht="17.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:2" ht="17.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-    </row>
-    <row r="70" spans="1:2" ht="18">
-      <c r="A70" s="6"/>
-      <c r="B70" s="22"/>
-    </row>
-    <row r="71" spans="1:2" ht="18">
-      <c r="A71" s="6"/>
-      <c r="B71" s="22"/>
-    </row>
-    <row r="72" spans="1:2" ht="18.75">
-      <c r="A72" s="17"/>
-      <c r="B72" s="1"/>
+    <row r="68" spans="1:2" ht="18">
+      <c r="A68" s="6"/>
+      <c r="B68" s="22"/>
+    </row>
+    <row r="69" spans="1:2" ht="18">
+      <c r="A69" s="6"/>
+      <c r="B69" s="22"/>
+    </row>
+    <row r="70" spans="1:2" ht="18.75">
+      <c r="A70" s="17"/>
+      <c r="B70" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:B72">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="248">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -229,21 +229,9 @@
     <t>覃璇,杨德龙,苏辛</t>
   </si>
   <si>
-    <t>008901</t>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-  </si>
-  <si>
     <t>王园园</t>
   </si>
   <si>
-    <t>009265</t>
-  </si>
-  <si>
-    <t>易方达消费精选股票</t>
-  </si>
-  <si>
     <t>萧楠</t>
   </si>
   <si>
@@ -263,9 +251,6 @@
   </si>
   <si>
     <t>009076</t>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
   </si>
   <si>
     <t>袁芳</t>
@@ -289,9 +274,6 @@
       <t>hun'h't</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安匠心优选混合A</t>
   </si>
   <si>
     <t>008949</t>
@@ -415,10 +397,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>008271</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>大成优势企业混合A</t>
     <rPh sb="2" eb="3">
       <t>you'shi</t>
@@ -638,10 +616,6 @@
     <t>华泰柏瑞研究精选</t>
   </si>
   <si>
-    <t>005962</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>007968</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -744,20 +718,226 @@
     <t>信达澳银精华配置混合</t>
   </si>
   <si>
+    <t>冯明远</t>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006341</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008072</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001579</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>610002</t>
-  </si>
-  <si>
-    <t>冯明远</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>008133</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>004616</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005809</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>华安优质生活混合</t>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧电子信息产业沪港深股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安估值精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普科技</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈研究精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源裕源</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费精选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富全球互联混合(QDII)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安匠心优选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>161725</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>162605</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>610002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银内核驱动混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城鼎益混合(LOF)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1277,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1299,27 +1479,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="30">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>1</v>
@@ -1336,13 +1516,13 @@
         <v>399011</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C3" s="30">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
@@ -1353,16 +1533,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C4" s="30">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -1373,56 +1553,56 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C5" s="30">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C6" s="30">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C7" s="30">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
@@ -1430,16 +1610,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C8" s="30">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
@@ -1450,7 +1630,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="9">
         <f>SUM(C2:C8)</f>
-        <v>2940</v>
+        <v>1960</v>
       </c>
       <c r="D9" s="10"/>
       <c r="F9" s="5" t="s">
@@ -1545,16 +1725,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C16" s="24">
         <v>420</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>4</v>
@@ -1741,7 +1921,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="35" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>54</v>
@@ -1756,7 +1936,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="35" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>57</v>
@@ -1771,7 +1951,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>59</v>
@@ -1786,594 +1966,622 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="35" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="35" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="35" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="35" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="35" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="35" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="35" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="35" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13">
-        <f>SUM(C12:C40)</f>
-        <v>12180</v>
-      </c>
-      <c r="D41" s="14"/>
+      <c r="A41" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="24">
+        <v>420</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="3">
-        <f>COUNT(C12:C40)</f>
-        <v>29</v>
+      <c r="C42" s="13">
+        <f>SUM(C12:C41)</f>
+        <v>12600</v>
       </c>
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
+      <c r="C43" s="3">
+        <f>COUNT(C12:C41)</f>
+        <v>30</v>
+      </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="32">
-        <v>200</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>190</v>
-      </c>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="37" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="C45" s="32">
         <v>200</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="37" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C46" s="32">
         <v>200</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="37" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C47" s="32">
         <v>200</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="37" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C48" s="32">
         <v>200</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="37" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C49" s="32">
         <v>200</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="6"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="9">
-        <f>SUM(C44:C49)</f>
-        <v>1200</v>
-      </c>
-      <c r="D50" s="8"/>
+      <c r="A50" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="32">
+        <v>200</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>185</v>
+      </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="6"/>
       <c r="B51" s="22"/>
-      <c r="C51" s="3">
-        <f>COUNT(C44:C49)</f>
-        <v>6</v>
+      <c r="C51" s="9">
+        <f>SUM(C45:C50)</f>
+        <v>1200</v>
       </c>
       <c r="D51" s="8"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="17"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="3">
+        <f>COUNT(C45:C50)</f>
+        <v>6</v>
+      </c>
+      <c r="D52" s="8"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="24">
-        <v>200</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>15</v>
-      </c>
+      <c r="A53" s="17"/>
+      <c r="B53" s="1"/>
       <c r="G53" s="3"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="34" t="s">
-        <v>104</v>
+      <c r="A54" s="36" t="s">
+        <v>206</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="C54" s="24">
         <v>200</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="34" t="s">
-        <v>175</v>
+      <c r="A55" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="C55" s="24">
         <v>200</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F55" s="5">
-        <f>COUNT(C2:C8)+COUNT(C12:C40)</f>
-        <v>36</v>
+        <f>COUNT(C2:C8)+COUNT(C12:C41)</f>
+        <v>37</v>
       </c>
       <c r="G55" s="5">
-        <f>SUM(C41+C9)</f>
-        <v>15120</v>
+        <f>SUM(C42+C9)</f>
+        <v>14560</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="34" t="s">
-        <v>116</v>
+      <c r="A56" s="36" t="s">
+        <v>208</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="C56" s="24">
         <v>200</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F56" s="5">
-        <f>SUM(C51+C74)</f>
+        <f>SUM(C52+C76)</f>
         <v>25</v>
       </c>
       <c r="G56" s="5">
-        <f>SUM(C73+C50)</f>
+        <f>SUM(C75+C51)</f>
         <v>5000</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="36" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="C57" s="24">
         <v>200</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="36" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="34">
-        <v>161128</v>
+      <c r="A59" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="34" t="s">
-        <v>63</v>
+      <c r="A60" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="34" t="s">
-        <v>66</v>
+      <c r="A61" s="36">
+        <v>161128</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="33">
+        <v>222</v>
+      </c>
+      <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="34" t="s">
-        <v>69</v>
+      <c r="A62" s="36" t="s">
+        <v>212</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="34" t="s">
-        <v>72</v>
+      <c r="A63" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="24">
+        <v>224</v>
+      </c>
+      <c r="C63" s="33">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="34" t="s">
-        <v>75</v>
+      <c r="A64" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="34" t="s">
-        <v>195</v>
+      <c r="A65" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="34" t="s">
-        <v>80</v>
+      <c r="A66" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="34" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="34" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="34" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="34" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="34" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C71" s="24">
         <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C72" s="24">
         <v>200</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13">
-        <f>SUM(C54:C72)</f>
+      <c r="A73" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="24">
+        <v>200</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="24">
+        <v>200</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13">
+        <f>SUM(C56:C74)</f>
         <v>3800</v>
       </c>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="C74" s="3">
-        <f>COUNT(C54:C72)</f>
+      <c r="D75" s="15"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="C76" s="3">
+        <f>COUNT(C56:C74)</f>
         <v>19</v>
       </c>
     </row>
@@ -2389,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2407,10 +2615,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="38" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -2460,31 +2668,31 @@
         <v>399011</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="38" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="38" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="38" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
@@ -2497,26 +2705,26 @@
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="40" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="38" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="40" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
@@ -2537,26 +2745,26 @@
     </row>
     <row r="17" spans="1:2" ht="18">
       <c r="A17" s="38" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
       <c r="A18" s="38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18">
       <c r="A19" s="40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18">
@@ -2569,10 +2777,10 @@
     </row>
     <row r="21" spans="1:2" ht="18">
       <c r="A21" s="40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
@@ -2601,55 +2809,55 @@
     </row>
     <row r="25" spans="1:2" ht="18">
       <c r="A25" s="40" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18">
       <c r="A26" s="40" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18">
       <c r="A27" s="38" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18">
       <c r="A28" s="38" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18">
       <c r="A29" s="38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18">
       <c r="A30" s="38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18">
       <c r="A31" s="40" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>59</v>
@@ -2657,10 +2865,10 @@
     </row>
     <row r="32" spans="1:2" ht="18">
       <c r="A32" s="38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -2673,10 +2881,10 @@
     </row>
     <row r="34" spans="1:3" ht="18">
       <c r="A34" s="38" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -2689,10 +2897,10 @@
     </row>
     <row r="36" spans="1:3" ht="18">
       <c r="A36" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" s="6"/>
     </row>
@@ -2706,10 +2914,10 @@
     </row>
     <row r="38" spans="1:3" ht="18">
       <c r="A38" s="38" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -2730,18 +2938,18 @@
     </row>
     <row r="41" spans="1:3" ht="18">
       <c r="A41" s="39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18">
       <c r="A42" s="38" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -2754,58 +2962,58 @@
     </row>
     <row r="44" spans="1:3" ht="18">
       <c r="A44" s="40" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
       <c r="A45" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18">
       <c r="A46" s="38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18">
       <c r="A47" s="38" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18">
       <c r="A48" s="39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18">
       <c r="A49" s="40" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
       <c r="A50" s="40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
@@ -2818,127 +3026,154 @@
     </row>
     <row r="52" spans="1:2" ht="18">
       <c r="A52" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>117</v>
+        <v>232</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18">
-      <c r="A53" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>41</v>
+      <c r="A53" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18">
       <c r="A54" s="38" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18">
       <c r="A55" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>70</v>
+        <v>234</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18">
       <c r="A56" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>88</v>
+        <v>235</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18">
       <c r="A57" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>81</v>
+        <v>236</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18">
       <c r="A58" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>73</v>
+        <v>215</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18">
       <c r="A59" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18">
-      <c r="A60" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>29</v>
+      <c r="A60" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18">
       <c r="A61" s="38" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18">
-      <c r="A62" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>199</v>
+      <c r="A62" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="18">
-      <c r="A64" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:2" ht="17.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2" ht="17.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A64" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18">
+      <c r="A65" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+    </row>
+    <row r="67" spans="1:2" ht="18">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
     </row>
     <row r="68" spans="1:2" ht="18">
-      <c r="A68" s="6"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
     </row>
     <row r="69" spans="1:2" ht="18">
-      <c r="A69" s="6"/>
-      <c r="B69" s="22"/>
-    </row>
-    <row r="70" spans="1:2" ht="18.75">
-      <c r="A70" s="17"/>
-      <c r="B70" s="1"/>
+      <c r="B69" s="38"/>
+    </row>
+    <row r="70" spans="1:2" ht="18">
+      <c r="B70" s="38"/>
+    </row>
+    <row r="71" spans="1:2" ht="18">
+      <c r="B71" s="38"/>
+    </row>
+    <row r="72" spans="1:2" ht="18">
+      <c r="B72" s="38"/>
+    </row>
+    <row r="73" spans="1:2" ht="18">
+      <c r="B73" s="38"/>
+    </row>
+    <row r="74" spans="1:2" ht="18">
+      <c r="B74" s="38"/>
+    </row>
+    <row r="75" spans="1:2" ht="18">
+      <c r="B75" s="38"/>
+    </row>
+    <row r="76" spans="1:2" ht="18">
+      <c r="B76" s="38"/>
+    </row>
+    <row r="77" spans="1:2" ht="18">
+      <c r="B77" s="38"/>
     </row>
   </sheetData>
   <sortState ref="A2:B72">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="254">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -940,12 +940,33 @@
     <t>富国周期优势混合</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>002560</t>
+  </si>
+  <si>
+    <t>002560</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安和鑫灵活配置混合</t>
+  </si>
+  <si>
+    <t>007300</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰国证食品饮料行业指数分级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡嵩松</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <b/>
       <sz val="10"/>
@@ -1083,6 +1104,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1104,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1181,6 +1209,9 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1457,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -2138,108 +2169,113 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="37" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="C45" s="32">
         <v>200</v>
       </c>
-      <c r="D45" s="31" t="s">
-        <v>182</v>
+      <c r="D45" s="41" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="C46" s="32">
         <v>200</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47" s="32">
         <v>200</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="32">
         <v>200</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="32">
         <v>200</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="32">
         <v>200</v>
       </c>
       <c r="D50" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="32">
+        <v>200</v>
+      </c>
+      <c r="D51" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="6"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="9">
-        <f>SUM(C45:C50)</f>
-        <v>1200</v>
-      </c>
-      <c r="D51" s="8"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="6"/>
       <c r="B52" s="22"/>
-      <c r="C52" s="3">
-        <f>COUNT(C45:C50)</f>
-        <v>6</v>
+      <c r="C52" s="9">
+        <f>SUM(C45:C51)</f>
+        <v>1400</v>
       </c>
       <c r="D52" s="8"/>
       <c r="G52" s="12"/>
@@ -2248,38 +2284,33 @@
       <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="17"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="3">
+        <f>COUNT(C45:C51)</f>
+        <v>7</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="G53" s="3"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="24">
-        <v>200</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>48</v>
-      </c>
+      <c r="A54" s="17"/>
+      <c r="B54" s="1"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C55" s="24">
         <v>200</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>101</v>
@@ -2295,293 +2326,307 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C56" s="24">
         <v>200</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="5">
-        <f>SUM(C52+C76)</f>
-        <v>25</v>
+        <f>SUM(C53+C77)</f>
+        <v>26</v>
       </c>
       <c r="G56" s="5">
-        <f>SUM(C75+C51)</f>
-        <v>5000</v>
+        <f>SUM(C76+C52)</f>
+        <v>5200</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C57" s="24">
         <v>200</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="36" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="36">
-        <v>161128</v>
+      <c r="A61" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="36" t="s">
-        <v>212</v>
+      <c r="A62" s="36">
+        <v>161128</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C63" s="33">
+        <v>223</v>
+      </c>
+      <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="24">
+        <v>224</v>
+      </c>
+      <c r="C64" s="33">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="34" t="s">
-        <v>187</v>
+      <c r="A67" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="34" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="34" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="34" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="C71" s="24">
         <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" s="24">
         <v>200</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="34" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C73" s="24">
         <v>200</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="34" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C74" s="24">
         <v>200</v>
       </c>
       <c r="D74" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="24">
+        <v>200</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13">
-        <f>SUM(C56:C74)</f>
+    <row r="76" spans="1:4">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13">
+        <f>SUM(C57:C75)</f>
         <v>3800</v>
       </c>
-      <c r="D75" s="15"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="C76" s="3">
-        <f>COUNT(C56:C74)</f>
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="C77" s="3">
+        <f>COUNT(C57:C75)</f>
         <v>19</v>
       </c>
     </row>
@@ -2597,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2652,7 +2697,7 @@
         <v>160222</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -2930,7 +2975,7 @@
     </row>
     <row r="40" spans="1:3" ht="18">
       <c r="A40" s="40" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>20</v>
@@ -3141,39 +3186,88 @@
       <c r="B66" s="38"/>
     </row>
     <row r="67" spans="1:2" ht="18">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="68" spans="1:2" ht="18">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
     </row>
     <row r="69" spans="1:2" ht="18">
+      <c r="A69" s="38"/>
       <c r="B69" s="38"/>
     </row>
     <row r="70" spans="1:2" ht="18">
+      <c r="A70" s="38"/>
       <c r="B70" s="38"/>
     </row>
     <row r="71" spans="1:2" ht="18">
+      <c r="A71" s="38"/>
       <c r="B71" s="38"/>
     </row>
     <row r="72" spans="1:2" ht="18">
+      <c r="A72" s="38"/>
       <c r="B72" s="38"/>
     </row>
     <row r="73" spans="1:2" ht="18">
+      <c r="A73" s="38"/>
       <c r="B73" s="38"/>
     </row>
     <row r="74" spans="1:2" ht="18">
+      <c r="A74" s="38"/>
       <c r="B74" s="38"/>
     </row>
     <row r="75" spans="1:2" ht="18">
+      <c r="A75" s="38"/>
       <c r="B75" s="38"/>
     </row>
     <row r="76" spans="1:2" ht="18">
+      <c r="A76" s="38"/>
       <c r="B76" s="38"/>
     </row>
     <row r="77" spans="1:2" ht="18">
+      <c r="A77" s="38"/>
       <c r="B77" s="38"/>
+    </row>
+    <row r="78" spans="1:2" ht="18">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+    </row>
+    <row r="79" spans="1:2" ht="18">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+    </row>
+    <row r="80" spans="1:2" ht="18">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+    </row>
+    <row r="81" spans="1:2" ht="18">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+    </row>
+    <row r="82" spans="1:2" ht="18">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+    </row>
+    <row r="83" spans="1:2" ht="18">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+    </row>
+    <row r="84" spans="1:2" ht="18">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+    </row>
+    <row r="85" spans="1:2" ht="18">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+    </row>
+    <row r="86" spans="1:2" ht="18">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
     </row>
   </sheetData>
   <sortState ref="A2:B72">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="258">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -960,6 +960,19 @@
   </si>
   <si>
     <t>蔡嵩松</t>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+  </si>
+  <si>
+    <t>100060</t>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李元博</t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -2057,227 +2070,232 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="35" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="35" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="35" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="35" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="24">
+        <v>420</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13">
-        <f>SUM(C12:C41)</f>
-        <v>12600</v>
-      </c>
-      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="3">
-        <f>COUNT(C12:C41)</f>
-        <v>30</v>
+      <c r="C43" s="13">
+        <f>SUM(C12:C42)</f>
+        <v>13020</v>
       </c>
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
+      <c r="C44" s="3">
+        <f>COUNT(C12:C42)</f>
+        <v>31</v>
+      </c>
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C45" s="32">
-        <v>200</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>253</v>
-      </c>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="37" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="C46" s="32">
         <v>200</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>182</v>
+      <c r="D46" s="41" t="s">
+        <v>253</v>
       </c>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="C47" s="32">
         <v>200</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" s="32">
         <v>200</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" s="32">
         <v>200</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="32">
         <v>200</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C51" s="32">
         <v>200</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="32">
+        <v>200</v>
+      </c>
+      <c r="D52" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="6"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="9">
-        <f>SUM(C45:C51)</f>
-        <v>1400</v>
-      </c>
-      <c r="D52" s="8"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="15"/>
@@ -2286,347 +2304,356 @@
     <row r="53" spans="1:10">
       <c r="A53" s="6"/>
       <c r="B53" s="22"/>
-      <c r="C53" s="3">
-        <f>COUNT(C45:C51)</f>
-        <v>7</v>
+      <c r="C53" s="9">
+        <f>SUM(C46:C52)</f>
+        <v>1400</v>
       </c>
       <c r="D53" s="8"/>
       <c r="G53" s="3"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="17"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="3">
+        <f>COUNT(C46:C52)</f>
+        <v>7</v>
+      </c>
+      <c r="D54" s="8"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C55" s="24">
-        <v>200</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>48</v>
-      </c>
+      <c r="A55" s="17"/>
+      <c r="B55" s="1"/>
       <c r="E55" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="5">
-        <f>COUNT(C2:C8)+COUNT(C12:C41)</f>
-        <v>37</v>
+        <f>COUNT(C2:C8)+COUNT(C12:C42)</f>
+        <v>38</v>
       </c>
       <c r="G55" s="5">
-        <f>SUM(C42+C9)</f>
-        <v>14560</v>
+        <f>SUM(C43+C9)</f>
+        <v>14980</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C56" s="24">
         <v>200</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="5">
-        <f>SUM(C53+C77)</f>
+        <f>SUM(C54+C78)</f>
         <v>26</v>
       </c>
       <c r="G56" s="5">
-        <f>SUM(C76+C52)</f>
+        <f>SUM(C77+C53)</f>
         <v>5200</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C57" s="24">
         <v>200</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="36" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="36">
-        <v>161128</v>
+      <c r="A62" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="36" t="s">
-        <v>212</v>
+      <c r="A63" s="36">
+        <v>161128</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C64" s="33">
+        <v>223</v>
+      </c>
+      <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C65" s="24">
+        <v>224</v>
+      </c>
+      <c r="C65" s="33">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="34" t="s">
-        <v>187</v>
+      <c r="A68" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="34" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="34" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C71" s="24">
         <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="C72" s="24">
         <v>200</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73" s="24">
         <v>200</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="34" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C74" s="24">
         <v>200</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="34" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C75" s="24">
         <v>200</v>
       </c>
       <c r="D75" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="24">
+        <v>200</v>
+      </c>
+      <c r="D76" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13">
-        <f>SUM(C57:C75)</f>
+    <row r="77" spans="1:4">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13">
+        <f>SUM(C58:C76)</f>
         <v>3800</v>
       </c>
-      <c r="D76" s="15"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="C77" s="3">
-        <f>COUNT(C57:C75)</f>
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" s="3">
+        <f>COUNT(C58:C76)</f>
         <v>19</v>
       </c>
     </row>
@@ -2642,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3182,15 +3209,19 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="18">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="67" spans="1:2" ht="18">
       <c r="A67" s="38" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18">
@@ -3268,6 +3299,24 @@
     <row r="86" spans="1:2" ht="18">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
+    </row>
+    <row r="87" spans="1:2" ht="18">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+    </row>
+    <row r="88" spans="1:2" ht="18">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+    </row>
+    <row r="89" spans="1:2" ht="18">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+    </row>
+    <row r="90" spans="1:2" ht="18">
+      <c r="A90" s="38"/>
+    </row>
+    <row r="91" spans="1:2" ht="18">
+      <c r="A91" s="38"/>
     </row>
   </sheetData>
   <sortState ref="A2:B72">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="272">
   <si>
     <t>招商中证白酒</t>
-  </si>
-  <si>
-    <t>侯昊</t>
   </si>
   <si>
     <t>7月</t>
@@ -381,10 +378,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>刘俊</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>程琨,傅友兴</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -593,6 +586,415 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>006228</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕慧建</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞研究精选</t>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张慧</t>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+  </si>
+  <si>
+    <t>006138</t>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+  </si>
+  <si>
+    <t>华泰柏瑞激励动力混合A</t>
+  </si>
+  <si>
+    <t>006228</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008526</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006373</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞行业精选A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银医药健康股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰鑫睿混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富全球科技互联混合(QDII)人民币</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛兰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭冬寒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐成,狄星华</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈雪峰</t>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+  </si>
+  <si>
+    <t>冯明远</t>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006341</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008072</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001579</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>610002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>004616</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005809</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧电子信息产业沪港深股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安估值精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普科技</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈研究精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源裕源</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费精选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富全球互联混合(QDII)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安匠心优选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>161725</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>162605</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>610002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银内核驱动混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城鼎益混合(LOF)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002560</t>
+  </si>
+  <si>
+    <t>002560</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安和鑫灵活配置混合</t>
+  </si>
+  <si>
+    <t>007300</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰国证食品饮料行业指数分级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+  </si>
+  <si>
+    <t>100060</t>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李元博</t>
+  </si>
+  <si>
+    <t>华泰保兴健康消费A</t>
+  </si>
+  <si>
+    <t>006882</t>
+  </si>
+  <si>
+    <t>华泰保兴成长优选A</t>
+  </si>
+  <si>
+    <t>005904</t>
+  </si>
+  <si>
+    <t>广发创新升级混合</t>
+  </si>
+  <si>
+    <t>蔡嵩松</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚烁徽等</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚烁徽</t>
+  </si>
+  <si>
+    <t>侯昊</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>费逸等</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>过蓓蓓,吴振翔</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -601,385 +1003,35 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>006228</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕慧建</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞研究精选</t>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张慧</t>
-  </si>
-  <si>
-    <t>国联安价值优选股票</t>
-  </si>
-  <si>
-    <t>006138</t>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-  </si>
-  <si>
-    <t>华泰柏瑞激励动力混合A</t>
-  </si>
-  <si>
-    <t>006228</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008526</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007733</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006373</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞行业精选A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银医药健康股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰鑫睿混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国富全球科技互联混合(QDII)人民币</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛兰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭冬寒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐成,狄星华</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈雪峰</t>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006308</t>
-  </si>
-  <si>
-    <t>添富全球消费混合(QDII)人民币A</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-  </si>
-  <si>
-    <t>信达澳银精华配置混合</t>
-  </si>
-  <si>
-    <t>冯明远</t>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴杰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007203</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006341</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008072</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001579</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>003889</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>610002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005726</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005760</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>004616</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006138</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008227</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005809</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009265</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006751</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧电子信息产业沪港深股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国联安价值优选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安估值精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>标普科技</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝盈研究精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源裕源</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达消费精选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国互联科技股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富全球互联混合(QDII)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安匠心优选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008507</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008949</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009076</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>161725</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>162605</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>610002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>003889</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银内核驱动混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商中证白酒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城鼎益混合(LOF)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>信达澳银精华配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002560</t>
-  </si>
-  <si>
-    <t>002560</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安和鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>007300</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰国证食品饮料行业指数分级</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡嵩松</t>
-  </si>
-  <si>
-    <t>富国高新技术产业混合</t>
-  </si>
-  <si>
-    <t>100060</t>
-  </si>
-  <si>
-    <t>富国高新技术产业混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>李元博</t>
+    <t>002939</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006882</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005904</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002939</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <b/>
       <sz val="10"/>
@@ -1117,13 +1169,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1145,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1222,9 +1267,6 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1523,21 +1565,21 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="D1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -1546,357 +1588,357 @@
         <v>280</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="37">
         <v>399011</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>133</v>
+      <c r="B3" s="29" t="s">
+        <v>131</v>
       </c>
       <c r="C3" s="30">
         <v>280</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>156</v>
+        <v>266</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="C4" s="30">
         <v>280</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>122</v>
+        <v>267</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="C5" s="30">
         <v>280</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>134</v>
+        <v>268</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="C6" s="30">
         <v>280</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="28" t="s">
         <v>123</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="C7" s="30">
         <v>280</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>135</v>
+        <v>124</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="30">
         <v>280</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9">
-        <f>SUM(C2:C8)</f>
-        <v>1960</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="A9" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="30">
+        <v>280</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>265</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="7">
-        <f>COUNT(C2:C8)</f>
-        <v>7</v>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9">
+        <f>SUM(C2:C9)</f>
+        <v>2240</v>
       </c>
       <c r="D10" s="10"/>
       <c r="F10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7">
+        <f>COUNT(C2:C9)</f>
+        <v>8</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="F11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="24">
-        <v>420</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="24">
         <v>420</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" s="24">
         <v>420</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="24">
         <v>420</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C16" s="24">
         <v>420</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="35" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="C17" s="24">
         <v>420</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="24">
         <v>420</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="24">
         <v>420</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="35">
-        <v>100020</v>
+      <c r="A20" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24">
         <v>420</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35" t="s">
-        <v>33</v>
+      <c r="A21" s="35">
+        <v>100020</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" s="24">
         <v>420</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="35">
-        <v>160222</v>
+      <c r="A22" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" s="24">
         <v>420</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="35">
+        <v>160222</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="C23" s="24">
         <v>420</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="24">
         <v>420</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2"/>
@@ -1906,395 +1948,395 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="24">
         <v>420</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="35">
-        <v>110011</v>
+      <c r="A27" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" s="24">
         <v>420</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="35">
-        <v>110003</v>
+        <v>110011</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="35" t="s">
-        <v>197</v>
+      <c r="A29" s="35">
+        <v>110003</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="35" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="35" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="35" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="35" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="35" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1">
       <c r="A39" s="35" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="35" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="35" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="35" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="13">
-        <f>SUM(C12:C42)</f>
-        <v>13020</v>
-      </c>
-      <c r="D43" s="14"/>
+      <c r="A43" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="24">
+        <v>420</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="3">
-        <f>COUNT(C12:C42)</f>
-        <v>31</v>
-      </c>
-      <c r="D44" s="14"/>
+      <c r="A44" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="24">
+        <v>420</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
+      <c r="C45" s="13">
+        <f>SUM(C13:C44)</f>
+        <v>13440</v>
+      </c>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="32">
-        <v>200</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>253</v>
-      </c>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="3">
+        <f>COUNT(C13:C44)</f>
+        <v>32</v>
+      </c>
+      <c r="D46" s="14"/>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="32">
-        <v>200</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>182</v>
-      </c>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="D47" s="14"/>
       <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="37" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="C48" s="32">
         <v>200</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="37" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="C49" s="32">
         <v>200</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="37" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C50" s="32">
         <v>200</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="37" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="C51" s="32">
         <v>200</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="37" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C52" s="32">
         <v>200</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -2302,358 +2344,400 @@
       <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="6"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="9">
-        <f>SUM(C46:C52)</f>
-        <v>1400</v>
-      </c>
-      <c r="D53" s="8"/>
+      <c r="A53" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="32">
+        <v>200</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>259</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="6"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="3">
-        <f>COUNT(C46:C52)</f>
-        <v>7</v>
-      </c>
-      <c r="D54" s="8"/>
+      <c r="A54" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="32">
+        <v>200</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="17"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="32">
+        <v>200</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>180</v>
+      </c>
       <c r="E55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="5">
+        <f>COUNT(C2:C9)+COUNT(C13:C44)</f>
+        <v>40</v>
+      </c>
+      <c r="G55" s="5">
+        <f>SUM(C45+C10)</f>
+        <v>15680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="6"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="9">
+        <f>SUM(C48:C55)</f>
+        <v>1600</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="5">
-        <f>COUNT(C2:C8)+COUNT(C12:C42)</f>
-        <v>38</v>
-      </c>
-      <c r="G55" s="5">
-        <f>SUM(C43+C9)</f>
-        <v>14980</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C56" s="24">
-        <v>200</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F56" s="5">
-        <f>SUM(C54+C78)</f>
-        <v>26</v>
+        <f>SUM(C57+C81)</f>
+        <v>27</v>
       </c>
       <c r="G56" s="5">
-        <f>SUM(C77+C53)</f>
-        <v>5200</v>
+        <f>SUM(C80+C56)</f>
+        <v>5400</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" s="24">
-        <v>200</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>15</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="3">
+        <f>COUNT(C48:C55)</f>
+        <v>8</v>
+      </c>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="24">
-        <v>200</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>100</v>
-      </c>
+      <c r="A58" s="17"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="36" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="36" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="36" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="36" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="36">
-        <v>161128</v>
+      <c r="A63" s="36" t="s">
+        <v>205</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="36" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="36" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C65" s="33">
+        <v>216</v>
+      </c>
+      <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="36" t="s">
-        <v>214</v>
+      <c r="A66" s="36">
+        <v>161128</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="36" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="36" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" s="24">
+        <v>219</v>
+      </c>
+      <c r="C68" s="33">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="34" t="s">
-        <v>187</v>
+      <c r="A69" s="36" t="s">
+        <v>209</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="34" t="s">
-        <v>76</v>
+      <c r="A70" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="34" t="s">
-        <v>83</v>
+      <c r="A71" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C71" s="24">
         <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C72" s="24">
         <v>200</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="34" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="C73" s="24">
         <v>200</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="34" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="C74" s="24">
         <v>200</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="34" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="C75" s="24">
         <v>200</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="34" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C76" s="24">
         <v>200</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13">
-        <f>SUM(C58:C76)</f>
+      <c r="A77" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="24">
+        <v>200</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="24">
+        <v>200</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="24">
+        <v>200</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13">
+        <f>SUM(C61:C79)</f>
         <v>3800</v>
       </c>
-      <c r="D77" s="15"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="C78" s="3">
-        <f>COUNT(C58:C76)</f>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="3">
+        <f>COUNT(C61:C79)</f>
         <v>19</v>
       </c>
     </row>
@@ -2669,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2687,10 +2771,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -2698,7 +2782,7 @@
         <v>100020</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="1"/>
@@ -2708,7 +2792,7 @@
         <v>110003</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -2716,7 +2800,7 @@
         <v>110011</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -2724,7 +2808,7 @@
         <v>160222</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -2732,7 +2816,7 @@
         <v>161128</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -2740,501 +2824,513 @@
         <v>399011</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="A15" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18">
       <c r="A16" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
       <c r="A17" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
       <c r="A18" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>98</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18">
       <c r="A19" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18">
       <c r="A20" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18">
       <c r="A21" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
       <c r="A22" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18">
       <c r="A23" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18">
       <c r="A24" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>25</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18">
       <c r="A25" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18">
       <c r="A26" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18">
       <c r="A27" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>128</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18">
       <c r="A28" s="38" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18">
       <c r="A29" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18">
       <c r="A30" s="38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18">
       <c r="A31" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18">
       <c r="A32" s="38" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
       <c r="A33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="39" t="s">
         <v>56</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
       <c r="A34" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
       <c r="A35" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>12</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
       <c r="A36" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="18">
       <c r="A37" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="39" t="s">
         <v>33</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
       <c r="A38" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>85</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
       <c r="A39" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="39" t="s">
         <v>53</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
       <c r="A40" s="40" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
       <c r="A41" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18">
       <c r="A42" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
       <c r="A43" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="39" t="s">
         <v>9</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18">
       <c r="A44" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
       <c r="A45" s="38" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18">
       <c r="A46" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18">
       <c r="A47" s="38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18">
       <c r="A48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18">
       <c r="A49" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
       <c r="A50" s="40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
       <c r="A51" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="39" t="s">
         <v>63</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18">
       <c r="A52" s="38" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18">
       <c r="A53" s="38" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18">
       <c r="A54" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>127</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18">
       <c r="A55" s="38" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18">
       <c r="A56" s="38" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18">
       <c r="A57" s="38" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18">
       <c r="A58" s="38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18">
       <c r="A59" s="38" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18">
       <c r="A60" s="38" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18">
       <c r="A61" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18">
       <c r="A62" s="38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18">
       <c r="A63" s="38" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18">
       <c r="A64" s="38" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18">
       <c r="A65" s="38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18">
       <c r="A66" s="38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18">
       <c r="A67" s="38" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B67" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18">
+      <c r="A68" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18">
+      <c r="A69" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18">
+      <c r="A70" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" s="38" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="18">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-    </row>
-    <row r="69" spans="1:2" ht="18">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-    </row>
-    <row r="70" spans="1:2" ht="18">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
     </row>
     <row r="71" spans="1:2" ht="18">
       <c r="A71" s="38"/>
@@ -3302,21 +3398,6 @@
     </row>
     <row r="87" spans="1:2" ht="18">
       <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-    </row>
-    <row r="88" spans="1:2" ht="18">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-    </row>
-    <row r="89" spans="1:2" ht="18">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-    </row>
-    <row r="90" spans="1:2" ht="18">
-      <c r="A90" s="38"/>
-    </row>
-    <row r="91" spans="1:2" ht="18">
-      <c r="A91" s="38"/>
     </row>
   </sheetData>
   <sortState ref="A2:B72">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1361,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -2502,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\LP\jijinfenxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\jijinfenxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="216">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -67,15 +67,6 @@
     <t>陈媛</t>
   </si>
   <si>
-    <t>002446</t>
-  </si>
-  <si>
-    <t>广发利鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>段涛,李巍</t>
-  </si>
-  <si>
     <t>007300</t>
   </si>
   <si>
@@ -103,15 +94,6 @@
     <t>刘格菘</t>
   </si>
   <si>
-    <t>162605</t>
-  </si>
-  <si>
-    <t>景顺长城鼎益混合(LOF)</t>
-  </si>
-  <si>
-    <t>刘彦春</t>
-  </si>
-  <si>
     <t>富国天益价值混合</t>
   </si>
   <si>
@@ -200,9 +182,6 @@
   </si>
   <si>
     <t>李进</t>
-  </si>
-  <si>
-    <t>覃璇,杨德龙,苏辛</t>
   </si>
   <si>
     <t>王园园</t>
@@ -244,20 +223,6 @@
   </si>
   <si>
     <t>胡宜斌</t>
-  </si>
-  <si>
-    <t>宝盈融源可转债债券A</t>
-  </si>
-  <si>
-    <t>006147</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓栋</t>
-    <rPh sb="0" eb="1">
-      <t>deng'dong</t>
-    </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>007893</t>
@@ -776,18 +741,15 @@
     <t>006408</t>
   </si>
   <si>
+    <t>郑慧莲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安和鑫灵活配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>添富消费升级混合</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安和鑫灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添富消费升级混合</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -804,6 +766,62 @@
   </si>
   <si>
     <t>尚烁徽</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100060</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000595</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006408</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银内核驱动混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实泰和混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈人工智能股票A</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +829,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <b/>
       <sz val="10"/>
@@ -944,12 +962,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="等线 Light"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="黑体"/>
@@ -999,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1053,9 +1065,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1074,16 +1083,15 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1359,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1381,21 +1389,21 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37" t="s">
-        <v>89</v>
+      <c r="A2" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -1404,7 +1412,7 @@
         <v>280</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
@@ -1414,17 +1422,17 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
-        <v>200</v>
+      <c r="A3" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C3" s="30">
         <v>280</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
@@ -1434,17 +1442,17 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
-        <v>201</v>
+      <c r="A4" s="36" t="s">
+        <v>191</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C4" s="30">
         <v>280</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
@@ -1454,43 +1462,43 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
-        <v>202</v>
+      <c r="A5" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C5" s="30">
         <v>280</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
-        <v>100</v>
+      <c r="A6" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C6" s="30">
         <v>280</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1527,133 +1535,133 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
-        <v>187</v>
+      <c r="A10" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C10" s="32">
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37" t="s">
-        <v>204</v>
+      <c r="A11" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C11" s="32">
         <v>200</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
-        <v>130</v>
+      <c r="A12" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C12" s="32">
         <v>200</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="37" t="s">
-        <v>193</v>
+      <c r="A13" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C13" s="32">
         <v>200</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>212</v>
+      <c r="D13" s="40" t="s">
+        <v>201</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="37" t="s">
-        <v>131</v>
+      <c r="A14" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C14" s="32">
         <v>200</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37" t="s">
-        <v>132</v>
+      <c r="A15" s="36" t="s">
+        <v>122</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C15" s="32">
         <v>200</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="37" t="s">
-        <v>133</v>
+      <c r="A16" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C16" s="32">
         <v>200</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37" t="s">
-        <v>134</v>
+      <c r="A17" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C17" s="32">
         <v>200</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>5</v>
@@ -1684,10 +1692,10 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="24">
@@ -1698,10 +1706,10 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="24">
@@ -1711,11 +1719,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:10" s="1" customFormat="1">
+      <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="24">
@@ -1724,45 +1732,46 @@
       <c r="D23" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1">
-      <c r="A24" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>19</v>
+      <c r="F23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="C24" s="24">
         <v>420</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>94</v>
+      <c r="A25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>96</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="24">
@@ -1774,85 +1783,85 @@
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34">
+        <v>100020</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>25</v>
       </c>
       <c r="C27" s="24">
         <v>420</v>
       </c>
       <c r="D27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="41" t="s">
         <v>27</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="34">
+        <v>160222</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>29</v>
-      </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="35">
-        <v>100020</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>30</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>31</v>
-      </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
       </c>
       <c r="D30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>34</v>
-      </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="35">
-        <v>160222</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="24">
@@ -1863,11 +1872,11 @@
       </c>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="24">
@@ -1878,481 +1887,479 @@
       </c>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="34">
+        <v>110011</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>42</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="34">
+        <v>110003</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>44</v>
-      </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="35">
-        <v>110011</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1">
+      <c r="A36" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="35">
-        <v>110003</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1">
-      <c r="A38" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>56</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>67</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>179</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>79</v>
+        <v>181</v>
+      </c>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="C43" s="24">
         <v>420</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>189</v>
+        <v>88</v>
+      </c>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>84</v>
+    <row r="45" spans="1:10">
+      <c r="A45" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>103</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>146</v>
+        <v>117</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="C48" s="24">
         <v>420</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="24">
-        <v>420</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>127</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="11"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="13">
+        <f>SUM(C21:C48)</f>
+        <v>11760</v>
+      </c>
+      <c r="D49" s="14"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="24">
-        <v>420</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="11"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="3">
+        <f>COUNT(C21:C48)</f>
+        <v>28</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="13">
-        <f>SUM(C21:C50)</f>
-        <v>12600</v>
-      </c>
+      <c r="B51" s="42"/>
       <c r="D51" s="14"/>
-      <c r="G51" s="3"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="3">
-        <f>COUNT(C21:C50)</f>
-        <v>30</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="5">
-        <f>COUNT(C2:C6)+COUNT(C21:C50)</f>
-        <v>35</v>
-      </c>
-      <c r="G53" s="5">
-        <f>SUM(C51+C7)</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>172</v>
+      <c r="E51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="5">
+        <f>COUNT(C2:C6)+COUNT(C21:C48)</f>
+        <v>33</v>
+      </c>
+      <c r="G51" s="5">
+        <f>SUM(C49+C7)</f>
+        <v>13160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="24">
+        <v>200</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="5">
+        <f>SUM(C19+C72)</f>
+        <v>25</v>
+      </c>
+      <c r="G52" s="5">
+        <f>SUM(C71+C18)</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="24">
+        <v>200</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="C54" s="24">
         <v>200</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="5">
-        <f>SUM(C19+C76)</f>
-        <v>27</v>
-      </c>
-      <c r="G54" s="5">
-        <f>SUM(C75+C18)</f>
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>173</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>165</v>
       </c>
       <c r="C55" s="24">
         <v>200</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>174</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="C56" s="24">
         <v>200</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>175</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="C57" s="24">
         <v>200</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="23" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="35">
+        <v>161128</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>167</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>176</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="36">
-        <v>161128</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>177</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>178</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>171</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>180</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>181</v>
+      <c r="A65" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>182</v>
+      <c r="B66" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
@@ -2362,131 +2369,250 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>183</v>
+      <c r="A67" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>184</v>
+      <c r="A68" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>185</v>
+      <c r="A69" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>186</v>
+      <c r="A70" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="24">
-        <v>200</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="A71" s="11"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="13">
+        <f>SUM(C52:C70)</f>
+        <v>3800</v>
+      </c>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="24">
-        <v>200</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>107</v>
+      <c r="B72" s="4"/>
+      <c r="C72" s="3">
+        <f>COUNT(C54:C70)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="24">
-        <v>200</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>145</v>
-      </c>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="24">
-        <v>200</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>75</v>
-      </c>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13">
-        <f>SUM(C54:C74)</f>
-        <v>4200</v>
-      </c>
-      <c r="D75" s="15"/>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="C76" s="3">
-        <f>COUNT(C56:C74)</f>
-        <v>19</v>
-      </c>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2500,15 +2626,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13" style="44" customWidth="1"/>
+    <col min="1" max="1" width="13" style="39" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="21" customWidth="1"/>
     <col min="4" max="4" width="9.125" style="21" customWidth="1"/>
@@ -2517,578 +2643,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="39" t="s">
-        <v>90</v>
+      <c r="A1" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="35">
+      <c r="A2" s="34">
         <v>100020</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="17.25">
-      <c r="A3" s="35">
+      <c r="A3" s="34">
         <v>110003</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25">
-      <c r="A4" s="35">
+      <c r="A4" s="34">
         <v>110011</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25">
-      <c r="A5" s="35">
+      <c r="A5" s="34">
         <v>160222</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>161128</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25">
+      <c r="A8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25">
+      <c r="A9" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25">
+      <c r="A10" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25">
+      <c r="A11" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25">
+      <c r="A12" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25">
-      <c r="A8" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25">
-      <c r="A10" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25">
-      <c r="A11" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25">
-      <c r="A12" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25">
-      <c r="A13" s="35" t="s">
+      <c r="B13" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25">
+      <c r="A16" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25">
+      <c r="A17" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25">
+      <c r="A18" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25">
+      <c r="A19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25">
+      <c r="A22" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25">
+      <c r="A23" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B24" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="A16" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25">
-      <c r="A17" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25">
-      <c r="A18" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25">
-      <c r="A19" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25">
-      <c r="A20" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25">
-      <c r="A21" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25">
-      <c r="A23" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25">
-      <c r="A24" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25">
-      <c r="A25" s="35" t="s">
-        <v>24</v>
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25">
-      <c r="A26" s="35" t="s">
-        <v>115</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25">
-      <c r="A27" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18">
-      <c r="A28" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="28" t="s">
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18">
+      <c r="A29" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25">
+      <c r="A34" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25">
+      <c r="A35" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25">
+      <c r="A36" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25">
+      <c r="A37" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18">
+      <c r="A38" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25">
+      <c r="A39" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25">
+      <c r="A40" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25">
+      <c r="A42" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25">
+      <c r="A43" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18">
+      <c r="A44" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25">
-      <c r="A29" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25">
-      <c r="A30" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18">
-      <c r="A31" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25">
-      <c r="A32" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18">
-      <c r="A33" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18">
-      <c r="A35" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="28" t="s">
+      <c r="B45" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.25">
-      <c r="A36" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.25">
-      <c r="A37" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25">
-      <c r="A38" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.25">
-      <c r="A39" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18">
-      <c r="A40" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.25">
-      <c r="A41" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25">
-      <c r="A42" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25">
-      <c r="A43" s="36" t="s">
+    <row r="46" spans="1:2" ht="18">
+      <c r="A46" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25">
+      <c r="A47" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.25">
-      <c r="A44" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25">
-      <c r="A45" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18">
-      <c r="A46" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.25">
-      <c r="A47" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18">
-      <c r="A48" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>136</v>
+    </row>
+    <row r="48" spans="1:2" ht="17.25">
+      <c r="A48" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25">
-      <c r="A49" s="36" t="s">
-        <v>76</v>
+      <c r="A49" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25">
       <c r="A50" s="35" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25">
-      <c r="A51" s="35" t="s">
-        <v>114</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18">
+      <c r="A51" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="B51" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18">
+      <c r="A52" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18">
+      <c r="A53" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18">
+      <c r="A54" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18">
+      <c r="A55" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18">
+      <c r="A56" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18">
+      <c r="A57" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18">
+      <c r="A58" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18">
+      <c r="A59" s="38" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25">
-      <c r="A52" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" s="23" t="s">
+      <c r="B59" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18">
+      <c r="A61" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18">
+      <c r="A62" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18">
+      <c r="A63" s="38" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.25">
-      <c r="A53" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17.25">
-      <c r="A54" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.25">
-      <c r="A55" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17.25">
-      <c r="A56" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17.25">
-      <c r="A57" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.25">
-      <c r="A58" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17.25">
-      <c r="A59" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.25">
-      <c r="A60" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18">
-      <c r="A61" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17.25">
-      <c r="A62" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17.25">
-      <c r="A63" s="35" t="s">
-        <v>159</v>
-      </c>
       <c r="B63" s="23" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18">
-      <c r="A64" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18">
-      <c r="A65" s="41"/>
-      <c r="B65" s="22"/>
-    </row>
-    <row r="66" spans="1:2" ht="17.25">
-      <c r="A66" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="11"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="23"/>
+    </row>
+    <row r="65" spans="1:2" ht="17.25">
+      <c r="A65" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18">
+      <c r="A66" s="38"/>
+      <c r="B66" s="23"/>
+    </row>
+    <row r="67" spans="1:2" ht="18">
+      <c r="A67" s="38"/>
+      <c r="B67" s="23"/>
     </row>
     <row r="68" spans="1:2" ht="18">
-      <c r="A68" s="41"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="23"/>
     </row>
     <row r="69" spans="1:2" ht="18">
-      <c r="A69" s="41"/>
-      <c r="B69" s="22"/>
-    </row>
-    <row r="70" spans="1:2" ht="18.75">
-      <c r="A70" s="43"/>
-      <c r="B70" s="1"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="23"/>
+    </row>
+    <row r="70" spans="1:2" ht="18">
+      <c r="A70" s="38"/>
+      <c r="B70" s="23"/>
     </row>
     <row r="71" spans="1:2" ht="18">
       <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
+      <c r="B71" s="23"/>
     </row>
     <row r="72" spans="1:2" ht="18">
       <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
+      <c r="B72" s="23"/>
     </row>
     <row r="73" spans="1:2" ht="18">
       <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
+      <c r="B73" s="23"/>
     </row>
     <row r="74" spans="1:2" ht="18">
       <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
+      <c r="B74" s="23"/>
     </row>
     <row r="75" spans="1:2" ht="18">
       <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
+      <c r="B75" s="23"/>
     </row>
     <row r="76" spans="1:2" ht="18">
       <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-    </row>
-    <row r="77" spans="1:2" ht="18">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-    </row>
-    <row r="78" spans="1:2" ht="18">
-      <c r="A78" s="38"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="214">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -604,10 +604,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>005809</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>008901</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -645,10 +641,6 @@
   </si>
   <si>
     <t>宝盈研究精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源裕源</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -1370,7 +1362,7 @@
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1412,7 +1404,7 @@
         <v>280</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
@@ -1423,16 +1415,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="30">
         <v>280</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
@@ -1443,7 +1435,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>112</v>
@@ -1463,10 +1455,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="30">
         <v>280</v>
@@ -1492,7 +1484,7 @@
         <v>280</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
@@ -1536,16 +1528,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" s="32">
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>3</v>
@@ -1553,16 +1545,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="32">
         <v>200</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>5</v>
@@ -1584,16 +1576,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C13" s="32">
         <v>200</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>7</v>
@@ -1604,7 +1596,7 @@
         <v>121</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" s="32">
         <v>200</v>
@@ -1621,13 +1613,13 @@
         <v>122</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C15" s="32">
         <v>200</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>7</v>
@@ -2005,16 +1997,16 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G42" s="19"/>
     </row>
@@ -2152,7 +2144,7 @@
         <v>151</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="24">
         <v>200</v>
@@ -2177,7 +2169,7 @@
         <v>152</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="24">
         <v>200</v>
@@ -2191,7 +2183,7 @@
         <v>153</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="24">
         <v>200</v>
@@ -2205,7 +2197,7 @@
         <v>154</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" s="24">
         <v>200</v>
@@ -2247,7 +2239,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
@@ -2261,7 +2253,7 @@
         <v>161128</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
@@ -2275,7 +2267,7 @@
         <v>157</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
@@ -2286,10 +2278,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
@@ -2300,10 +2292,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
@@ -2314,10 +2306,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
@@ -2331,7 +2323,7 @@
         <v>132</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
@@ -2345,7 +2337,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
@@ -2359,7 +2351,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
@@ -2373,7 +2365,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
@@ -2626,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2689,7 +2681,7 @@
         <v>161128</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -2721,7 +2713,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25">
@@ -2742,15 +2734,15 @@
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>112</v>
@@ -2758,10 +2750,10 @@
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="A15" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25">
@@ -2777,7 +2769,7 @@
         <v>153</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
@@ -2817,285 +2809,293 @@
         <v>151</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25">
-      <c r="A23" s="35" t="s">
-        <v>158</v>
+      <c r="A23" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="34" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25">
       <c r="A25" s="34" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18">
-      <c r="A27" s="38" t="s">
+    <row r="26" spans="1:3" ht="18">
+      <c r="A26" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B26" s="28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="35" t="s">
+    <row r="27" spans="1:3" ht="17.25">
+      <c r="A27" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18">
-      <c r="A29" s="38" t="s">
+      <c r="B27" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18">
+      <c r="A28" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B28" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="34" t="s">
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="34" t="s">
         <v>103</v>
       </c>
+      <c r="B29" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18">
+      <c r="A30" s="33" t="s">
+        <v>133</v>
+      </c>
       <c r="B30" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18">
-      <c r="A31" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.25">
+      <c r="A31" s="34" t="s">
+        <v>143</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="A33" s="38" t="s">
+    <row r="32" spans="1:3" ht="18">
+      <c r="A32" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B32" s="28" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="33" spans="1:2" ht="17.25">
+      <c r="A33" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="34" spans="1:2" ht="17.25">
-      <c r="A34" s="34" t="s">
-        <v>11</v>
+      <c r="A34" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25">
-      <c r="A35" s="35" t="s">
-        <v>161</v>
+      <c r="A35" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
-      <c r="A36" s="34" t="s">
-        <v>26</v>
+      <c r="A36" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25">
-      <c r="A37" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18">
-      <c r="A38" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18">
+      <c r="A37" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25">
+      <c r="A38" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="34" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
-      <c r="A40" s="34" t="s">
-        <v>15</v>
+      <c r="A40" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25">
-      <c r="A42" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="23" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="41" spans="1:2" ht="17.25">
+      <c r="A41" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18">
+      <c r="A42" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="43" spans="1:2" ht="17.25">
-      <c r="A43" s="34" t="s">
-        <v>8</v>
+      <c r="A43" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18">
       <c r="A44" s="38" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25">
-      <c r="A45" s="33" t="s">
-        <v>101</v>
+      <c r="A45" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18">
-      <c r="A46" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>126</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25">
+      <c r="A46" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
-      <c r="A47" s="35" t="s">
-        <v>66</v>
+      <c r="A47" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
-      <c r="A48" s="34" t="s">
-        <v>116</v>
+      <c r="A48" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25">
-      <c r="A49" s="34" t="s">
-        <v>104</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25">
-      <c r="A50" s="35" t="s">
-        <v>138</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18">
+      <c r="A50" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
       <c r="A51" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18">
       <c r="A52" s="38" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18">
       <c r="A53" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18">
       <c r="A54" s="38" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18">
       <c r="A55" s="38" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18">
       <c r="A56" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18">
       <c r="A57" s="38" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18">
       <c r="A58" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>211</v>
@@ -3103,47 +3103,43 @@
     </row>
     <row r="59" spans="1:2" ht="18">
       <c r="A59" s="38" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="B59" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18">
+      <c r="A60" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18">
-      <c r="A61" s="38" t="s">
-        <v>207</v>
+    <row r="61" spans="1:2" ht="17.25">
+      <c r="A61" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18">
-      <c r="A62" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>197</v>
-      </c>
+      <c r="A62" s="38"/>
+      <c r="B62" s="23"/>
     </row>
     <row r="63" spans="1:2" ht="18">
-      <c r="A63" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>214</v>
-      </c>
+      <c r="A63" s="38"/>
+      <c r="B63" s="23"/>
     </row>
     <row r="64" spans="1:2" ht="18">
       <c r="A64" s="38"/>
       <c r="B64" s="23"/>
     </row>
-    <row r="65" spans="1:2" ht="17.25">
-      <c r="A65" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>61</v>
-      </c>
+    <row r="65" spans="1:2" ht="18">
+      <c r="A65" s="38"/>
+      <c r="B65" s="23"/>
     </row>
     <row r="66" spans="1:2" ht="18">
       <c r="A66" s="38"/>
@@ -3171,22 +3167,6 @@
     </row>
     <row r="72" spans="1:2" ht="18">
       <c r="A72" s="38"/>
-      <c r="B72" s="23"/>
-    </row>
-    <row r="73" spans="1:2" ht="18">
-      <c r="A73" s="38"/>
-      <c r="B73" s="23"/>
-    </row>
-    <row r="74" spans="1:2" ht="18">
-      <c r="A74" s="38"/>
-      <c r="B74" s="23"/>
-    </row>
-    <row r="75" spans="1:2" ht="18">
-      <c r="A75" s="38"/>
-      <c r="B75" s="23"/>
-    </row>
-    <row r="76" spans="1:2" ht="18">
-      <c r="A76" s="38"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="221">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -815,6 +815,29 @@
   <si>
     <t>宝盈人工智能股票A</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008655</t>
+  </si>
+  <si>
+    <t>008655</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+  </si>
+  <si>
+    <t>付斌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006775</t>
+  </si>
+  <si>
+    <t>前海开源优质成长混合</t>
+  </si>
+  <si>
+    <t>邱杰</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1746,70 +1769,70 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C26" s="24">
         <v>420</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="34">
-        <v>100020</v>
+      <c r="A27" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="C27" s="24">
         <v>420</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="34" t="s">
-        <v>26</v>
+      <c r="A28" s="34">
+        <v>100020</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="34">
-        <v>160222</v>
+      <c r="A29" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
@@ -1820,282 +1843,282 @@
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34" t="s">
-        <v>30</v>
+      <c r="A30" s="34">
+        <v>160222</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="34">
-        <v>110011</v>
+      <c r="A34" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="34">
-        <v>110003</v>
+        <v>110011</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
-      <c r="A36" s="34" t="s">
-        <v>142</v>
+      <c r="A36" s="34">
+        <v>110003</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="34" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="34" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="34" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="C43" s="24">
         <v>420</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="34" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="34" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="34" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C48" s="24">
         <v>420</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -2103,22 +2126,27 @@
       <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="11"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="13">
-        <f>SUM(C21:C48)</f>
-        <v>11760</v>
-      </c>
-      <c r="D49" s="14"/>
+      <c r="A49" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="24">
+        <v>420</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="11"/>
       <c r="B50" s="42"/>
-      <c r="C50" s="3">
-        <f>COUNT(C21:C48)</f>
-        <v>28</v>
+      <c r="C50" s="13">
+        <f>SUM(C21:C49)</f>
+        <v>12180</v>
       </c>
       <c r="D50" s="14"/>
       <c r="I50" s="1"/>
@@ -2126,317 +2154,334 @@
     <row r="51" spans="1:9">
       <c r="A51" s="11"/>
       <c r="B51" s="42"/>
+      <c r="C51" s="3">
+        <f>COUNT(C21:C49)</f>
+        <v>29</v>
+      </c>
       <c r="D51" s="14"/>
       <c r="E51" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F51" s="5">
-        <f>COUNT(C2:C6)+COUNT(C21:C48)</f>
-        <v>33</v>
+        <f>COUNT(C2:C6)+COUNT(C21:C49)</f>
+        <v>34</v>
       </c>
       <c r="G51" s="5">
-        <f>SUM(C49+C7)</f>
-        <v>13160</v>
+        <f>SUM(C50+C7)</f>
+        <v>13580</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="24">
-        <v>200</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="A52" s="11"/>
+      <c r="B52" s="42"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F52" s="5">
-        <f>SUM(C19+C72)</f>
+        <f>SUM(C19+C74)</f>
         <v>25</v>
       </c>
       <c r="G52" s="5">
-        <f>SUM(C71+C18)</f>
-        <v>5400</v>
+        <f>SUM(C73+C18)</f>
+        <v>5600</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" s="24">
         <v>200</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C54" s="24">
         <v>200</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="35" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="C55" s="24">
         <v>200</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C56" s="24">
         <v>200</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="C57" s="24">
         <v>200</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="35" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="35">
-        <v>161128</v>
+      <c r="A59" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="35" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="35" t="s">
-        <v>158</v>
+      <c r="A61" s="35">
+        <v>161128</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="33" t="s">
-        <v>132</v>
+      <c r="A64" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="33" t="s">
-        <v>58</v>
+      <c r="A65" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="33" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="33" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="33" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="33" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="24">
+        <v>200</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="24">
+        <v>200</v>
+      </c>
+      <c r="D72" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="11"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="13">
-        <f>SUM(C52:C70)</f>
-        <v>3800</v>
-      </c>
-      <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="3">
-        <f>COUNT(C54:C70)</f>
-        <v>17</v>
-      </c>
-    </row>
     <row r="73" spans="1:4">
-      <c r="B73" s="4"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="13">
+        <f>SUM(C53:C72)</f>
+        <v>4000</v>
+      </c>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" s="4"/>
+      <c r="C74" s="3">
+        <f>COUNT(C56:C72)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" s="4"/>
@@ -2605,6 +2650,12 @@
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2618,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3126,12 +3177,20 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="18">
-      <c r="A62" s="38"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="18">
-      <c r="A63" s="38"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="18">
       <c r="A64" s="38"/>
@@ -3151,22 +3210,6 @@
     </row>
     <row r="68" spans="1:2" ht="18">
       <c r="A68" s="38"/>
-      <c r="B68" s="23"/>
-    </row>
-    <row r="69" spans="1:2" ht="18">
-      <c r="A69" s="38"/>
-      <c r="B69" s="23"/>
-    </row>
-    <row r="70" spans="1:2" ht="18">
-      <c r="A70" s="38"/>
-      <c r="B70" s="23"/>
-    </row>
-    <row r="71" spans="1:2" ht="18">
-      <c r="A71" s="38"/>
-      <c r="B71" s="23"/>
-    </row>
-    <row r="72" spans="1:2" ht="18">
-      <c r="A72" s="38"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="251">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -797,54 +797,155 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>招商中证白酒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实泰和混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈人工智能股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008655</t>
+  </si>
+  <si>
+    <t>008655</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+  </si>
+  <si>
+    <t>付斌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006775</t>
+  </si>
+  <si>
+    <t>前海开源优质成长混合</t>
+  </si>
+  <si>
+    <t>邱杰</t>
+  </si>
+  <si>
+    <t>景顺长城鼎益混合(LOF)</t>
+  </si>
+  <si>
+    <t>162605</t>
+  </si>
+  <si>
+    <t>刘彦春</t>
+  </si>
+  <si>
+    <t>006775</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>162605</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005526</t>
+  </si>
+  <si>
+    <t>工银新生代消费混合</t>
+  </si>
+  <si>
+    <t>景顺长城创业板综指增强</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费精选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>富国高新技术产业混合</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>招商中证白酒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实泰和混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>信达澳银精华配置混合</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>宝盈人工智能股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008655</t>
-  </si>
-  <si>
-    <t>008655</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>招商科技创新混合A</t>
-  </si>
-  <si>
-    <t>付斌</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006775</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>前海开源优质成长混合</t>
-  </si>
-  <si>
-    <t>邱杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城鼎益混合(LOF)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新生代消费混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢惠添利灵活配置混合</t>
+  </si>
+  <si>
+    <t>005711</t>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢惠添利灵活配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008480</t>
+  </si>
+  <si>
+    <t>永赢股息优选A</t>
+  </si>
+  <si>
+    <t>永赢创业板A</t>
+  </si>
+  <si>
+    <t>007664</t>
+  </si>
+  <si>
+    <t>006252</t>
+  </si>
+  <si>
+    <t>永赢消费主题A</t>
+  </si>
+  <si>
+    <t>006818</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+  </si>
+  <si>
+    <t>李永兴</t>
+  </si>
+  <si>
+    <t>常远</t>
+  </si>
+  <si>
+    <t>晏青</t>
+  </si>
+  <si>
+    <t>袁玮</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <b/>
       <sz val="10"/>
@@ -985,12 +1086,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="DengXian Light"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="黑体"/>
@@ -1026,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1095,11 +1190,8 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1382,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1568,16 +1660,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="36" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="C11" s="32">
         <v>200</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>193</v>
+      <c r="D11" s="39" t="s">
+        <v>250</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>5</v>
@@ -1585,30 +1677,30 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="C12" s="32">
         <v>200</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="36" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="C13" s="32">
         <v>200</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>199</v>
+      <c r="D13" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>7</v>
@@ -1616,16 +1708,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="36" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="32">
         <v>200</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>129</v>
+      <c r="D14" s="39" t="s">
+        <v>199</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>3</v>
@@ -1633,16 +1725,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="32">
         <v>200</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>7</v>
@@ -1650,16 +1742,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C16" s="32">
         <v>200</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>3</v>
@@ -1667,85 +1759,85 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="32">
         <v>200</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="9">
-        <f>SUM(C10:C17)</f>
-        <v>1600</v>
-      </c>
-      <c r="D18" s="8"/>
+      <c r="A18" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="32">
+        <v>200</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="3">
-        <f>COUNT(C10:C17)</f>
-        <v>8</v>
+      <c r="C19" s="9">
+        <f>SUM(C10:C18)</f>
+        <v>1800</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="3">
+        <f>COUNT(C10:C18)</f>
+        <v>9</v>
+      </c>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="24">
-        <v>420</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="C22" s="24">
         <v>420</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>12</v>
       </c>
       <c r="C23" s="24">
         <v>420</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
@@ -1755,99 +1847,99 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>84</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="C24" s="24">
         <v>420</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>22</v>
+        <v>85</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="C26" s="24">
         <v>420</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>219</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="C27" s="24">
         <v>420</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="34">
-        <v>100020</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>24</v>
+      <c r="A28" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>217</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>27</v>
+      <c r="A29" s="34">
+        <v>100020</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34">
-        <v>160222</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>29</v>
+      <c r="A30" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
@@ -1858,267 +1950,270 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>31</v>
+      <c r="A31" s="34">
+        <v>160222</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="34">
-        <v>110011</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>42</v>
+      <c r="A35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="34">
-        <v>110003</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>44</v>
+        <v>110011</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>46</v>
+      <c r="A37" s="34">
+        <v>110003</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>48</v>
+      <c r="A38" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>226</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>50</v>
+        <v>142</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>60</v>
+        <v>243</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>244</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>119</v>
+        <v>242</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>241</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>69</v>
+        <v>236</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>235</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>177</v>
+        <v>143</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>48</v>
       </c>
       <c r="C43" s="24">
         <v>420</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>74</v>
+        <v>103</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>93</v>
+        <v>144</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>140</v>
+        <v>220</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>219</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>136</v>
+        <v>145</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>115</v>
+        <v>146</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="C48" s="24">
         <v>420</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -2127,426 +2222,503 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>96</v>
+        <v>178</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="C49" s="24">
         <v>420</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="11"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="13">
-        <f>SUM(C21:C49)</f>
-        <v>12180</v>
-      </c>
-      <c r="D50" s="14"/>
+      <c r="A50" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="24">
+        <v>420</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>88</v>
+      </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="11"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="3">
-        <f>COUNT(C21:C49)</f>
-        <v>29</v>
-      </c>
-      <c r="D51" s="14"/>
+      <c r="A51" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="24">
+        <v>420</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>109</v>
+      </c>
       <c r="E51" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F51" s="5">
-        <f>COUNT(C2:C6)+COUNT(C21:C49)</f>
-        <v>34</v>
+        <f>C57+C8</f>
+        <v>39</v>
       </c>
       <c r="G51" s="5">
-        <f>SUM(C50+C7)</f>
-        <v>13580</v>
+        <f>SUM(C56+C7)</f>
+        <v>15680</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="11"/>
-      <c r="B52" s="42"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="24">
+        <v>420</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="E52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F52" s="5">
-        <f>SUM(C19+C74)</f>
-        <v>25</v>
+        <f>SUM(C20+C81)</f>
+        <v>30</v>
       </c>
       <c r="G52" s="5">
-        <f>SUM(C73+C18)</f>
-        <v>5600</v>
+        <f>SUM(C80+C19)</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>161</v>
+      <c r="A53" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="C53" s="24">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>162</v>
+      <c r="A54" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>115</v>
       </c>
       <c r="C54" s="24">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>216</v>
+      <c r="A55" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="C55" s="24">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="24">
-        <v>200</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="A56" s="11"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="13">
+        <f>SUM(C22:C55)</f>
+        <v>14280</v>
+      </c>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="24">
-        <v>200</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>110</v>
-      </c>
+      <c r="A57" s="11"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="3">
+        <f>COUNT(C22:C55)</f>
+        <v>34</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="24">
-        <v>200</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>78</v>
-      </c>
+      <c r="A58" s="11"/>
+      <c r="B58" s="41"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>61</v>
+        <v>151</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>165</v>
+        <v>239</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>240</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="35">
-        <v>161128</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>166</v>
+      <c r="A61" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>167</v>
+        <v>212</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>214</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="41" t="s">
-        <v>168</v>
+        <v>153</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>169</v>
+        <v>154</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="41" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>77</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="41" t="s">
-        <v>171</v>
+      <c r="A66" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="41" t="s">
-        <v>172</v>
+      <c r="A67" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>165</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>173</v>
+      <c r="A68" s="35">
+        <v>161128</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>174</v>
+      <c r="A69" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="41" t="s">
-        <v>100</v>
+      <c r="A70" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>168</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>102</v>
+      <c r="A71" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>169</v>
       </c>
       <c r="C71" s="24">
         <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B72" s="41" t="s">
-        <v>134</v>
+      <c r="A72" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="C72" s="24">
         <v>200</v>
       </c>
       <c r="D72" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="24">
+        <v>200</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="24">
+        <v>200</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="24">
+        <v>200</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="24">
+        <v>200</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="24">
+        <v>200</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="24">
+        <v>200</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="24">
+        <v>200</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="11"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="13">
-        <f>SUM(C53:C72)</f>
-        <v>4000</v>
-      </c>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="3">
-        <f>COUNT(C56:C72)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="B79" s="4"/>
-    </row>
     <row r="80" spans="1:4">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="A80" s="11"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="13">
+        <f>SUM(C59:C79)</f>
+        <v>4200</v>
+      </c>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81" s="3">
+        <f>COUNT(C59:C79)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:3">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:3">
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:3">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:3">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:3">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:3">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:3">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:3">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:3">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:3">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:3">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:3">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:3">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:3">
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="2:2">
@@ -2656,6 +2828,27 @@
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2669,15 +2862,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13" style="39" customWidth="1"/>
+    <col min="1" max="1" width="13" style="38" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="21" customWidth="1"/>
     <col min="4" max="4" width="9.125" style="21" customWidth="1"/>
@@ -2728,18 +2921,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25">
-      <c r="A6" s="35">
+      <c r="A6" s="34">
         <v>161128</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:5" ht="17.25">
+      <c r="A7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="23" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2760,7 +2953,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -2783,27 +2976,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:5" ht="17.25">
+      <c r="A13" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:5" ht="17.25">
+      <c r="A14" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:5" ht="17.25">
+      <c r="A15" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="23" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2816,7 +3009,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>153</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -2856,7 +3049,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>151</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -2876,7 +3069,7 @@
         <v>105</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25">
@@ -2887,27 +3080,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>154</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2920,7 +3113,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="34" t="s">
         <v>133</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -2936,11 +3129,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="23" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2953,7 +3146,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="34" t="s">
         <v>160</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -2969,18 +3162,18 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:2" ht="17.25">
+      <c r="A37" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="23" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3001,7 +3194,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="34" t="s">
         <v>99</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -3016,32 +3209,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18">
-      <c r="A42" s="38" t="s">
+    <row r="42" spans="1:2" ht="17.25">
+      <c r="A42" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18">
-      <c r="A44" s="38" t="s">
+    <row r="44" spans="1:2" ht="17.25">
+      <c r="A44" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="23" t="s">
@@ -3061,155 +3254,210 @@
         <v>104</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="34" t="s">
         <v>138</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:2" ht="17.25">
+      <c r="A49" s="34" t="s">
         <v>200</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18">
-      <c r="A50" s="38" t="s">
+    <row r="50" spans="1:2" ht="17.25">
+      <c r="A50" s="34" t="s">
         <v>155</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18">
-      <c r="A51" s="38" t="s">
+    <row r="51" spans="1:2" ht="17.25">
+      <c r="A51" s="34" t="s">
         <v>201</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18">
-      <c r="A52" s="38" t="s">
+    <row r="52" spans="1:2" ht="17.25">
+      <c r="A52" s="34" t="s">
         <v>158</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18">
-      <c r="A53" s="38" t="s">
+    <row r="53" spans="1:2" ht="17.25">
+      <c r="A53" s="34" t="s">
         <v>202</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18">
-      <c r="A54" s="38" t="s">
-        <v>203</v>
+    <row r="54" spans="1:2" ht="17.25">
+      <c r="A54" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18">
-      <c r="A55" s="38" t="s">
-        <v>159</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25">
+      <c r="A55" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18">
-      <c r="A56" s="38" t="s">
-        <v>204</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25">
+      <c r="A56" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18">
-      <c r="A57" s="38" t="s">
-        <v>79</v>
+    <row r="57" spans="1:2" ht="17.25">
+      <c r="A57" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18">
-      <c r="A58" s="38" t="s">
-        <v>205</v>
+    <row r="58" spans="1:2" ht="17.25">
+      <c r="A58" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18">
-      <c r="A59" s="38" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.25">
+      <c r="A59" s="34" t="s">
+        <v>149</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18">
-      <c r="A60" s="38" t="s">
-        <v>149</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25">
+      <c r="A60" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25">
-      <c r="A61" s="35" t="s">
-        <v>156</v>
+      <c r="A61" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18">
-      <c r="A62" s="38" t="s">
-        <v>215</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.25">
+      <c r="A62" s="34" t="s">
+        <v>222</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18">
-      <c r="A63" s="38" t="s">
-        <v>218</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.25">
+      <c r="A63" s="34" t="s">
+        <v>223</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18">
-      <c r="A64" s="38"/>
-      <c r="B64" s="23"/>
-    </row>
-    <row r="65" spans="1:2" ht="18">
-      <c r="A65" s="38"/>
-      <c r="B65" s="23"/>
-    </row>
-    <row r="66" spans="1:2" ht="18">
-      <c r="A66" s="38"/>
-      <c r="B66" s="23"/>
-    </row>
-    <row r="67" spans="1:2" ht="18">
-      <c r="A67" s="38"/>
-      <c r="B67" s="23"/>
-    </row>
-    <row r="68" spans="1:2" ht="18">
-      <c r="A68" s="38"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.25">
+      <c r="A64" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17.25">
+      <c r="A65" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.25">
+      <c r="A66" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17.25">
+      <c r="A67" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.25">
+      <c r="A68" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.25">
+      <c r="A69" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17.25">
+      <c r="A70" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17.25">
+      <c r="A71" s="34"/>
+      <c r="B71" s="23"/>
+    </row>
+    <row r="72" spans="1:2" ht="17.25">
+      <c r="A72" s="34"/>
+      <c r="B72" s="23"/>
+    </row>
+    <row r="73" spans="1:2" ht="17.25">
+      <c r="A73" s="34"/>
+      <c r="B73" s="23"/>
+    </row>
+    <row r="74" spans="1:2" ht="17.25">
+      <c r="A74" s="34"/>
+    </row>
+    <row r="75" spans="1:2" ht="17.25">
+      <c r="A75" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="248">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -359,9 +359,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>国泰大农业股票</t>
-  </si>
-  <si>
     <t>5770</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -405,10 +402,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>001579</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>005726</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -557,10 +550,6 @@
   </si>
   <si>
     <t>008072</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001579</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -1474,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1519,7 +1508,7 @@
         <v>280</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
@@ -1530,16 +1519,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" s="30">
         <v>280</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
@@ -1550,10 +1539,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="30">
         <v>280</v>
@@ -1570,10 +1559,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" s="30">
         <v>280</v>
@@ -1585,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1599,13 +1588,13 @@
         <v>280</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1643,16 +1632,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C10" s="32">
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>3</v>
@@ -1660,16 +1649,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C11" s="32">
         <v>200</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>5</v>
@@ -1677,21 +1666,21 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>192</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>195</v>
       </c>
       <c r="C12" s="32">
         <v>200</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>73</v>
@@ -1700,7 +1689,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>7</v>
@@ -1708,16 +1697,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" s="32">
         <v>200</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>3</v>
@@ -1725,16 +1714,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C15" s="32">
         <v>200</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>7</v>
@@ -1742,16 +1731,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" s="32">
         <v>200</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>3</v>
@@ -1759,16 +1748,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="32">
         <v>200</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>5</v>
@@ -1776,16 +1765,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="32">
         <v>200</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1906,16 +1895,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F28" s="18"/>
     </row>
@@ -2056,10 +2045,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
@@ -2070,7 +2059,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>46</v>
@@ -2087,50 +2076,50 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43" s="40" t="s">
         <v>48</v>
@@ -2145,7 +2134,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>50</v>
@@ -2160,7 +2149,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>60</v>
@@ -2169,42 +2158,42 @@
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>69</v>
@@ -2222,23 +2211,23 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C49" s="24">
         <v>420</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="40" t="s">
         <v>74</v>
@@ -2253,472 +2242,461 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="C51" s="24">
         <v>420</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F51" s="5">
-        <f>C57+C8</f>
-        <v>39</v>
+        <f>C56+C8</f>
+        <v>38</v>
       </c>
       <c r="G51" s="5">
-        <f>SUM(C56+C7)</f>
-        <v>15680</v>
+        <f>SUM(C55+C7)</f>
+        <v>15260</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C52" s="24">
         <v>420</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F52" s="5">
-        <f>SUM(C20+C81)</f>
+        <f>SUM(C20+C80)</f>
         <v>30</v>
       </c>
       <c r="G52" s="5">
-        <f>SUM(C80+C19)</f>
+        <f>SUM(C79+C19)</f>
         <v>6000</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="34" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C53" s="24">
         <v>420</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="34" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C54" s="24">
         <v>420</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="24">
-        <v>420</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>111</v>
-      </c>
+      <c r="A55" s="11"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="13">
+        <f>SUM(C22:C54)</f>
+        <v>13860</v>
+      </c>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="11"/>
       <c r="B56" s="41"/>
-      <c r="C56" s="13">
-        <f>SUM(C22:C55)</f>
-        <v>14280</v>
+      <c r="C56" s="3">
+        <f>COUNT(C22:C54)</f>
+        <v>33</v>
       </c>
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="11"/>
       <c r="B57" s="41"/>
-      <c r="C57" s="3">
-        <f>COUNT(C22:C55)</f>
-        <v>34</v>
-      </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="11"/>
-      <c r="B58" s="41"/>
-      <c r="D58" s="14"/>
+      <c r="A58" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="24">
+        <v>200</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="35" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="35" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="35" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="35" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="35" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="35" t="s">
-        <v>66</v>
+      <c r="A67" s="35">
+        <v>161128</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35">
-        <v>161128</v>
+      <c r="A68" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C71" s="24">
         <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="35" t="s">
-        <v>160</v>
+      <c r="A72" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C72" s="24">
         <v>200</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="33" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C73" s="24">
         <v>200</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C74" s="24">
         <v>200</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C75" s="24">
         <v>200</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="33" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C76" s="24">
         <v>200</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77" s="24">
         <v>200</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="33" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C78" s="24">
         <v>200</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="24">
-        <v>200</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>135</v>
-      </c>
+      <c r="A79" s="11"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="13">
+        <f>SUM(C58:C78)</f>
+        <v>4200</v>
+      </c>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="11"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="13">
-        <f>SUM(C59:C79)</f>
-        <v>4200</v>
-      </c>
-      <c r="D80" s="15"/>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="B80" s="4"/>
+      <c r="C80" s="3">
+        <f>COUNT(C58:C78)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" s="4"/>
-      <c r="C81" s="3">
-        <f>COUNT(C59:C79)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:2">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:2">
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:2">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:2">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:2">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:2">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:2">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:2">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:2">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:2">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:2">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:2">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:2">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:2">
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="2:2">
@@ -2846,9 +2824,6 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="4"/>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2862,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2925,7 +2900,7 @@
         <v>161128</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25">
@@ -2946,448 +2921,448 @@
     </row>
     <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="34" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25">
       <c r="A10" s="34" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25">
       <c r="A11" s="34" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25">
       <c r="A12" s="34" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25">
       <c r="A13" s="34" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25">
       <c r="A14" s="34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25">
       <c r="A15" s="34" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25">
       <c r="A16" s="34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="34" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="34" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="34" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="34" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="34" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25">
       <c r="A22" s="34" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25">
       <c r="A23" s="34" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="34" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25">
       <c r="A25" s="34" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="34" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="34" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.25">
       <c r="A28" s="34" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18">
       <c r="A29" s="34" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18">
+        <v>132</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="34" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="17.25">
       <c r="A31" s="34" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="34" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25">
       <c r="A33" s="34" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="34" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="34" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="34" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25">
       <c r="A37" s="34" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="34" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="34" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="34" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25">
       <c r="A41" s="34" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="34" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="34" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25">
       <c r="A44" s="34" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25">
       <c r="A45" s="34" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="34" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="34" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="34" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25">
       <c r="A49" s="34" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25">
       <c r="A50" s="34" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25">
       <c r="A51" s="34" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25">
       <c r="A52" s="34" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25">
       <c r="A53" s="34" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25">
       <c r="A54" s="34" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25">
       <c r="A55" s="34" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25">
       <c r="A56" s="34" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25">
       <c r="A57" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25">
       <c r="A58" s="34" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.25">
       <c r="A59" s="34" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="34" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="34" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25">
       <c r="A62" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25">
       <c r="A63" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25">
       <c r="A64" s="34" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>234</v>
@@ -3395,10 +3370,10 @@
     </row>
     <row r="65" spans="1:2" ht="17.25">
       <c r="A65" s="34" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25">
@@ -3406,7 +3381,7 @@
         <v>236</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25">
@@ -3414,12 +3389,12 @@
         <v>239</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.25">
       <c r="A68" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B68" s="23" t="s">
         <v>241</v>
@@ -3427,19 +3402,15 @@
     </row>
     <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="70" spans="1:2" ht="17.25">
-      <c r="A70" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>246</v>
-      </c>
+      <c r="A70" s="34"/>
+      <c r="B70" s="23"/>
     </row>
     <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="34"/>
@@ -3451,13 +3422,9 @@
     </row>
     <row r="73" spans="1:2" ht="17.25">
       <c r="A73" s="34"/>
-      <c r="B73" s="23"/>
     </row>
     <row r="74" spans="1:2" ht="17.25">
       <c r="A74" s="34"/>
-    </row>
-    <row r="75" spans="1:2" ht="17.25">
-      <c r="A75" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="208">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -410,531 +410,385 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>邹新进</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王阳,周伟锋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优企精选混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006228</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞研究精选</t>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张慧</t>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞激励动力混合A</t>
+  </si>
+  <si>
+    <t>006228</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006373</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰鑫睿混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富全球科技互联混合(QDII)人民币</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐成,狄星华</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈雪峰</t>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006341</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008072</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>004616</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧电子信息产业沪港深股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安估值精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普科技</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈研究精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费精选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富全球互联混合(QDII)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安匠心优选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002560</t>
+  </si>
+  <si>
+    <t>006882</t>
+  </si>
+  <si>
+    <t>蔡嵩松</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯昊</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>过蓓蓓,吴振翔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000595</t>
+  </si>
+  <si>
+    <t>嘉实泰和混合</t>
+  </si>
+  <si>
+    <t>006408</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安和鑫灵活配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富消费升级混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰保兴健康消费A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚烁徽</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008655</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+  </si>
+  <si>
+    <t>付斌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城鼎益混合(LOF)</t>
+  </si>
+  <si>
+    <t>162605</t>
+  </si>
+  <si>
+    <t>刘彦春</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢惠添利灵活配置混合</t>
+  </si>
+  <si>
+    <t>005711</t>
+  </si>
+  <si>
+    <t>008480</t>
+  </si>
+  <si>
+    <t>永赢股息优选A</t>
+  </si>
+  <si>
+    <t>永赢创业板A</t>
+  </si>
+  <si>
+    <t>007664</t>
+  </si>
+  <si>
+    <t>006252</t>
+  </si>
+  <si>
+    <t>永赢消费主题A</t>
+  </si>
+  <si>
+    <t>006818</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+  </si>
+  <si>
+    <t>李永兴</t>
+  </si>
+  <si>
+    <t>常远</t>
+  </si>
+  <si>
+    <t>晏青</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰保兴健康消费A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁玮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛兰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭冬寒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>程洲</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹新进</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>王阳,周伟锋</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发优企精选混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006228</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞研究精选</t>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张慧</t>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞激励动力混合A</t>
-  </si>
-  <si>
-    <t>006228</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007733</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006373</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰鑫睿混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国富全球科技互联混合(QDII)人民币</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛兰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭冬寒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐成,狄星华</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈雪峰</t>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006308</t>
-  </si>
-  <si>
-    <t>添富全球消费混合(QDII)人民币A</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-  </si>
-  <si>
-    <t>信达澳银精华配置混合</t>
-  </si>
-  <si>
-    <t>冯明远</t>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴杰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007203</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006341</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008072</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>003889</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>610002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005726</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005760</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>004616</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006138</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008227</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009265</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006751</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧电子信息产业沪港深股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国联安价值优选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安估值精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>标普科技</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝盈研究精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达消费精选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国互联科技股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富全球互联混合(QDII)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安匠心优选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002560</t>
-  </si>
-  <si>
-    <t>诺安和鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>富国高新技术产业混合</t>
-  </si>
-  <si>
-    <t>100060</t>
-  </si>
-  <si>
-    <t>李元博</t>
-  </si>
-  <si>
-    <t>华泰保兴健康消费A</t>
-  </si>
-  <si>
-    <t>006882</t>
-  </si>
-  <si>
-    <t>广发创新升级混合</t>
-  </si>
-  <si>
-    <t>蔡嵩松</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯昊</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>费逸等</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>过蓓蓓,吴振翔</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002939</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002624</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000595</t>
-  </si>
-  <si>
-    <t>嘉实泰和混合</t>
-  </si>
-  <si>
-    <t>006408</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安和鑫灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添富消费升级混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰保兴健康消费A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银医药健康股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚烁徽</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008227</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008507</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008949</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009076</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>100060</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000595</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006408</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银内核驱动混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商中证白酒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实泰和混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝盈人工智能股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008655</t>
-  </si>
-  <si>
-    <t>008655</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-  </si>
-  <si>
-    <t>付斌</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006775</t>
-  </si>
-  <si>
-    <t>前海开源优质成长混合</t>
-  </si>
-  <si>
-    <t>邱杰</t>
-  </si>
-  <si>
-    <t>景顺长城鼎益混合(LOF)</t>
-  </si>
-  <si>
-    <t>162605</t>
-  </si>
-  <si>
-    <t>刘彦春</t>
-  </si>
-  <si>
-    <t>006775</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>162605</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009265</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005526</t>
-  </si>
-  <si>
-    <t>工银新生代消费混合</t>
-  </si>
-  <si>
-    <t>景顺长城创业板综指增强</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达消费精选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国高新技术产业混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>信达澳银精华配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源优质成长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城鼎益混合(LOF)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新生代消费混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢惠添利灵活配置混合</t>
-  </si>
-  <si>
-    <t>005711</t>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢惠添利灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008480</t>
-  </si>
-  <si>
-    <t>永赢股息优选A</t>
-  </si>
-  <si>
-    <t>永赢创业板A</t>
-  </si>
-  <si>
-    <t>007664</t>
-  </si>
-  <si>
-    <t>006252</t>
-  </si>
-  <si>
-    <t>永赢消费主题A</t>
-  </si>
-  <si>
-    <t>006818</t>
-  </si>
-  <si>
-    <t>安信盈利驱动股票A</t>
-  </si>
-  <si>
-    <t>李永兴</t>
-  </si>
-  <si>
-    <t>常远</t>
-  </si>
-  <si>
-    <t>晏青</t>
-  </si>
-  <si>
-    <t>袁玮</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <b/>
       <sz val="10"/>
@@ -1068,14 +922,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="黑体"/>
       <family val="3"/>
@@ -1110,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1176,11 +1022,8 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1463,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1505,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="30">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
@@ -1519,16 +1362,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="C3" s="30">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
@@ -1539,16 +1382,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="C4" s="30">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
@@ -1559,16 +1402,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="C5" s="30">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
@@ -1578,18 +1421,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="30">
-        <v>280</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>184</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9">
+        <f>SUM(C2:C5)</f>
+        <v>1680</v>
+      </c>
+      <c r="D6" s="10"/>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1599,10 +1437,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9">
-        <f>SUM(C2:C6)</f>
-        <v>1400</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="7">
+        <f>COUNT(C2:C5)</f>
+        <v>4</v>
       </c>
       <c r="D7" s="10"/>
       <c r="F7" s="5" t="s">
@@ -1612,36 +1450,41 @@
     <row r="8" spans="1:7">
       <c r="A8" s="6"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="7">
-        <f>COUNT(C2:C6)</f>
-        <v>5</v>
-      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="10"/>
       <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="32">
+        <v>200</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>168</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" s="32">
         <v>200</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>180</v>
+      <c r="D10" s="38" t="s">
+        <v>184</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>3</v>
@@ -1649,16 +1492,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="36" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="C11" s="32">
         <v>200</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>247</v>
+      <c r="D11" s="38" t="s">
+        <v>204</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>5</v>
@@ -1666,21 +1509,21 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C12" s="32">
         <v>200</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>190</v>
+      <c r="D12" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>73</v>
@@ -1688,8 +1531,8 @@
       <c r="C13" s="32">
         <v>200</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>126</v>
+      <c r="D13" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>7</v>
@@ -1697,16 +1540,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="36" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C14" s="32">
         <v>200</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>196</v>
+      <c r="D14" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>3</v>
@@ -1714,16 +1557,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C15" s="32">
         <v>200</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>127</v>
+      <c r="D15" s="38" t="s">
+        <v>206</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>7</v>
@@ -1731,16 +1574,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C16" s="32">
         <v>200</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>181</v>
+      <c r="D16" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>3</v>
@@ -1748,16 +1591,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="32">
         <v>200</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>107</v>
+      <c r="D17" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>5</v>
@@ -1765,24 +1608,24 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="32">
         <v>200</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6"/>
       <c r="B19" s="22"/>
       <c r="C19" s="9">
-        <f>SUM(C10:C18)</f>
-        <v>1800</v>
+        <f>SUM(C9:C18)</f>
+        <v>2000</v>
       </c>
       <c r="D19" s="8"/>
     </row>
@@ -1790,8 +1633,8 @@
       <c r="A20" s="6"/>
       <c r="B20" s="22"/>
       <c r="C20" s="3">
-        <f>COUNT(C10:C18)</f>
-        <v>9</v>
+        <f>COUNT(C9:C18)</f>
+        <v>10</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -1805,7 +1648,7 @@
       <c r="A22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="24">
@@ -1819,7 +1662,7 @@
       <c r="A23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="24">
@@ -1838,7 +1681,7 @@
       <c r="A24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="24">
@@ -1852,7 +1695,7 @@
       <c r="A25" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="24">
@@ -1867,7 +1710,7 @@
       <c r="A26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="24">
@@ -1882,7 +1725,7 @@
       <c r="A27" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="24">
@@ -1894,41 +1737,41 @@
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>214</v>
+      <c r="A28" s="34">
+        <v>100020</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="34">
-        <v>100020</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>24</v>
+      <c r="A29" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>27</v>
+      <c r="A30" s="34">
+        <v>160222</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
@@ -1939,136 +1782,136 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="34">
-        <v>160222</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>29</v>
+      <c r="A31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>37</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>40</v>
+      <c r="A35" s="34">
+        <v>110011</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="34">
-        <v>110011</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>42</v>
+        <v>110003</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="34">
-        <v>110003</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>44</v>
+      <c r="A37" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>223</v>
+      <c r="A38" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>196</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>46</v>
+        <v>194</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>193</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="23"/>
@@ -2076,133 +1919,133 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>241</v>
+        <v>190</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>189</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>238</v>
+        <v>136</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>232</v>
+        <v>102</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>48</v>
+        <v>137</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="24">
         <v>420</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>50</v>
+        <v>186</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>185</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>60</v>
+        <v>138</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>116</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>216</v>
+        <v>139</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>117</v>
+        <v>104</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>69</v>
+        <v>140</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="C48" s="24">
         <v>420</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -2211,445 +2054,394 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>174</v>
+        <v>113</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>112</v>
       </c>
       <c r="C49" s="24">
         <v>420</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>74</v>
+        <v>141</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>95</v>
       </c>
       <c r="C50" s="24">
         <v>420</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="24">
-        <v>420</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>139</v>
-      </c>
+      <c r="A51" s="11"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="13">
+        <f>SUM(C22:C50)</f>
+        <v>12180</v>
+      </c>
+      <c r="D51" s="14"/>
       <c r="E51" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F51" s="5">
-        <f>C56+C8</f>
-        <v>38</v>
+        <f>C52+C7</f>
+        <v>33</v>
       </c>
       <c r="G51" s="5">
-        <f>SUM(C55+C7)</f>
-        <v>15260</v>
+        <f>SUM(C51+C6)</f>
+        <v>13860</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="24">
-        <v>420</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>135</v>
-      </c>
+      <c r="A52" s="11"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="3">
+        <f>COUNT(C22:C50)</f>
+        <v>29</v>
+      </c>
+      <c r="D52" s="14"/>
       <c r="E52" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F52" s="5">
-        <f>SUM(C20+C80)</f>
+        <f>SUM(C20+C75)</f>
         <v>30</v>
       </c>
       <c r="G52" s="5">
-        <f>SUM(C79+C19)</f>
+        <f>SUM(C74+C19)</f>
         <v>6000</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="24">
-        <v>420</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>115</v>
-      </c>
+      <c r="A53" s="11"/>
+      <c r="B53" s="40"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>95</v>
+      <c r="A54" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>152</v>
       </c>
       <c r="C54" s="24">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="11"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="13">
-        <f>SUM(C22:C54)</f>
-        <v>13860</v>
-      </c>
-      <c r="D55" s="14"/>
+      <c r="A55" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="24">
+        <v>200</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="11"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="3">
-        <f>COUNT(C22:C54)</f>
-        <v>33</v>
-      </c>
-      <c r="D56" s="14"/>
+      <c r="A56" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="24">
+        <v>200</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="11"/>
-      <c r="B57" s="41"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="24">
+        <v>200</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>158</v>
+        <v>145</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="C58" s="24">
         <v>200</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>237</v>
+        <v>146</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="C59" s="24">
         <v>200</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="C60" s="24">
         <v>200</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>211</v>
+        <v>66</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="C61" s="24">
         <v>200</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B62" s="40" t="s">
-        <v>160</v>
+      <c r="A62" s="35">
+        <v>161128</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="C62" s="24">
         <v>200</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>161</v>
+        <v>148</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="C63" s="24">
         <v>200</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="40" t="s">
-        <v>77</v>
+        <v>149</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="C64" s="24">
         <v>200</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>61</v>
+        <v>150</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>160</v>
       </c>
       <c r="C65" s="24">
         <v>200</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="C66" s="24">
         <v>200</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="35">
-        <v>161128</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>163</v>
+      <c r="A67" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="C67" s="24">
         <v>200</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>164</v>
+      <c r="A68" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="C68" s="24">
         <v>200</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>165</v>
+      <c r="A69" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="C69" s="24">
         <v>200</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>166</v>
+      <c r="A70" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>165</v>
       </c>
       <c r="C70" s="24">
         <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>167</v>
+      <c r="A71" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="C71" s="24">
         <v>200</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>168</v>
+        <v>100</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="C72" s="24">
         <v>200</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="40" t="s">
-        <v>169</v>
+        <v>128</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="C73" s="24">
         <v>200</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" s="24">
-        <v>200</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>63</v>
-      </c>
+      <c r="A74" s="11"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="13">
+        <f>SUM(C54:C73)</f>
+        <v>4000</v>
+      </c>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" s="24">
-        <v>200</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>65</v>
+      <c r="A75" s="17"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="3">
+        <f>COUNT(C54:C73)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="24">
-        <v>200</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>97</v>
-      </c>
+      <c r="A76" s="17"/>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="24">
-        <v>200</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>96</v>
-      </c>
+      <c r="A77" s="17"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="24">
-        <v>200</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="A78" s="17"/>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="11"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="13">
-        <f>SUM(C58:C78)</f>
-        <v>4200</v>
-      </c>
-      <c r="D79" s="15"/>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" s="4"/>
-      <c r="C80" s="3">
-        <f>COUNT(C58:C78)</f>
-        <v>21</v>
-      </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="4"/>
@@ -2809,21 +2601,6 @@
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="4"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="4"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="4"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2837,15 +2614,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13" style="38" customWidth="1"/>
+    <col min="1" max="1" width="13" style="37" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="21" customWidth="1"/>
     <col min="4" max="4" width="9.125" style="21" customWidth="1"/>
@@ -2854,7 +2631,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -2862,569 +2639,523 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="34">
-        <v>100020</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>24</v>
+      <c r="A2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>0</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="17.25">
-      <c r="A3" s="34">
-        <v>110003</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25">
-      <c r="A4" s="34">
-        <v>110011</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25">
-      <c r="A5" s="34">
-        <v>160222</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25">
-      <c r="A6" s="34">
-        <v>161128</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25">
-      <c r="A7" s="34" t="s">
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25">
-      <c r="A8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25">
-      <c r="A10" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25">
-      <c r="A11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25">
-      <c r="A12" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25">
-      <c r="A13" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="23" t="s">
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9" s="36" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25">
-      <c r="A14" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="B9" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25">
       <c r="A15" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>138</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25">
       <c r="A16" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>160</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>158</v>
+      <c r="A21" s="34">
+        <v>100020</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25">
       <c r="A22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25">
-      <c r="A23" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>208</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="34">
+        <v>160222</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>84</v>
+        <v>30</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25">
       <c r="A25" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>91</v>
+        <v>33</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>161</v>
+        <v>36</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18">
-      <c r="A29" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="6"/>
+      <c r="A28" s="34">
+        <v>110011</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="34">
+        <v>110003</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>48</v>
+        <v>135</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25">
       <c r="A31" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>92</v>
+        <v>195</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>12</v>
+        <v>194</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25">
       <c r="A33" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>167</v>
+        <v>190</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>27</v>
+        <v>136</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>171</v>
+        <v>102</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>177</v>
+        <v>137</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25">
       <c r="A37" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>46</v>
+        <v>186</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>16</v>
+        <v>138</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>9</v>
+        <v>104</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25">
       <c r="A41" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>123</v>
+        <v>140</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>101</v>
+        <v>113</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25">
+      <c r="A46" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25">
+      <c r="A47" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.25">
+      <c r="A48" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.25">
+      <c r="A49" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.25">
+      <c r="A50" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25">
+      <c r="A51" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.25">
+      <c r="A52" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B52" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.25">
+      <c r="A53" s="35">
+        <v>161128</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.25">
+      <c r="A54" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25">
+      <c r="A55" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25">
+      <c r="A56" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.25">
+      <c r="A57" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.25">
+      <c r="A58" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="39" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25">
-      <c r="A45" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.25">
-      <c r="A46" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25">
-      <c r="A47" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25">
-      <c r="A48" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48" s="23" t="s">
+    <row r="59" spans="1:2" ht="17.25">
+      <c r="A59" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25">
+      <c r="A60" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.25">
-      <c r="A49" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25">
-      <c r="A50" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25">
-      <c r="A51" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25">
-      <c r="A52" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.25">
-      <c r="A53" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17.25">
-      <c r="A54" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.25">
-      <c r="A55" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17.25">
-      <c r="A56" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17.25">
-      <c r="A57" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.25">
-      <c r="A58" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17.25">
-      <c r="A59" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.25">
-      <c r="A60" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
     <row r="61" spans="1:2" ht="17.25">
-      <c r="A61" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>229</v>
+      <c r="A61" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25">
-      <c r="A62" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>230</v>
+      <c r="A62" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25">
-      <c r="A63" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>231</v>
+      <c r="A63" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25">
-      <c r="A64" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>234</v>
+      <c r="A64" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.25">
-      <c r="A65" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17.25">
-      <c r="A66" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17.25">
-      <c r="A67" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17.25">
-      <c r="A68" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17.25">
-      <c r="A69" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="23"/>
-    </row>
-    <row r="71" spans="1:2" ht="17.25">
-      <c r="A71" s="34"/>
-      <c r="B71" s="23"/>
-    </row>
-    <row r="72" spans="1:2" ht="17.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="23"/>
-    </row>
-    <row r="73" spans="1:2" ht="17.25">
-      <c r="A73" s="34"/>
-    </row>
-    <row r="74" spans="1:2" ht="17.25">
-      <c r="A74" s="34"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="41"/>
+    </row>
+    <row r="66" spans="1:2" ht="18.75">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" ht="18.75">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,30 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="255">
   <si>
     <t>招商中证白酒</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>11120</t>
-  </si>
-  <si>
-    <t>同花顺：</t>
-  </si>
-  <si>
-    <t>3020</t>
-  </si>
-  <si>
-    <t>支付宝：</t>
-  </si>
-  <si>
-    <t>8100</t>
-  </si>
-  <si>
-    <t>8月</t>
   </si>
   <si>
     <t>007464</t>
@@ -210,9 +189,6 @@
       <t>hun'h't</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008949</t>
   </si>
   <si>
     <t>李化松,黄维</t>
@@ -359,14 +335,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>5770</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>9946</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>国泰价值精选灵活配置混合</t>
   </si>
   <si>
@@ -475,10 +443,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>国富全球科技互联混合(QDII)人民币</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>徐成,狄星华</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -486,301 +450,509 @@
     <t>沈雪峰</t>
   </si>
   <si>
+    <t>006308</t>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006341</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>004616</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧电子信息产业沪港深股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安估值精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普科技</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈研究精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费精选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富全球互联混合(QDII)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安匠心优选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002560</t>
+  </si>
+  <si>
+    <t>006882</t>
+  </si>
+  <si>
+    <t>蔡嵩松</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯昊</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>过蓓蓓,吴振翔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000595</t>
+  </si>
+  <si>
+    <t>嘉实泰和混合</t>
+  </si>
+  <si>
+    <t>006408</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安和鑫灵活配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富消费升级混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰保兴健康消费A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚烁徽</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008655</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+  </si>
+  <si>
+    <t>付斌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城鼎益混合(LOF)</t>
+  </si>
+  <si>
+    <t>162605</t>
+  </si>
+  <si>
+    <t>刘彦春</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢惠添利灵活配置混合</t>
+  </si>
+  <si>
+    <t>005711</t>
+  </si>
+  <si>
+    <t>008480</t>
+  </si>
+  <si>
+    <t>永赢股息优选A</t>
+  </si>
+  <si>
+    <t>永赢创业板A</t>
+  </si>
+  <si>
+    <t>007664</t>
+  </si>
+  <si>
+    <t>006252</t>
+  </si>
+  <si>
+    <t>永赢消费主题A</t>
+  </si>
+  <si>
+    <t>006818</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+  </si>
+  <si>
+    <t>李永兴</t>
+  </si>
+  <si>
+    <t>常远</t>
+  </si>
+  <si>
+    <t>晏青</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁玮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛兰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭冬寒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>程洲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优势增长股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007750</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮未来新蓝筹灵活配置混合</t>
+  </si>
+  <si>
+    <t>002620</t>
+  </si>
+  <si>
+    <t>申万菱信智能驱动股票</t>
+  </si>
+  <si>
+    <t>005825</t>
+  </si>
+  <si>
+    <t>交银创新成长混合</t>
+  </si>
+  <si>
+    <t>006223</t>
+  </si>
+  <si>
+    <t>交银环球精选混合(QDII)</t>
+  </si>
+  <si>
+    <t>519696</t>
+  </si>
+  <si>
+    <t>杨欢</t>
+  </si>
+  <si>
+    <t>005983</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005911</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002542</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006756</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005743</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005176</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001508</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002620</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006252</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007664</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005711</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>162605</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005962</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐远航</t>
+  </si>
+  <si>
+    <t>周中</t>
+  </si>
+  <si>
+    <t>陈舒薇</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+  </si>
+  <si>
+    <t>100060</t>
+  </si>
+  <si>
+    <t>国泰大农业股票</t>
+  </si>
+  <si>
+    <t>001579</t>
+  </si>
+  <si>
+    <t>399011</t>
+  </si>
+  <si>
+    <t>中海医疗保健</t>
+  </si>
+  <si>
+    <t>李元博</t>
+  </si>
+  <si>
+    <t>程洲</t>
+  </si>
+  <si>
+    <t>399011</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000595</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊</t>
+  </si>
+  <si>
+    <t>007468</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信建投精选混合A</t>
+  </si>
+  <si>
+    <t>栾江伟</t>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城品质成长混合</t>
+  </si>
+  <si>
+    <t>中信建投精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银医药健康股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰鑫睿混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘苏</t>
+  </si>
+  <si>
+    <t>519696</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006223</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008480</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>001668</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>006308</t>
-  </si>
-  <si>
-    <t>添富全球消费混合(QDII)人民币A</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴杰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007203</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006341</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008072</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>003889</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005726</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005760</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>004616</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006138</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008227</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009265</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006751</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧电子信息产业沪港深股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国联安价值优选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安估值精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>标普科技</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝盈研究精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达消费精选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国互联科技股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富全球互联混合(QDII)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安匠心优选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002560</t>
-  </si>
-  <si>
-    <t>006882</t>
-  </si>
-  <si>
-    <t>蔡嵩松</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯昊</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>过蓓蓓,吴振翔</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002624</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000595</t>
-  </si>
-  <si>
-    <t>嘉实泰和混合</t>
-  </si>
-  <si>
-    <t>006408</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安和鑫灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添富消费升级混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰保兴健康消费A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚烁徽</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008655</t>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-  </si>
-  <si>
-    <t>付斌</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城鼎益混合(LOF)</t>
-  </si>
-  <si>
-    <t>162605</t>
-  </si>
-  <si>
-    <t>刘彦春</t>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢惠添利灵活配置混合</t>
-  </si>
-  <si>
-    <t>005711</t>
-  </si>
-  <si>
-    <t>008480</t>
-  </si>
-  <si>
-    <t>永赢股息优选A</t>
-  </si>
-  <si>
-    <t>永赢创业板A</t>
-  </si>
-  <si>
-    <t>007664</t>
-  </si>
-  <si>
-    <t>006252</t>
-  </si>
-  <si>
-    <t>永赢消费主题A</t>
-  </si>
-  <si>
-    <t>006818</t>
-  </si>
-  <si>
-    <t>安信盈利驱动股票A</t>
-  </si>
-  <si>
-    <t>李永兴</t>
-  </si>
-  <si>
-    <t>常远</t>
-  </si>
-  <si>
-    <t>晏青</t>
-  </si>
-  <si>
-    <t>安信盈利驱动股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰保兴健康消费A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁玮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛兰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭冬寒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>程洲</t>
+    <t>009076</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +960,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <b/>
       <sz val="10"/>
@@ -935,6 +1107,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -956,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1031,6 +1208,10 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1306,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1326,351 +1507,291 @@
     <col min="10" max="16384" width="9.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="30">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="30">
+        <v>280</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="30">
+        <v>280</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="30">
+        <v>280</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="30">
+        <v>280</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="43"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9">
+        <f>SUM(C2:C6)</f>
+        <v>1400</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="43"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="7">
+        <f>COUNT(C2:C6)</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="43"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="32">
+        <v>150</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="32">
+        <v>150</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C12" s="32">
+        <v>150</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="32">
+        <v>150</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="32">
+        <v>150</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="32">
+        <v>150</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="32">
+        <v>150</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="32">
+        <v>150</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="30">
-        <v>420</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="30">
-        <v>420</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="30">
-        <v>420</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9">
-        <f>SUM(C2:C5)</f>
-        <v>1680</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="7">
-        <f>COUNT(C2:C5)</f>
-        <v>4</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="10"/>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="32">
-        <v>200</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="32">
-        <v>200</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="32">
-        <v>200</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="32">
-        <v>200</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="32">
-        <v>200</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="32">
-        <v>200</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="32">
-        <v>200</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="32">
-        <v>200</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="32">
-        <v>200</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36" t="s">
-        <v>121</v>
-      </c>
       <c r="B18" s="28" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C18" s="32">
-        <v>200</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>125</v>
+        <v>150</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="6"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="9">
-        <f>SUM(C9:C18)</f>
-        <v>2000</v>
-      </c>
-      <c r="D19" s="8"/>
+      <c r="A19" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="32">
+        <v>150</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="3">
-        <f>COUNT(C9:C18)</f>
-        <v>10</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="A20" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="32">
+        <v>150</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="9">
+        <f>SUM(C11:C20)</f>
+        <v>1500</v>
+      </c>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="24">
-        <v>420</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="3">
+        <f>COUNT(C11:C20)</f>
         <v>10</v>
       </c>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
-      <c r="A23" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="24">
-        <v>420</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
@@ -1678,374 +1799,374 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="34" t="s">
-        <v>15</v>
+      <c r="A24" s="33" t="s">
+        <v>228</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="C24" s="24">
         <v>420</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="34" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="34" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C26" s="24">
         <v>420</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="34" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C27" s="24">
         <v>420</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="34">
-        <v>100020</v>
+      <c r="A28" s="34" t="s">
+        <v>8</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="34" t="s">
-        <v>26</v>
+      <c r="A29" s="33" t="s">
+        <v>207</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34">
-        <v>160222</v>
+      <c r="A30" s="33" t="s">
+        <v>208</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="34" t="s">
-        <v>30</v>
+      <c r="A31" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="34" t="s">
-        <v>33</v>
+      <c r="A32" s="33">
+        <v>100020</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="34" t="s">
-        <v>36</v>
+      <c r="A33" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="34" t="s">
-        <v>39</v>
+      <c r="A34" s="33">
+        <v>160222</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="34">
-        <v>110011</v>
+      <c r="A35" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
-      <c r="A36" s="34">
-        <v>110003</v>
+      <c r="A36" s="33" t="s">
+        <v>212</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="34" t="s">
-        <v>135</v>
+      <c r="A37" s="33" t="s">
+        <v>213</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="34" t="s">
-        <v>195</v>
+      <c r="A38" s="33" t="s">
+        <v>214</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="34" t="s">
-        <v>194</v>
+      <c r="A39" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="23"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="34" t="s">
-        <v>190</v>
+      <c r="A40" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="34" t="s">
-        <v>136</v>
+      <c r="A41" s="33">
+        <v>110011</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="34" t="s">
-        <v>102</v>
+      <c r="A42" s="33">
+        <v>110003</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="34" t="s">
-        <v>137</v>
+      <c r="A43" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C43" s="24">
         <v>420</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="34" t="s">
-        <v>186</v>
+      <c r="A44" s="33" t="s">
+        <v>216</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="34" t="s">
-        <v>138</v>
+      <c r="A45" s="33" t="s">
+        <v>217</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="34" t="s">
-        <v>139</v>
+      <c r="A46" s="33" t="s">
+        <v>218</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="34" t="s">
-        <v>104</v>
+      <c r="A47" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="34" t="s">
-        <v>140</v>
+      <c r="A48" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="C48" s="24">
         <v>420</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -2053,442 +2174,541 @@
       <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="34" t="s">
-        <v>113</v>
+      <c r="A49" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C49" s="24">
         <v>420</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="34" t="s">
-        <v>141</v>
+      <c r="A50" s="33" t="s">
+        <v>219</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C50" s="24">
         <v>420</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="11"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="13">
-        <f>SUM(C22:C50)</f>
-        <v>12180</v>
-      </c>
-      <c r="D51" s="14"/>
+      <c r="A51" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="24">
+        <v>420</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>115</v>
+      </c>
       <c r="E51" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F51" s="5">
-        <f>C52+C7</f>
+        <f>C58+C8</f>
+        <v>36</v>
+      </c>
+      <c r="G51" s="5">
+        <f>SUM(C57+C7)</f>
+        <v>14420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="24">
+        <v>420</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="5">
+        <f>SUM(C22+C84)</f>
         <v>33</v>
       </c>
-      <c r="G51" s="5">
-        <f>SUM(C51+C6)</f>
-        <v>13860</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="11"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="3">
-        <f>COUNT(C22:C50)</f>
-        <v>29</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="5">
-        <f>SUM(C20+C75)</f>
-        <v>30</v>
-      </c>
       <c r="G52" s="5">
-        <f>SUM(C74+C19)</f>
-        <v>6000</v>
+        <f>SUM(C83+C21)</f>
+        <v>4950</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="11"/>
-      <c r="B53" s="40"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="24">
+        <v>420</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="35" t="s">
-        <v>142</v>
+      <c r="A54" s="33" t="s">
+        <v>222</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C54" s="24">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="35" t="s">
-        <v>191</v>
+      <c r="A55" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="C55" s="24">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="35" t="s">
-        <v>143</v>
+      <c r="A56" s="33" t="s">
+        <v>223</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="C56" s="24">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="24">
-        <v>200</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="A57" s="33"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="13">
+        <f>SUM(C26:C56)</f>
+        <v>13020</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="24">
-        <v>200</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>107</v>
-      </c>
+      <c r="A58" s="11"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="3">
+        <f>COUNT(C26:C56)</f>
+        <v>31</v>
+      </c>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="24">
-        <v>200</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>78</v>
-      </c>
+      <c r="A59" s="11"/>
+      <c r="B59" s="40"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="35" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="C60" s="24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="35" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="C61" s="24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="35">
-        <v>161128</v>
+      <c r="A62" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C62" s="24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C63" s="24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="35" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C64" s="24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="24">
         <v>150</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="24">
-        <v>200</v>
-      </c>
       <c r="D65" s="25" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="35" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C66" s="24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D66" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="24">
+        <v>150</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="24">
+        <v>150</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="24">
+        <v>150</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="24">
+        <v>150</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="35">
+        <v>161128</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="24">
+        <v>150</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="24">
+        <v>150</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="24">
+        <v>150</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="24">
+        <v>150</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="24">
+        <v>150</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="24">
+        <v>150</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="24">
+        <v>150</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="24">
+        <v>150</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="24">
-        <v>200</v>
-      </c>
-      <c r="D67" s="25" t="s">
+      <c r="B79" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="24">
+        <v>150</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="24">
-        <v>200</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="24">
-        <v>200</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="24">
-        <v>200</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="24">
-        <v>200</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="24">
-        <v>200</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="24">
-        <v>200</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="13">
-        <f>SUM(C54:C73)</f>
-        <v>4000</v>
-      </c>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="17"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="3">
-        <f>COUNT(C54:C73)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="17"/>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="17"/>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="17"/>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="B79" s="4"/>
-    </row>
     <row r="80" spans="1:4">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="A80" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="24">
+        <v>150</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="24">
+        <v>150</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="24">
+        <v>150</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="11"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="13">
+        <f>SUM(C60:C82)</f>
+        <v>3450</v>
+      </c>
+      <c r="D83" s="15"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="17"/>
       <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="C84" s="3">
+        <f>COUNT(C60:C82)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="17"/>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:4">
+      <c r="A86" s="17"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:4">
+      <c r="A87" s="17"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:4">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:4">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:4">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:4">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:4">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="1:4">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="1:4">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:4">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:4">
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="2:2">
@@ -2601,6 +2821,33 @@
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2614,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B74" sqref="A74:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2632,15 +2879,15 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="36" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -2650,146 +2897,146 @@
     </row>
     <row r="3" spans="1:5" ht="18">
       <c r="A3" s="36" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="36" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="36" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="36" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="36" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="36" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="36" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="36" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="36" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="36" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="36" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25">
       <c r="A15" s="34" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25">
       <c r="A16" s="34" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="34" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="34" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
@@ -2797,15 +3044,15 @@
         <v>100020</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25">
       <c r="A22" s="34" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -2813,40 +3060,40 @@
         <v>160222</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25">
       <c r="A25" s="34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="34" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.25">
@@ -2854,7 +3101,7 @@
         <v>110011</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.25">
@@ -2862,300 +3109,400 @@
         <v>110003</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="34" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25">
       <c r="A31" s="34" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="34" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25">
       <c r="A33" s="34" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="34" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="34" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="34" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25">
       <c r="A37" s="34" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="34" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="34" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="34" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25">
       <c r="A41" s="34" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="34" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25">
+      <c r="A44" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25">
+      <c r="A45" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25">
+      <c r="A46" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.25">
+      <c r="A47" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.25">
+      <c r="A48" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.25">
+      <c r="A49" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.25">
+      <c r="A50" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.25">
+      <c r="A52" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.25">
+      <c r="A53" s="34">
+        <v>161128</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.25">
+      <c r="A54" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25">
+      <c r="A55" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25">
+      <c r="A56" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.25">
+      <c r="A57" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.25">
+      <c r="A58" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25">
-      <c r="A44" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25">
-      <c r="A45" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="39" t="s">
+      <c r="B58" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.25">
+      <c r="A59" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25">
+      <c r="A60" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.25">
+      <c r="A61" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="39" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25">
-      <c r="A46" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="39" t="s">
+    <row r="62" spans="1:2" ht="17.25">
+      <c r="A62" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.25">
+      <c r="A63" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.25">
+      <c r="A64" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17.25">
+      <c r="A65" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.25">
+      <c r="A66" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17.25">
+      <c r="A67" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.25">
+      <c r="A68" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.25">
+      <c r="A69" s="34"/>
+      <c r="B69" s="39"/>
+    </row>
+    <row r="70" spans="1:2" ht="17.25">
+      <c r="A70" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17.25">
+      <c r="A71" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17.25">
+      <c r="A72" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17.25">
+      <c r="A73" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17.25">
+      <c r="A74" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17.25">
+      <c r="A75" s="34" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25">
-      <c r="A47" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25">
-      <c r="A48" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25">
-      <c r="A49" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25">
-      <c r="A50" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25">
-      <c r="A51" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25">
-      <c r="A52" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.25">
-      <c r="A53" s="35">
-        <v>161128</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17.25">
-      <c r="A54" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.25">
-      <c r="A55" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17.25">
-      <c r="A56" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17.25">
-      <c r="A57" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.25">
-      <c r="A58" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17.25">
-      <c r="A59" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.25">
-      <c r="A60" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17.25">
-      <c r="A61" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17.25">
-      <c r="A62" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17.25">
-      <c r="A63" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.25">
-      <c r="A64" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="41"/>
-    </row>
-    <row r="66" spans="1:2" ht="18.75">
-      <c r="A66" s="2"/>
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:2" ht="18.75">
-      <c r="A67" s="2"/>
-      <c r="B67" s="4"/>
+      <c r="B75" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17.25">
+      <c r="A76" s="34"/>
+      <c r="B76" s="39"/>
+    </row>
+    <row r="77" spans="1:2" ht="17.25">
+      <c r="A77" s="34"/>
+      <c r="B77" s="39"/>
+    </row>
+    <row r="78" spans="1:2" ht="17.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="39"/>
+    </row>
+    <row r="79" spans="1:2" ht="17.25">
+      <c r="A79" s="34"/>
+      <c r="B79" s="39"/>
+    </row>
+    <row r="80" spans="1:2" ht="17.25">
+      <c r="A80" s="34"/>
+      <c r="B80" s="39"/>
+    </row>
+    <row r="81" spans="1:2" ht="17.25">
+      <c r="A81" s="34"/>
+      <c r="B81" s="39"/>
+    </row>
+    <row r="82" spans="1:2" ht="17.25">
+      <c r="A82" s="34"/>
+      <c r="B82" s="39"/>
+    </row>
+    <row r="83" spans="1:2" ht="17.25">
+      <c r="A83" s="34"/>
+      <c r="B83" s="39"/>
+    </row>
+    <row r="84" spans="1:2" ht="17.25">
+      <c r="A84" s="34"/>
+      <c r="B84" s="39"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="251">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -869,27 +869,14 @@
     <t>001579</t>
   </si>
   <si>
-    <t>399011</t>
-  </si>
-  <si>
-    <t>中海医疗保健</t>
-  </si>
-  <si>
     <t>李元博</t>
   </si>
   <si>
     <t>程洲</t>
   </si>
   <si>
-    <t>399011</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>000595</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘俊</t>
   </si>
   <si>
     <t>007468</t>
@@ -1487,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1507,7 +1494,7 @@
     <col min="10" max="16384" width="9.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
@@ -1520,8 +1507,19 @@
       <c r="D1" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5">
+        <f>C57+C7</f>
+        <v>37</v>
+      </c>
+      <c r="G1" s="5">
+        <f>SUM(C56+C6)</f>
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="42" t="s">
         <v>71</v>
       </c>
@@ -1534,8 +1532,19 @@
       <c r="D2" s="31" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SUM(C21+C83)</f>
+        <v>34</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUM(C82+C20)</f>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="42" t="s">
         <v>157</v>
       </c>
@@ -1549,249 +1558,250 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="C4" s="30">
         <v>280</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="42" t="s">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C5" s="30">
         <v>280</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="30">
-        <v>280</v>
-      </c>
-      <c r="D6" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="6" spans="1:7">
+      <c r="A6" s="43"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9">
+        <f>SUM(C2:C5)</f>
+        <v>1120</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="43"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9">
-        <f>SUM(C2:C6)</f>
-        <v>1400</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="7">
+        <f>COUNT(C2:C5)</f>
+        <v>4</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="43"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="7">
-        <f>COUNT(C2:C6)</f>
-        <v>5</v>
-      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="43"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="9" spans="1:7">
+      <c r="A9" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="32">
+        <v>150</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="42" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="C10" s="32">
         <v>150</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="42" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C11" s="32">
         <v>150</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="42" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C12" s="32">
         <v>150</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="42" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C13" s="32">
         <v>150</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="42" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C14" s="32">
         <v>150</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="42" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="C15" s="32">
         <v>150</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="42" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="C16" s="32">
         <v>150</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="C17" s="32">
         <v>150</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="C18" s="32">
         <v>150</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="C19" s="32">
         <v>150</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>190</v>
+      <c r="D19" s="31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="32">
-        <v>150</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>114</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="9">
+        <f>SUM(C9:C19)</f>
+        <v>1650</v>
+      </c>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="9">
-        <f>SUM(C11:C20)</f>
-        <v>1500</v>
+      <c r="C21" s="3">
+        <f>COUNT(C9:C19)</f>
+        <v>11</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="3">
-        <f>COUNT(C11:C20)</f>
-        <v>10</v>
-      </c>
-      <c r="D22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="24">
+        <v>420</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
@@ -1800,144 +1810,143 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C24" s="24">
         <v>420</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="34" t="s">
-        <v>230</v>
+      <c r="A25" s="33" t="s">
+        <v>1</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="34" t="s">
-        <v>1</v>
+      <c r="A26" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" s="24">
         <v>420</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="18"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="34" t="s">
-        <v>4</v>
+      <c r="A27" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C27" s="24">
         <v>420</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="34" t="s">
-        <v>8</v>
+      <c r="A28" s="33" t="s">
+        <v>207</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="33" t="s">
-        <v>209</v>
+      <c r="A31" s="33">
+        <v>100020</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="33">
-        <v>100020</v>
+      <c r="A32" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="33" t="s">
-        <v>210</v>
+      <c r="A33" s="33">
+        <v>160222</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
@@ -1948,729 +1957,699 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="33">
-        <v>160222</v>
+      <c r="A34" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1">
       <c r="A38" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>34</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="33" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="23"/>
+        <v>224</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="33" t="s">
-        <v>201</v>
+      <c r="A40" s="33">
+        <v>110011</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="33">
-        <v>110011</v>
+        <v>110003</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="33">
-        <v>110003</v>
+      <c r="A42" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="19"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="33" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="C43" s="24">
         <v>420</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="19"/>
+        <v>184</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>185</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="33" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G46" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="33" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="3"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="33" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C48" s="24">
         <v>420</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="12"/>
       <c r="I48" s="15"/>
       <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="33" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="C49" s="24">
         <v>420</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C50" s="24">
         <v>420</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>171</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G50" s="12"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="33" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C51" s="24">
         <v>420</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="5">
-        <f>C58+C8</f>
-        <v>36</v>
-      </c>
-      <c r="G51" s="5">
-        <f>SUM(C57+C7)</f>
-        <v>14420</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="33" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C52" s="24">
         <v>420</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="5">
-        <f>SUM(C22+C84)</f>
-        <v>33</v>
-      </c>
-      <c r="G52" s="5">
-        <f>SUM(C83+C21)</f>
-        <v>4950</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C53" s="24">
         <v>420</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="33" t="s">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C54" s="24">
         <v>420</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="33" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C55" s="24">
         <v>420</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="24">
-        <v>420</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>98</v>
-      </c>
+      <c r="A56" s="33"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="13">
+        <f>SUM(C23:C55)</f>
+        <v>13860</v>
+      </c>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="33"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="13">
-        <f>SUM(C26:C56)</f>
-        <v>13020</v>
+      <c r="C57" s="3">
+        <f>COUNT(C23:C55)</f>
+        <v>33</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="11"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="3">
-        <f>COUNT(C26:C56)</f>
-        <v>31</v>
-      </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="11"/>
-      <c r="B59" s="40"/>
-      <c r="D59" s="14"/>
+      <c r="A59" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="24">
+        <v>150</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="35" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C60" s="24">
         <v>150</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="35" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="C61" s="24">
         <v>150</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="35" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="C62" s="24">
         <v>150</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C63" s="24">
         <v>150</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="35" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C64" s="24">
         <v>150</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="35" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C65" s="24">
         <v>150</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="35" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" s="24">
         <v>150</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="35" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C67" s="24">
         <v>150</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C68" s="24">
         <v>150</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="35" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="C69" s="24">
         <v>150</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35" t="s">
-        <v>58</v>
+      <c r="A70" s="35">
+        <v>161128</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" s="24">
         <v>150</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35">
-        <v>161128</v>
+      <c r="A71" s="35" t="s">
+        <v>247</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="24">
         <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" s="24">
         <v>150</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="35" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" s="24">
         <v>150</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" s="24">
         <v>150</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="35" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="24">
         <v>150</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C76" s="24">
         <v>150</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="35" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C77" s="24">
         <v>150</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="35" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C78" s="24">
         <v>150</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="35" t="s">
-        <v>56</v>
+      <c r="A79" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C79" s="24">
         <v>150</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C80" s="24">
         <v>150</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="33" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C81" s="24">
         <v>150</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="24">
-        <v>150</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>118</v>
-      </c>
+      <c r="A82" s="11"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="13">
+        <f>SUM(C59:C81)</f>
+        <v>3450</v>
+      </c>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="11"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="13">
-        <f>SUM(C60:C82)</f>
-        <v>3450</v>
-      </c>
-      <c r="D83" s="15"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="3">
+        <f>COUNT(C59:C81)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="17"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="3">
-        <f>COUNT(C60:C82)</f>
-        <v>23</v>
-      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="17"/>
@@ -2681,7 +2660,6 @@
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="17"/>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:4">
@@ -2845,9 +2823,6 @@
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="4"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2861,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B74" sqref="A74:B74"/>
+      <selection activeCell="A69" sqref="A69:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3417,56 +3392,52 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="39"/>
+      <c r="A69" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="70" spans="1:2" ht="17.25">
       <c r="A70" s="34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25">
       <c r="A72" s="34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.25">
       <c r="A73" s="34" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>239</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25">
-      <c r="A74" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>242</v>
-      </c>
+      <c r="A74" s="34"/>
+      <c r="B74" s="39"/>
     </row>
     <row r="75" spans="1:2" ht="17.25">
-      <c r="A75" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>54</v>
-      </c>
+      <c r="A75" s="34"/>
+      <c r="B75" s="39"/>
     </row>
     <row r="76" spans="1:2" ht="17.25">
       <c r="A76" s="34"/>
@@ -3495,14 +3466,6 @@
     <row r="82" spans="1:2" ht="17.25">
       <c r="A82" s="34"/>
       <c r="B82" s="39"/>
-    </row>
-    <row r="83" spans="1:2" ht="17.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="39"/>
-    </row>
-    <row r="84" spans="1:2" ht="17.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="39"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="290">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -940,6 +940,144 @@
   </si>
   <si>
     <t>009076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实新兴产业股票</t>
+  </si>
+  <si>
+    <t>399011</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海医疗保健</t>
+  </si>
+  <si>
+    <t>010020</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏线上经济主题精选混合</t>
+  </si>
+  <si>
+    <t>008526</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞行业精选A</t>
+  </si>
+  <si>
+    <t>000083</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富消费行业混合</t>
+  </si>
+  <si>
+    <t>240001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝宝康消费品混合</t>
+  </si>
+  <si>
+    <t>009362</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商丰盈积极配置混合A</t>
+  </si>
+  <si>
+    <t>009548</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中盘价值精选混合A</t>
+  </si>
+  <si>
+    <t>009570</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华匠心精选混合A类</t>
+  </si>
+  <si>
+    <t>002446</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发利鑫灵活配置混合</t>
+  </si>
+  <si>
+    <t>005809</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源裕源</t>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+  </si>
+  <si>
+    <t>宝盈融源可转债债券A</t>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片ETF联接A</t>
+  </si>
+  <si>
+    <t>华夏创成长ETF</t>
+  </si>
+  <si>
+    <t>001579</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣膺</t>
+  </si>
+  <si>
+    <t>华夏指数轮动</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009360</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商创新增长混合A</t>
+  </si>
+  <si>
+    <t>鹏华传媒分级</t>
+  </si>
+  <si>
+    <t>610002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006147</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008887</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1474,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1511,12 +1649,12 @@
         <v>63</v>
       </c>
       <c r="F1" s="5">
-        <f>C57+C7</f>
-        <v>37</v>
+        <f>C58+C7</f>
+        <v>38</v>
       </c>
       <c r="G1" s="5">
-        <f>SUM(C56+C6)</f>
-        <v>14980</v>
+        <f>SUM(C57+C6)</f>
+        <v>15400</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1536,11 +1674,11 @@
         <v>64</v>
       </c>
       <c r="F2" s="5">
-        <f>SUM(C21+C83)</f>
+        <f>SUM(C21+C84)</f>
         <v>34</v>
       </c>
       <c r="G2" s="5">
-        <f>SUM(C82+C20)</f>
+        <f>SUM(C83+C20)</f>
         <v>5100</v>
       </c>
     </row>
@@ -1571,6 +1709,9 @@
       <c r="D4" s="31" t="s">
         <v>68</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="42" t="s">
@@ -1584,6 +1725,12 @@
       </c>
       <c r="D5" s="31" t="s">
         <v>156</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2330</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1594,6 +1741,9 @@
         <v>1120</v>
       </c>
       <c r="D6" s="10"/>
+      <c r="E6" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="43"/>
@@ -1823,130 +1973,130 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="33" t="s">
-        <v>1</v>
+      <c r="A25" s="34">
+        <v>159967</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" s="24">
         <v>420</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C27" s="24">
         <v>420</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="33" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="33">
-        <v>100020</v>
+      <c r="A31" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="33" t="s">
-        <v>210</v>
+      <c r="A32" s="33">
+        <v>100020</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="33">
-        <v>160222</v>
+      <c r="A33" s="33" t="s">
+        <v>210</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
@@ -1957,225 +2107,225 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>211</v>
+      <c r="A34" s="33">
+        <v>160222</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1">
       <c r="A38" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="33" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="33">
-        <v>110011</v>
+      <c r="A40" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="33">
-        <v>110003</v>
+        <v>110011</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="33" t="s">
-        <v>123</v>
+      <c r="A42" s="33">
+        <v>110003</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="33" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="C43" s="24">
         <v>420</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="33" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="33" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="33" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C48" s="24">
         <v>420</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="12"/>
@@ -2184,472 +2334,482 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="33" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C49" s="24">
         <v>420</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="C50" s="24">
         <v>420</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="G50" s="12"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="33" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C51" s="24">
         <v>420</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="33" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C52" s="24">
         <v>420</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C53" s="24">
         <v>420</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="33" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C54" s="24">
         <v>420</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="33" t="s">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C55" s="24">
         <v>420</v>
       </c>
       <c r="D55" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="24">
+        <v>420</v>
+      </c>
+      <c r="D56" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="33"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="13">
-        <f>SUM(C23:C55)</f>
-        <v>13860</v>
-      </c>
-      <c r="D56" s="14"/>
-    </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="11"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="3">
-        <f>COUNT(C23:C55)</f>
-        <v>33</v>
+      <c r="C57" s="13">
+        <f>SUM(C23:C56)</f>
+        <v>14280</v>
       </c>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="11"/>
       <c r="B58" s="40"/>
+      <c r="C58" s="3">
+        <f>COUNT(C23:C56)</f>
+        <v>34</v>
+      </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="C59" s="24">
-        <v>150</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>226</v>
-      </c>
+      <c r="A59" s="11"/>
+      <c r="B59" s="40"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="35" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C60" s="24">
         <v>150</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="C61" s="24">
         <v>150</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="35" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="C62" s="24">
         <v>150</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="35" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="C63" s="24">
         <v>150</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="35" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C64" s="24">
         <v>150</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="35" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="24">
         <v>150</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="35" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="24">
         <v>150</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="35" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="C67" s="24">
         <v>150</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C68" s="24">
         <v>150</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="35" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="C69" s="24">
         <v>150</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35">
-        <v>161128</v>
+      <c r="A70" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="24">
         <v>150</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35" t="s">
-        <v>247</v>
+      <c r="A71" s="35">
+        <v>161128</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="24">
         <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="24">
         <v>150</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="35" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" s="24">
         <v>150</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="24">
         <v>150</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="35" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="24">
         <v>150</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="24">
         <v>150</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="35" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="24">
         <v>150</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="35" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="24">
         <v>150</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="33" t="s">
-        <v>88</v>
+      <c r="A79" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C79" s="24">
         <v>150</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C80" s="24">
         <v>150</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="33" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C81" s="24">
         <v>150</v>
       </c>
       <c r="D81" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="24">
+        <v>150</v>
+      </c>
+      <c r="D82" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="11"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="13">
-        <f>SUM(C59:C81)</f>
+    <row r="83" spans="1:4">
+      <c r="A83" s="11"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="13">
+        <f>SUM(C60:C82)</f>
         <v>3450</v>
       </c>
-      <c r="D82" s="15"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="17"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="3">
-        <f>COUNT(C59:C81)</f>
-        <v>23</v>
-      </c>
+      <c r="D83" s="15"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="17"/>
       <c r="B84" s="4"/>
+      <c r="C84" s="3">
+        <f>COUNT(C60:C82)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="17"/>
@@ -2660,6 +2820,7 @@
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:4">
+      <c r="A87" s="17"/>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:4">
@@ -2823,6 +2984,9 @@
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2836,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:B69"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2847,7 +3011,7 @@
     <col min="1" max="1" width="13" style="37" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="42.625" style="21" customWidth="1"/>
     <col min="5" max="5" width="37.625" style="21" customWidth="1"/>
     <col min="6" max="16384" width="9" style="21"/>
   </cols>
@@ -2859,6 +3023,12 @@
       <c r="B1" s="27" t="s">
         <v>73</v>
       </c>
+      <c r="C1" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="36" t="s">
@@ -2867,7 +3037,12 @@
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="C2" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>257</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="18">
@@ -2877,6 +3052,12 @@
       <c r="B3" s="29" t="s">
         <v>99</v>
       </c>
+      <c r="C3" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="36" t="s">
@@ -2885,6 +3066,12 @@
       <c r="B4" s="29" t="s">
         <v>159</v>
       </c>
+      <c r="C4" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="36" t="s">
@@ -2893,6 +3080,12 @@
       <c r="B5" s="29" t="s">
         <v>81</v>
       </c>
+      <c r="C5" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="36" t="s">
@@ -2901,6 +3094,12 @@
       <c r="B6" s="28" t="s">
         <v>162</v>
       </c>
+      <c r="C6" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="36" t="s">
@@ -2909,6 +3108,12 @@
       <c r="B7" s="28" t="s">
         <v>182</v>
       </c>
+      <c r="C7" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="36" t="s">
@@ -2917,6 +3122,12 @@
       <c r="B8" s="28" t="s">
         <v>163</v>
       </c>
+      <c r="C8" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="36" t="s">
@@ -2925,6 +3136,12 @@
       <c r="B9" s="28" t="s">
         <v>65</v>
       </c>
+      <c r="C9" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="36" t="s">
@@ -2933,6 +3150,8 @@
       <c r="B10" s="28" t="s">
         <v>164</v>
       </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="36" t="s">
@@ -2941,6 +3160,12 @@
       <c r="B11" s="28" t="s">
         <v>83</v>
       </c>
+      <c r="C11" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="36" t="s">
@@ -2949,6 +3174,12 @@
       <c r="B12" s="28" t="s">
         <v>112</v>
       </c>
+      <c r="C12" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="36" t="s">
@@ -2957,6 +3188,12 @@
       <c r="B13" s="28" t="s">
         <v>113</v>
       </c>
+      <c r="C13" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="36" t="s">
@@ -2965,209 +3202,274 @@
       <c r="B14" s="28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25">
+      <c r="C14" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
       <c r="A15" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25">
+      <c r="C15" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
       <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25">
+      <c r="C16" s="34"/>
+      <c r="D16" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25">
+      <c r="C17" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18">
       <c r="A18" s="34" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25">
+      <c r="C18" s="34">
+        <v>160629</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18">
       <c r="A19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25">
+      <c r="C19" s="34"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25">
+      <c r="C20" s="34"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4" ht="18">
       <c r="A21" s="34">
         <v>100020</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25">
+      <c r="C21" s="34"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18">
+      <c r="C22" s="34"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="34">
         <v>160222</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="17.25">
+      <c r="C23" s="34"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="1:4" ht="18">
       <c r="A24" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25">
+      <c r="C24" s="34"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:4" ht="18">
       <c r="A25" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25">
+      <c r="C25" s="34"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25">
+      <c r="C26" s="34"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="1:4" ht="18">
       <c r="A27" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25">
+      <c r="C27" s="34"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="34">
         <v>110011</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25">
+      <c r="C28" s="34"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:4" ht="18">
       <c r="A29" s="34">
         <v>110003</v>
       </c>
       <c r="B29" s="39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.25">
+      <c r="C29" s="34"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="1:4" ht="18">
       <c r="A30" s="34" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25">
+      <c r="C30" s="34"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="1:4" ht="18">
       <c r="A31" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25">
+      <c r="C31" s="34"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="1:4" ht="18">
       <c r="A32" s="34" t="s">
         <v>178</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25">
+      <c r="C32" s="34"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" ht="18">
       <c r="A33" s="34" t="s">
         <v>174</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25">
+      <c r="C33" s="34"/>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="1:4" ht="18">
       <c r="A34" s="34" t="s">
         <v>124</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25">
+      <c r="C34" s="34"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4" ht="18">
       <c r="A35" s="34" t="s">
         <v>92</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.25">
+      <c r="C35" s="34"/>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" spans="1:4" ht="17.25">
       <c r="A36" s="34" t="s">
         <v>125</v>
       </c>
       <c r="B36" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25">
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.25">
       <c r="A37" s="34" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="39" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25">
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:4" ht="17.25">
       <c r="A38" s="34" t="s">
         <v>126</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25">
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:4" ht="17.25">
       <c r="A39" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25">
+      <c r="C39" s="34"/>
+    </row>
+    <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="34" t="s">
         <v>94</v>
       </c>
@@ -3175,7 +3477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25">
+    <row r="41" spans="1:4" ht="17.25">
       <c r="A41" s="34" t="s">
         <v>127</v>
       </c>
@@ -3183,7 +3485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.25">
+    <row r="42" spans="1:4" ht="17.25">
       <c r="A42" s="34" t="s">
         <v>103</v>
       </c>
@@ -3191,7 +3493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.25">
+    <row r="43" spans="1:4" ht="17.25">
       <c r="A43" s="34" t="s">
         <v>95</v>
       </c>
@@ -3199,7 +3501,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.25">
+    <row r="44" spans="1:4" ht="17.25">
       <c r="A44" s="34" t="s">
         <v>128</v>
       </c>
@@ -3207,7 +3509,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25">
+    <row r="45" spans="1:4" ht="17.25">
       <c r="A45" s="34" t="s">
         <v>175</v>
       </c>
@@ -3215,7 +3517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25">
+    <row r="46" spans="1:4" ht="17.25">
       <c r="A46" s="34" t="s">
         <v>119</v>
       </c>
@@ -3223,7 +3525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.25">
+    <row r="47" spans="1:4" ht="17.25">
       <c r="A47" s="34" t="s">
         <v>166</v>
       </c>
@@ -3231,7 +3533,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.25">
+    <row r="48" spans="1:4" ht="17.25">
       <c r="A48" s="34" t="s">
         <v>129</v>
       </c>
@@ -3255,190 +3557,194 @@
         <v>69</v>
       </c>
     </row>
+    <row r="51" spans="1:2" ht="17.25">
+      <c r="A51" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="52" spans="1:2" ht="17.25">
-      <c r="A52" s="34" t="s">
-        <v>58</v>
+      <c r="A52" s="34">
+        <v>161128</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25">
-      <c r="A53" s="34">
-        <v>161128</v>
+      <c r="A53" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25">
       <c r="A54" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25">
       <c r="A55" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25">
       <c r="A56" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25">
       <c r="A57" s="34" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25">
       <c r="A58" s="34" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.25">
       <c r="A59" s="34" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="34" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="34" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25">
       <c r="A62" s="34" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25">
       <c r="A63" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25">
       <c r="A64" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.25">
       <c r="A65" s="34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25">
       <c r="A66" s="34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25">
       <c r="A67" s="34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.25">
       <c r="A68" s="34" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="34" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25">
       <c r="A70" s="34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="34" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25">
       <c r="A72" s="34" t="s">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>238</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.25">
-      <c r="A73" s="34" t="s">
-        <v>132</v>
+      <c r="A73" s="34">
+        <v>159967</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25">
       <c r="A74" s="34"/>
       <c r="B74" s="39"/>
     </row>
-    <row r="75" spans="1:2" ht="17.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="39"/>
-    </row>
     <row r="76" spans="1:2" ht="17.25">
       <c r="A76" s="34"/>
       <c r="B76" s="39"/>
@@ -3466,6 +3772,73 @@
     <row r="82" spans="1:2" ht="17.25">
       <c r="A82" s="34"/>
       <c r="B82" s="39"/>
+    </row>
+    <row r="83" spans="1:2" ht="17.25">
+      <c r="A83" s="34"/>
+      <c r="B83" s="39"/>
+    </row>
+    <row r="84" spans="1:2" ht="17.25">
+      <c r="A84" s="34"/>
+      <c r="B84" s="39"/>
+    </row>
+    <row r="85" spans="1:2" ht="17.25">
+      <c r="A85" s="34"/>
+      <c r="B85" s="39"/>
+    </row>
+    <row r="86" spans="1:2" ht="17.25">
+      <c r="A86" s="34"/>
+      <c r="B86" s="39"/>
+    </row>
+    <row r="87" spans="1:2" ht="17.25">
+      <c r="A87" s="34"/>
+      <c r="B87" s="39"/>
+    </row>
+    <row r="88" spans="1:2" ht="17.25">
+      <c r="A88" s="34"/>
+      <c r="B88" s="39"/>
+    </row>
+    <row r="89" spans="1:2" ht="17.25">
+      <c r="A89" s="34"/>
+      <c r="B89" s="39"/>
+    </row>
+    <row r="90" spans="1:2" ht="17.25">
+      <c r="A90" s="34"/>
+      <c r="B90" s="39"/>
+    </row>
+    <row r="91" spans="1:2" ht="17.25">
+      <c r="A91" s="34"/>
+      <c r="B91" s="39"/>
+    </row>
+    <row r="92" spans="1:2" ht="17.25">
+      <c r="A92" s="34"/>
+      <c r="B92" s="39"/>
+    </row>
+    <row r="93" spans="1:2" ht="17.25">
+      <c r="A93" s="34"/>
+      <c r="B93" s="39"/>
+    </row>
+    <row r="94" spans="1:2" ht="17.25">
+      <c r="A94" s="34"/>
+      <c r="B94" s="39"/>
+    </row>
+    <row r="95" spans="1:2" ht="17.25">
+      <c r="A95" s="34"/>
+      <c r="B95" s="39"/>
+    </row>
+    <row r="96" spans="1:2" ht="17.25">
+      <c r="A96" s="34"/>
+      <c r="B96" s="39"/>
+    </row>
+    <row r="97" spans="1:2" ht="17.25">
+      <c r="A97" s="34"/>
+      <c r="B97" s="39"/>
+    </row>
+    <row r="98" spans="1:2" ht="17.25">
+      <c r="A98" s="34"/>
+      <c r="B98" s="39"/>
+    </row>
+    <row r="99" spans="1:2" ht="17.25">
+      <c r="A99" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -3000,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3745,6 +3745,10 @@
       <c r="A74" s="34"/>
       <c r="B74" s="39"/>
     </row>
+    <row r="75" spans="1:2" ht="17.25">
+      <c r="A75" s="34"/>
+      <c r="B75" s="39"/>
+    </row>
     <row r="76" spans="1:2" ht="17.25">
       <c r="A76" s="34"/>
       <c r="B76" s="39"/>
@@ -3835,10 +3839,6 @@
     </row>
     <row r="98" spans="1:2" ht="17.25">
       <c r="A98" s="34"/>
-      <c r="B98" s="39"/>
-    </row>
-    <row r="99" spans="1:2" ht="17.25">
-      <c r="A99" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="285">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -1018,13 +1018,6 @@
     <t>鹏华匠心精选混合A类</t>
   </si>
   <si>
-    <t>002446</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发利鑫灵活配置混合</t>
-  </si>
-  <si>
     <t>005809</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1057,16 +1050,6 @@
   <si>
     <t>华夏指数轮动</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009360</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商创新增长混合A</t>
-  </si>
-  <si>
-    <t>鹏华传媒分级</t>
   </si>
   <si>
     <t>610002</t>
@@ -1614,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1977,13 +1960,13 @@
         <v>159967</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -3002,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3175,10 +3158,10 @@
         <v>112</v>
       </c>
       <c r="C12" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
@@ -3189,10 +3172,10 @@
         <v>113</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
@@ -3203,10 +3186,10 @@
         <v>84</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
@@ -3216,23 +3199,17 @@
       <c r="B15" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>289</v>
-      </c>
+      <c r="C15" s="34"/>
       <c r="D15" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25">
       <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>5</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="29" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -3242,12 +3219,8 @@
       <c r="B17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>285</v>
-      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="34" t="s">
@@ -3256,12 +3229,8 @@
       <c r="B18" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="34">
-        <v>160629</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>286</v>
-      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="34" t="s">
@@ -3413,7 +3382,7 @@
       <c r="C33" s="34"/>
       <c r="D33" s="29"/>
     </row>
-    <row r="34" spans="1:4" ht="18">
+    <row r="34" spans="1:4" ht="17.25">
       <c r="A34" s="34" t="s">
         <v>124</v>
       </c>
@@ -3421,9 +3390,8 @@
         <v>41</v>
       </c>
       <c r="C34" s="34"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" ht="18">
+    </row>
+    <row r="35" spans="1:4" ht="17.25">
       <c r="A35" s="34" t="s">
         <v>92</v>
       </c>
@@ -3431,7 +3399,6 @@
         <v>43</v>
       </c>
       <c r="C35" s="34"/>
-      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="17.25">
       <c r="A36" s="34" t="s">
@@ -3458,7 +3425,6 @@
       <c r="B38" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="34"/>
     </row>
     <row r="39" spans="1:4" ht="17.25">
       <c r="A39" s="34" t="s">
@@ -3467,7 +3433,6 @@
       <c r="B39" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="34"/>
     </row>
     <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="34" t="s">
@@ -3703,7 +3668,7 @@
     </row>
     <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B69" s="39" t="s">
         <v>229</v>
@@ -3719,7 +3684,7 @@
     </row>
     <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B71" s="39" t="s">
         <v>238</v>
@@ -3734,12 +3699,8 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.25">
-      <c r="A73" s="34">
-        <v>159967</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>279</v>
-      </c>
+      <c r="A73" s="34"/>
+      <c r="B73" s="39"/>
     </row>
     <row r="74" spans="1:2" ht="17.25">
       <c r="A74" s="34"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="2625" yWindow="465" windowWidth="20775" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="291">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -352,590 +352,712 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>广发优势增长股票</t>
+  </si>
+  <si>
+    <t>006259</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008072</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005962</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>何帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹新进</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王阳,周伟锋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优企精选混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006228</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞研究精选</t>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张慧</t>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞激励动力混合A</t>
+  </si>
+  <si>
+    <t>006228</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006373</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰鑫睿混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐成,狄星华</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈雪峰</t>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006341</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>004616</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧电子信息产业沪港深股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安估值精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普科技</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈研究精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费精选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富全球互联混合(QDII)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安匠心优选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002560</t>
+  </si>
+  <si>
+    <t>006882</t>
+  </si>
+  <si>
+    <t>蔡嵩松</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯昊</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>过蓓蓓,吴振翔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000595</t>
+  </si>
+  <si>
+    <t>嘉实泰和混合</t>
+  </si>
+  <si>
+    <t>006408</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安和鑫灵活配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富消费升级混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰保兴健康消费A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚烁徽</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008655</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+  </si>
+  <si>
+    <t>付斌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城鼎益混合(LOF)</t>
+  </si>
+  <si>
+    <t>162605</t>
+  </si>
+  <si>
+    <t>刘彦春</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢惠添利灵活配置混合</t>
+  </si>
+  <si>
+    <t>005711</t>
+  </si>
+  <si>
+    <t>008480</t>
+  </si>
+  <si>
+    <t>永赢股息优选A</t>
+  </si>
+  <si>
+    <t>永赢创业板A</t>
+  </si>
+  <si>
+    <t>007664</t>
+  </si>
+  <si>
+    <t>006252</t>
+  </si>
+  <si>
+    <t>永赢消费主题A</t>
+  </si>
+  <si>
+    <t>006818</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+  </si>
+  <si>
+    <t>李永兴</t>
+  </si>
+  <si>
+    <t>常远</t>
+  </si>
+  <si>
+    <t>晏青</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁玮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛兰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭冬寒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>程洲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优势增长股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>007750</t>
-  </si>
-  <si>
-    <t>广发优势增长股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮未来新蓝筹灵活配置混合</t>
+  </si>
+  <si>
+    <t>002620</t>
+  </si>
+  <si>
+    <t>申万菱信智能驱动股票</t>
+  </si>
+  <si>
+    <t>005825</t>
+  </si>
+  <si>
+    <t>交银创新成长混合</t>
+  </si>
+  <si>
+    <t>006223</t>
+  </si>
+  <si>
+    <t>交银环球精选混合(QDII)</t>
+  </si>
+  <si>
+    <t>519696</t>
+  </si>
+  <si>
+    <t>杨欢</t>
+  </si>
+  <si>
+    <t>005983</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005911</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002542</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006756</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005743</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005176</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001508</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002620</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006252</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007664</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005711</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>162605</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005962</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐远航</t>
+  </si>
+  <si>
+    <t>周中</t>
+  </si>
+  <si>
+    <t>陈舒薇</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+  </si>
+  <si>
+    <t>100060</t>
+  </si>
+  <si>
+    <t>国泰大农业股票</t>
+  </si>
+  <si>
+    <t>001579</t>
+  </si>
+  <si>
+    <t>李元博</t>
+  </si>
+  <si>
+    <t>程洲</t>
+  </si>
+  <si>
+    <t>000595</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007468</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信建投精选混合A</t>
+  </si>
+  <si>
+    <t>栾江伟</t>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城品质成长混合</t>
+  </si>
+  <si>
+    <t>中信建投精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银医药健康股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰鑫睿混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘苏</t>
+  </si>
+  <si>
+    <t>006223</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008480</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实新兴产业股票</t>
+  </si>
+  <si>
+    <t>399011</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海医疗保健</t>
+  </si>
+  <si>
+    <t>010020</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏线上经济主题精选混合</t>
+  </si>
+  <si>
+    <t>008526</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞行业精选A</t>
+  </si>
+  <si>
+    <t>000083</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富消费行业混合</t>
+  </si>
+  <si>
+    <t>240001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝宝康消费品混合</t>
+  </si>
+  <si>
+    <t>009362</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商丰盈积极配置混合A</t>
+  </si>
+  <si>
+    <t>009548</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中盘价值精选混合A</t>
+  </si>
+  <si>
+    <t>009570</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华匠心精选混合A类</t>
+  </si>
+  <si>
+    <t>005809</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源裕源</t>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+  </si>
+  <si>
+    <t>宝盈融源可转债债券A</t>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片ETF联接A</t>
+  </si>
+  <si>
+    <t>华夏创成长ETF</t>
+  </si>
+  <si>
+    <t>001579</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣膺</t>
+  </si>
+  <si>
+    <t>华夏指数轮动</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>610002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006147</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008887</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安鑫盈混合A</t>
+  </si>
+  <si>
+    <t>林忠晶</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005825</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>006259</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>005001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>008072</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>005962</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005726</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>何帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹新进</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>王阳,周伟锋</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发优企精选混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006228</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞研究精选</t>
-  </si>
-  <si>
     <t>007968</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>张慧</t>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞激励动力混合A</t>
-  </si>
-  <si>
-    <t>006228</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007733</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006373</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰鑫睿混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐成,狄星华</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈雪峰</t>
-  </si>
-  <si>
-    <t>006308</t>
-  </si>
-  <si>
-    <t>添富全球消费混合(QDII)人民币A</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
+    <t>519696</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>008133</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴杰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007203</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006341</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>003889</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005760</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>004616</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006138</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>007412</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>008227</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009265</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006751</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧电子信息产业沪港深股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国联安价值优选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安估值精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>标普科技</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝盈研究精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达消费精选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国互联科技股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富全球互联混合(QDII)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安匠心优选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002560</t>
-  </si>
-  <si>
-    <t>006882</t>
-  </si>
-  <si>
-    <t>蔡嵩松</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯昊</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>过蓓蓓,吴振翔</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002624</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000595</t>
-  </si>
-  <si>
-    <t>嘉实泰和混合</t>
-  </si>
-  <si>
-    <t>006408</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安和鑫灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添富消费升级混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰保兴健康消费A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚烁徽</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008655</t>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-  </si>
-  <si>
-    <t>付斌</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城鼎益混合(LOF)</t>
-  </si>
-  <si>
-    <t>162605</t>
-  </si>
-  <si>
-    <t>刘彦春</t>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢惠添利灵活配置混合</t>
-  </si>
-  <si>
-    <t>005711</t>
-  </si>
-  <si>
-    <t>008480</t>
-  </si>
-  <si>
-    <t>永赢股息优选A</t>
-  </si>
-  <si>
-    <t>永赢创业板A</t>
-  </si>
-  <si>
-    <t>007664</t>
-  </si>
-  <si>
-    <t>006252</t>
-  </si>
-  <si>
-    <t>永赢消费主题A</t>
-  </si>
-  <si>
-    <t>006818</t>
-  </si>
-  <si>
-    <t>安信盈利驱动股票A</t>
-  </si>
-  <si>
-    <t>李永兴</t>
-  </si>
-  <si>
-    <t>常远</t>
-  </si>
-  <si>
-    <t>晏青</t>
-  </si>
-  <si>
-    <t>安信盈利驱动股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁玮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛兰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭冬寒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>程洲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中证主要消费ETF联接</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发优势增长股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添富全球消费混合(QDII)人民币A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008949</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007750</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006308</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中邮未来新蓝筹灵活配置混合</t>
-  </si>
-  <si>
-    <t>002620</t>
-  </si>
-  <si>
-    <t>申万菱信智能驱动股票</t>
-  </si>
-  <si>
-    <t>005825</t>
-  </si>
-  <si>
-    <t>交银创新成长混合</t>
-  </si>
-  <si>
-    <t>006223</t>
-  </si>
-  <si>
-    <t>交银环球精选混合(QDII)</t>
-  </si>
-  <si>
-    <t>519696</t>
-  </si>
-  <si>
-    <t>杨欢</t>
-  </si>
-  <si>
-    <t>005983</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005911</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002542</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006756</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005743</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008507</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005176</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001508</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002620</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006252</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007664</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005711</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>162605</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005962</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>003889</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005726</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐远航</t>
-  </si>
-  <si>
-    <t>周中</t>
-  </si>
-  <si>
-    <t>陈舒薇</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国高新技术产业混合</t>
-  </si>
-  <si>
-    <t>100060</t>
-  </si>
-  <si>
-    <t>国泰大农业股票</t>
-  </si>
-  <si>
-    <t>001579</t>
-  </si>
-  <si>
-    <t>李元博</t>
-  </si>
-  <si>
-    <t>程洲</t>
-  </si>
-  <si>
-    <t>000595</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007468</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信建投精选混合A</t>
-  </si>
-  <si>
-    <t>栾江伟</t>
-  </si>
-  <si>
-    <t>008712</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城品质成长混合</t>
-  </si>
-  <si>
-    <t>中信建投精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银医药健康股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰鑫睿混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘苏</t>
-  </si>
-  <si>
-    <t>519696</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006223</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008480</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006138</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008227</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001668</t>
+    <t>007893</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -943,125 +1065,26 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>9月</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000751</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实新兴产业股票</t>
-  </si>
-  <si>
-    <t>399011</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中海医疗保健</t>
-  </si>
-  <si>
-    <t>010020</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏线上经济主题精选混合</t>
-  </si>
-  <si>
-    <t>008526</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞行业精选A</t>
-  </si>
-  <si>
-    <t>000083</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富消费行业混合</t>
-  </si>
-  <si>
-    <t>240001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝宝康消费品混合</t>
-  </si>
-  <si>
-    <t>009362</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商丰盈积极配置混合A</t>
-  </si>
-  <si>
-    <t>009548</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中盘价值精选混合A</t>
-  </si>
-  <si>
-    <t>009570</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华匠心精选混合A类</t>
-  </si>
-  <si>
-    <t>005809</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源裕源</t>
-  </si>
-  <si>
-    <t>信达澳银精华配置混合</t>
-  </si>
-  <si>
-    <t>宝盈融源可转债债券A</t>
-  </si>
-  <si>
-    <t>华夏国证半导体芯片ETF联接A</t>
-  </si>
-  <si>
-    <t>华夏创成长ETF</t>
-  </si>
-  <si>
-    <t>001579</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008712</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣膺</t>
-  </si>
-  <si>
-    <t>华夏指数轮动</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>610002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006147</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008887</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <t>006879</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007455</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006371</t>
+  </si>
+  <si>
+    <t>006371</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>519021</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰金鼎价值混合</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1300,9 +1323,6 @@
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1595,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1641,7 +1661,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -1651,26 +1671,26 @@
         <v>280</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="5">
-        <f>SUM(C21+C84)</f>
-        <v>34</v>
+        <f>SUM(C21+C85)</f>
+        <v>35</v>
       </c>
       <c r="G2" s="5">
-        <f>SUM(C83+C20)</f>
-        <v>5100</v>
+        <f>SUM(C84+C20)</f>
+        <v>5250</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>157</v>
+      <c r="A3" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="30">
         <v>280</v>
@@ -1680,11 +1700,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
-        <v>233</v>
+      <c r="A4" s="41" t="s">
+        <v>229</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="30">
         <v>280</v>
@@ -1692,44 +1712,32 @@
       <c r="D4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="30">
         <v>280</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2330</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="6"/>
       <c r="C6" s="9">
         <f>SUM(C2:C5)</f>
         <v>1120</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="3" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="22"/>
       <c r="C7" s="7">
         <f>COUNT(C2:C5)</f>
@@ -1738,84 +1746,84 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="22"/>
       <c r="C8" s="7"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42" t="s">
-        <v>234</v>
+      <c r="A9" s="41" t="s">
+        <v>230</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C9" s="32">
         <v>150</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>236</v>
+      <c r="D9" s="37" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="42" t="s">
-        <v>151</v>
+      <c r="A10" s="41" t="s">
+        <v>149</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="32">
         <v>150</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>153</v>
+      <c r="D10" s="37" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42" t="s">
-        <v>166</v>
+      <c r="A11" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="32">
         <v>150</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>168</v>
+      <c r="D11" s="37" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="42" t="s">
-        <v>181</v>
+      <c r="A12" s="41" t="s">
+        <v>179</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="32">
         <v>150</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>187</v>
+      <c r="D12" s="37" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="42" t="s">
-        <v>160</v>
+      <c r="A13" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="32">
         <v>150</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>161</v>
+      <c r="D13" s="37" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="42" t="s">
-        <v>107</v>
+      <c r="A14" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>65</v>
@@ -1823,69 +1831,69 @@
       <c r="C14" s="32">
         <v>150</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>188</v>
+      <c r="D14" s="37" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="42" t="s">
-        <v>152</v>
+      <c r="A15" s="41" t="s">
+        <v>150</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="32">
         <v>150</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>165</v>
+      <c r="D15" s="37" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="42" t="s">
-        <v>108</v>
+      <c r="A16" s="41" t="s">
+        <v>107</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C16" s="32">
         <v>150</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>189</v>
+      <c r="D16" s="37" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="42" t="s">
-        <v>109</v>
+      <c r="A17" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="32">
         <v>150</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>154</v>
+      <c r="D17" s="37" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="42" t="s">
-        <v>110</v>
+      <c r="A18" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C18" s="32">
         <v>150</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>190</v>
+      <c r="D18" s="37" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="42" t="s">
-        <v>111</v>
+      <c r="A19" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>84</v>
@@ -1894,7 +1902,7 @@
         <v>150</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1923,16 +1931,16 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="C23" s="24">
         <v>420</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="5"/>
@@ -1943,30 +1951,30 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="C24" s="24">
         <v>420</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="34">
         <v>159967</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>277</v>
+      <c r="B25" s="38" t="s">
+        <v>265</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1974,7 +1982,7 @@
       <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="24">
@@ -1988,7 +1996,7 @@
       <c r="A27" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="24">
@@ -2003,7 +2011,7 @@
       <c r="A28" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="24">
@@ -2016,9 +2024,9 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="24">
@@ -2031,9 +2039,9 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="24">
@@ -2046,9 +2054,9 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B31" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="24">
@@ -2063,7 +2071,7 @@
       <c r="A32" s="33">
         <v>100020</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="24">
@@ -2076,9 +2084,9 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="24">
@@ -2093,7 +2101,7 @@
       <c r="A34" s="33">
         <v>160222</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="24">
@@ -2106,9 +2114,9 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="24">
@@ -2121,9 +2129,9 @@
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="24">
@@ -2136,9 +2144,9 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="24">
@@ -2151,9 +2159,9 @@
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1">
       <c r="A38" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="24">
@@ -2167,38 +2175,38 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>198</v>
+        <v>213</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>200</v>
+        <v>275</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="33">
         <v>110011</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="24">
@@ -2214,7 +2222,7 @@
       <c r="A42" s="33">
         <v>110003</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="24">
@@ -2226,9 +2234,9 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="24">
@@ -2240,54 +2248,54 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>180</v>
+        <v>214</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>177</v>
+        <v>215</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>175</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>173</v>
+        <v>216</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="24">
@@ -2299,9 +2307,9 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="24">
@@ -2317,56 +2325,56 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="24">
         <v>420</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>169</v>
+        <v>217</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="C50" s="24">
         <v>420</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G50" s="12"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>106</v>
+        <v>124</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="C51" s="24">
         <v>420</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="24">
@@ -2378,9 +2386,9 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="38" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="24">
@@ -2392,49 +2400,49 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="C54" s="24">
         <v>420</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>102</v>
+        <v>279</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="C55" s="24">
         <v>420</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B56" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="24">
         <v>420</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="33"/>
-      <c r="B57" s="40"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="13">
         <f>SUM(C23:C56)</f>
         <v>14280</v>
@@ -2442,8 +2450,8 @@
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="11"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="3">
         <f>COUNT(C23:C56)</f>
         <v>34</v>
@@ -2451,352 +2459,362 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="11"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="39"/>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>204</v>
+      <c r="A60" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="C60" s="24">
         <v>150</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>238</v>
+      <c r="A61" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="C61" s="24">
         <v>150</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>202</v>
+      <c r="A62" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>234</v>
       </c>
       <c r="C62" s="24">
         <v>150</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>137</v>
+      <c r="A63" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="C63" s="24">
         <v>150</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>176</v>
+      <c r="A64" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="C64" s="24">
         <v>150</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>138</v>
+      <c r="A65" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>174</v>
       </c>
       <c r="C65" s="24">
         <v>150</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>139</v>
+      <c r="A66" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="C66" s="24">
         <v>150</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>140</v>
+      <c r="A67" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="C67" s="24">
         <v>150</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>69</v>
+      <c r="A68" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="C68" s="24">
         <v>150</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>54</v>
+      <c r="A69" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="C69" s="24">
         <v>150</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>141</v>
+      <c r="A70" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="C70" s="24">
         <v>150</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35">
-        <v>161128</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>142</v>
+      <c r="A71" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="C71" s="24">
         <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>143</v>
+      <c r="A72" s="33">
+        <v>161128</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="C72" s="24">
         <v>150</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>144</v>
+      <c r="A73" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="C73" s="24">
         <v>150</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>145</v>
+      <c r="A74" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="C74" s="24">
         <v>150</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>146</v>
+      <c r="A75" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="C75" s="24">
         <v>150</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>147</v>
+      <c r="A76" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="C76" s="24">
         <v>150</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>148</v>
+      <c r="A77" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>145</v>
       </c>
       <c r="C77" s="24">
         <v>150</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>149</v>
+      <c r="A78" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="C78" s="24">
         <v>150</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>150</v>
+      <c r="A79" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>147</v>
       </c>
       <c r="C79" s="24">
         <v>150</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>89</v>
+        <v>285</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>148</v>
       </c>
       <c r="C80" s="24">
         <v>150</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>91</v>
+        <v>286</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="C81" s="24">
         <v>150</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B82" s="39" t="s">
-        <v>117</v>
+        <v>194</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="C82" s="24">
         <v>150</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="11"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="13">
-        <f>SUM(C60:C82)</f>
-        <v>3450</v>
-      </c>
-      <c r="D83" s="15"/>
+      <c r="A83" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="24">
+        <v>150</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="17"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="3">
-        <f>COUNT(C60:C82)</f>
-        <v>23</v>
-      </c>
+      <c r="A84" s="11"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="13">
+        <f>SUM(C60:C83)</f>
+        <v>3600</v>
+      </c>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="17"/>
       <c r="B85" s="4"/>
+      <c r="C85" s="3">
+        <f>COUNT(C60:C83)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="17"/>
@@ -2807,6 +2825,7 @@
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:4">
+      <c r="A88" s="17"/>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:4">
@@ -2970,6 +2989,9 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2985,13 +3007,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="C16:D16"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13" style="37" customWidth="1"/>
+    <col min="1" max="1" width="13" style="36" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="21" customWidth="1"/>
     <col min="4" max="4" width="42.625" style="21" customWidth="1"/>
@@ -3006,209 +3028,209 @@
       <c r="B1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>254</v>
+      <c r="C1" s="35" t="s">
+        <v>242</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>256</v>
+      <c r="C2" s="35" t="s">
+        <v>244</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>260</v>
+      <c r="C4" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>262</v>
+      <c r="C5" s="35" t="s">
+        <v>250</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="36" t="s">
-        <v>151</v>
+      <c r="A6" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>264</v>
+        <v>160</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="36" t="s">
-        <v>181</v>
+      <c r="A7" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>266</v>
+        <v>180</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="36" t="s">
-        <v>160</v>
+      <c r="A8" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>268</v>
+        <v>161</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>256</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="36" t="s">
-        <v>100</v>
+      <c r="A9" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>270</v>
+      <c r="C9" s="35" t="s">
+        <v>258</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="36" t="s">
-        <v>152</v>
+      <c r="A10" s="35" t="s">
+        <v>150</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="36"/>
+        <v>162</v>
+      </c>
+      <c r="C10" s="35"/>
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="36" t="s">
-        <v>108</v>
+      <c r="A11" s="35" t="s">
+        <v>107</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="36" t="s">
-        <v>109</v>
+      <c r="A12" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>113</v>
-      </c>
       <c r="C13" s="34" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="36" t="s">
-        <v>111</v>
+      <c r="A14" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="A15" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="29" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25">
       <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3216,7 +3238,7 @@
       <c r="A17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="34"/>
@@ -3226,7 +3248,7 @@
       <c r="A18" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="34"/>
@@ -3236,7 +3258,7 @@
       <c r="A19" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="34"/>
@@ -3246,7 +3268,7 @@
       <c r="A20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="34"/>
@@ -3256,7 +3278,7 @@
       <c r="A21" s="34">
         <v>100020</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="34"/>
@@ -3266,7 +3288,7 @@
       <c r="A22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="34"/>
@@ -3276,7 +3298,7 @@
       <c r="A23" s="34">
         <v>160222</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="34"/>
@@ -3286,7 +3308,7 @@
       <c r="A24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="34"/>
@@ -3296,7 +3318,7 @@
       <c r="A25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="34"/>
@@ -3306,7 +3328,7 @@
       <c r="A26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="34"/>
@@ -3316,7 +3338,7 @@
       <c r="A27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="34"/>
@@ -3326,7 +3348,7 @@
       <c r="A28" s="34">
         <v>110011</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="34"/>
@@ -3336,7 +3358,7 @@
       <c r="A29" s="34">
         <v>110003</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="34"/>
@@ -3344,9 +3366,9 @@
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="34"/>
@@ -3354,171 +3376,171 @@
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>175</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="18">
       <c r="A33" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="17.25">
       <c r="A34" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="17.25">
       <c r="A35" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="34"/>
     </row>
     <row r="36" spans="1:4" ht="17.25">
       <c r="A36" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="34"/>
     </row>
     <row r="37" spans="1:4" ht="17.25">
       <c r="A37" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="C37" s="34"/>
     </row>
     <row r="38" spans="1:4" ht="17.25">
       <c r="A38" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>106</v>
+        <v>124</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25">
       <c r="A39" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25">
       <c r="A41" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25">
       <c r="A42" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="39" t="s">
         <v>102</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25">
       <c r="A43" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="38" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25">
       <c r="A44" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25">
       <c r="A45" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25">
       <c r="A46" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25">
       <c r="A47" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25">
       <c r="A48" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25">
       <c r="A49" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>140</v>
+        <v>128</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25">
       <c r="A50" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="38" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3526,277 +3548,285 @@
       <c r="A51" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="39" t="s">
-        <v>141</v>
+      <c r="B51" s="38" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25">
       <c r="A52" s="34">
         <v>161128</v>
       </c>
-      <c r="B52" s="39" t="s">
-        <v>142</v>
+      <c r="B52" s="38" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25">
       <c r="A53" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>143</v>
+        <v>131</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25">
       <c r="A54" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>144</v>
+        <v>132</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25">
       <c r="A55" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>145</v>
+        <v>133</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25">
       <c r="A56" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>146</v>
+        <v>134</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25">
       <c r="A57" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>147</v>
+        <v>104</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25">
       <c r="A58" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="39" t="s">
-        <v>148</v>
+      <c r="B58" s="38" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.25">
       <c r="A59" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>149</v>
+        <v>193</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="39" t="s">
-        <v>192</v>
+      <c r="B60" s="38" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="38" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25">
       <c r="A62" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25">
       <c r="A63" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25">
       <c r="A64" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.25">
       <c r="A65" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25">
       <c r="A66" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25">
       <c r="A67" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.25">
       <c r="A68" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>229</v>
+        <v>266</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25">
       <c r="A70" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>238</v>
+        <v>267</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25">
       <c r="A72" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="39"/>
+      <c r="A73" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="74" spans="1:2" ht="17.25">
       <c r="A74" s="34"/>
-      <c r="B74" s="39"/>
+      <c r="B74" s="38"/>
     </row>
     <row r="75" spans="1:2" ht="17.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="39"/>
+      <c r="A75" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="76" spans="1:2" ht="17.25">
       <c r="A76" s="34"/>
-      <c r="B76" s="39"/>
+      <c r="B76" s="38"/>
     </row>
     <row r="77" spans="1:2" ht="17.25">
       <c r="A77" s="34"/>
-      <c r="B77" s="39"/>
+      <c r="B77" s="38"/>
     </row>
     <row r="78" spans="1:2" ht="17.25">
       <c r="A78" s="34"/>
-      <c r="B78" s="39"/>
+      <c r="B78" s="38"/>
     </row>
     <row r="79" spans="1:2" ht="17.25">
       <c r="A79" s="34"/>
-      <c r="B79" s="39"/>
+      <c r="B79" s="38"/>
     </row>
     <row r="80" spans="1:2" ht="17.25">
       <c r="A80" s="34"/>
-      <c r="B80" s="39"/>
+      <c r="B80" s="38"/>
     </row>
     <row r="81" spans="1:2" ht="17.25">
       <c r="A81" s="34"/>
-      <c r="B81" s="39"/>
+      <c r="B81" s="38"/>
     </row>
     <row r="82" spans="1:2" ht="17.25">
       <c r="A82" s="34"/>
-      <c r="B82" s="39"/>
+      <c r="B82" s="38"/>
     </row>
     <row r="83" spans="1:2" ht="17.25">
       <c r="A83" s="34"/>
-      <c r="B83" s="39"/>
+      <c r="B83" s="38"/>
     </row>
     <row r="84" spans="1:2" ht="17.25">
       <c r="A84" s="34"/>
-      <c r="B84" s="39"/>
+      <c r="B84" s="38"/>
     </row>
     <row r="85" spans="1:2" ht="17.25">
       <c r="A85" s="34"/>
-      <c r="B85" s="39"/>
+      <c r="B85" s="38"/>
     </row>
     <row r="86" spans="1:2" ht="17.25">
       <c r="A86" s="34"/>
-      <c r="B86" s="39"/>
+      <c r="B86" s="38"/>
     </row>
     <row r="87" spans="1:2" ht="17.25">
       <c r="A87" s="34"/>
-      <c r="B87" s="39"/>
+      <c r="B87" s="38"/>
     </row>
     <row r="88" spans="1:2" ht="17.25">
       <c r="A88" s="34"/>
-      <c r="B88" s="39"/>
+      <c r="B88" s="38"/>
     </row>
     <row r="89" spans="1:2" ht="17.25">
       <c r="A89" s="34"/>
-      <c r="B89" s="39"/>
+      <c r="B89" s="38"/>
     </row>
     <row r="90" spans="1:2" ht="17.25">
       <c r="A90" s="34"/>
-      <c r="B90" s="39"/>
+      <c r="B90" s="38"/>
     </row>
     <row r="91" spans="1:2" ht="17.25">
       <c r="A91" s="34"/>
-      <c r="B91" s="39"/>
+      <c r="B91" s="38"/>
     </row>
     <row r="92" spans="1:2" ht="17.25">
       <c r="A92" s="34"/>
-      <c r="B92" s="39"/>
+      <c r="B92" s="38"/>
     </row>
     <row r="93" spans="1:2" ht="17.25">
       <c r="A93" s="34"/>
-      <c r="B93" s="39"/>
+      <c r="B93" s="38"/>
     </row>
     <row r="94" spans="1:2" ht="17.25">
       <c r="A94" s="34"/>
-      <c r="B94" s="39"/>
+      <c r="B94" s="38"/>
     </row>
     <row r="95" spans="1:2" ht="17.25">
       <c r="A95" s="34"/>
-      <c r="B95" s="39"/>
+      <c r="B95" s="38"/>
     </row>
     <row r="96" spans="1:2" ht="17.25">
       <c r="A96" s="34"/>
-      <c r="B96" s="39"/>
+      <c r="B96" s="38"/>
     </row>
     <row r="97" spans="1:2" ht="17.25">
       <c r="A97" s="34"/>
-      <c r="B97" s="39"/>
+      <c r="B97" s="38"/>
     </row>
     <row r="98" spans="1:2" ht="17.25">
       <c r="A98" s="34"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="291">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -210,10 +210,6 @@
   </si>
   <si>
     <t>黄维</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城创业板综指增强</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -311,10 +307,6 @@
     <t>李博</t>
   </si>
   <si>
-    <t>黎海威</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>张仲维</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -359,732 +351,740 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>005962</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>何帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹新进</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王阳,周伟锋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优企精选混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006228</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞研究精选</t>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张慧</t>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞激励动力混合A</t>
+  </si>
+  <si>
+    <t>006228</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007835</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006373</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰鑫睿混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐成,狄星华</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈雪峰</t>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安丰泽混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006341</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>004616</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006138</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧电子信息产业沪港深股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联安价值优选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安估值精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普科技</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈研究精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费精选股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富全球互联混合(QDII)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安匠心优选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002560</t>
+  </si>
+  <si>
+    <t>006882</t>
+  </si>
+  <si>
+    <t>蔡嵩松</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆帅</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯昊</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>过蓓蓓,吴振翔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000595</t>
+  </si>
+  <si>
+    <t>嘉实泰和混合</t>
+  </si>
+  <si>
+    <t>006408</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安和鑫灵活配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富消费升级混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰保兴健康消费A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚烁徽</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008655</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+  </si>
+  <si>
+    <t>付斌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城鼎益混合(LOF)</t>
+  </si>
+  <si>
+    <t>162605</t>
+  </si>
+  <si>
+    <t>刘彦春</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢惠添利灵活配置混合</t>
+  </si>
+  <si>
+    <t>005711</t>
+  </si>
+  <si>
+    <t>008480</t>
+  </si>
+  <si>
+    <t>永赢股息优选A</t>
+  </si>
+  <si>
+    <t>永赢创业板A</t>
+  </si>
+  <si>
+    <t>007664</t>
+  </si>
+  <si>
+    <t>006252</t>
+  </si>
+  <si>
+    <t>永赢消费主题A</t>
+  </si>
+  <si>
+    <t>006818</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+  </si>
+  <si>
+    <t>李永兴</t>
+  </si>
+  <si>
+    <t>常远</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁玮</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛兰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭冬寒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>程洲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优势增长股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007750</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮未来新蓝筹灵活配置混合</t>
+  </si>
+  <si>
+    <t>002620</t>
+  </si>
+  <si>
+    <t>申万菱信智能驱动股票</t>
+  </si>
+  <si>
+    <t>005825</t>
+  </si>
+  <si>
+    <t>交银创新成长混合</t>
+  </si>
+  <si>
+    <t>006223</t>
+  </si>
+  <si>
+    <t>交银环球精选混合(QDII)</t>
+  </si>
+  <si>
+    <t>519696</t>
+  </si>
+  <si>
+    <t>杨欢</t>
+  </si>
+  <si>
+    <t>005911</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002542</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006756</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005743</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005176</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001508</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>002620</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>162605</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005962</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐远航</t>
+  </si>
+  <si>
+    <t>周中</t>
+  </si>
+  <si>
+    <t>陈舒薇</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+  </si>
+  <si>
+    <t>100060</t>
+  </si>
+  <si>
+    <t>国泰大农业股票</t>
+  </si>
+  <si>
+    <t>李元博</t>
+  </si>
+  <si>
+    <t>程洲</t>
+  </si>
+  <si>
+    <t>000595</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007468</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信建投精选混合A</t>
+  </si>
+  <si>
+    <t>栾江伟</t>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城品质成长混合</t>
+  </si>
+  <si>
+    <t>中信建投精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银医药健康股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰鑫睿混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘苏</t>
+  </si>
+  <si>
+    <t>006223</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008480</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实新兴产业股票</t>
+  </si>
+  <si>
+    <t>399011</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海医疗保健</t>
+  </si>
+  <si>
+    <t>010020</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏线上经济主题精选混合</t>
+  </si>
+  <si>
+    <t>008526</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞行业精选A</t>
+  </si>
+  <si>
+    <t>000083</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富消费行业混合</t>
+  </si>
+  <si>
+    <t>240001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝宝康消费品混合</t>
+  </si>
+  <si>
+    <t>009362</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商丰盈积极配置混合A</t>
+  </si>
+  <si>
+    <t>009548</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中盘价值精选混合A</t>
+  </si>
+  <si>
+    <t>009570</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华匠心精选混合A类</t>
+  </si>
+  <si>
+    <t>005809</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源裕源</t>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+  </si>
+  <si>
+    <t>宝盈融源可转债债券A</t>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片ETF联接A</t>
+  </si>
+  <si>
+    <t>001579</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏指数轮动</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>610002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006147</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008887</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安鑫盈混合A</t>
+  </si>
+  <si>
+    <t>林忠晶</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005825</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006259</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>519696</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007893</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006879</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007455</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006371</t>
+  </si>
+  <si>
+    <t>006371</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>519021</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰金鼎价值混合</t>
+  </si>
+  <si>
+    <t>007474</t>
+  </si>
+  <si>
+    <t>华夏创成长ETF联接A</t>
+  </si>
+  <si>
+    <t>100060</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007464</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006648</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007300</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005983</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006252</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005711</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006341</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>008072</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005962</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005726</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>何帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹新进</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>王阳,周伟锋</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发优企精选混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006228</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞研究精选</t>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>张慧</t>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞激励动力混合A</t>
-  </si>
-  <si>
-    <t>006228</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007733</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007835</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006373</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰鑫睿混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐成,狄星华</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈雪峰</t>
-  </si>
-  <si>
-    <t>添富全球消费混合(QDII)人民币A</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇安丰泽混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴杰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007203</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006341</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>003889</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005760</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>004616</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006138</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008227</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009265</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006751</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧电子信息产业沪港深股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国联安价值优选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安估值精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>标普科技</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝盈研究精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达消费精选股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国互联科技股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富全球互联混合(QDII)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安匠心优选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002560</t>
-  </si>
-  <si>
-    <t>006882</t>
-  </si>
-  <si>
-    <t>蔡嵩松</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆帅</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯昊</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>过蓓蓓,吴振翔</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002624</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000595</t>
-  </si>
-  <si>
-    <t>嘉实泰和混合</t>
-  </si>
-  <si>
-    <t>006408</t>
-  </si>
-  <si>
-    <t>郑慧莲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺安和鑫灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添富消费升级混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰保兴健康消费A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚烁徽</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008655</t>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-  </si>
-  <si>
-    <t>付斌</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城鼎益混合(LOF)</t>
-  </si>
-  <si>
-    <t>162605</t>
-  </si>
-  <si>
-    <t>刘彦春</t>
-  </si>
-  <si>
-    <t>招商科技创新混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢惠添利灵活配置混合</t>
-  </si>
-  <si>
-    <t>005711</t>
-  </si>
-  <si>
-    <t>008480</t>
-  </si>
-  <si>
-    <t>永赢股息优选A</t>
-  </si>
-  <si>
-    <t>永赢创业板A</t>
-  </si>
-  <si>
-    <t>007664</t>
-  </si>
-  <si>
-    <t>006252</t>
-  </si>
-  <si>
-    <t>永赢消费主题A</t>
-  </si>
-  <si>
-    <t>006818</t>
-  </si>
-  <si>
-    <t>安信盈利驱动股票A</t>
-  </si>
-  <si>
-    <t>李永兴</t>
-  </si>
-  <si>
-    <t>常远</t>
-  </si>
-  <si>
-    <t>晏青</t>
-  </si>
-  <si>
-    <t>安信盈利驱动股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁玮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛兰</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭冬寒</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>程洲</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中证主要消费ETF联接</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发优势增长股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添富全球消费混合(QDII)人民币A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008949</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007750</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006308</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中邮未来新蓝筹灵活配置混合</t>
-  </si>
-  <si>
-    <t>002620</t>
-  </si>
-  <si>
-    <t>申万菱信智能驱动股票</t>
-  </si>
-  <si>
-    <t>005825</t>
-  </si>
-  <si>
-    <t>交银创新成长混合</t>
-  </si>
-  <si>
-    <t>006223</t>
-  </si>
-  <si>
-    <t>交银环球精选混合(QDII)</t>
-  </si>
-  <si>
-    <t>519696</t>
-  </si>
-  <si>
-    <t>杨欢</t>
-  </si>
-  <si>
-    <t>005983</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005911</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002542</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006756</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005743</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008507</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005176</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001508</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>002620</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006252</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007664</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005711</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>162605</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005962</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005726</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐远航</t>
-  </si>
-  <si>
-    <t>周中</t>
-  </si>
-  <si>
-    <t>陈舒薇</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国高新技术产业混合</t>
-  </si>
-  <si>
-    <t>100060</t>
-  </si>
-  <si>
-    <t>国泰大农业股票</t>
-  </si>
-  <si>
-    <t>001579</t>
-  </si>
-  <si>
-    <t>李元博</t>
-  </si>
-  <si>
-    <t>程洲</t>
-  </si>
-  <si>
-    <t>000595</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007468</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信建投精选混合A</t>
-  </si>
-  <si>
-    <t>栾江伟</t>
-  </si>
-  <si>
-    <t>008712</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城品质成长混合</t>
-  </si>
-  <si>
-    <t>中信建投精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银医药健康股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰鑫睿混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘苏</t>
-  </si>
-  <si>
-    <t>006223</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008480</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000751</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实新兴产业股票</t>
-  </si>
-  <si>
-    <t>399011</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中海医疗保健</t>
-  </si>
-  <si>
-    <t>010020</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏线上经济主题精选混合</t>
-  </si>
-  <si>
-    <t>008526</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞行业精选A</t>
-  </si>
-  <si>
-    <t>000083</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富消费行业混合</t>
-  </si>
-  <si>
-    <t>240001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝宝康消费品混合</t>
-  </si>
-  <si>
-    <t>009362</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商丰盈积极配置混合A</t>
-  </si>
-  <si>
-    <t>009548</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中盘价值精选混合A</t>
-  </si>
-  <si>
-    <t>009570</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华匠心精选混合A类</t>
-  </si>
-  <si>
-    <t>005809</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源裕源</t>
-  </si>
-  <si>
-    <t>信达澳银精华配置混合</t>
-  </si>
-  <si>
-    <t>宝盈融源可转债债券A</t>
-  </si>
-  <si>
-    <t>华夏国证半导体芯片ETF联接A</t>
-  </si>
-  <si>
-    <t>华夏创成长ETF</t>
-  </si>
-  <si>
-    <t>001579</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008712</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣膺</t>
-  </si>
-  <si>
-    <t>华夏指数轮动</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>610002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006147</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008887</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安鑫盈混合A</t>
-  </si>
-  <si>
-    <t>林忠晶</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005825</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006259</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008072</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>519696</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007893</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009076</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006879</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007455</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006371</t>
-  </si>
-  <si>
-    <t>006371</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>519021</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰金鼎价值混合</t>
+  </si>
+  <si>
+    <t>景顺长城创业板综指增强</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:B61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1637,32 +1637,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="5">
-        <f>C58+C7</f>
-        <v>38</v>
+        <f>C55+C7</f>
+        <v>35</v>
       </c>
       <c r="G1" s="5">
-        <f>SUM(C57+C6)</f>
-        <v>15400</v>
+        <f>SUM(C54+C6)</f>
+        <v>14140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -1671,60 +1671,60 @@
         <v>280</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="5">
-        <f>SUM(C21+C85)</f>
+        <f>SUM(C21+C82)</f>
         <v>35</v>
       </c>
       <c r="G2" s="5">
-        <f>SUM(C84+C20)</f>
+        <f>SUM(C81+C20)</f>
         <v>5250</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="30">
         <v>280</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="41" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C4" s="30">
         <v>280</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C5" s="30">
         <v>280</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1753,156 +1753,156 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="41" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C9" s="32">
         <v>150</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="32">
         <v>150</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="32">
         <v>150</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C12" s="32">
         <v>150</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="C13" s="32">
         <v>150</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="32">
         <v>150</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="32">
         <v>150</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C16" s="32">
         <v>150</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="C17" s="32">
         <v>150</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C18" s="32">
         <v>150</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="32">
         <v>150</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1931,16 +1931,16 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="33" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C23" s="24">
         <v>420</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="5"/>
@@ -1951,143 +1951,143 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="33" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C24" s="24">
         <v>420</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="34">
-        <v>159967</v>
+      <c r="A25" s="33" t="s">
+        <v>279</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="C25" s="24">
         <v>420</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="33" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" s="24">
         <v>420</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="33" t="s">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C27" s="24">
         <v>420</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="33" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C28" s="24">
         <v>420</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C29" s="24">
         <v>420</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="33" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30" s="24">
         <v>420</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="33" t="s">
-        <v>207</v>
+      <c r="A31" s="33">
+        <v>100020</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="24">
         <v>420</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="33">
-        <v>100020</v>
+      <c r="A32" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="24">
         <v>420</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="33" t="s">
-        <v>208</v>
+      <c r="A33" s="33">
+        <v>160222</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" s="24">
         <v>420</v>
@@ -2098,225 +2098,225 @@
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="33">
-        <v>160222</v>
+      <c r="A34" s="33" t="s">
+        <v>204</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" s="24">
         <v>420</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="33" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C35" s="24">
         <v>420</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="33" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C36" s="24">
         <v>420</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="33" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" s="24">
         <v>420</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1">
       <c r="A38" s="33" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="C38" s="24">
         <v>420</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="33" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C39" s="24">
         <v>420</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="33" t="s">
-        <v>275</v>
+      <c r="A40" s="33">
+        <v>110011</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="C40" s="24">
         <v>420</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="33">
-        <v>110011</v>
+        <v>110003</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C41" s="24">
         <v>420</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="33">
-        <v>110003</v>
+      <c r="A42" s="33" t="s">
+        <v>284</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42" s="24">
         <v>420</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="33" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="C43" s="24">
         <v>420</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="33" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C44" s="24">
         <v>420</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="33" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="C45" s="24">
         <v>420</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="33" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="C46" s="24">
         <v>420</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C47" s="24">
         <v>420</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="33" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C48" s="24">
         <v>420</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="12"/>
@@ -2325,301 +2325,301 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="33" t="s">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C49" s="24">
         <v>420</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="33" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="C50" s="24">
         <v>420</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="G50" s="12"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C51" s="24">
         <v>420</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="33" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C52" s="24">
         <v>420</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="33" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C53" s="24">
         <v>420</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="24">
-        <v>420</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>120</v>
-      </c>
+      <c r="A54" s="33"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="13">
+        <f>SUM(C23:C53)</f>
+        <v>13020</v>
+      </c>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="24">
-        <v>420</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="A55" s="33"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="3">
+        <f>COUNT(C23:C53)</f>
+        <v>31</v>
+      </c>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="24">
-        <v>420</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>97</v>
-      </c>
+      <c r="A56" s="33"/>
+      <c r="B56" s="39"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="33"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="13">
-        <f>SUM(C23:C56)</f>
-        <v>14280</v>
-      </c>
-      <c r="D57" s="14"/>
+      <c r="A57" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="24">
+        <v>150</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="33"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="3">
-        <f>COUNT(C23:C56)</f>
-        <v>34</v>
-      </c>
-      <c r="D58" s="14"/>
+      <c r="A58" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="24">
+        <v>150</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="33"/>
-      <c r="B59" s="39"/>
-      <c r="D59" s="14"/>
+      <c r="A59" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="24">
+        <v>150</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="33" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C60" s="24">
         <v>150</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="33" t="s">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="C61" s="24">
         <v>150</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C62" s="24">
         <v>150</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="33" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C63" s="24">
         <v>150</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="24">
         <v>150</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C65" s="24">
         <v>150</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="33" t="s">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="C66" s="24">
         <v>150</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="33" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C67" s="24">
         <v>150</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="33" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68" s="24">
         <v>150</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="33" t="s">
-        <v>129</v>
+      <c r="A69" s="33">
+        <v>161128</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C69" s="24">
         <v>150</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="33" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C70" s="24">
         <v>150</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>139</v>
@@ -2628,12 +2628,12 @@
         <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="33">
-        <v>161128</v>
+      <c r="A72" s="33" t="s">
+        <v>130</v>
       </c>
       <c r="B72" s="38" t="s">
         <v>140</v>
@@ -2642,7 +2642,7 @@
         <v>150</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2656,12 +2656,12 @@
         <v>150</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="33" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="B74" s="38" t="s">
         <v>142</v>
@@ -2670,12 +2670,12 @@
         <v>150</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="33" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="B75" s="38" t="s">
         <v>143</v>
@@ -2684,12 +2684,12 @@
         <v>150</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="33" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B76" s="38" t="s">
         <v>144</v>
@@ -2698,12 +2698,12 @@
         <v>150</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="33" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>145</v>
@@ -2712,120 +2712,87 @@
         <v>150</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="33" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C78" s="24">
         <v>150</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C79" s="24">
         <v>150</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="33" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C80" s="24">
         <v>150</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B81" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="24">
-        <v>150</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>87</v>
-      </c>
+      <c r="A81" s="11"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="13">
+        <f>SUM(C57:C80)</f>
+        <v>3600</v>
+      </c>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B82" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="24">
-        <v>150</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>86</v>
+      <c r="A82" s="17"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="3">
+        <f>COUNT(C57:C80)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B83" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="24">
-        <v>150</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>116</v>
-      </c>
+      <c r="A83" s="17"/>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="11"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="13">
-        <f>SUM(C60:C83)</f>
-        <v>3600</v>
-      </c>
-      <c r="D84" s="15"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="17"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="3">
-        <f>COUNT(C60:C83)</f>
-        <v>24</v>
-      </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="17"/>
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="17"/>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="17"/>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:4">
@@ -2983,15 +2950,6 @@
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="4"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="4"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="4"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -3005,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3023,195 +2981,195 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>73</v>
-      </c>
       <c r="C1" s="35" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="18">
       <c r="A3" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
       <c r="A4" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
       <c r="A5" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
       <c r="A6" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
       <c r="A7" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
       <c r="A8" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>161</v>
-      </c>
       <c r="C8" s="35" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
       <c r="A9" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
       <c r="A10" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="18">
       <c r="A11" s="35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>111</v>
-      </c>
       <c r="C12" s="34" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
@@ -3223,15 +3181,21 @@
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
       <c r="A16" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>5</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -3241,18 +3205,26 @@
       <c r="B17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" ht="18">
+      <c r="C17" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25">
       <c r="A18" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="34" t="s">
@@ -3366,7 +3338,7 @@
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>39</v>
@@ -3376,268 +3348,278 @@
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32" s="34" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="18">
       <c r="A33" s="34" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="29"/>
     </row>
-    <row r="34" spans="1:4" ht="17.25">
+    <row r="34" spans="1:4" ht="18">
       <c r="A34" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4" ht="18">
+      <c r="A35" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" spans="1:4" ht="18">
+      <c r="A36" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" spans="1:4" ht="18">
+      <c r="A37" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="1:4" ht="18">
+      <c r="A38" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:4" ht="18">
+      <c r="A39" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" ht="17.25">
-      <c r="A35" s="34" t="s">
+      <c r="B39" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" spans="1:4" ht="18">
+      <c r="A40" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="1:4" ht="18">
+      <c r="A41" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="34"/>
-    </row>
-    <row r="36" spans="1:4" ht="17.25">
-      <c r="A36" s="34" t="s">
+      <c r="B41" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="1:4" ht="18">
+      <c r="A42" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="34"/>
-    </row>
-    <row r="37" spans="1:4" ht="17.25">
-      <c r="A37" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="34"/>
-    </row>
-    <row r="38" spans="1:4" ht="17.25">
-      <c r="A38" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17.25">
-      <c r="A39" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17.25">
-      <c r="A40" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17.25">
-      <c r="A41" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17.25">
-      <c r="A42" s="34" t="s">
-        <v>102</v>
-      </c>
       <c r="B42" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17.25">
+        <v>132</v>
+      </c>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="1:4" ht="18">
       <c r="A43" s="34" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>85</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" ht="17.25">
       <c r="A44" s="34" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25">
       <c r="A45" s="34" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25">
       <c r="A46" s="34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25">
       <c r="A47" s="34" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25">
       <c r="A48" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25">
       <c r="A49" s="34" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25">
-      <c r="A50" s="34" t="s">
-        <v>129</v>
+      <c r="A50" s="34">
+        <v>161128</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25">
       <c r="A51" s="34" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="B51" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.25">
+      <c r="A52" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="38" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25">
-      <c r="A52" s="34">
-        <v>161128</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25">
       <c r="A53" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25">
       <c r="A54" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25">
       <c r="A55" s="34" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25">
       <c r="A56" s="34" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25">
       <c r="A57" s="34" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25">
       <c r="A58" s="34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.25">
       <c r="A59" s="34" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25">
       <c r="A60" s="34" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25">
       <c r="A61" s="34" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25">
       <c r="A62" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25">
@@ -3645,7 +3627,7 @@
         <v>195</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25">
@@ -3666,79 +3648,67 @@
     </row>
     <row r="66" spans="1:2" ht="17.25">
       <c r="A66" s="34" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25">
       <c r="A67" s="34" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.25">
       <c r="A68" s="34" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="34" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25">
       <c r="A70" s="34" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="34" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25">
-      <c r="A72" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>54</v>
-      </c>
+      <c r="A72" s="34"/>
+      <c r="B72" s="38"/>
     </row>
     <row r="73" spans="1:2" ht="17.25">
       <c r="A73" s="34" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="38"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="75" spans="1:2" ht="17.25">
-      <c r="A75" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>290</v>
-      </c>
+      <c r="A75" s="34"/>
+      <c r="B75" s="38"/>
     </row>
     <row r="76" spans="1:2" ht="17.25">
       <c r="A76" s="34"/>
@@ -3822,14 +3792,6 @@
     </row>
     <row r="96" spans="1:2" ht="17.25">
       <c r="A96" s="34"/>
-      <c r="B96" s="38"/>
-    </row>
-    <row r="97" spans="1:2" ht="17.25">
-      <c r="A97" s="34"/>
-      <c r="B97" s="38"/>
-    </row>
-    <row r="98" spans="1:2" ht="17.25">
-      <c r="A98" s="34"/>
     </row>
   </sheetData>
   <sortState ref="A2:B87">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="304">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -831,260 +831,305 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>栾江伟</t>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城品质成长混合</t>
+  </si>
+  <si>
     <t>中信建投精选混合A</t>
-  </si>
-  <si>
-    <t>栾江伟</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银医药健康股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰鑫睿混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘苏</t>
+  </si>
+  <si>
+    <t>006223</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008480</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实新兴产业股票</t>
+  </si>
+  <si>
+    <t>399011</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海医疗保健</t>
+  </si>
+  <si>
+    <t>010020</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏线上经济主题精选混合</t>
+  </si>
+  <si>
+    <t>008526</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞行业精选A</t>
+  </si>
+  <si>
+    <t>000083</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富消费行业混合</t>
+  </si>
+  <si>
+    <t>240001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝宝康消费品混合</t>
+  </si>
+  <si>
+    <t>009362</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商丰盈积极配置混合A</t>
+  </si>
+  <si>
+    <t>009548</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中盘价值精选混合A</t>
+  </si>
+  <si>
+    <t>009570</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华匠心精选混合A类</t>
+  </si>
+  <si>
+    <t>005809</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源裕源</t>
+  </si>
+  <si>
+    <t>信达澳银精华配置混合</t>
+  </si>
+  <si>
+    <t>宝盈融源可转债债券A</t>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片ETF联接A</t>
+  </si>
+  <si>
+    <t>001579</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>008712</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>华夏指数轮动</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>610002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006147</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008887</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安鑫盈混合A</t>
+  </si>
+  <si>
+    <t>林忠晶</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005825</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006259</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>519696</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007893</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006879</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007455</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006371</t>
+  </si>
+  <si>
+    <t>006371</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007474</t>
+  </si>
+  <si>
+    <t>华夏创成长ETF联接A</t>
+  </si>
+  <si>
+    <t>100060</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007464</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006648</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007300</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005983</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008507</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006252</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005711</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006341</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008072</t>
+  </si>
+  <si>
+    <t>景顺长城创业板综指增强</t>
+  </si>
+  <si>
+    <t>景顺长城科技创新混合</t>
+  </si>
+  <si>
+    <t>008657</t>
+  </si>
+  <si>
+    <t>詹成</t>
+  </si>
+  <si>
+    <t>007047</t>
+  </si>
+  <si>
+    <t>007047</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城核心优势混合</t>
+  </si>
+  <si>
+    <t>杨建华</t>
+  </si>
+  <si>
+    <t>009014</t>
+  </si>
+  <si>
+    <t>泓德睿泽混合</t>
+  </si>
+  <si>
+    <t>中信建投精选混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>景顺长城品质成长混合</t>
-  </si>
-  <si>
-    <t>中信建投精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银医药健康股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰鑫睿混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘苏</t>
-  </si>
-  <si>
-    <t>006223</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008480</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>000751</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实新兴产业股票</t>
-  </si>
-  <si>
-    <t>399011</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中海医疗保健</t>
-  </si>
-  <si>
-    <t>010020</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏线上经济主题精选混合</t>
-  </si>
-  <si>
-    <t>008526</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞行业精选A</t>
-  </si>
-  <si>
-    <t>000083</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富消费行业混合</t>
-  </si>
-  <si>
-    <t>240001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝宝康消费品混合</t>
-  </si>
-  <si>
-    <t>009362</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商丰盈积极配置混合A</t>
-  </si>
-  <si>
-    <t>009548</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中盘价值精选混合A</t>
-  </si>
-  <si>
-    <t>009570</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华匠心精选混合A类</t>
-  </si>
-  <si>
-    <t>005809</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源裕源</t>
-  </si>
-  <si>
-    <t>信达澳银精华配置混合</t>
-  </si>
-  <si>
-    <t>宝盈融源可转债债券A</t>
-  </si>
-  <si>
-    <t>华夏国证半导体芯片ETF联接A</t>
-  </si>
-  <si>
-    <t>001579</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008712</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏指数轮动</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>610002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006147</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008887</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>长安鑫盈混合A</t>
-  </si>
-  <si>
-    <t>林忠晶</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005825</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006259</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>519696</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007893</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009076</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006879</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007455</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006371</t>
-  </si>
-  <si>
-    <t>006371</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>519021</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰金鼎价值混合</t>
-  </si>
-  <si>
-    <t>007474</t>
-  </si>
-  <si>
-    <t>华夏创成长ETF联接A</t>
-  </si>
-  <si>
-    <t>100060</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007464</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006648</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007300</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005983</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008507</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007203</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006252</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005711</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006341</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008072</t>
-  </si>
-  <si>
-    <t>景顺长城创业板综指增强</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城科技创新混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城核心优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>泓德睿泽混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦毅</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75"/>
@@ -1677,12 +1722,12 @@
         <v>63</v>
       </c>
       <c r="F2" s="5">
-        <f>SUM(C21+C82)</f>
-        <v>35</v>
+        <f>SUM(C21+C85)</f>
+        <v>38</v>
       </c>
       <c r="G2" s="5">
-        <f>SUM(C81+C20)</f>
-        <v>5250</v>
+        <f>SUM(C84+C20)</f>
+        <v>5700</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1756,13 +1801,13 @@
         <v>220</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="32">
         <v>150</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1854,7 +1899,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="32">
         <v>150</v>
@@ -1882,7 +1927,7 @@
         <v>106</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="32">
         <v>150</v>
@@ -1931,7 +1976,7 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="33" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>214</v>
@@ -1951,7 +1996,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>216</v>
@@ -1965,7 +2010,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="33" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>2</v>
@@ -1980,7 +2025,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>5</v>
@@ -1994,7 +2039,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="33" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>9</v>
@@ -2009,7 +2054,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>75</v>
@@ -2114,7 +2159,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>27</v>
@@ -2175,7 +2220,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>194</v>
@@ -2220,7 +2265,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="33" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>39</v>
@@ -2234,7 +2279,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="33" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>175</v>
@@ -2248,7 +2293,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="33" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>168</v>
@@ -2263,7 +2308,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="33" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>41</v>
@@ -2278,7 +2323,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>43</v>
@@ -2372,7 +2417,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="33" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B52" s="38" t="s">
         <v>98</v>
@@ -2423,7 +2468,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B57" s="38" t="s">
         <v>198</v>
@@ -2437,362 +2482,395 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C58" s="24">
         <v>150</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="33" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="C59" s="24">
         <v>150</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="33" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="C60" s="24">
         <v>150</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="33" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C61" s="24">
         <v>150</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C62" s="24">
         <v>150</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="33" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="C63" s="24">
         <v>150</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64" s="24">
         <v>150</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C65" s="24">
         <v>150</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="33" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C66" s="24">
         <v>150</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="33" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="C67" s="24">
         <v>150</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="33" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="24">
         <v>150</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="33">
-        <v>161128</v>
+      <c r="A69" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="C69" s="24">
         <v>150</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="33" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C70" s="24">
         <v>150</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="33" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C71" s="24">
         <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="33" t="s">
-        <v>130</v>
+      <c r="A72" s="33">
+        <v>161128</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C72" s="24">
         <v>150</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C73" s="24">
         <v>150</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="33" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C74" s="24">
         <v>150</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="33" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C75" s="24">
         <v>150</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="33" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C76" s="24">
         <v>150</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="33" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C77" s="24">
         <v>150</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C78" s="24">
         <v>150</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C79" s="24">
         <v>150</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="33" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C80" s="24">
         <v>150</v>
       </c>
       <c r="D80" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="24">
+        <v>150</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="24">
+        <v>150</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="24">
+        <v>150</v>
+      </c>
+      <c r="D83" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="11"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="13">
-        <f>SUM(C57:C80)</f>
-        <v>3600</v>
-      </c>
-      <c r="D81" s="15"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="17"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="3">
-        <f>COUNT(C57:C80)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="17"/>
-      <c r="B83" s="4"/>
-    </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="17"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="13">
+        <f>SUM(C57:C83)</f>
+        <v>4050</v>
+      </c>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="17"/>
       <c r="B85" s="4"/>
+      <c r="C85" s="3">
+        <f>COUNT(C57:C83)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
+      <c r="A86" s="17"/>
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:4">
+      <c r="A87" s="17"/>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:4">
+      <c r="A88" s="17"/>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:4">
@@ -2950,6 +3028,15 @@
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2963,10 +3050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2987,10 +3074,10 @@
         <v>72</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>232</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -3001,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>235</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -3016,10 +3103,10 @@
         <v>95</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -3030,10 +3117,10 @@
         <v>154</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>238</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -3044,10 +3131,10 @@
         <v>79</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>240</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -3058,10 +3145,10 @@
         <v>157</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -3072,10 +3159,10 @@
         <v>177</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>244</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
@@ -3086,10 +3173,10 @@
         <v>158</v>
       </c>
       <c r="C8" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
@@ -3100,10 +3187,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
@@ -3124,10 +3211,10 @@
         <v>81</v>
       </c>
       <c r="C11" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
@@ -3138,10 +3225,10 @@
         <v>108</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
@@ -3152,10 +3239,10 @@
         <v>109</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
@@ -3166,10 +3253,10 @@
         <v>82</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
@@ -3181,7 +3268,7 @@
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18">
@@ -3192,10 +3279,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -3220,10 +3307,10 @@
         <v>75</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
@@ -3656,7 +3743,7 @@
     </row>
     <row r="67" spans="1:2" ht="17.25">
       <c r="A67" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B67" s="38" t="s">
         <v>216</v>
@@ -3667,15 +3754,15 @@
         <v>220</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25">
       <c r="A69" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25">
@@ -3688,22 +3775,34 @@
     </row>
     <row r="71" spans="1:2" ht="17.25">
       <c r="A71" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="17.25">
       <c r="A73" s="34" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>275</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17.25">
+      <c r="A74" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.25">
@@ -3792,11 +3891,36 @@
     </row>
     <row r="96" spans="1:2" ht="17.25">
       <c r="A96" s="34"/>
+      <c r="B96" s="38"/>
+    </row>
+    <row r="97" spans="1:2" ht="17.25">
+      <c r="A97" s="34"/>
+      <c r="B97" s="38"/>
+    </row>
+    <row r="98" spans="1:2" ht="17.25">
+      <c r="A98" s="34"/>
+      <c r="B98" s="38"/>
+    </row>
+    <row r="99" spans="1:2" ht="17.25">
+      <c r="A99" s="34"/>
+      <c r="B99" s="38"/>
+    </row>
+    <row r="100" spans="1:2" ht="17.25">
+      <c r="A100" s="34"/>
+    </row>
+    <row r="101" spans="1:2" ht="17.25">
+      <c r="A101" s="34"/>
+    </row>
+    <row r="102" spans="1:2" ht="17.25">
+      <c r="A102" s="34"/>
+    </row>
+    <row r="103" spans="1:2" ht="17.25">
+      <c r="A103" s="34"/>
+    </row>
+    <row r="104" spans="1:2" ht="17.25">
+      <c r="A104" s="34"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B87">
-    <sortCondition ref="A1"/>
-  </sortState>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="460" windowWidth="20780" windowHeight="16680"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="10280" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="236">
   <si>
     <t>招商中证白酒</t>
   </si>
@@ -913,6 +913,20 @@
   <si>
     <t>1000</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞激励动力混合A</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2824,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3404,6 +3418,58 @@
         <v>125</v>
       </c>
     </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2" ht="17" x14ac:dyDescent="0.15">
+      <c r="B85" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="10280" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="18420" windowHeight="20220"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,44 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="242">
   <si>
     <t>招商中证白酒</t>
   </si>
   <si>
-    <t>侯昊</t>
-  </si>
-  <si>
-    <t>指数型</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>11120</t>
-  </si>
-  <si>
-    <t>股票型</t>
-  </si>
-  <si>
-    <t>同花顺：</t>
-  </si>
-  <si>
-    <t>3020</t>
-  </si>
-  <si>
-    <t>混合型</t>
-  </si>
-  <si>
-    <t>支付宝：</t>
-  </si>
-  <si>
-    <t>8100</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
     <t>002560</t>
   </si>
   <si>
@@ -252,9 +219,6 @@
     <t>劳杰男</t>
   </si>
   <si>
-    <t>吕慧建</t>
-  </si>
-  <si>
     <t>谭冬寒</t>
   </si>
   <si>
@@ -286,9 +250,6 @@
   </si>
   <si>
     <t>覃璇,杨德龙,苏辛</t>
-  </si>
-  <si>
-    <t>基金型</t>
   </si>
   <si>
     <t>008901</t>
@@ -390,20 +351,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>指数型</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'shu'x</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票型</t>
-    <rPh sb="0" eb="1">
-      <t>gu'p'xing</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>平安匠心优选混合A</t>
   </si>
   <si>
@@ -445,16 +392,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>债券型</t>
-    <rPh sb="0" eb="1">
-      <t>zhai'quan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xing</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>006373</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -473,9 +410,6 @@
     <t>红土创新新科技股票</t>
   </si>
   <si>
-    <t>朱然</t>
-  </si>
-  <si>
     <t>华安低碳生活混合</t>
   </si>
   <si>
@@ -498,10 +432,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>混合型</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>刘彦春</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -527,36 +457,7 @@
     <t>许文星</t>
   </si>
   <si>
-    <t>王石千</t>
-  </si>
-  <si>
-    <t>债券型</t>
-  </si>
-  <si>
     <t>葛兰</t>
-  </si>
-  <si>
-    <t>不定额的</t>
-    <rPh sb="0" eb="1">
-      <t>bu'ding'e</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>e</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>定额的</t>
-    <rPh sb="0" eb="1">
-      <t>ding'e</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>中欧医疗创新股票A</t>
@@ -566,17 +467,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>混合型</t>
-    <rPh sb="0" eb="1">
-      <t>hun'he'x</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合型</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>宝盈人工智能股票A</t>
   </si>
   <si>
@@ -592,10 +482,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>刘俊</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>广发优企精选混合</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -608,23 +494,7 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>周应波</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>归凯</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭睿</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>汇添富消费行业混合</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡昕炜</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -723,10 +593,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>上投摩根核心精选股票</t>
   </si>
   <si>
@@ -761,18 +627,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>姚志鹏</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡戈游</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>167301</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -780,9 +634,6 @@
     <t>保险分级</t>
   </si>
   <si>
-    <t>陈瑶</t>
-  </si>
-  <si>
     <t>嘉实新兴产业股票</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -838,9 +689,6 @@
     <t>吴昊</t>
   </si>
   <si>
-    <t>吴邦栋,张慧</t>
-  </si>
-  <si>
     <t>005409</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -893,28 +741,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'fu'b</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <rPh sb="0" eb="1">
-      <t>tong'hua's</t>
-    </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞新兴产业混合</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>007733</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -927,6 +753,166 @@
   </si>
   <si>
     <t>华泰柏瑞激励动力混合A</t>
+  </si>
+  <si>
+    <t>招商丰盈积极配置混合A</t>
+  </si>
+  <si>
+    <t>郭锐</t>
+  </si>
+  <si>
+    <t>009362</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>009548</t>
+  </si>
+  <si>
+    <t>汇添富中盘价值精选混合A</t>
+  </si>
+  <si>
+    <t>胡昕炜</t>
+  </si>
+  <si>
+    <t>009570</t>
+  </si>
+  <si>
+    <t>鹏华匠心精选混合A类</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宗合</t>
+  </si>
+  <si>
+    <t>安信盈利驱动股票A</t>
+  </si>
+  <si>
+    <t>袁玮</t>
+  </si>
+  <si>
+    <t>招商科技创新混合A</t>
+  </si>
+  <si>
+    <t>008655</t>
+  </si>
+  <si>
+    <t>付斌</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006818</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富消费升级混合</t>
+  </si>
+  <si>
+    <t>郑慧莲</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>000595</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>归凯</t>
+  </si>
+  <si>
+    <t>006882</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰保兴健康消费A</t>
+  </si>
+  <si>
+    <t>尚烁徽</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006408</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+  </si>
+  <si>
+    <t>骆帅</t>
+  </si>
+  <si>
+    <t>招商中证白酒</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实泰和混合</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>161725</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>010020</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏线上经济主题精选混合</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯昊</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄文倩</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>009162</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006879</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>006354</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰民裕进取灵活配置混合</t>
+  </si>
+  <si>
+    <t>鹏华匠心精选混合A类</t>
+  </si>
+  <si>
+    <t>009863</t>
+  </si>
+  <si>
+    <t>富国创新趋势股票</t>
   </si>
 </sst>
 </file>
@@ -1396,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1410,507 +1396,408 @@
     <col min="4" max="4" width="21.3984375" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.59765625" style="3"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.796875" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
     <col min="10" max="10" width="19.59765625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="C2" s="7">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>399011</v>
+      <c r="A3" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C3" s="7">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="C4" s="7">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C5" s="7">
+        <v>280</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="9">
+        <f>SUM(C2:C5)</f>
+        <v>1120</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12">
         <v>420</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="D8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12">
+        <v>420</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="C10" s="14">
         <v>420</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12">
         <v>420</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12">
         <v>420</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="12">
         <v>420</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="D13" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12">
         <v>420</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="7">
-        <v>420</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="7">
-        <v>420</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="9">
-        <f>SUM(C2:C12)</f>
-        <v>4620</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="19"/>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" s="19"/>
-      <c r="G14" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12">
         <v>420</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C16" s="12">
         <v>420</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C17" s="12">
         <v>420</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>21</v>
+      <c r="A18" s="11">
+        <v>100020</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="14">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12">
         <v>420</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C19" s="12">
         <v>420</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>29</v>
+      <c r="A20" s="11">
+        <v>160222</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C20" s="12">
         <v>420</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="C21" s="12">
         <v>420</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>116</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C22" s="12">
         <v>420</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C23" s="12">
         <v>420</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C24" s="12">
         <v>420</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>41</v>
+      <c r="A25" s="11">
+        <v>110011</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C25" s="12">
         <v>420</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
-        <v>100020</v>
+        <v>110003</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C26" s="12">
         <v>420</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1918,818 +1805,696 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C27" s="12">
         <v>420</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>160222</v>
+      <c r="A28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C28" s="12">
         <v>420</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C29" s="12">
         <v>420</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C30" s="12">
         <v>420</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E30" s="13"/>
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C31" s="12">
         <v>420</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C32" s="12">
         <v>420</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E32" s="13"/>
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
-        <v>110011</v>
+      <c r="A33" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C33" s="12">
         <v>420</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E33" s="13"/>
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
-        <v>110003</v>
+      <c r="A34" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C34" s="12">
         <v>420</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>2</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E34" s="13"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C35" s="12">
         <v>420</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C36" s="12">
         <v>420</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C37" s="12">
         <v>420</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C38" s="12">
         <v>420</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="21"/>
+        <v>149</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="12">
-        <v>420</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="13" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="16">
+        <f>SUM(C8:C38)</f>
+        <v>13020</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" s="26">
+        <v>150</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="26">
+        <v>150</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="12">
-        <v>420</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="12">
-        <v>420</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="12">
-        <v>420</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="12">
-        <v>420</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="3"/>
+      <c r="C43" s="26">
+        <v>150</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="12">
-        <v>420</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>116</v>
-      </c>
+      <c r="A44" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="26">
+        <v>150</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="12">
-        <v>420</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>155</v>
-      </c>
+      <c r="A45" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="26">
+        <v>150</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="12">
-        <v>420</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>115</v>
-      </c>
+      <c r="A46" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="26">
+        <v>150</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="16">
-        <f>SUM(C15:C46)</f>
-        <v>13440</v>
-      </c>
-      <c r="D47" s="17"/>
+      <c r="A47" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="26">
+        <v>150</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="D48" s="17"/>
+      <c r="A48" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="26">
+        <v>150</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C49" s="26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="C50" s="26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E50" s="8"/>
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C51" s="26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>150</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="C52" s="26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E52" s="8"/>
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C53" s="26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E53" s="8"/>
       <c r="H53" s="24"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C54" s="26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E54" s="8"/>
       <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C55" s="26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>141</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E55" s="8"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C56" s="26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E56" s="8"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="26">
-        <v>200</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="9">
+        <f>SUM(C41:C56)</f>
+        <v>2400</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="18"/>
       <c r="K57" s="19"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="9">
-        <f>SUM(C49:C57)</f>
-        <v>1800</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="22"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="1"/>
+      <c r="E58" s="8"/>
       <c r="H58" s="3"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="12">
+        <v>200</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="22"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C60" s="12">
         <v>200</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="J60" s="29" t="s">
-        <v>229</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>173</v>
+      <c r="A61" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C61" s="12">
         <v>200</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="5">
-        <f>COUNT(C2:C12)+COUNT(C15:C46)</f>
-        <v>43</v>
-      </c>
-      <c r="H61" s="5">
-        <f>SUM(C47+C13)</f>
-        <v>18060</v>
-      </c>
-      <c r="I61" s="29">
-        <v>32</v>
-      </c>
-      <c r="J61" s="29">
-        <v>11</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C62" s="12">
         <v>200</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" s="5">
-        <f>COUNT(C49:C57)+COUNT(C60:C77)</f>
-        <v>27</v>
-      </c>
-      <c r="H62" s="5">
-        <f>SUM(C78+C58)</f>
-        <v>5400</v>
-      </c>
-      <c r="I62" s="29">
-        <v>18</v>
-      </c>
-      <c r="J62" s="29">
-        <v>9</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>139</v>
+      <c r="A63" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C63" s="12">
         <v>200</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>141</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>198</v>
+      <c r="A64" s="11">
+        <v>161128</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C64" s="12">
         <v>200</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
-        <v>161128</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>78</v>
+      <c r="A65" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="C65" s="12">
         <v>200</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="12">
+        <v>105</v>
+      </c>
+      <c r="C66" s="14">
         <v>200</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C67" s="14">
         <v>200</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="14">
+        <v>76</v>
+      </c>
+      <c r="C68" s="12">
         <v>200</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C69" s="12">
         <v>200</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C70" s="12">
         <v>200</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C71" s="12">
         <v>200</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C72" s="12">
         <v>200</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>102</v>
@@ -2738,89 +2503,180 @@
         <v>200</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C74" s="12">
         <v>200</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>104</v>
+        <v>236</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C75" s="12">
         <v>200</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C76" s="12">
         <v>200</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="12">
-        <v>200</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="A77" s="11"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="16">
+        <f>SUM(C59:C76)</f>
+        <v>3600</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="16">
-        <f>SUM(C60:C77)</f>
-        <v>3600</v>
-      </c>
-      <c r="D78" s="18"/>
+      <c r="B78" s="14"/>
       <c r="E78" s="19"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="11"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="11"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="11"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="11"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="11"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="11"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">
@@ -2828,11 +2684,10 @@
   </sortState>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1" location="manager"/>
-    <hyperlink ref="D55" r:id="rId2" location="manager" display="http://fund.10jqka.com.cn/003822/interduce.html - manager"/>
+    <hyperlink ref="D30" r:id="rId1" location="manager"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2840,7 +2695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B65" sqref="B65:B85"/>
     </sheetView>
   </sheetViews>
@@ -2852,15 +2707,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -2871,167 +2726,167 @@
         <v>399011</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.15">
@@ -3039,15 +2894,15 @@
         <v>100020</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.15">
@@ -3055,39 +2910,39 @@
         <v>160222</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.15">
@@ -3095,7 +2950,7 @@
         <v>110011</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.15">
@@ -3103,215 +2958,215 @@
         <v>110003</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.15">
@@ -3319,119 +3174,119 @@
         <v>161128</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.15">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="700" windowWidth="17380" windowHeight="20220"/>
+    <workbookView xWindow="24000" yWindow="840" windowWidth="15580" windowHeight="20220"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="258">
   <si>
     <t>005001</t>
     <phoneticPr fontId="15" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>006354</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>270042</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>006818</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>009869</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -126,10 +118,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>国泰民裕进取灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>广发优企精选混合A</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -158,10 +146,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>安信盈利驱动股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>国富全球科技互联混合(QDII)人民币</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -226,14 +210,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>005711</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢惠添利灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>162605</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -398,239 +374,629 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>工银圆兴混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城绩优成长混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成优势企业混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国蓝筹精选股票(QDII)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>004855</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007893</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009014</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007047</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达上证50指数A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国新动力灵活配置混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发双擎升级混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安裕隆混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银内核驱动混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天益价值混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河新动能混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰国证食品饮料行业指数分级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金MSCI质量A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达中小盘混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优势增长股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢竞争力精选混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>009076</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>工银圆兴混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>007412</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>景顺长城绩优成长混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>008271</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>大成优势企业混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>007455</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国蓝筹精选股票(QDII)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>008480</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>519696</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009147</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009863</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009108</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008909</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>005368</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008657</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009983</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008641</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>007464</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>009069</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008261</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银环球精选混合(QDII)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信新能源行业股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国创新趋势股票</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国红利精选混合(QDII)人民币</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信鑫益混合A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添富全球消费混合(QDII)人民币A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国清洁能源产业灵活配置混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城科技创新混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢港股通品质生活慧选混合</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>方正富邦科技创新C</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银创业板50指数A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成睿鑫股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商研究优选股票A</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>008960</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>长信国防军工量化混合C</t>
+  </si>
+  <si>
     <t>永赢股息优选A</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>交银环球精选混合(QDII)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009147</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信新能源行业股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>004855</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009108</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008909</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008657</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006308</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>005368</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008641</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007893</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008227</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009014</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007047</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008712</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009265</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>519696</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009863</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009983</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>007464</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>009069</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>008261</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达上证50指数A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国新动力灵活配置混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发双擎升级混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安裕隆混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银内核驱动混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国天益价值混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>银河新动能混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰国证食品饮料行业指数分级</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金MSCI质量A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达中小盘混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发优势增长股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢竞争力精选混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国创新趋势股票</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国红利精选混合(QDII)人民币</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信鑫益混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>添富全球消费混合(QDII)人民币A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国清洁能源产业灵活配置混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城科技创新混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢港股通品质生活慧选混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>方正富邦科技创新C</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银创业板50指数A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成睿鑫股票A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商研究优选股票A</t>
+    <t>004232</t>
+  </si>
+  <si>
+    <t>中欧价值发现混合C</t>
+  </si>
+  <si>
+    <t>中欧时代先锋股票C</t>
+  </si>
+  <si>
+    <t>004241</t>
+  </si>
+  <si>
+    <t>004236</t>
+  </si>
+  <si>
+    <t>中欧新动力混合(LOF)C</t>
+  </si>
+  <si>
+    <t>004231</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧行业成长混合(LOF)C</t>
+  </si>
+  <si>
+    <t>001000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧明睿新起点混合</t>
+  </si>
+  <si>
+    <t>004234</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧数据挖掘混合C</t>
+  </si>
+  <si>
+    <t>001955</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧养老混合</t>
+  </si>
+  <si>
+    <t>003096</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧医疗健康混合C</t>
+  </si>
+  <si>
+    <t>002697</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧消费主题股票C</t>
+  </si>
+  <si>
+    <t>163406</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全合润分级混合</t>
+  </si>
+  <si>
+    <t>163402</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全趋势投资混合(LOF)</t>
+  </si>
+  <si>
+    <t>163407</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全沪深300指数(LOF)A</t>
+  </si>
+  <si>
+    <t>163412</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全轻资产投资混合(LOF)</t>
+  </si>
+  <si>
+    <t>163415</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全商业模式优选混合(LOF)</t>
+  </si>
+  <si>
+    <t>163411</t>
+  </si>
+  <si>
+    <t>兴全精选混合</t>
+  </si>
+  <si>
+    <t>007802</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全合泰混合A</t>
+  </si>
+  <si>
+    <t>340007</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全社会责任混合</t>
+  </si>
+  <si>
+    <t>005658</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏沪深300ETF联接C</t>
+  </si>
+  <si>
+    <t>008976</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证消费50ETF联接C</t>
+  </si>
+  <si>
+    <t>009068</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证新能源汽车ETF联接C</t>
+  </si>
+  <si>
+    <t>007473</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏创蓝筹ETF联接C</t>
+  </si>
+  <si>
+    <t>005733</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏上证50ETF联接C</t>
+  </si>
+  <si>
+    <t>006179</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国品质生活混合</t>
+  </si>
+  <si>
+    <t>519035</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天博创新混合</t>
+  </si>
+  <si>
+    <t>100060</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国高新技术产业混合</t>
+  </si>
+  <si>
+    <t>005847</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国沪港深业绩驱动混合型</t>
+  </si>
+  <si>
+    <t>161029</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证银行指数</t>
+  </si>
+  <si>
+    <t>006034</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国MSCI中国A股国际通指数增强</t>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票</t>
+  </si>
+  <si>
+    <t>001985</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国低碳新经济混合</t>
+  </si>
+  <si>
+    <t>121010</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国投瑞银瑞源</t>
+  </si>
+  <si>
+    <t>450001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富中国收益混合</t>
+  </si>
+  <si>
+    <t>202023</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方优选成长混合A</t>
+  </si>
+  <si>
+    <t>270002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发稳健增长混合A</t>
+  </si>
+  <si>
+    <t>000083</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富消费行业混合</t>
+  </si>
+  <si>
+    <t>004702</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方金融主题灵活配置混合</t>
+  </si>
+  <si>
+    <t>004871</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银金融地产混合A</t>
+  </si>
+  <si>
+    <t>161017</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证500指数增强(LOF)</t>
+  </si>
+  <si>
+    <t>005827</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>004342</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000527</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>163407</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>519066</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>460300</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>161118</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>160422</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100038</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>040180</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001410</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>519069</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富蓝筹稳健混合</t>
+  </si>
+  <si>
+    <t>华泰柏瑞沪深300ETF联接A</t>
+  </si>
+  <si>
+    <t>易方达中小板指数(LOF)</t>
+  </si>
+  <si>
+    <t>华安创业板50ETF联接A</t>
+  </si>
+  <si>
+    <t>富国沪深300指数增强</t>
+  </si>
+  <si>
+    <t>华安上证180ETF联接</t>
+  </si>
+  <si>
+    <t>易方达蓝筹精选混合</t>
+  </si>
+  <si>
+    <t>南方300联接C</t>
+  </si>
+  <si>
+    <t>信达澳银新能源产业股票</t>
+  </si>
+  <si>
+    <t>南方新优享灵活配置混合A</t>
+  </si>
+  <si>
+    <t>汇添富价值精选混合A</t>
+  </si>
+  <si>
+    <t>景顺长城优选混合</t>
+  </si>
+  <si>
+    <t>中欧行业成长混合(LOF)A</t>
+  </si>
+  <si>
+    <t>富国天惠成长混合(LOF)A</t>
+  </si>
+  <si>
+    <t>大成优选混合(LOF)</t>
+  </si>
+  <si>
+    <t>160916</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>519066</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>260101</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>166006</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>161005</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>001410</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>000527</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -815,6 +1181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1090,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1124,10 +1491,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -1138,10 +1505,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -1152,10 +1519,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
@@ -1166,10 +1533,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -1180,10 +1547,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
@@ -1191,10 +1558,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="10"/>
@@ -1202,10 +1569,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -1213,10 +1580,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -1224,10 +1591,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -1235,10 +1602,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -1246,32 +1613,32 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -1279,21 +1646,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -1301,33 +1669,34 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="1"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -1336,10 +1705,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -1348,7 +1717,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>41</v>
@@ -1356,7 +1725,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -1368,7 +1737,7 @@
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="G22" s="19"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -1389,10 +1758,9 @@
       <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="12"/>
-      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -1401,10 +1769,8 @@
       <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="12"/>
-      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -1413,61 +1779,61 @@
       <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="12"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="12"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="8"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="8"/>
       <c r="E30" s="12"/>
-      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="8"/>
@@ -1475,181 +1841,181 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="8"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="H37" s="20"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="H39" s="21"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="8"/>
+        <v>110</v>
+      </c>
       <c r="E40" s="8"/>
-      <c r="H40" s="21"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="H41" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="H42" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
@@ -1657,32 +2023,32 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
@@ -1690,10 +2056,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
@@ -1701,10 +2067,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
@@ -1712,10 +2078,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
@@ -1723,10 +2089,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
@@ -1734,10 +2100,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
@@ -1745,71 +2111,62 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="12"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="17"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,408 +2174,667 @@
         <v>121</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
+      <c r="A88" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+      <c r="A99" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
+      <c r="A102" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
+      <c r="A103" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
+      <c r="A104" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
+      <c r="A116" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
+      <c r="A119" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+      <c r="A121" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="6"/>
       <c r="B122" s="6"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="6"/>
+      <c r="A123" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="6"/>
+      <c r="A124" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="6"/>
+      <c r="A125" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="6"/>
+      <c r="A126" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="6"/>
+      <c r="A127" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="6"/>
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="6"/>
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="6"/>
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="6"/>
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="6"/>
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B160" s="6"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
@@ -2235,18 +2851,6 @@
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="840" windowWidth="15580" windowHeight="20220"/>
+    <workbookView xWindow="20720" yWindow="1120" windowWidth="15580" windowHeight="20220"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="243">
   <si>
     <t>005001</t>
     <phoneticPr fontId="15" type="noConversion"/>
@@ -70,18 +70,10 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>009548</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>009570</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>007733</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>009362</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -94,10 +86,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>000248</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>嘉实产业先锋混合A</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -114,10 +102,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>汇添富中盘价值精选混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>广发优企精选混合A</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -134,10 +118,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>招商丰盈积极配置混合A</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -150,10 +130,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>汇添富中证主要消费ETF联接</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>招商中证白酒</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -238,10 +214,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>006259</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>上投摩根核心精选股票</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -250,10 +222,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>添富红利增长混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>008507</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -282,14 +250,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>160222</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006341</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>110011</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -334,18 +294,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>长城核心优势混合</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>006371</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安鑫盈混合A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>景顺长城品质成长混合</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -410,10 +358,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>007047</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>008712</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -426,10 +370,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>易方达上证50指数A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>富国新动力灵活配置混合A</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -454,14 +394,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>国泰国证食品饮料行业指数分级</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金MSCI质量A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>易方达中小盘混合</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -620,265 +552,143 @@
     <t>004232</t>
   </si>
   <si>
-    <t>中欧价值发现混合C</t>
-  </si>
-  <si>
-    <t>中欧时代先锋股票C</t>
-  </si>
-  <si>
     <t>004241</t>
   </si>
   <si>
     <t>004236</t>
   </si>
   <si>
-    <t>中欧新动力混合(LOF)C</t>
-  </si>
-  <si>
     <t>004231</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中欧行业成长混合(LOF)C</t>
-  </si>
-  <si>
     <t>001000</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中欧明睿新起点混合</t>
-  </si>
-  <si>
     <t>004234</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中欧数据挖掘混合C</t>
-  </si>
-  <si>
     <t>001955</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中欧养老混合</t>
-  </si>
-  <si>
     <t>003096</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中欧医疗健康混合C</t>
-  </si>
-  <si>
     <t>002697</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中欧消费主题股票C</t>
-  </si>
-  <si>
     <t>163406</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>兴全合润分级混合</t>
-  </si>
-  <si>
     <t>163402</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>兴全趋势投资混合(LOF)</t>
-  </si>
-  <si>
     <t>163407</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>兴全沪深300指数(LOF)A</t>
-  </si>
-  <si>
     <t>163412</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>兴全轻资产投资混合(LOF)</t>
-  </si>
-  <si>
     <t>163415</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>兴全商业模式优选混合(LOF)</t>
-  </si>
-  <si>
     <t>163411</t>
   </si>
   <si>
-    <t>兴全精选混合</t>
-  </si>
-  <si>
     <t>007802</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>兴全合泰混合A</t>
-  </si>
-  <si>
     <t>340007</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>兴全社会责任混合</t>
-  </si>
-  <si>
     <t>005658</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>华夏沪深300ETF联接C</t>
-  </si>
-  <si>
     <t>008976</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国中证消费50ETF联接C</t>
-  </si>
-  <si>
     <t>009068</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>国泰中证新能源汽车ETF联接C</t>
-  </si>
-  <si>
     <t>007473</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>华夏创蓝筹ETF联接C</t>
-  </si>
-  <si>
     <t>005733</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>华夏上证50ETF联接C</t>
-  </si>
-  <si>
     <t>006179</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国品质生活混合</t>
-  </si>
-  <si>
     <t>519035</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国天博创新混合</t>
-  </si>
-  <si>
     <t>100060</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国高新技术产业混合</t>
-  </si>
-  <si>
     <t>005847</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国沪港深业绩驱动混合型</t>
-  </si>
-  <si>
     <t>161029</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国中证银行指数</t>
-  </si>
-  <si>
     <t>006034</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国MSCI中国A股国际通指数增强</t>
-  </si>
-  <si>
     <t>006751</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国互联科技股票</t>
-  </si>
-  <si>
     <t>001985</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国低碳新经济混合</t>
-  </si>
-  <si>
     <t>121010</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>国投瑞银瑞源</t>
-  </si>
-  <si>
     <t>450001</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>国富中国收益混合</t>
-  </si>
-  <si>
     <t>202023</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>南方优选成长混合A</t>
-  </si>
-  <si>
     <t>270002</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>广发稳健增长混合A</t>
-  </si>
-  <si>
     <t>000083</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>汇添富消费行业混合</t>
-  </si>
-  <si>
-    <t>004702</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方金融主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>004871</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中银金融地产混合A</t>
-  </si>
-  <si>
     <t>161017</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>富国中证500指数增强(LOF)</t>
-  </si>
-  <si>
     <t>005827</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -927,51 +737,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>汇添富蓝筹稳健混合</t>
-  </si>
-  <si>
-    <t>华泰柏瑞沪深300ETF联接A</t>
-  </si>
-  <si>
-    <t>易方达中小板指数(LOF)</t>
-  </si>
-  <si>
-    <t>华安创业板50ETF联接A</t>
-  </si>
-  <si>
-    <t>富国沪深300指数增强</t>
-  </si>
-  <si>
-    <t>华安上证180ETF联接</t>
-  </si>
-  <si>
-    <t>易方达蓝筹精选混合</t>
-  </si>
-  <si>
-    <t>南方300联接C</t>
-  </si>
-  <si>
-    <t>信达澳银新能源产业股票</t>
-  </si>
-  <si>
-    <t>南方新优享灵活配置混合A</t>
-  </si>
-  <si>
-    <t>汇添富价值精选混合A</t>
-  </si>
-  <si>
-    <t>景顺长城优选混合</t>
-  </si>
-  <si>
-    <t>中欧行业成长混合(LOF)A</t>
-  </si>
-  <si>
-    <t>富国天惠成长混合(LOF)A</t>
-  </si>
-  <si>
-    <t>大成优选混合(LOF)</t>
-  </si>
-  <si>
     <t>160916</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -997,6 +762,233 @@
   </si>
   <si>
     <t>000527</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧价值发现混合C（组）</t>
+  </si>
+  <si>
+    <t>中欧时代先锋股票C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧新动力混合(LOF)C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧行业成长混合(LOF)C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧明睿新起点混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧数据挖掘混合C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧养老混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧医疗健康混合C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全合润分级混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全趋势投资混合(LOF)（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全沪深300指数(LOF)A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全轻资产投资混合(LOF)（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全商业模式优选混合(LOF)（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全精选混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全合泰混合A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全社会责任混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏沪深300ETF联接C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证消费50ETF联接C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰中证新能源汽车ETF联接C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏创蓝筹ETF联接C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏上证50ETF联接C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国投瑞银瑞源（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富中国收益混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方优选成长混合A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发稳健增长混合A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧消费主题股票C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富消费行业混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证500指数增强(LOF)（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全沪深300指数(LOF)A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富蓝筹稳健混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞沪深300ETF联接A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达中小板指数(LOF)（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安创业板50ETF联接A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达上证50指数A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国沪深300指数增强（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安上证180ETF联接（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达蓝筹精选混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方300联接C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>信达澳银新能源产业股票（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方新优享灵活配置混合A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富价值精选混合A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成优选混合(LOF)（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富蓝筹稳健混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城优选混合（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧行业成长混合(LOF)A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天惠成长混合(LOF)A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>信达澳银新能源产业股票（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方新优享灵活配置混合A（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧消费主题股票C（组）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国品质生活混合（股债）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天博创新混合（股债）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国高新技术产业混合（股债）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国沪港深业绩驱动混合型（股债）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证银行指数（股债）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国MSCI中国A股国际通指数增强（股债）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票（股债）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国低碳新经济混合（股债）</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1457,16 +1449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.19921875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="47" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.3984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.59765625" style="3"/>
@@ -1508,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -1522,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
@@ -1536,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -1550,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
@@ -1563,8 +1555,8 @@
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1572,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -1583,7 +1575,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -1591,43 +1583,44 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -1635,44 +1628,46 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="1"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -1681,19 +1676,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>37</v>
@@ -1701,7 +1696,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -1713,7 +1708,7 @@
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -1722,10 +1717,9 @@
       <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="12"/>
-      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -1734,10 +1728,8 @@
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="12"/>
-      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -1746,221 +1738,219 @@
       <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="12"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="12"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="8"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="12"/>
-      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="8"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="8"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="H34" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="H36" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="H37" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="H38" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="H39" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="H40" s="3"/>
-      <c r="J40" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
@@ -1968,10 +1958,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
@@ -1979,10 +1969,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
@@ -1990,355 +1980,324 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="B56" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="B64" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>149</v>
-      </c>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -2347,110 +2306,110 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2459,398 +2418,310 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>201</v>
-      </c>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>209</v>
-      </c>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>212</v>
+      <c r="A112" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>220</v>
+      <c r="A119" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+      <c r="A120" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
-        <v>222</v>
+      <c r="A121" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
+      <c r="A122" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="25" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>233</v>
+      <c r="A130" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="25" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
-        <v>225</v>
+      <c r="A132" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>244</v>
-      </c>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>245</v>
-      </c>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>246</v>
-      </c>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>250</v>
-      </c>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="B138" s="6"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>247</v>
-      </c>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>248</v>
-      </c>
+      <c r="B140" s="6"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>249</v>
-      </c>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>242</v>
-      </c>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>244</v>
-      </c>
+      <c r="B143" s="6"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="6"/>
+      <c r="B144" s="6"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="6"/>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="6"/>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="6"/>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="460" windowWidth="14420" windowHeight="15480"/>
+    <workbookView xWindow="22740" yWindow="1140" windowWidth="14420" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="253">
   <si>
     <t>代码</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -648,14 +648,264 @@
     <t>长城中国智造灵活配置混合C</t>
   </si>
   <si>
+    <t>519066</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>460300</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>161118</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>160422</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>519069</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>160916</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>260101</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>166006</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>270042</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009869</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009391</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009714</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009704</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009570</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009362</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006373</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>161725</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>005825</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>002620</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006252</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>003889</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>005726</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>001508</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>005911</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>005743</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008507</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>100020</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>007203</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>110011</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>007750</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006879</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>161128</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008227</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009014</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008712</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009265</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>007455</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008480</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>519696</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009147</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009863</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009108</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008909</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>005368</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008657</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008641</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>007464</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009069</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008261</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009548</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>481010</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>工银中小盘混合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>540008</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>汇丰晋信低碳先锋股票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>010023</t>
@@ -663,6 +913,7 @@
   </si>
   <si>
     <t>广发制造业精选混合C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>519991</t>
@@ -670,6 +921,7 @@
   </si>
   <si>
     <t>长信双利优选混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>009958</t>
@@ -677,9 +929,15 @@
   </si>
   <si>
     <t>长安鑫悦消费混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006615</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>工银战略新兴产业混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>009878</t>
@@ -687,15 +945,31 @@
   </si>
   <si>
     <t>平安低碳经济混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006769</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>长城研究精选混合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008949</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>平安匠心优选混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008297</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>广发价值优势混合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>008276</t>
@@ -703,15 +977,27 @@
   </si>
   <si>
     <t>财通资管价值发现混合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>南方智锐混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>汇添富中盘价值精选混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009707</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>工银新兴制造混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>010515</t>
@@ -719,6 +1005,7 @@
   </si>
   <si>
     <t>富国天兴回报混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>008187</t>
@@ -726,284 +1013,22 @@
   </si>
   <si>
     <t>淳厚信睿C</t>
-  </si>
-  <si>
-    <t>519066</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>460300</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>161118</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>160422</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>519069</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>160916</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>260101</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>166006</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>010117</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>民生加银新兴产业混合C</t>
-  </si>
-  <si>
-    <t>270042</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009869</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009391</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009714</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009704</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009570</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009362</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006373</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>002624</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>161725</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>005825</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>002620</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006252</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>003889</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>005726</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>001508</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>005911</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>005743</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008507</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100020</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>007203</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>110011</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>007750</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>005760</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006879</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>161128</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008227</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009014</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008712</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009265</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006751</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009076</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>007455</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008480</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>519696</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009147</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009863</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009108</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008909</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006308</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>005368</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008657</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008641</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>007464</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009069</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008297</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008261</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>540008</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006615</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006769</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008949</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>007733</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009548</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009707</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>010117</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008519</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金中证沪港深优选消费50A</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1395,9 +1420,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1454,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1446,7 +1471,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -1463,7 +1488,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -1480,7 +1505,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -1497,7 +1522,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -1512,7 +1537,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1527,7 +1552,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -1542,7 +1567,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -1557,7 +1582,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
@@ -1568,7 +1593,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -1583,7 +1608,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
@@ -1599,7 +1624,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -1615,7 +1640,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
@@ -1631,7 +1656,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -1647,7 +1672,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>16</v>
@@ -1662,7 +1687,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
@@ -1677,7 +1702,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>32</v>
@@ -1692,7 +1717,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>33</v>
@@ -1703,7 +1728,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>34</v>
@@ -1718,7 +1743,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>35</v>
@@ -1733,7 +1758,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>36</v>
@@ -1749,7 +1774,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>37</v>
@@ -1764,7 +1789,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>38</v>
@@ -1780,7 +1805,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>39</v>
@@ -1792,7 +1817,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>40</v>
@@ -1809,7 +1834,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>19</v>
@@ -1824,7 +1849,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>20</v>
@@ -1839,7 +1864,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>21</v>
@@ -1854,7 +1879,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>22</v>
@@ -1869,7 +1894,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>23</v>
@@ -1884,7 +1909,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>24</v>
@@ -1899,7 +1924,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>25</v>
@@ -1914,7 +1939,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>26</v>
@@ -1925,7 +1950,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>27</v>
@@ -1940,7 +1965,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>28</v>
@@ -1955,7 +1980,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>29</v>
@@ -1970,7 +1995,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>30</v>
@@ -1985,7 +2010,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>31</v>
@@ -1996,7 +2021,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>54</v>
@@ -2011,7 +2036,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>41</v>
@@ -2026,7 +2051,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>42</v>
@@ -2037,7 +2062,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>43</v>
@@ -2052,7 +2077,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>44</v>
@@ -2063,7 +2088,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>45</v>
@@ -2078,13 +2103,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>128</v>
@@ -2093,13 +2118,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>129</v>
@@ -2108,13 +2133,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>130</v>
@@ -2123,13 +2148,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>131</v>
@@ -2138,7 +2163,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>50</v>
@@ -2153,7 +2178,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>51</v>
@@ -2168,7 +2193,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>52</v>
@@ -2183,7 +2208,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>53</v>
@@ -2213,10 +2238,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>97</v>
@@ -2228,10 +2253,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>98</v>
@@ -2243,13 +2268,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>139</v>
@@ -2258,10 +2283,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2269,13 +2294,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>140</v>
@@ -2284,13 +2309,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>142</v>
@@ -2298,13 +2323,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>143</v>
@@ -2312,10 +2337,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>96</v>
@@ -2326,13 +2351,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>141</v>
@@ -2341,10 +2366,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>91</v>
@@ -2356,10 +2381,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>97</v>
@@ -2371,10 +2396,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>98</v>
@@ -2386,47 +2411,51 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
@@ -2434,48 +2463,58 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+      <c r="B80" s="6"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="6"/>
       <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="6"/>
       <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="6"/>
       <c r="B135" s="6"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="6"/>
       <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2516,18 +2555,6 @@
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22740" yWindow="1140" windowWidth="14420" windowHeight="15480"/>
+    <workbookView xWindow="18420" yWindow="540" windowWidth="17400" windowHeight="16700"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="272">
   <si>
     <t>代码</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>广发纳斯达克100指数(QDII)A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>嘉实产业先锋混合A</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -154,14 +150,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>富国新动力灵活配置混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发双擎升级混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>长安裕隆混合A</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -382,10 +370,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>161017</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>005827</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -525,10 +509,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>富国中证500指数增强(LOF)（组）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>兴全沪深300指数(LOF)A（组）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -680,10 +660,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>270042</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>009869</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -744,14 +720,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>001508</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>005911</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>005743</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -888,79 +856,197 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>481010</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银中小盘混合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>540008</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇丰晋信低碳先锋股票</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>010023</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发制造业精选混合C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>519991</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>长信双利优选混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009958</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安鑫悦消费混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006615</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银战略新兴产业混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009707</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>010117</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银新兴产业混合C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008519</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金中证沪港深优选消费50A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009878</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安低碳经济混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006769</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城研究精选混合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安高端制造混合C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发价值优势混合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008276</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财通资管价值发现混合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>009548</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>481010</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银中小盘混合</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>540008</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇丰晋信低碳先锋股票</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>010023</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发制造业精选混合C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>519991</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>长信双利优选混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009958</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安鑫悦消费混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006615</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银战略新兴产业混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009878</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安低碳经济混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>006769</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>长城研究精选混合</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008949</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安匠心优选混合A</t>
+    <t>汇添富中盘价值精选混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新兴制造混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>010515</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天兴回报混合A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008187</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳厚信睿C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>008286</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达研究精选股票</t>
+  </si>
+  <si>
+    <t>008978</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华长丰混合发起式</t>
+  </si>
+  <si>
+    <t>金信稳健策略混合</t>
+  </si>
+  <si>
+    <t>000803</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银研究精选股票</t>
+  </si>
+  <si>
+    <t>合煦智远嘉选混合C</t>
+  </si>
+  <si>
+    <t>泰信中小盘精选混合</t>
+  </si>
+  <si>
+    <t>国富大中华精选混合人民币</t>
+  </si>
+  <si>
+    <t>广发全球精选股票人民币(QDII)</t>
+  </si>
+  <si>
+    <t>南方香港成长</t>
+  </si>
+  <si>
+    <t>易方达MSCI中国A股国际通ETF联接发起式C</t>
+  </si>
+  <si>
+    <t>易方达中证海外中国互联网50ETF联接人民币C</t>
+  </si>
+  <si>
+    <t>易纳斯达克100人民币</t>
+  </si>
+  <si>
+    <t>华宝油气C</t>
+  </si>
+  <si>
+    <t>009975</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝美国消费C</t>
+  </si>
+  <si>
+    <t>007083</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -968,67 +1054,43 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>广发价值优势混合</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008276</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财通资管价值发现混合</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>007733</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中盘价值精选混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>009707</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新兴制造混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>010515</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国天兴回报混合A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008187</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>淳厚信睿C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>010117</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生加银新兴产业混合C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>008519</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金中证沪港深优选消费50A</t>
+    <t>007872</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006324</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>290011</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>000934</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>270023</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>001691</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006705</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>006328</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>007844</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1420,20 +1482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.19921875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="50.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="55.3984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="3" customWidth="1"/>
     <col min="4" max="4" width="53.59765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="3"/>
-    <col min="6" max="6" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.796875" style="3" customWidth="1"/>
     <col min="7" max="7" width="36.796875" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
@@ -1448,501 +1510,519 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>104</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>105</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>106</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>107</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="H24" s="10"/>
+        <v>115</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="H26" s="3"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1950,70 +2030,70 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2021,37 +2101,37 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>42</v>
@@ -2062,277 +2142,280 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>138</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+        <v>227</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="4"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>164</v>
+      <c r="C61" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2342,152 +2425,376 @@
       <c r="B62" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>96</v>
+      <c r="C62" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="C63" s="11" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="C64" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="5"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B72" s="6" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-    </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>161130</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
@@ -2506,55 +2813,60 @@
       <c r="B132" s="6"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="6"/>
       <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="6"/>
       <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="6"/>
       <c r="B135" s="6"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="6"/>
       <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="6"/>
       <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="6"/>
       <c r="B138" s="6"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="6"/>
       <c r="B139" s="6"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="6"/>
       <c r="B140" s="6"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="6"/>
       <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="6"/>
       <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="11"/>
       <c r="B143" s="6"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="11"/>
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="11"/>
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="11"/>
       <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -1482,16 +1482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B85" sqref="A85:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.19921875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="55.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="58" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="3" customWidth="1"/>
     <col min="4" max="4" width="53.59765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
@@ -2849,7 +2849,7 @@
       <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="6"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2863,10 +2863,6 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="11"/>
       <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="11"/>
-      <c r="B146" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A20:E56">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="1300" windowWidth="16100" windowHeight="17720"/>
+    <workbookView xWindow="22300" yWindow="1060" windowWidth="16100" windowHeight="17720"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="374">
   <si>
     <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -740,10 +740,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>建信鑫利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>华泰保兴成长优选C</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -867,10 +863,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>001858</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>000336</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1408,6 +1400,60 @@
   <si>
     <t>004854</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007590</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝绿色领先股票</t>
+  </si>
+  <si>
+    <t>169104</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方红睿满沪港深混合</t>
+  </si>
+  <si>
+    <t>005259</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信龙头企业股票</t>
+  </si>
+  <si>
+    <t>光大保德信消费主题股票</t>
+  </si>
+  <si>
+    <t>008234</t>
+  </si>
+  <si>
+    <t>建信高股息主题股票</t>
+  </si>
+  <si>
+    <t>008177</t>
+  </si>
+  <si>
+    <t>460010</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞亚洲领导混合(QDII)</t>
+  </si>
+  <si>
+    <t>007217</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙商智能行业优选混合发起式C</t>
+  </si>
+  <si>
+    <t>006269</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢智能领先C</t>
   </si>
 </sst>
 </file>
@@ -1809,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1854,7 +1900,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -1868,7 +1914,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -1882,7 +1928,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -1896,7 +1942,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>5</v>
@@ -1955,7 +2001,7 @@
         <v>136</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
@@ -2020,7 +2066,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>9</v>
@@ -2064,10 +2110,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>44</v>
@@ -2078,10 +2124,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>45</v>
@@ -2092,7 +2138,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>12</v>
@@ -2106,10 +2152,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>47</v>
@@ -2134,7 +2180,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>28</v>
@@ -2177,7 +2223,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>21</v>
@@ -2191,7 +2237,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>22</v>
@@ -2207,7 +2253,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>23</v>
@@ -2223,7 +2269,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>24</v>
@@ -2283,10 +2329,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2339,10 +2385,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>61</v>
@@ -2354,7 +2400,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>157</v>
@@ -2365,7 +2411,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>158</v>
@@ -2380,10 +2426,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>62</v>
@@ -2395,7 +2441,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>159</v>
@@ -2436,7 +2482,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>163</v>
@@ -2451,7 +2497,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>164</v>
@@ -2466,7 +2512,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>165</v>
@@ -2541,10 +2587,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>64</v>
@@ -2556,10 +2602,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>69</v>
@@ -2571,10 +2617,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>70</v>
@@ -2589,7 +2635,7 @@
         <v>211</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>129</v>
@@ -2612,10 +2658,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>130</v>
@@ -2627,7 +2673,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>187</v>
@@ -2641,7 +2687,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>188</v>
@@ -2655,7 +2701,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>189</v>
@@ -2669,7 +2715,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>190</v>
@@ -2684,7 +2730,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>191</v>
@@ -2699,7 +2745,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>192</v>
@@ -2714,7 +2760,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>193</v>
@@ -2729,24 +2775,24 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>256</v>
@@ -2755,74 +2801,74 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>270</v>
+      <c r="A67" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C73" s="6"/>
     </row>
@@ -2840,102 +2886,102 @@
         <v>279</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>281</v>
+      <c r="A76" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -2952,97 +2998,97 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>326</v>
+      <c r="A93" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>344</v>
@@ -3051,342 +3097,384 @@
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>345</v>
+      <c r="A97" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
+      <c r="A98" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
-        <v>359</v>
+      <c r="A100" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>290</v>
+      <c r="A101" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>271</v>
+      <c r="A102" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>293</v>
+      <c r="A103" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>296</v>
-      </c>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>149</v>
+      <c r="A105" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>299</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>301</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>303</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>305</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>209</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>255</v>
+      <c r="A111" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="B119" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B114" s="11" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
+      <c r="B121" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B116" s="11" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
+      <c r="B125" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B126" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B129" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B131" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B125" s="11" t="s">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
+      <c r="B134" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="11"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
-      <c r="B131" s="11"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="6"/>
-      <c r="B132" s="11"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="6"/>
-      <c r="B133" s="11"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="6"/>
-      <c r="B134" s="11"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="6"/>
-      <c r="B135" s="11"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="6"/>
-      <c r="B136" s="11"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="11"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="6"/>
-      <c r="B138" s="11"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="6"/>
-      <c r="B139" s="11"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="6"/>
-      <c r="B140" s="11"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="6"/>
-      <c r="B141" s="11"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="6"/>
-      <c r="B142" s="11"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="6"/>
-      <c r="B143" s="11"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="6"/>
-      <c r="B144" s="11"/>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
@@ -3481,68 +3569,20 @@
       <c r="B167" s="11"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="6"/>
+      <c r="A168" s="10"/>
       <c r="B168" s="11"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="6"/>
+      <c r="A169" s="10"/>
       <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="6"/>
+      <c r="A170" s="10"/>
       <c r="B170" s="11"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="11"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="6"/>
-      <c r="B172" s="11"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="6"/>
-      <c r="B173" s="11"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="6"/>
-      <c r="B174" s="11"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
-      <c r="B175" s="11"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
-      <c r="B176" s="11"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
-      <c r="B177" s="11"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="6"/>
-      <c r="B178" s="11"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="6"/>
-      <c r="B179" s="11"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="10"/>
-      <c r="B180" s="11"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="10"/>
-      <c r="B181" s="11"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="10"/>
-      <c r="B183" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22300" yWindow="1060" windowWidth="16100" windowHeight="17720"/>
+    <workbookView xWindow="17520" yWindow="880" windowWidth="19600" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="376">
   <si>
     <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>002697</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>163406</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -270,10 +266,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>000083</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>005827</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -401,14 +393,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>中欧消费主题股票C（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富消费行业混合（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>兴全沪深300指数(LOF)A（组）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -685,23 +669,707 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>006705</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达MSCI中国A股国际通ETF联接发起式C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝美国消费C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银研究精选混合</t>
+  </si>
+  <si>
+    <t>000793</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005491</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005905</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>易纳斯达克100人民币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰保兴成长优选C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银高端制造股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>融通新能源汽车主题精选灵活配置混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华富利精选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全合宜灵活配置混合(LOF)C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信核心价值混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华盛利混合发起式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信新能源汽车股票C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信建投甄选混合C</t>
+  </si>
+  <si>
+    <t>金信行业优选灵活配置混合发起式</t>
+  </si>
+  <si>
+    <t>中银研究精选灵活配置混合</t>
+  </si>
+  <si>
+    <t>中银内核驱动股票</t>
+  </si>
+  <si>
+    <t>广发高端制造股票C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺德研发创新100</t>
+  </si>
+  <si>
+    <t>007350</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏科技创新混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001691</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方香港成长</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002084</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华鑫动力灵活配置C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>270023</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发全球精选股票人民币(QDII)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002256</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>010160</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009835</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009542</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000336</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007872</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000803</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>290011</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008297</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009878</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006769</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007083</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009863</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009108</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008909</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008480</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008901</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>161128</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富全球互联混合(QDII)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国内需增长混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005825</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002620</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006252</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009869</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009391</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009714</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009570</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006373</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>161725</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009704</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+  </si>
+  <si>
+    <t>008286</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达研究精选股票</t>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成优势企业混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国新动力灵活配置混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009972</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006348</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005928</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008348</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000939</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009877</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007737</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001510</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002079</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>229002</t>
+  </si>
+  <si>
+    <t>007528</t>
+  </si>
+  <si>
+    <t>融通量化多策略灵活配置混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>501010</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证生物科技指数(LOF)C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>004041</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鹰医疗健康产业股票C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>003032</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安医疗健康混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006881</t>
+  </si>
+  <si>
+    <t>华宝成长策略混合</t>
+  </si>
+  <si>
+    <t>009189</t>
+  </si>
+  <si>
+    <t>泰达宏利逆向混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海联合价值优选混合C</t>
+  </si>
+  <si>
+    <t>009313</t>
+  </si>
+  <si>
+    <t>009275</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>融通医疗保健行业混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝大健康混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000867</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝品质生活股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源中国稀缺资产混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008641</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>方正富邦科技创新C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商研究优选股票A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008276</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财通资管价值发现混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>010515</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天兴回报混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳厚信睿C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006928</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城创业板指数增强C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安高端制造混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009549</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006342</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中盘价值精选混合C</t>
+  </si>
+  <si>
+    <t>中金MSCI质量C</t>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005176</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007047</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>160918</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000294</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>164906</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006223</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006122</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002692</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005888</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009140</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002446</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002542</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技股票</t>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+  </si>
+  <si>
+    <t>富国精准医疗灵活配置混合</t>
+  </si>
+  <si>
+    <t>长城核心优势混合</t>
+  </si>
+  <si>
+    <t>大成中小盘混合(LOF)</t>
+  </si>
+  <si>
+    <t>华安生态优先混合</t>
+  </si>
+  <si>
+    <t>交银中证海外中国互联网指数(QDII-LOF)</t>
+  </si>
+  <si>
+    <t>交银创新成长混合</t>
+  </si>
+  <si>
+    <t>华安低碳生活混合</t>
+  </si>
+  <si>
+    <t>富国创新科技混合</t>
+  </si>
+  <si>
+    <t>华泰柏瑞激励动力混合A</t>
+  </si>
+  <si>
+    <t>华夏新兴消费混合A</t>
+  </si>
+  <si>
+    <t>永赢竞争力精选混合</t>
+  </si>
+  <si>
+    <t>广发利鑫灵活配置混合</t>
+  </si>
+  <si>
+    <t>长城久鼎灵活配置混合</t>
+  </si>
+  <si>
+    <t>008960</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>长信国防军工量化混合C</t>
+  </si>
+  <si>
+    <t>平安估值精选混合C</t>
+  </si>
+  <si>
+    <t>007894</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银内核驱动混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银战略新兴产业混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006615</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+  </si>
+  <si>
+    <t>008955</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005940</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新能源汽车混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证全指汽车指数A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>004854</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007590</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝绿色领先股票</t>
+  </si>
+  <si>
+    <t>169104</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方红睿满沪港深混合</t>
+  </si>
+  <si>
+    <t>005259</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信龙头企业股票</t>
+  </si>
+  <si>
+    <t>建信高股息主题股票</t>
+  </si>
+  <si>
+    <t>008177</t>
+  </si>
+  <si>
+    <t>460010</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞亚洲领导混合(QDII)</t>
+  </si>
+  <si>
+    <t>007217</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙商智能行业优选混合发起式C</t>
+  </si>
+  <si>
+    <t>006269</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢智能领先C</t>
+  </si>
+  <si>
+    <t>010117</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银新兴产业混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008519</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金中证沪港深优选消费50A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000934</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>国富大中华精选混合人民币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>006705</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达MSCI中国A股国际通ETF联接发起式C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006328</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达中证海外中国互联网50ETF联接人民币C</t>
+    <t>000126</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商安润灵活配置混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009914</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国成长动力混合</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -709,751 +1377,104 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>华宝美国消费C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>农银研究精选混合</t>
-  </si>
-  <si>
-    <t>000793</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000126</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005491</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005905</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>易纳斯达克100人民币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>华宝油气C</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>华泰保兴成长优选C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银高端制造股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>融通新能源汽车主题精选灵活配置混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华富利精选混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商安润灵活配置混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴全合宜灵活配置混合(LOF)C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信核心价值混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华盛利混合发起式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信新能源汽车股票C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信建投甄选混合C</t>
-  </si>
-  <si>
-    <t>金信行业优选灵活配置混合发起式</t>
-  </si>
-  <si>
-    <t>中银研究精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>中银内核驱动股票</t>
-  </si>
-  <si>
-    <t>广发高端制造股票C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺德研发创新100</t>
-  </si>
-  <si>
-    <t>007350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏科技创新混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009914</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国成长动力混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001691</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方香港成长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002084</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华鑫动力灵活配置C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000934</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>270023</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发全球精选股票人民币(QDII)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>010117</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生加银新兴产业混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002256</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>010160</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009835</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009542</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000336</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007872</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000803</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>290011</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008297</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009878</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006769</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007083</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009863</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009108</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008909</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006308</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008480</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008901</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>161128</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富全球互联混合(QDII)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国内需增长混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005825</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002620</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006252</t>
+    <t>鹏华匠心精选混合A类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富全球科技互联混合(QDII)人民币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优企精选混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方景气驱动混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>160630</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005535</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>嘉实产业先锋混合A</t>
-  </si>
-  <si>
-    <t>009869</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009391</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>汇添富优质成长混合A</t>
-  </si>
-  <si>
-    <t>009714</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>华安聚优精选混合</t>
-  </si>
-  <si>
-    <t>009570</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华匠心精选混合A类</t>
-  </si>
-  <si>
-    <t>006373</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>国富全球科技互联混合(QDII)人民币</t>
-  </si>
-  <si>
-    <t>广发优企精选混合A</t>
-  </si>
-  <si>
-    <t>招商中证白酒</t>
-  </si>
-  <si>
-    <t>002624</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>161725</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009704</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方景气驱动混合A</t>
-  </si>
-  <si>
-    <t>中金中证沪港深优选消费50A</t>
-  </si>
-  <si>
-    <t>008519</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-  </si>
-  <si>
-    <t>008286</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达研究精选股票</t>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成优势企业混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国新动力灵活配置混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009972</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006348</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005928</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008348</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000939</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009877</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007737</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001510</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002079</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>229002</t>
-  </si>
-  <si>
-    <t>007528</t>
-  </si>
-  <si>
-    <t>融通量化多策略灵活配置混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>501010</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中证生物科技指数(LOF)C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>004041</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鹰医疗健康产业股票C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>003032</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安医疗健康混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006881</t>
-  </si>
-  <si>
-    <t>华宝成长策略混合</t>
-  </si>
-  <si>
-    <t>009189</t>
-  </si>
-  <si>
-    <t>泰达宏利逆向混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海联合价值优选混合C</t>
-  </si>
-  <si>
-    <t>009313</t>
-  </si>
-  <si>
-    <t>009275</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>融通医疗保健行业混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝大健康混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000867</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝品质生活股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源中国稀缺资产混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005506</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源中药研究精选股票C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008641</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>方正富邦科技创新C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商研究优选股票A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008276</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财通资管价值发现混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007733</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>010515</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国天兴回报混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银创新领航混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008234</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大保德信消费主题股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009058</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时科技创新混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005028</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华研究精选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>004698</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时军工主题股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华国防</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰信竞争优选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008657</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城科技创新混合</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>008187</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>淳厚信睿C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006928</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>长城创业板指数增强C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安高端制造混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009549</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006342</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中盘价值精选混合C</t>
-  </si>
-  <si>
-    <t>中金MSCI质量C</t>
-  </si>
-  <si>
-    <t>006751</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005760</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>110003</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005176</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007047</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>160918</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000294</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>164906</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006223</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006122</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002692</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005888</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009140</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002446</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002542</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国互联科技股票</t>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-  </si>
-  <si>
-    <t>易方达上证50指数A</t>
-  </si>
-  <si>
-    <t>富国精准医疗灵活配置混合</t>
-  </si>
-  <si>
-    <t>长城核心优势混合</t>
-  </si>
-  <si>
-    <t>大成中小盘混合(LOF)</t>
-  </si>
-  <si>
-    <t>华安生态优先混合</t>
-  </si>
-  <si>
-    <t>交银中证海外中国互联网指数(QDII-LOF)</t>
-  </si>
-  <si>
-    <t>交银创新成长混合</t>
-  </si>
-  <si>
-    <t>华安低碳生活混合</t>
-  </si>
-  <si>
-    <t>富国创新科技混合</t>
-  </si>
-  <si>
-    <t>华泰柏瑞激励动力混合A</t>
-  </si>
-  <si>
-    <t>华夏新兴消费混合A</t>
-  </si>
-  <si>
-    <t>永赢竞争力精选混合</t>
-  </si>
-  <si>
-    <t>广发利鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>长城久鼎灵活配置混合</t>
-  </si>
-  <si>
-    <t>008960</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>长信国防军工量化混合C</t>
-  </si>
-  <si>
-    <t>平安估值精选混合C</t>
-  </si>
-  <si>
-    <t>007894</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银内核驱动混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银战略新兴产业混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006615</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009076</t>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-  </si>
-  <si>
-    <t>008955</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银创新领航混合</t>
-  </si>
-  <si>
-    <t>005940</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新能源汽车混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发中证全指汽车指数A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>004854</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007590</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝绿色领先股票</t>
-  </si>
-  <si>
-    <t>169104</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方红睿满沪港深混合</t>
-  </si>
-  <si>
-    <t>005259</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信龙头企业股票</t>
-  </si>
-  <si>
-    <t>光大保德信消费主题股票</t>
-  </si>
-  <si>
-    <t>008234</t>
-  </si>
-  <si>
-    <t>建信高股息主题股票</t>
-  </si>
-  <si>
-    <t>008177</t>
-  </si>
-  <si>
-    <t>460010</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞亚洲领导混合(QDII)</t>
-  </si>
-  <si>
-    <t>007217</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙商智能行业优选混合发起式C</t>
-  </si>
-  <si>
-    <t>006269</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢智能领先C</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1580,6 +1601,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1855,17 +1877,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.19921875" style="7" customWidth="1"/>
     <col min="2" max="2" width="58" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="53.59765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.796875" style="3" customWidth="1"/>
@@ -1900,7 +1922,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -1909,12 +1931,18 @@
         <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -1923,12 +1951,12 @@
         <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -1937,12 +1965,12 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>5</v>
@@ -1951,12 +1979,12 @@
         <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
@@ -1965,12 +1993,12 @@
         <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>7</v>
@@ -1979,12 +2007,12 @@
         <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>14</v>
@@ -1993,26 +2021,26 @@
         <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>15</v>
@@ -2022,1567 +2050,1639 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="3"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="9"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="H24" s="3"/>
-      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>150</v>
+      <c r="A33" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>156</v>
+        <v>338</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>162</v>
+        <v>367</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>163</v>
+        <v>369</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>164</v>
+        <v>357</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>165</v>
+        <v>358</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>161130</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>183</v>
+        <v>308</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+        <v>299</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>132</v>
+        <v>9</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C62" s="6"/>
       <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>195</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>271</v>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>284</v>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>270</v>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>281</v>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>273</v>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>285</v>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C72" s="6"/>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>275</v>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>350</v>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>161130</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+        <v>173</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>314</v>
+        <v>168</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>330</v>
+        <v>175</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>346</v>
+        <v>239</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>318</v>
+      <c r="A86" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>319</v>
+      <c r="A87" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>354</v>
+      <c r="A93" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>325</v>
+      <c r="A94" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>326</v>
+      <c r="A95" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>343</v>
+      <c r="A96" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>370</v>
+        <v>241</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>373</v>
+        <v>156</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
+      <c r="A104" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>333</v>
-      </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>356</v>
-      </c>
+      <c r="A106" s="6"/>
+      <c r="B106" s="11"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>288</v>
+      <c r="A107" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>269</v>
+      <c r="A108" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
-        <v>253</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B118" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>239</v>
+        <v>350</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>241</v>
+        <v>220</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>243</v>
+        <v>221</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>245</v>
+        <v>222</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>246</v>
+        <v>223</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>247</v>
+        <v>224</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>251</v>
+        <v>225</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>353</v>
+        <v>226</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="6"/>
-      <c r="B137" s="11"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="B139" s="6" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
-      <c r="B145" s="11"/>
+      <c r="B145" s="6"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
-      <c r="B146" s="11"/>
+      <c r="B146" s="6"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
-      <c r="B147" s="11"/>
+      <c r="B147" s="6"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
-      <c r="B148" s="11"/>
+      <c r="B148" s="6"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
-      <c r="B149" s="11"/>
+      <c r="B149" s="6"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
-      <c r="B150" s="11"/>
+      <c r="B150" s="6"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
-      <c r="B151" s="11"/>
+      <c r="B151" s="6"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
-      <c r="B152" s="11"/>
+      <c r="B152" s="6"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
-      <c r="B153" s="11"/>
+      <c r="B153" s="6"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
-      <c r="B154" s="11"/>
+      <c r="B154" s="6"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
-      <c r="B155" s="11"/>
+      <c r="B155" s="6"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
-      <c r="B156" s="11"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
-      <c r="B157" s="11"/>
+      <c r="B157" s="6"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
-      <c r="B158" s="11"/>
+      <c r="B158" s="6"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
-      <c r="B159" s="11"/>
+      <c r="B159" s="6"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
-      <c r="B160" s="11"/>
+      <c r="B160" s="6"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
-      <c r="B161" s="11"/>
+      <c r="B161" s="6"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
-      <c r="B162" s="11"/>
+      <c r="B162" s="6"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
-      <c r="B163" s="11"/>
+      <c r="B163" s="6"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
-      <c r="B164" s="11"/>
+      <c r="B164" s="6"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
-      <c r="B165" s="11"/>
+      <c r="B165" s="6"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
-      <c r="B166" s="11"/>
+      <c r="B166" s="6"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
-      <c r="B167" s="11"/>
+      <c r="B167" s="6"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="10"/>
-      <c r="B168" s="11"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="10"/>
-      <c r="B169" s="11"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="10"/>
-      <c r="B170" s="11"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="10"/>
-      <c r="B171" s="11"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -691,14 +691,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>007872</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000803</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>290011</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -809,10 +801,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>005928</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>008348</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -848,10 +836,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>003032</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>平安医疗健康混合</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -862,9 +846,6 @@
     <t>华宝成长策略混合</t>
   </si>
   <si>
-    <t>009189</t>
-  </si>
-  <si>
     <t>泰达宏利逆向混合</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -981,10 +962,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>002446</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>002542</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1239,10 +1216,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>009645</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>东方阿尔法优势产业混合C</t>
   </si>
   <si>
@@ -1308,10 +1281,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>001287</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>泰康均衡优选混合A</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1438,19 +1407,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>460010</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>华泰柏瑞亚洲领导混合(QDII)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>华泰柏瑞激励动力混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>229002</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1626,6 +1587,46 @@
   </si>
   <si>
     <t>名字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001287</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>460010</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>003032</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>229002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005928</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007872</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000803</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009645</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009189</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002446</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2040,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2061,10 +2062,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -2082,8 +2083,8 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>185</v>
+      <c r="A2" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -2102,8 +2103,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>186</v>
+      <c r="A3" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -2115,15 +2116,15 @@
         <v>67</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>187</v>
+      <c r="A4" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -2135,15 +2136,15 @@
         <v>68</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>188</v>
+      <c r="A5" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>5</v>
@@ -2155,14 +2156,14 @@
         <v>69</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -2178,11 +2179,11 @@
         <v>515030</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2198,11 +2199,11 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>34</v>
@@ -2214,7 +2215,7 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -2230,7 +2231,7 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="16" t="s">
         <v>120</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2242,11 +2243,11 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>230</v>
+      <c r="A11" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
@@ -2256,7 +2257,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -2271,7 +2272,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="16" t="s">
         <v>132</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2283,7 +2284,7 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="16" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2298,8 +2299,8 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>178</v>
+      <c r="A15" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>22</v>
@@ -2313,7 +2314,7 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -2328,7 +2329,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2342,7 +2343,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2356,7 +2357,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="16" t="s">
         <v>165</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2370,8 +2371,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>202</v>
+      <c r="A20" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>158</v>
@@ -2384,11 +2385,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>205</v>
+      <c r="A21" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>45</v>
@@ -2398,11 +2399,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>216</v>
+      <c r="A22" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>46</v>
@@ -2412,11 +2413,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>217</v>
+      <c r="A23" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>47</v>
@@ -2428,22 +2429,22 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>233</v>
+      <c r="A24" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>277</v>
+      <c r="A25" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>48</v>
@@ -2455,11 +2456,11 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>298</v>
+      <c r="A26" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>49</v>
@@ -2469,11 +2470,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>300</v>
+      <c r="A27" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>50</v>
@@ -2485,11 +2486,11 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>289</v>
+      <c r="A28" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>51</v>
@@ -2501,11 +2502,11 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>290</v>
+      <c r="A29" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>52</v>
@@ -2516,11 +2517,11 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>265</v>
+      <c r="A30" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>53</v>
@@ -2531,11 +2532,11 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>244</v>
+      <c r="A31" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>54</v>
@@ -2546,11 +2547,11 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>245</v>
+      <c r="A32" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>55</v>
@@ -2561,22 +2562,22 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>256</v>
+      <c r="A33" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>241</v>
+      <c r="A34" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>56</v>
@@ -2587,11 +2588,11 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>238</v>
+      <c r="A35" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>57</v>
@@ -2602,11 +2603,11 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>121</v>
+      <c r="A36" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>58</v>
@@ -2617,11 +2618,11 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>183</v>
+      <c r="A37" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>59</v>
@@ -2632,22 +2633,22 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>122</v>
+      <c r="A38" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>123</v>
+      <c r="A39" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>62</v>
@@ -2658,11 +2659,11 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>181</v>
+      <c r="A40" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>109</v>
@@ -2673,11 +2674,11 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>182</v>
+      <c r="A41" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>110</v>
@@ -2688,11 +2689,11 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>194</v>
+      <c r="A42" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>111</v>
@@ -2703,11 +2704,11 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>124</v>
+      <c r="A43" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>112</v>
@@ -2718,11 +2719,11 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>177</v>
+      <c r="A44" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>7</v>
@@ -2733,11 +2734,11 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>180</v>
+      <c r="A45" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>63</v>
@@ -2748,11 +2749,11 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>125</v>
+      <c r="A46" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>64</v>
@@ -2763,11 +2764,11 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>126</v>
+      <c r="A47" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>60</v>
@@ -2778,11 +2779,11 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>176</v>
+      <c r="A48" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>61</v>
@@ -2793,11 +2794,11 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>179</v>
+      <c r="A49" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>65</v>
@@ -2808,79 +2809,79 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>128</v>
+      <c r="A50" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>262</v>
+      <c r="A51" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>173</v>
+      <c r="A52" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>174</v>
+      <c r="A53" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>175</v>
+      <c r="A54" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>172</v>
+      <c r="A55" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>139</v>
@@ -2889,659 +2890,663 @@
         <v>115</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>161130</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
-        <v>161130</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E60" s="12"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E62" s="12"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>236</v>
+      <c r="A65" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>237</v>
+      <c r="A66" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>240</v>
+      <c r="A69" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>243</v>
+      <c r="A70" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>269</v>
+      <c r="A71" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>271</v>
+      <c r="A72" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>274</v>
+      <c r="A73" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>275</v>
+      <c r="A74" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>203</v>
+      <c r="A75" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>136</v>
+      <c r="A76" s="16" t="s">
+        <v>369</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>378</v>
+      <c r="A77" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>379</v>
+      <c r="A78" s="16" t="s">
+        <v>366</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>382</v>
-      </c>
       <c r="B82" s="11" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>383</v>
+      <c r="A83" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>384</v>
+      <c r="A84" s="16" t="s">
+        <v>376</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>385</v>
+      <c r="A85" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>386</v>
+      <c r="A86" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C86" s="6"/>
+        <v>315</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="D86" s="6"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
-        <v>387</v>
+      <c r="A87" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>388</v>
+      <c r="A88" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>389</v>
+      <c r="A89" s="16" t="s">
+        <v>379</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>390</v>
+      <c r="A90" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>391</v>
+      <c r="A91" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>325</v>
+      <c r="A92" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>326</v>
+      <c r="A93" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>327</v>
+      <c r="A94" s="16" t="s">
+        <v>404</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>328</v>
+      <c r="A95" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>334</v>
+      <c r="A96" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>367</v>
+      <c r="A97" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>242</v>
+      <c r="A98" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>369</v>
+        <v>206</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>207</v>
+      <c r="A99" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
-        <v>209</v>
+      <c r="A100" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>370</v>
+      <c r="A101" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>214</v>
+        <v>362</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>199</v>
+      <c r="A102" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="16" t="s">
         <v>169</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>170</v>
+      <c r="A104" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>315</v>
+      <c r="A105" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>400</v>
+      <c r="A106" s="16" t="s">
+        <v>391</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>401</v>
+      <c r="A107" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>402</v>
+      <c r="A108" s="16" t="s">
+        <v>393</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>330</v>
+        <v>191</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>403</v>
+      <c r="A109" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>171</v>
+      <c r="A110" s="16" t="s">
+        <v>395</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>404</v>
+      <c r="A111" s="16">
+        <v>118001</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>405</v>
+      <c r="A112" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="11">
-        <v>118001</v>
+      <c r="A113" s="16" t="s">
+        <v>397</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>406</v>
+      <c r="A114" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>350</v>
+        <v>208</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>407</v>
+      <c r="A115" s="16" t="s">
+        <v>413</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3554,71 +3559,63 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
@@ -3627,8 +3624,8 @@
       <c r="B123" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
@@ -3637,82 +3634,84 @@
       <c r="B124" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>285</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>155</v>
@@ -3722,109 +3721,125 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>336</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>338</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>341</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>342</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>343</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>347</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>220</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>162</v>
@@ -3832,42 +3847,42 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="940" windowWidth="20720" windowHeight="18080"/>
+    <workbookView xWindow="18000" yWindow="480" windowWidth="18600" windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="419">
   <si>
     <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -618,1015 +618,1036 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>融通新能源汽车主题精选灵活配置混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华富利精选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信核心价值混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华盛利混合发起式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银内核驱动股票</t>
+  </si>
+  <si>
+    <t>广发高端制造股票C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺德研发创新100</t>
+  </si>
+  <si>
+    <t>001691</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方香港成长</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>270023</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发全球精选股票人民币(QDII)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>010160</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009835</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009542</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000336</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>290011</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008297</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009878</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006769</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007083</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009863</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009108</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008909</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006308</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008480</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001668</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007412</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>161128</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富全球互联混合(QDII)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007968</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005825</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002620</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006252</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006373</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002624</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>161725</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安优质生活混合</t>
+  </si>
+  <si>
+    <t>易方达研究精选股票</t>
+  </si>
+  <si>
+    <t>008271</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成优势企业混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国新动力灵活配置混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009972</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006348</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008348</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009877</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007737</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008133</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007528</t>
+  </si>
+  <si>
+    <t>融通量化多策略灵活配置混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>004041</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鹰医疗健康产业股票C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安医疗健康混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006881</t>
+  </si>
+  <si>
+    <t>华宝成长策略混合</t>
+  </si>
+  <si>
+    <t>泰达宏利逆向混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海联合价值优选混合C</t>
+  </si>
+  <si>
+    <t>009313</t>
+  </si>
+  <si>
+    <t>009275</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>融通医疗保健行业混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝大健康混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商研究优选股票A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008276</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财通资管价值发现混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007733</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方智锐混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>010515</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天兴回报混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>淳厚信睿C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006928</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城创业板指数增强C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安高端制造混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006342</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中盘价值精选混合C</t>
+  </si>
+  <si>
+    <t>中金MSCI质量C</t>
+  </si>
+  <si>
+    <t>005760</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007047</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>160918</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>164906</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006223</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006122</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001815</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009140</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002542</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国周期优势混合</t>
+  </si>
+  <si>
+    <t>长城核心优势混合</t>
+  </si>
+  <si>
+    <t>大成中小盘混合(LOF)</t>
+  </si>
+  <si>
+    <t>交银中证海外中国互联网指数(QDII-LOF)</t>
+  </si>
+  <si>
+    <t>交银创新成长混合</t>
+  </si>
+  <si>
+    <t>华安低碳生活混合</t>
+  </si>
+  <si>
+    <t>永赢竞争力精选混合</t>
+  </si>
+  <si>
+    <t>广发利鑫灵活配置混合</t>
+  </si>
+  <si>
+    <t>长城久鼎灵活配置混合</t>
+  </si>
+  <si>
+    <t>008960</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>长信国防军工量化混合C</t>
+  </si>
+  <si>
+    <t>平安估值精选混合C</t>
+  </si>
+  <si>
+    <t>007894</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银内核驱动混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银战略新兴产业混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006615</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009076</t>
+  </si>
+  <si>
+    <t>工银圆兴混合</t>
+  </si>
+  <si>
+    <t>005940</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新能源汽车混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证全指汽车指数A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>004854</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>169104</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方红睿满沪港深混合</t>
+  </si>
+  <si>
+    <t>005259</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信龙头企业股票</t>
+  </si>
+  <si>
+    <t>建信高股息主题股票</t>
+  </si>
+  <si>
+    <t>008177</t>
+  </si>
+  <si>
+    <t>007217</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙商智能行业优选混合发起式C</t>
+  </si>
+  <si>
+    <t>006269</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢智能领先C</t>
+  </si>
+  <si>
+    <t>009914</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富全球科技互联混合(QDII)人民币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发优企精选混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>160630</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005535</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银创新领航混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008234</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大保德信消费主题股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009058</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时科技创新混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005028</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华研究精选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>004698</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时军工主题股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华国防</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰信竞争优选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城科技创新混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008187</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达环保主题灵活配置混合</t>
+  </si>
+  <si>
+    <t>信诚中小盘混合</t>
+  </si>
+  <si>
+    <t>南方ESG股票A</t>
+  </si>
+  <si>
+    <t>广发双擎升级混合C</t>
+  </si>
+  <si>
+    <t>东方阿尔法优势产业混合C</t>
+  </si>
+  <si>
+    <t>华夏能源革新股票</t>
+  </si>
+  <si>
+    <t>广发资源优选股票A</t>
+  </si>
+  <si>
+    <t>融通行业景气混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000263</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005029</t>
+  </si>
+  <si>
+    <t>008353</t>
+  </si>
+  <si>
+    <t>008929</t>
+  </si>
+  <si>
+    <t>005634</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达宏利消费混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信中国制造2025股票</t>
+  </si>
+  <si>
+    <t>008955</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008657</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银改革红利灵活配置混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中泰开阳价值优选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上投摩根核心精选股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银产业精选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达消费红利指数C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安行业龙头混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>安信优势增长混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达亚洲精选股票(QDII)</t>
+  </si>
+  <si>
+    <t>鹏华优质企业混合</t>
+  </si>
+  <si>
+    <t>260101</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城优选混合（组）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧行业成长混合(LOF)A（组）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>161005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天惠成长混合(LOF)A（组）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>519066</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富蓝筹稳健混合（组）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001410</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000527</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方新优享灵活配置混合A（组）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001071</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富价值精选混合A（组）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成优选混合(LOF)（组）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002692</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国创新科技混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安媒体互联网混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞亚洲领导混合(QDII)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞激励动力混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信新能源汽车股票C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金信稳健策略混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银研究精选股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆信永丰致优A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005368</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>550009</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008264</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001856</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009314</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005545</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009277</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008245</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007549</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005983</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>003834</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005402</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001825</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008286</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009234</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>010117</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银新兴产业混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国成长动力混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏中证新能源汽车ETF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001287</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>460010</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>003032</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>229002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005928</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007872</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000803</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009645</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000793</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>工银高端制造股票</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>融通新能源汽车主题精选灵活配置混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华富利精选混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信核心价值混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华盛利混合发起式</t>
+    <t>000126</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商安润灵活配置混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002084</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华鑫动力灵活配置C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000294</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安生态优先混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009869</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实产业先锋混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009391</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富优质成长混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009704</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方景气驱动混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009714</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>166301</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001667</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华商新趋势优选灵活配置混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方转型混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100020</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001510</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009549</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009189</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002446</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中信建投甄选混合C</t>
-  </si>
-  <si>
-    <t>中银内核驱动股票</t>
-  </si>
-  <si>
-    <t>广发高端制造股票C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺德研发创新100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001216</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达新收益混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>长盛龙头双核混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005474</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康均衡优选混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002168</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实智能汽车股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006265</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>红土创新新科技股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000652</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时裕隆混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银信息产业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001054</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新金融股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000612</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝生态混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002079</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源中国稀缺资产混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009570</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华匠心精选混合A类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安聚优精选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007844</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝油气C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000934</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富大中华精选混合人民币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007350</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>华夏科技创新混合C</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>001691</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方香港成长</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华鑫动力灵活配置C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>270023</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发全球精选股票人民币(QDII)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>010160</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009835</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009542</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000336</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>290011</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008297</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009878</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006769</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007083</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009863</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009108</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008909</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006308</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008480</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001668</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007412</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>161128</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富全球互联混合(QDII)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007968</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005825</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002620</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006252</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006373</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002624</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>161725</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安优质生活混合</t>
-  </si>
-  <si>
-    <t>易方达研究精选股票</t>
-  </si>
-  <si>
-    <t>008271</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成优势企业混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国新动力灵活配置混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009972</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006348</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008348</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009877</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007737</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008133</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002079</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007528</t>
-  </si>
-  <si>
-    <t>融通量化多策略灵活配置混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>004041</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鹰医疗健康产业股票C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安医疗健康混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006881</t>
-  </si>
-  <si>
-    <t>华宝成长策略混合</t>
-  </si>
-  <si>
-    <t>泰达宏利逆向混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海联合价值优选混合C</t>
-  </si>
-  <si>
-    <t>009313</t>
-  </si>
-  <si>
-    <t>009275</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>融通医疗保健行业混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝大健康混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源中国稀缺资产混合C</t>
+    <t>008519</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金中证沪港深优选消费50A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008641</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>方正富邦科技创新C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商研究优选股票A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008276</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财通资管价值发现混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007733</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方智锐混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>010515</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国天兴回报混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>淳厚信睿C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006928</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>长城创业板指数增强C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安高端制造混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006342</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中盘价值精选混合C</t>
-  </si>
-  <si>
-    <t>中金MSCI质量C</t>
-  </si>
-  <si>
-    <t>005760</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007047</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>160918</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>164906</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006223</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006122</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001815</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009140</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002542</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国周期优势混合</t>
-  </si>
-  <si>
-    <t>长城核心优势混合</t>
-  </si>
-  <si>
-    <t>大成中小盘混合(LOF)</t>
-  </si>
-  <si>
-    <t>华安生态优先混合</t>
-  </si>
-  <si>
-    <t>交银中证海外中国互联网指数(QDII-LOF)</t>
-  </si>
-  <si>
-    <t>交银创新成长混合</t>
-  </si>
-  <si>
-    <t>华安低碳生活混合</t>
-  </si>
-  <si>
-    <t>永赢竞争力精选混合</t>
-  </si>
-  <si>
-    <t>广发利鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>长城久鼎灵活配置混合</t>
-  </si>
-  <si>
-    <t>008960</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>长信国防军工量化混合C</t>
-  </si>
-  <si>
-    <t>平安估值精选混合C</t>
-  </si>
-  <si>
-    <t>007894</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银内核驱动混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银战略新兴产业混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006615</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009076</t>
-  </si>
-  <si>
-    <t>工银圆兴混合</t>
-  </si>
-  <si>
-    <t>005940</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新能源汽车混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发中证全指汽车指数A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>004854</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>169104</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方红睿满沪港深混合</t>
-  </si>
-  <si>
-    <t>005259</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信龙头企业股票</t>
-  </si>
-  <si>
-    <t>建信高股息主题股票</t>
-  </si>
-  <si>
-    <t>008177</t>
-  </si>
-  <si>
-    <t>007217</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙商智能行业优选混合发起式C</t>
-  </si>
-  <si>
-    <t>006269</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢智能领先C</t>
-  </si>
-  <si>
-    <t>中金中证沪港深优选消费50A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>国富大中华精选混合人民币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商安润灵活配置混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009914</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝油气C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华匠心精选混合A类</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>国富全球科技互联混合(QDII)人民币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发优企精选混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商中证白酒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方景气驱动混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>160630</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005535</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实产业先锋混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富优质成长混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银创新领航混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008234</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大保德信消费主题股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009058</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时科技创新混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005028</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华研究精选混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>004698</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时军工主题股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华国防</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰信竞争优选混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城科技创新混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008187</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达环保主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>001216</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达新收益混合A</t>
-  </si>
-  <si>
-    <t>信诚中小盘混合</t>
-  </si>
-  <si>
-    <t>南方ESG股票A</t>
-  </si>
-  <si>
-    <t>006198</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>长盛龙头双核混合</t>
-  </si>
-  <si>
-    <t>广发双擎升级混合C</t>
-  </si>
-  <si>
-    <t>000652</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方阿尔法优势产业混合C</t>
-  </si>
-  <si>
-    <t>华夏能源革新股票</t>
-  </si>
-  <si>
-    <t>005474</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002168</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发资源优选股票A</t>
-  </si>
-  <si>
-    <t>006265</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>融通行业景气混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000263</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001054</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005029</t>
-  </si>
-  <si>
-    <t>008353</t>
-  </si>
-  <si>
-    <t>008929</t>
-  </si>
-  <si>
-    <t>005634</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰达宏利消费混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信中国制造2025股票</t>
-  </si>
-  <si>
-    <t>000612</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008955</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008657</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康均衡优选混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实智能汽车股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中银改革红利灵活配置混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>红土创新新科技股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中泰开阳价值优选混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>上投摩根核心精选股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时裕隆混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银信息产业</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新金融股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中银产业精选混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰达消费红利指数C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇安行业龙头混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝生态混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>安信优势增长混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达亚洲精选股票(QDII)</t>
-  </si>
-  <si>
-    <t>鹏华优质企业混合</t>
-  </si>
-  <si>
-    <t>260101</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城优选混合（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧行业成长混合(LOF)A（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>161005</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国天惠成长混合(LOF)A（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>519066</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富蓝筹稳健混合（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001410</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000527</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方新优享灵活配置混合A（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001071</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富价值精选混合A（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成优选混合(LOF)（组）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002692</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国创新科技混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安媒体互联网混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞亚洲领导混合(QDII)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰柏瑞激励动力混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>创金合信新能源汽车股票C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金信稳健策略混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银研究精选股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>换</t>
-    <rPh sb="0" eb="1">
-      <t>huan</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000934</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆信永丰致优A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005368</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008641</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008519</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007844</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>550009</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008264</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001856</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009314</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005545</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009277</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008245</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007549</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005983</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000793</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000126</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000294</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009869</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009391</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002084</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009570</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009704</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>003834</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005402</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001825</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008286</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100020</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001510</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009234</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009549</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>010117</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生加银新兴产业混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国成长动力混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏中证新能源汽车ETF</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001287</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>460010</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>003032</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>229002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005928</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007872</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000803</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009645</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009189</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002446</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2039,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J326"/>
+  <dimension ref="A1:J315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B155" sqref="A155:B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2062,10 +2083,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -2084,7 +2105,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -2096,15 +2117,15 @@
         <v>66</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -2116,15 +2137,15 @@
         <v>67</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -2136,15 +2157,15 @@
         <v>68</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>5</v>
@@ -2156,10 +2177,10 @@
         <v>69</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2179,7 +2200,7 @@
         <v>515030</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2203,7 +2224,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>34</v>
@@ -2244,10 +2265,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
@@ -2300,7 +2321,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>22</v>
@@ -2330,7 +2351,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>146</v>
@@ -2358,10 +2379,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>43</v>
@@ -2372,10 +2393,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>44</v>
@@ -2386,10 +2407,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>45</v>
@@ -2400,10 +2421,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>46</v>
@@ -2414,10 +2435,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>47</v>
@@ -2430,10 +2451,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2441,10 +2462,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>48</v>
@@ -2457,10 +2478,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>49</v>
@@ -2471,10 +2492,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>50</v>
@@ -2487,10 +2508,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>51</v>
@@ -2503,10 +2524,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>52</v>
@@ -2518,10 +2539,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>53</v>
@@ -2533,10 +2554,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>54</v>
@@ -2548,10 +2569,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>55</v>
@@ -2563,10 +2584,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2574,10 +2595,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>56</v>
@@ -2604,7 +2625,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>8</v>
@@ -2645,10 +2666,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>62</v>
@@ -2660,7 +2681,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>11</v>
@@ -2675,10 +2696,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>110</v>
@@ -2705,7 +2726,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>21</v>
@@ -2720,7 +2741,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>27</v>
@@ -2765,7 +2786,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>20</v>
@@ -2780,7 +2801,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>23</v>
@@ -2810,22 +2831,22 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>137</v>
@@ -2834,13 +2855,13 @@
         <v>113</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>138</v>
@@ -2851,16 +2872,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="F53" s="4"/>
     </row>
@@ -2872,16 +2893,16 @@
         <v>142</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>139</v>
@@ -2890,7 +2911,7 @@
         <v>115</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -2902,10 +2923,10 @@
         <v>148</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -2922,24 +2943,24 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>60</v>
@@ -2950,13 +2971,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>100</v>
@@ -2964,25 +2985,25 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2990,40 +3011,40 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -3031,10 +3052,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -3042,10 +3063,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="1"/>
@@ -3053,32 +3074,32 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3089,10 +3110,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3103,20 +3124,20 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3133,7 +3154,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>24</v>
@@ -3143,983 +3164,1097 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>365</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C79" s="6"/>
       <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>365</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C80" s="6"/>
       <c r="D80" s="6"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>365</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C81" s="6"/>
       <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>365</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C82" s="6"/>
       <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>377</v>
+        <v>295</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>365</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C86" s="6"/>
       <c r="D86" s="6"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
-        <v>204</v>
+        <v>360</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
-        <v>406</v>
+        <v>165</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>169</v>
+        <v>346</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
-        <v>391</v>
+      <c r="A106" s="16">
+        <v>118001</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="16" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>194</v>
+        <v>379</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="16">
-        <v>118001</v>
+      <c r="A111" s="16" t="s">
+        <v>385</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="A113" s="18"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
-        <v>412</v>
+      <c r="A114" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
-        <v>413</v>
+      <c r="A115" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="18"/>
-      <c r="B116" s="13"/>
+      <c r="A116" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>212</v>
+      </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>299</v>
+        <v>183</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
+        <v>266</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
+        <v>271</v>
+      </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>155</v>
+        <v>392</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>301</v>
+        <v>393</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>334</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
+        <v>363</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
+        <v>365</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>201</v>
+        <v>366</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
+        <v>367</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
+        <v>369</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="18"/>
-      <c r="B153" s="13"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="18"/>
-      <c r="B154" s="13"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="18"/>
-      <c r="B155" s="13"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="18"/>
-      <c r="B156" s="13"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="18"/>
-      <c r="B157" s="13"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="18"/>
-      <c r="B158" s="13"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="18"/>
+      <c r="B199" s="13"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="18"/>
+      <c r="B200" s="13"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="18"/>
+      <c r="B201" s="13"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="18"/>
+      <c r="B202" s="13"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="18"/>
+      <c r="B203" s="13"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="18"/>
+      <c r="B204" s="13"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="18"/>
+      <c r="B205" s="13"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="18"/>
+      <c r="B206" s="13"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="18"/>
+      <c r="B207" s="13"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="18"/>
+      <c r="B208" s="13"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
+      <c r="A209" s="18"/>
+      <c r="B209" s="13"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="18"/>
@@ -4544,50 +4679,6 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="18"/>
       <c r="B315" s="13"/>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="18"/>
-      <c r="B316" s="13"/>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="18"/>
-      <c r="B317" s="13"/>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="18"/>
-      <c r="B318" s="13"/>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="18"/>
-      <c r="B319" s="13"/>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="18"/>
-      <c r="B320" s="13"/>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="18"/>
-      <c r="B321" s="13"/>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="18"/>
-      <c r="B322" s="13"/>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="18"/>
-      <c r="B323" s="13"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="18"/>
-      <c r="B324" s="13"/>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="18"/>
-      <c r="B325" s="13"/>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="18"/>
-      <c r="B326" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="480" windowWidth="18600" windowHeight="17940"/>
+    <workbookView xWindow="15000" yWindow="480" windowWidth="18600" windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="435">
   <si>
     <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1649,6 +1649,62 @@
   <si>
     <t>方正富邦科技创新C</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000209</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>信诚新兴产业混合</t>
+  </si>
+  <si>
+    <t>002190</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银新能源主题</t>
+  </si>
+  <si>
+    <t>005395</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泓德臻远回报混合</t>
+  </si>
+  <si>
+    <t>006121</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安双核驱动混合</t>
+  </si>
+  <si>
+    <t>005241</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧时代智慧混合A</t>
+  </si>
+  <si>
+    <t>004424</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富文体娱乐混合</t>
+  </si>
+  <si>
+    <t>519772</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银新生活力灵活配置混合</t>
+  </si>
+  <si>
+    <t>008769</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信上证超大盘量化C</t>
   </si>
 </sst>
 </file>
@@ -2060,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J315"/>
+  <dimension ref="A1:J316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B155" sqref="A155:B155"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3955,50 +4011,82 @@
       <c r="D155" s="11"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>420</v>
+      </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
+      <c r="A157" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>422</v>
+      </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
+      <c r="A158" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>424</v>
+      </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
+      <c r="A159" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>426</v>
+      </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
+      <c r="A160" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
+      <c r="A161" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>430</v>
+      </c>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
+      <c r="A162" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>432</v>
+      </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
+      <c r="A163" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>434</v>
+      </c>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
     </row>
@@ -4213,8 +4301,10 @@
       <c r="D198" s="11"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="18"/>
-      <c r="B199" s="13"/>
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="18"/>
@@ -4679,6 +4769,10 @@
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="18"/>
       <c r="B315" s="13"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="18"/>
+      <c r="B316" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/定投.xlsx
+++ b/定投.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="433">
   <si>
     <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -603,9 +603,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>农银研究精选混合</t>
-  </si>
-  <si>
     <t>005905</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -672,10 +669,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>000336</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>290011</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1363,123 +1356,315 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>010117</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银新兴产业混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国成长动力混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏中证新能源汽车ETF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001287</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>460010</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>003032</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>229002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005928</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007872</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000803</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009645</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000793</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银高端制造股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000126</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商安润灵活配置混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002084</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华鑫动力灵活配置C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000294</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安生态优先混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009869</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实产业先锋混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009391</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富优质成长混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009704</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方景气驱动混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009714</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华商新趋势优选灵活配置混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方转型混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100020</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009189</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信建投甄选混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001216</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达新收益混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>长盛龙头双核混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005474</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康均衡优选混合A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002168</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实智能汽车股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>006265</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>红土创新新科技股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000652</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时裕隆混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银信息产业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001054</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银新金融股票</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000612</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝生态混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>002079</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源中国稀缺资产混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>009570</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华匠心精选混合A类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安聚优精选混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007844</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝油气C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>000934</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富大中华精选混合人民币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>007350</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏科技创新混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008519</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金中证沪港深优选消费50A</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>008641</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>方正富邦科技创新C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>005395</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泓德臻远回报混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>信诚新兴产业混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银新能源主题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安双核驱动混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧时代智慧混合C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富文体娱乐混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信上证超大盘量化C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泓德泓业混合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001510</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>009234</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>010117</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生加银新兴产业混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国成长动力混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏中证新能源汽车ETF</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001287</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>460010</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>003032</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>229002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005928</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007872</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000803</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009645</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000793</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银高端制造股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000126</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商安润灵活配置混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002084</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华鑫动力灵活配置C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000294</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安生态优先混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009869</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实产业先锋混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009391</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富优质成长混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009704</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方景气驱动混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009714</t>
+    <t>009549</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1487,224 +1672,40 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>002446</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>001667</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>华商新趋势优选灵活配置混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南方转型混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100020</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001510</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009549</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009189</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002446</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信建投甄选混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001216</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达新收益混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006198</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>长盛龙头双核混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>005474</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康均衡优选混合A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002168</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实智能汽车股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>006265</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>红土创新新科技股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000652</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时裕隆混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银信息产业</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>001054</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>工银新金融股票</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000612</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝生态混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>002079</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>前海开源中国稀缺资产混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>009570</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华匠心精选混合A类</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安聚优精选混合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007844</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝油气C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>000934</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>国富大中华精选混合人民币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>007350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏科技创新混合C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008519</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金中证沪港深优选消费50A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>008641</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>方正富邦科技创新C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>000209</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>信诚新兴产业混合</t>
-  </si>
-  <si>
     <t>002190</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>农银新能源主题</t>
-  </si>
-  <si>
-    <t>005395</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泓德臻远回报混合</t>
-  </si>
-  <si>
     <t>006121</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>华安双核驱动混合</t>
-  </si>
-  <si>
-    <t>005241</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧时代智慧混合A</t>
+    <t>005242</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>004424</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>汇添富文体娱乐混合</t>
-  </si>
-  <si>
-    <t>519772</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银新生活力灵活配置混合</t>
-  </si>
-  <si>
     <t>008769</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>创金合信上证超大盘量化C</t>
+    <t>001695</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2116,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J316"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:B165"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.59765625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2139,10 +2140,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -2161,7 +2162,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
@@ -2173,15 +2174,15 @@
         <v>66</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
@@ -2193,15 +2194,15 @@
         <v>67</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -2213,15 +2214,15 @@
         <v>68</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>5</v>
@@ -2233,10 +2234,10 @@
         <v>69</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2256,7 +2257,7 @@
         <v>515030</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2280,7 +2281,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>34</v>
@@ -2321,10 +2322,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
@@ -2377,7 +2378,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>22</v>
@@ -2407,10 +2408,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>41</v>
@@ -2421,10 +2422,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>42</v>
@@ -2435,7 +2436,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>155</v>
@@ -2452,7 +2453,7 @@
         <v>195</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>44</v>
@@ -2463,10 +2464,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>45</v>
@@ -2477,10 +2478,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>46</v>
@@ -2491,10 +2492,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>47</v>
@@ -2507,10 +2508,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2518,10 +2519,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>48</v>
@@ -2548,10 +2549,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>50</v>
@@ -2564,10 +2565,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>51</v>
@@ -2580,10 +2581,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>52</v>
@@ -2595,10 +2596,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>53</v>
@@ -2610,7 +2611,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>241</v>
@@ -2625,10 +2626,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>55</v>
@@ -2640,10 +2641,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2651,10 +2652,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>56</v>
@@ -2666,10 +2667,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>57</v>
@@ -2681,10 +2682,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>58</v>
@@ -2696,10 +2697,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>59</v>
@@ -2711,10 +2712,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -2722,10 +2723,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>62</v>
@@ -2737,10 +2738,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>109</v>
@@ -2752,10 +2753,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>110</v>
@@ -2767,10 +2768,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>111</v>
@@ -2782,10 +2783,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>112</v>
@@ -2797,10 +2798,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>7</v>
@@ -2812,10 +2813,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>63</v>
@@ -2827,10 +2828,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>64</v>
@@ -2842,10 +2843,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>60</v>
@@ -2857,10 +2858,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>61</v>
@@ -2872,10 +2873,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>65</v>
@@ -2887,40 +2888,40 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2928,70 +2929,70 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>166</v>
+      <c r="A55" s="16">
+        <v>161130</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
-        <v>161130</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2999,16 +3000,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3027,13 +3028,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>100</v>
@@ -3041,25 +3042,25 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -3067,40 +3068,40 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -3108,10 +3109,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -3119,7 +3120,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>237</v>
@@ -3130,13 +3131,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D68" s="1"/>
     </row>
@@ -3152,10 +3153,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3166,10 +3167,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3180,40 +3181,40 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3223,14 +3224,14 @@
         <v>334</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>284</v>
@@ -3243,27 +3244,27 @@
         <v>335</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3273,64 +3274,64 @@
         <v>339</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>304</v>
@@ -3340,829 +3341,829 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>230</v>
+        <v>352</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
-        <v>360</v>
+        <v>163</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>330</v>
+        <v>143</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
-        <v>165</v>
+        <v>358</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
-        <v>382</v>
+      <c r="A105" s="16">
+        <v>118001</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="16">
-        <v>118001</v>
+      <c r="A106" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
-        <v>347</v>
+        <v>422</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>240</v>
+        <v>375</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="18"/>
-      <c r="B113" s="13"/>
+      <c r="A113" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>254</v>
+      <c r="A114" s="16" t="s">
+        <v>428</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>253</v>
+        <v>415</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>129</v>
+      <c r="A115" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>210</v>
+        <v>416</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>211</v>
+      <c r="A116" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>213</v>
+      <c r="A117" s="16" t="s">
+        <v>431</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>215</v>
+      <c r="A118" s="16" t="s">
+        <v>432</v>
       </c>
     